--- a/Outputs/Correlation/corr_matrix_full.xlsx
+++ b/Outputs/Correlation/corr_matrix_full.xlsx
@@ -392,7 +392,7 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">0.707317951204857</t>
+    <t xml:space="preserve">0.707317951204858</t>
   </si>
   <si>
     <t xml:space="preserve">0.755097085404254</t>
@@ -440,7 +440,7 @@
     <t xml:space="preserve">0.729525892305068</t>
   </si>
   <si>
-    <t xml:space="preserve">0.780361096531395</t>
+    <t xml:space="preserve">0.780361096531394</t>
   </si>
   <si>
     <t xml:space="preserve">0.499616909071667</t>
@@ -461,7 +461,7 @@
     <t xml:space="preserve">0.710102445757026</t>
   </si>
   <si>
-    <t xml:space="preserve">0.614167825028106</t>
+    <t xml:space="preserve">0.614167825028107</t>
   </si>
   <si>
     <t xml:space="preserve">0.729434611779951</t>
@@ -491,13 +491,13 @@
     <t xml:space="preserve">0.777970240950811</t>
   </si>
   <si>
-    <t xml:space="preserve">0.664919268263908</t>
+    <t xml:space="preserve">0.664919268263907</t>
   </si>
   <si>
     <t xml:space="preserve">0.821154555105534</t>
   </si>
   <si>
-    <t xml:space="preserve">0.670453644550848</t>
+    <t xml:space="preserve">0.670453644550849</t>
   </si>
   <si>
     <t xml:space="preserve">0.700090047347565</t>
@@ -512,10 +512,10 @@
     <t xml:space="preserve">0.758753552694755</t>
   </si>
   <si>
-    <t xml:space="preserve">0.716382347541218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.492272124451298</t>
+    <t xml:space="preserve">0.716382347541217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.492272124451297</t>
   </si>
   <si>
     <t xml:space="preserve">0.362153017999466</t>
@@ -566,7 +566,7 @@
     <t xml:space="preserve">0.770992556022403</t>
   </si>
   <si>
-    <t xml:space="preserve">0.642080146345334</t>
+    <t xml:space="preserve">0.642080146345335</t>
   </si>
   <si>
     <t xml:space="preserve">0.726833756592997</t>
@@ -611,16 +611,16 @@
     <t xml:space="preserve">0.646698871959829</t>
   </si>
   <si>
-    <t xml:space="preserve">0.271046919638667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.65520029464732</t>
+    <t xml:space="preserve">0.271046919638666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.655200294647321</t>
   </si>
   <si>
     <t xml:space="preserve">0.768872642501042</t>
   </si>
   <si>
-    <t xml:space="preserve">0.701842526608118</t>
+    <t xml:space="preserve">0.701842526608117</t>
   </si>
   <si>
     <t xml:space="preserve">0.548482336397563</t>
@@ -629,10 +629,10 @@
     <t xml:space="preserve">0.878404338906494</t>
   </si>
   <si>
-    <t xml:space="preserve">0.773783042262258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.856982607900405</t>
+    <t xml:space="preserve">0.773783042262257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.856982607900404</t>
   </si>
   <si>
     <t xml:space="preserve">0.803110810622484</t>
@@ -656,10 +656,10 @@
     <t xml:space="preserve">0.634087484801034</t>
   </si>
   <si>
-    <t xml:space="preserve">0.676698220080247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.632978309386703</t>
+    <t xml:space="preserve">0.676698220080246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.632978309386702</t>
   </si>
   <si>
     <t xml:space="preserve">0.904667098696667</t>
@@ -707,7 +707,7 @@
     <t xml:space="preserve">0.836007027093998</t>
   </si>
   <si>
-    <t xml:space="preserve">0.766603005177214</t>
+    <t xml:space="preserve">0.766603005177213</t>
   </si>
   <si>
     <t xml:space="preserve">0.555921886894643</t>
@@ -737,7 +737,7 @@
     <t xml:space="preserve">0.641256764933944</t>
   </si>
   <si>
-    <t xml:space="preserve">0.64118039061517</t>
+    <t xml:space="preserve">0.641180390615171</t>
   </si>
   <si>
     <t xml:space="preserve">0.735965200822337</t>
@@ -761,10 +761,10 @@
     <t xml:space="preserve">0.618967159684595</t>
   </si>
   <si>
-    <t xml:space="preserve">0.617574436498233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.377477076244708</t>
+    <t xml:space="preserve">0.617574436498232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.377477076244707</t>
   </si>
   <si>
     <t xml:space="preserve">0.801917424143908</t>
@@ -788,13 +788,13 @@
     <t xml:space="preserve">0.55454920755439</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.314147625868983</t>
+    <t xml:space="preserve">-0.314147625868982</t>
   </si>
   <si>
     <t xml:space="preserve">0.530239027505901</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.454694462134432</t>
+    <t xml:space="preserve">-0.454694462134433</t>
   </si>
   <si>
     <t xml:space="preserve">0.650483682076519</t>
@@ -815,13 +815,13 @@
     <t xml:space="preserve">0.644778073630816</t>
   </si>
   <si>
-    <t xml:space="preserve">0.809112990590035</t>
+    <t xml:space="preserve">0.809112990590034</t>
   </si>
   <si>
     <t xml:space="preserve">0.826031183930715</t>
   </si>
   <si>
-    <t xml:space="preserve">0.812793851999945</t>
+    <t xml:space="preserve">0.812793851999944</t>
   </si>
   <si>
     <t xml:space="preserve">0.609016255663857</t>
@@ -830,7 +830,7 @@
     <t xml:space="preserve">0.499298921755202</t>
   </si>
   <si>
-    <t xml:space="preserve">0.709785849432701</t>
+    <t xml:space="preserve">0.7097858494327</t>
   </si>
   <si>
     <t xml:space="preserve">0.481671688473945</t>
@@ -851,7 +851,7 @@
     <t xml:space="preserve">0.521230800720608</t>
   </si>
   <si>
-    <t xml:space="preserve">0.697135833726761</t>
+    <t xml:space="preserve">0.69713583372676</t>
   </si>
   <si>
     <t xml:space="preserve">0.300809871297266</t>
@@ -884,7 +884,7 @@
     <t xml:space="preserve">0.764191719775053</t>
   </si>
   <si>
-    <t xml:space="preserve">0.818642953350966</t>
+    <t xml:space="preserve">0.818642953350965</t>
   </si>
   <si>
     <t xml:space="preserve">0.786835762987392</t>
@@ -914,7 +914,7 @@
     <t xml:space="preserve">0.467163615175095</t>
   </si>
   <si>
-    <t xml:space="preserve">0.508890652786439</t>
+    <t xml:space="preserve">0.508890652786438</t>
   </si>
   <si>
     <t xml:space="preserve">0.7950169940214</t>
@@ -926,7 +926,7 @@
     <t xml:space="preserve">0.270621233689006</t>
   </si>
   <si>
-    <t xml:space="preserve">0.851311071601676</t>
+    <t xml:space="preserve">0.851311071601677</t>
   </si>
   <si>
     <t xml:space="preserve">0.703023988644382</t>
@@ -938,7 +938,7 @@
     <t xml:space="preserve">0.593591032126558</t>
   </si>
   <si>
-    <t xml:space="preserve">0.744657446657678</t>
+    <t xml:space="preserve">0.744657446657677</t>
   </si>
   <si>
     <t xml:space="preserve">0.781113060844864</t>
@@ -953,7 +953,7 @@
     <t xml:space="preserve">0.667341664976983</t>
   </si>
   <si>
-    <t xml:space="preserve">0.744896613759022</t>
+    <t xml:space="preserve">0.744896613759021</t>
   </si>
   <si>
     <t xml:space="preserve">0.476291707045262</t>
@@ -965,7 +965,7 @@
     <t xml:space="preserve">0.676487235913901</t>
   </si>
   <si>
-    <t xml:space="preserve">0.594492658481891</t>
+    <t xml:space="preserve">0.59449265848189</t>
   </si>
   <si>
     <t xml:space="preserve">0.656468797919696</t>
@@ -977,7 +977,7 @@
     <t xml:space="preserve">0.765929773531838</t>
   </si>
   <si>
-    <t xml:space="preserve">0.55434692567781</t>
+    <t xml:space="preserve">0.554346925677809</t>
   </si>
   <si>
     <t xml:space="preserve">0.703423717139478</t>
@@ -986,10 +986,10 @@
     <t xml:space="preserve">0.692780908259321</t>
   </si>
   <si>
-    <t xml:space="preserve">0.677901831432451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.797456072568126</t>
+    <t xml:space="preserve">0.677901831432452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.797456072568125</t>
   </si>
   <si>
     <t xml:space="preserve">0.686266566234783</t>
@@ -1019,7 +1019,7 @@
     <t xml:space="preserve">0.456007366471379</t>
   </si>
   <si>
-    <t xml:space="preserve">0.711359112986696</t>
+    <t xml:space="preserve">0.711359112986695</t>
   </si>
   <si>
     <t xml:space="preserve">0.786542702316593</t>
@@ -1037,7 +1037,7 @@
     <t xml:space="preserve">0.734809410958299</t>
   </si>
   <si>
-    <t xml:space="preserve">0.347892602834315</t>
+    <t xml:space="preserve">0.347892602834314</t>
   </si>
   <si>
     <t xml:space="preserve">0.679259216220287</t>
@@ -1052,7 +1052,7 @@
     <t xml:space="preserve">0.779921766365229</t>
   </si>
   <si>
-    <t xml:space="preserve">0.607294317350631</t>
+    <t xml:space="preserve">0.607294317350632</t>
   </si>
   <si>
     <t xml:space="preserve">0.795052869565159</t>
@@ -1061,10 +1061,10 @@
     <t xml:space="preserve">0.413696543697038</t>
   </si>
   <si>
-    <t xml:space="preserve">0.878363028736999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.836204666494831</t>
+    <t xml:space="preserve">0.878363028736998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.83620466649483</t>
   </si>
   <si>
     <t xml:space="preserve">0.545429840757298</t>
@@ -1073,7 +1073,7 @@
     <t xml:space="preserve">0.399369490650114</t>
   </si>
   <si>
-    <t xml:space="preserve">0.600125122193176</t>
+    <t xml:space="preserve">0.600125122193175</t>
   </si>
   <si>
     <t xml:space="preserve">0.665493441902541</t>
@@ -1085,7 +1085,7 @@
     <t xml:space="preserve">0.700465789663095</t>
   </si>
   <si>
-    <t xml:space="preserve">0.495424479893815</t>
+    <t xml:space="preserve">0.495424479893816</t>
   </si>
   <si>
     <t xml:space="preserve">0.716019734095477</t>
@@ -1118,13 +1118,13 @@
     <t xml:space="preserve">0.82685200485947</t>
   </si>
   <si>
-    <t xml:space="preserve">0.769220024849059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.819755352928031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.728703068856399</t>
+    <t xml:space="preserve">0.76922002484906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.819755352928032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7287030688564</t>
   </si>
   <si>
     <t xml:space="preserve">0.592907386365337</t>
@@ -1133,10 +1133,10 @@
     <t xml:space="preserve">0.814213554561861</t>
   </si>
   <si>
-    <t xml:space="preserve">0.841131913683089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.875115704540956</t>
+    <t xml:space="preserve">0.84113191368309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.875115704540955</t>
   </si>
   <si>
     <t xml:space="preserve">0.653116350456043</t>
@@ -1160,13 +1160,13 @@
     <t xml:space="preserve">0.765059702735013</t>
   </si>
   <si>
-    <t xml:space="preserve">0.725372936299063</t>
+    <t xml:space="preserve">0.725372936299064</t>
   </si>
   <si>
     <t xml:space="preserve">0.487509923005999</t>
   </si>
   <si>
-    <t xml:space="preserve">0.728852490370423</t>
+    <t xml:space="preserve">0.728852490370422</t>
   </si>
   <si>
     <t xml:space="preserve">0.307913398598458</t>
@@ -1199,16 +1199,16 @@
     <t xml:space="preserve">0.796351109486294</t>
   </si>
   <si>
-    <t xml:space="preserve">0.882037875380937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.795535602892999</t>
+    <t xml:space="preserve">0.882037875380938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.795535602892998</t>
   </si>
   <si>
     <t xml:space="preserve">0.590442927074443</t>
   </si>
   <si>
-    <t xml:space="preserve">0.914474605453126</t>
+    <t xml:space="preserve">0.914474605453127</t>
   </si>
   <si>
     <t xml:space="preserve">0.800894370284561</t>
@@ -1220,10 +1220,10 @@
     <t xml:space="preserve">0.704618032814615</t>
   </si>
   <si>
-    <t xml:space="preserve">0.901706156773477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.801550307762651</t>
+    <t xml:space="preserve">0.901706156773476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.801550307762652</t>
   </si>
   <si>
     <t xml:space="preserve">0.460761731747237</t>
@@ -1253,7 +1253,7 @@
     <t xml:space="preserve">0.776610234790707</t>
   </si>
   <si>
-    <t xml:space="preserve">0.762323767292295</t>
+    <t xml:space="preserve">0.762323767292294</t>
   </si>
   <si>
     <t xml:space="preserve">0.729752197559556</t>
@@ -1268,10 +1268,10 @@
     <t xml:space="preserve">0.887219725801351</t>
   </si>
   <si>
-    <t xml:space="preserve">0.690319627822392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.726267965318367</t>
+    <t xml:space="preserve">0.690319627822391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.726267965318368</t>
   </si>
   <si>
     <t xml:space="preserve">0.835137590424544</t>
@@ -1292,7 +1292,7 @@
     <t xml:space="preserve">0.36563292104812</t>
   </si>
   <si>
-    <t xml:space="preserve">0.766650270883926</t>
+    <t xml:space="preserve">0.766650270883925</t>
   </si>
   <si>
     <t xml:space="preserve">0.799578291310116</t>
@@ -1301,7 +1301,7 @@
     <t xml:space="preserve">0.804294122311239</t>
   </si>
   <si>
-    <t xml:space="preserve">0.768754882498249</t>
+    <t xml:space="preserve">0.76875488249825</t>
   </si>
   <si>
     <t xml:space="preserve">0.725202444131311</t>
@@ -1313,7 +1313,7 @@
     <t xml:space="preserve">0.367935620744184</t>
   </si>
   <si>
-    <t xml:space="preserve">0.641497612068719</t>
+    <t xml:space="preserve">0.64149761206872</t>
   </si>
   <si>
     <t xml:space="preserve">0.818509736947141</t>
@@ -1340,7 +1340,7 @@
     <t xml:space="preserve">0.363321800160679</t>
   </si>
   <si>
-    <t xml:space="preserve">0.624830783125189</t>
+    <t xml:space="preserve">0.62483078312519</t>
   </si>
   <si>
     <t xml:space="preserve">0.435369956379359</t>
@@ -1370,10 +1370,10 @@
     <t xml:space="preserve">0.434594712554716</t>
   </si>
   <si>
-    <t xml:space="preserve">0.702911338676574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.733094766188223</t>
+    <t xml:space="preserve">0.702911338676575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.733094766188222</t>
   </si>
   <si>
     <t xml:space="preserve">0.546605124309655</t>
@@ -1397,7 +1397,7 @@
     <t xml:space="preserve">0.586671062238064</t>
   </si>
   <si>
-    <t xml:space="preserve">0.662174469494394</t>
+    <t xml:space="preserve">0.662174469494395</t>
   </si>
   <si>
     <t xml:space="preserve">0.640470854722032</t>
@@ -1421,13 +1421,13 @@
     <t xml:space="preserve">0.729014418791381</t>
   </si>
   <si>
-    <t xml:space="preserve">0.638083648232381</t>
+    <t xml:space="preserve">0.63808364823238</t>
   </si>
   <si>
     <t xml:space="preserve">0.647680234463007</t>
   </si>
   <si>
-    <t xml:space="preserve">0.628599210065986</t>
+    <t xml:space="preserve">0.628599210065987</t>
   </si>
   <si>
     <t xml:space="preserve">0.678314574775093</t>
@@ -1436,7 +1436,7 @@
     <t xml:space="preserve">0.652299238835128</t>
   </si>
   <si>
-    <t xml:space="preserve">0.723623387452986</t>
+    <t xml:space="preserve">0.723623387452985</t>
   </si>
   <si>
     <t xml:space="preserve">0.743198300941704</t>
@@ -1445,13 +1445,13 @@
     <t xml:space="preserve">0.698878905458204</t>
   </si>
   <si>
-    <t xml:space="preserve">0.540223269971488</t>
+    <t xml:space="preserve">0.540223269971487</t>
   </si>
   <si>
     <t xml:space="preserve">0.276473434032727</t>
   </si>
   <si>
-    <t xml:space="preserve">0.614556268815019</t>
+    <t xml:space="preserve">0.614556268815018</t>
   </si>
   <si>
     <t xml:space="preserve">0.51398356946985</t>
@@ -1487,7 +1487,7 @@
     <t xml:space="preserve">0.81185785028235</t>
   </si>
   <si>
-    <t xml:space="preserve">0.625053131332034</t>
+    <t xml:space="preserve">0.625053131332033</t>
   </si>
   <si>
     <t xml:space="preserve">0.490365732425621</t>
@@ -1508,7 +1508,7 @@
     <t xml:space="preserve">0.703065874427664</t>
   </si>
   <si>
-    <t xml:space="preserve">0.686998684186226</t>
+    <t xml:space="preserve">0.686998684186227</t>
   </si>
   <si>
     <t xml:space="preserve">0.633209069845341</t>
@@ -1532,7 +1532,7 @@
     <t xml:space="preserve">0.731603764469527</t>
   </si>
   <si>
-    <t xml:space="preserve">0.72504502357245</t>
+    <t xml:space="preserve">0.725045023572451</t>
   </si>
   <si>
     <t xml:space="preserve">0.417071317068929</t>
@@ -1547,7 +1547,7 @@
     <t xml:space="preserve">0.762501584888854</t>
   </si>
   <si>
-    <t xml:space="preserve">0.61188780368185</t>
+    <t xml:space="preserve">0.611887803681851</t>
   </si>
   <si>
     <t xml:space="preserve">0.595316322461847</t>
@@ -1586,10 +1586,10 @@
     <t xml:space="preserve">0.692262716460369</t>
   </si>
   <si>
-    <t xml:space="preserve">0.708842649731615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.770776325220954</t>
+    <t xml:space="preserve">0.708842649731614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.770776325220955</t>
   </si>
   <si>
     <t xml:space="preserve">0.47431651225014</t>
@@ -1745,13 +1745,13 @@
     <t xml:space="preserve">0.367623674958634</t>
   </si>
   <si>
-    <t xml:space="preserve">0.412650857600716</t>
+    <t xml:space="preserve">0.412650857600717</t>
   </si>
   <si>
     <t xml:space="preserve">0.366060117662327</t>
   </si>
   <si>
-    <t xml:space="preserve">0.379233863020879</t>
+    <t xml:space="preserve">0.37923386302088</t>
   </si>
   <si>
     <t xml:space="preserve">0.284237290934004</t>
@@ -1769,7 +1769,7 @@
     <t xml:space="preserve">0.352665991867333</t>
   </si>
   <si>
-    <t xml:space="preserve">0.385140736417787</t>
+    <t xml:space="preserve">0.385140736417786</t>
   </si>
   <si>
     <t xml:space="preserve">0.277801740580457</t>
@@ -1814,7 +1814,7 @@
     <t xml:space="preserve">0.539125868292645</t>
   </si>
   <si>
-    <t xml:space="preserve">0.356193729679465</t>
+    <t xml:space="preserve">0.356193729679466</t>
   </si>
   <si>
     <t xml:space="preserve">0.352534233139876</t>
@@ -1859,7 +1859,7 @@
     <t xml:space="preserve">0.288374770252324</t>
   </si>
   <si>
-    <t xml:space="preserve">0.658861997848745</t>
+    <t xml:space="preserve">0.658861997848746</t>
   </si>
   <si>
     <t xml:space="preserve">0.571153176561462</t>
@@ -1874,10 +1874,10 @@
     <t xml:space="preserve">0.581577095143835</t>
   </si>
   <si>
-    <t xml:space="preserve">0.8126391596725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.526719616811893</t>
+    <t xml:space="preserve">0.812639159672499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.526719616811892</t>
   </si>
   <si>
     <t xml:space="preserve">0.407632276598402</t>
@@ -1907,7 +1907,7 @@
     <t xml:space="preserve">0.494479593390876</t>
   </si>
   <si>
-    <t xml:space="preserve">0.41926094134331</t>
+    <t xml:space="preserve">0.419260941343311</t>
   </si>
   <si>
     <t xml:space="preserve">0.797652850563072</t>
@@ -1916,16 +1916,16 @@
     <t xml:space="preserve">-0.375393197851023</t>
   </si>
   <si>
-    <t xml:space="preserve">0.590730291570221</t>
+    <t xml:space="preserve">0.590730291570222</t>
   </si>
   <si>
     <t xml:space="preserve">-0.440068333527682</t>
   </si>
   <si>
-    <t xml:space="preserve">0.808248831521055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.7257688383563</t>
+    <t xml:space="preserve">0.808248831521056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.725768838356301</t>
   </si>
   <si>
     <t xml:space="preserve">0.800990843956365</t>
@@ -1940,7 +1940,7 @@
     <t xml:space="preserve">0.539507795376648</t>
   </si>
   <si>
-    <t xml:space="preserve">0.729498886284716</t>
+    <t xml:space="preserve">0.729498886284715</t>
   </si>
   <si>
     <t xml:space="preserve">0.693102353571302</t>
@@ -1949,7 +1949,7 @@
     <t xml:space="preserve">0.597455804601238</t>
   </si>
   <si>
-    <t xml:space="preserve">0.505791168279571</t>
+    <t xml:space="preserve">0.505791168279572</t>
   </si>
   <si>
     <t xml:space="preserve">0.588279704302839</t>
@@ -1985,7 +1985,7 @@
     <t xml:space="preserve">0.7224366251375</t>
   </si>
   <si>
-    <t xml:space="preserve">0.693620869268588</t>
+    <t xml:space="preserve">0.693620869268587</t>
   </si>
   <si>
     <t xml:space="preserve">0.570409540142408</t>
@@ -2027,10 +2027,10 @@
     <t xml:space="preserve">0.511217222508519</t>
   </si>
   <si>
-    <t xml:space="preserve">0.569724812532767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.712462013168084</t>
+    <t xml:space="preserve">0.569724812532768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.712462013168085</t>
   </si>
   <si>
     <t xml:space="preserve">0.841857732760043</t>
@@ -2042,7 +2042,7 @@
     <t xml:space="preserve">0.533361185262107</t>
   </si>
   <si>
-    <t xml:space="preserve">0.641358427739252</t>
+    <t xml:space="preserve">0.641358427739253</t>
   </si>
   <si>
     <t xml:space="preserve">0.608411829780973</t>
@@ -2057,7 +2057,7 @@
     <t xml:space="preserve">0.735102041400327</t>
   </si>
   <si>
-    <t xml:space="preserve">0.582703504707346</t>
+    <t xml:space="preserve">0.582703504707345</t>
   </si>
   <si>
     <t xml:space="preserve">0.490522124586526</t>
@@ -2069,10 +2069,10 @@
     <t xml:space="preserve">0.685921291075715</t>
   </si>
   <si>
-    <t xml:space="preserve">0.752285681406879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.655224437512256</t>
+    <t xml:space="preserve">0.752285681406878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.655224437512255</t>
   </si>
   <si>
     <t xml:space="preserve">0.61558587579724</t>
@@ -2102,7 +2102,7 @@
     <t xml:space="preserve">0.657139980638724</t>
   </si>
   <si>
-    <t xml:space="preserve">0.675748143183797</t>
+    <t xml:space="preserve">0.675748143183798</t>
   </si>
   <si>
     <t xml:space="preserve">0.790882481839006</t>
@@ -2126,7 +2126,7 @@
     <t xml:space="preserve">0.310550941178188</t>
   </si>
   <si>
-    <t xml:space="preserve">0.446854478830123</t>
+    <t xml:space="preserve">0.446854478830122</t>
   </si>
   <si>
     <t xml:space="preserve">0.642924167991035</t>
@@ -2177,7 +2177,7 @@
     <t xml:space="preserve">0.26682101008961</t>
   </si>
   <si>
-    <t xml:space="preserve">0.410566489546281</t>
+    <t xml:space="preserve">0.41056648954628</t>
   </si>
   <si>
     <t xml:space="preserve">0.337985492408643</t>
@@ -2201,7 +2201,7 @@
     <t xml:space="preserve">-0.281257388764162</t>
   </si>
   <si>
-    <t xml:space="preserve">0.433304041778035</t>
+    <t xml:space="preserve">0.433304041778034</t>
   </si>
   <si>
     <t xml:space="preserve">0.326960823949826</t>
@@ -2216,7 +2216,7 @@
     <t xml:space="preserve">0.339931205073432</t>
   </si>
   <si>
-    <t xml:space="preserve">0.325409180735972</t>
+    <t xml:space="preserve">0.325409180735971</t>
   </si>
   <si>
     <t xml:space="preserve">0.465267924277408</t>
@@ -2240,7 +2240,7 @@
     <t xml:space="preserve">0.391649462594962</t>
   </si>
   <si>
-    <t xml:space="preserve">0.403160147815136</t>
+    <t xml:space="preserve">0.403160147815135</t>
   </si>
   <si>
     <t xml:space="preserve">0.540676072385094</t>
@@ -2279,7 +2279,7 @@
     <t xml:space="preserve">0.375235524833573</t>
   </si>
   <si>
-    <t xml:space="preserve">0.503208685261992</t>
+    <t xml:space="preserve">0.503208685261991</t>
   </si>
   <si>
     <t xml:space="preserve">0.317324656152376</t>
@@ -2321,7 +2321,7 @@
     <t xml:space="preserve">0.521707174658482</t>
   </si>
   <si>
-    <t xml:space="preserve">0.434449119708822</t>
+    <t xml:space="preserve">0.434449119708821</t>
   </si>
   <si>
     <t xml:space="preserve">0.390426111981242</t>
@@ -2384,7 +2384,7 @@
     <t xml:space="preserve">0.318680495232362</t>
   </si>
   <si>
-    <t xml:space="preserve">0.430601640469495</t>
+    <t xml:space="preserve">0.430601640469494</t>
   </si>
   <si>
     <t xml:space="preserve">0.357377153627191</t>
@@ -2405,19 +2405,19 @@
     <t xml:space="preserve">-0.512304107660938</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.391785084042133</t>
+    <t xml:space="preserve">-0.391785084042132</t>
   </si>
   <si>
     <t xml:space="preserve">0.509982001235889</t>
   </si>
   <si>
-    <t xml:space="preserve">0.63858000273984</t>
+    <t xml:space="preserve">0.638580002739841</t>
   </si>
   <si>
     <t xml:space="preserve">0.613222870859882</t>
   </si>
   <si>
-    <t xml:space="preserve">0.624776827259897</t>
+    <t xml:space="preserve">0.624776827259898</t>
   </si>
   <si>
     <t xml:space="preserve">0.556044744898409</t>
@@ -2450,7 +2450,7 @@
     <t xml:space="preserve">0.632391071540769</t>
   </si>
   <si>
-    <t xml:space="preserve">0.458968011175274</t>
+    <t xml:space="preserve">0.458968011175275</t>
   </si>
   <si>
     <t xml:space="preserve">0.648862388390281</t>
@@ -2489,7 +2489,7 @@
     <t xml:space="preserve">0.605720255009117</t>
   </si>
   <si>
-    <t xml:space="preserve">0.66764054128011</t>
+    <t xml:space="preserve">0.667640541280111</t>
   </si>
   <si>
     <t xml:space="preserve">0.610782132873882</t>
@@ -2519,7 +2519,7 @@
     <t xml:space="preserve">0.375784203068455</t>
   </si>
   <si>
-    <t xml:space="preserve">0.677179994736505</t>
+    <t xml:space="preserve">0.677179994736504</t>
   </si>
   <si>
     <t xml:space="preserve">0.622889821634041</t>
@@ -2540,13 +2540,13 @@
     <t xml:space="preserve">0.267703456096687</t>
   </si>
   <si>
-    <t xml:space="preserve">0.719687736923967</t>
+    <t xml:space="preserve">0.719687736923968</t>
   </si>
   <si>
     <t xml:space="preserve">0.74210725245702</t>
   </si>
   <si>
-    <t xml:space="preserve">0.565771652833693</t>
+    <t xml:space="preserve">0.565771652833694</t>
   </si>
   <si>
     <t xml:space="preserve">0.368966012684962</t>
@@ -2555,7 +2555,7 @@
     <t xml:space="preserve">0.708798867333166</t>
   </si>
   <si>
-    <t xml:space="preserve">0.735089401597445</t>
+    <t xml:space="preserve">0.735089401597444</t>
   </si>
   <si>
     <t xml:space="preserve">0.612953676574636</t>
@@ -2579,7 +2579,7 @@
     <t xml:space="preserve">0.610801780913828</t>
   </si>
   <si>
-    <t xml:space="preserve">0.524177114123346</t>
+    <t xml:space="preserve">0.524177114123347</t>
   </si>
   <si>
     <t xml:space="preserve">0.714160727409891</t>
@@ -2588,7 +2588,7 @@
     <t xml:space="preserve">0.690690913397082</t>
   </si>
   <si>
-    <t xml:space="preserve">0.801362516234289</t>
+    <t xml:space="preserve">0.80136251623429</t>
   </si>
   <si>
     <t xml:space="preserve">0.405552370407452</t>
@@ -2600,7 +2600,7 @@
     <t xml:space="preserve">0.733377988594258</t>
   </si>
   <si>
-    <t xml:space="preserve">0.599741841721429</t>
+    <t xml:space="preserve">0.59974184172143</t>
   </si>
   <si>
     <t xml:space="preserve">0.333680788943186</t>
@@ -2612,7 +2612,7 @@
     <t xml:space="preserve">0.68914360146971</t>
   </si>
   <si>
-    <t xml:space="preserve">0.669840519440566</t>
+    <t xml:space="preserve">0.669840519440567</t>
   </si>
   <si>
     <t xml:space="preserve">0.542087512900452</t>
@@ -2630,7 +2630,7 @@
     <t xml:space="preserve">0.711808183854489</t>
   </si>
   <si>
-    <t xml:space="preserve">0.640681424696888</t>
+    <t xml:space="preserve">0.640681424696889</t>
   </si>
   <si>
     <t xml:space="preserve">0.66572348701812</t>
@@ -2666,13 +2666,13 @@
     <t xml:space="preserve">0.657404795391592</t>
   </si>
   <si>
-    <t xml:space="preserve">0.680371137490898</t>
+    <t xml:space="preserve">0.680371137490897</t>
   </si>
   <si>
     <t xml:space="preserve">0.586205802829834</t>
   </si>
   <si>
-    <t xml:space="preserve">0.699435542494374</t>
+    <t xml:space="preserve">0.699435542494373</t>
   </si>
   <si>
     <t xml:space="preserve">0.352786936394035</t>
@@ -2684,7 +2684,7 @@
     <t xml:space="preserve">0.630189727350582</t>
   </si>
   <si>
-    <t xml:space="preserve">0.642905851366476</t>
+    <t xml:space="preserve">0.642905851366477</t>
   </si>
   <si>
     <t xml:space="preserve">0.623066899467097</t>
@@ -2693,7 +2693,7 @@
     <t xml:space="preserve">0.812600290782923</t>
   </si>
   <si>
-    <t xml:space="preserve">0.705158735919109</t>
+    <t xml:space="preserve">0.70515873591911</t>
   </si>
   <si>
     <t xml:space="preserve">0.6902314216465</t>
@@ -2717,7 +2717,7 @@
     <t xml:space="preserve">-0.30007755970294</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.483171501626274</t>
+    <t xml:space="preserve">-0.483171501626273</t>
   </si>
   <si>
     <t xml:space="preserve">-0.555832318708876</t>
@@ -2780,7 +2780,7 @@
     <t xml:space="preserve">-0.307650877046903</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.304717362572465</t>
+    <t xml:space="preserve">-0.304717362572464</t>
   </si>
   <si>
     <t xml:space="preserve">-0.329608345519626</t>
@@ -2831,10 +2831,10 @@
     <t xml:space="preserve">-0.350299657609713</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.423432580645939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.378793172258908</t>
+    <t xml:space="preserve">-0.423432580645938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.378793172258909</t>
   </si>
   <si>
     <t xml:space="preserve">-0.32058298314283</t>
@@ -2867,7 +2867,7 @@
     <t xml:space="preserve">-0.348770636587882</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.315989945255803</t>
+    <t xml:space="preserve">-0.315989945255802</t>
   </si>
   <si>
     <t xml:space="preserve">-0.304741064797261</t>
@@ -2921,7 +2921,7 @@
     <t xml:space="preserve">-0.38410180783415</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.356148514786108</t>
+    <t xml:space="preserve">-0.356148514786107</t>
   </si>
   <si>
     <t xml:space="preserve">0.402304512494157</t>
@@ -3035,7 +3035,7 @@
     <t xml:space="preserve">0.498237603690443</t>
   </si>
   <si>
-    <t xml:space="preserve">0.536591385971817</t>
+    <t xml:space="preserve">0.536591385971816</t>
   </si>
   <si>
     <t xml:space="preserve">0.485268555113096</t>
@@ -3152,7 +3152,7 @@
     <t xml:space="preserve">0.603758820802413</t>
   </si>
   <si>
-    <t xml:space="preserve">0.472713446354503</t>
+    <t xml:space="preserve">0.472713446354502</t>
   </si>
   <si>
     <t xml:space="preserve">0.420230832525367</t>
@@ -3173,7 +3173,7 @@
     <t xml:space="preserve">0.430580191974294</t>
   </si>
   <si>
-    <t xml:space="preserve">0.515644299414548</t>
+    <t xml:space="preserve">0.515644299414547</t>
   </si>
   <si>
     <t xml:space="preserve">0.607570067607308</t>
@@ -3209,7 +3209,7 @@
     <t xml:space="preserve">0.475186788452801</t>
   </si>
   <si>
-    <t xml:space="preserve">0.477422738869389</t>
+    <t xml:space="preserve">0.47742273886939</t>
   </si>
   <si>
     <t xml:space="preserve">0.370946307390074</t>
@@ -3254,7 +3254,7 @@
     <t xml:space="preserve">0.325563550321074</t>
   </si>
   <si>
-    <t xml:space="preserve">0.401550863482892</t>
+    <t xml:space="preserve">0.401550863482893</t>
   </si>
   <si>
     <t xml:space="preserve">0.281745862551785</t>
@@ -3296,13 +3296,13 @@
     <t xml:space="preserve">0.45082008630186</t>
   </si>
   <si>
-    <t xml:space="preserve">0.371662973022619</t>
+    <t xml:space="preserve">0.37166297302262</t>
   </si>
   <si>
     <t xml:space="preserve">0.352026968280823</t>
   </si>
   <si>
-    <t xml:space="preserve">0.286480405000293</t>
+    <t xml:space="preserve">0.286480405000292</t>
   </si>
   <si>
     <t xml:space="preserve">0.325978996698609</t>
@@ -3335,7 +3335,7 @@
     <t xml:space="preserve">0.812423411053174</t>
   </si>
   <si>
-    <t xml:space="preserve">0.612319457329281</t>
+    <t xml:space="preserve">0.61231945732928</t>
   </si>
   <si>
     <t xml:space="preserve">0.639218855409616</t>
@@ -3347,10 +3347,10 @@
     <t xml:space="preserve">0.388922916516286</t>
   </si>
   <si>
-    <t xml:space="preserve">0.6811293477777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.444737311587525</t>
+    <t xml:space="preserve">0.681129347777699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.444737311587526</t>
   </si>
   <si>
     <t xml:space="preserve">0.680371154011361</t>
@@ -3371,7 +3371,7 @@
     <t xml:space="preserve">0.42129954452455</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.43528536186015</t>
+    <t xml:space="preserve">-0.435285361860151</t>
   </si>
   <si>
     <t xml:space="preserve">0.754401437137709</t>
@@ -3410,7 +3410,7 @@
     <t xml:space="preserve">0.287036222443091</t>
   </si>
   <si>
-    <t xml:space="preserve">0.596411306041721</t>
+    <t xml:space="preserve">0.596411306041722</t>
   </si>
   <si>
     <t xml:space="preserve">0.498787424373126</t>
@@ -3425,7 +3425,7 @@
     <t xml:space="preserve">0.787025048885949</t>
   </si>
   <si>
-    <t xml:space="preserve">0.627694467654364</t>
+    <t xml:space="preserve">0.627694467654365</t>
   </si>
   <si>
     <t xml:space="preserve">0.528585361735421</t>
@@ -3446,28 +3446,28 @@
     <t xml:space="preserve">0.711635292195798</t>
   </si>
   <si>
-    <t xml:space="preserve">0.503758944594242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.34001448677532</t>
+    <t xml:space="preserve">0.503758944594241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.340014486775321</t>
   </si>
   <si>
     <t xml:space="preserve">0.707584888422662</t>
   </si>
   <si>
-    <t xml:space="preserve">0.799692513957324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.599607823078985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.715531774381217</t>
+    <t xml:space="preserve">0.799692513957325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.599607823078984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.715531774381218</t>
   </si>
   <si>
     <t xml:space="preserve">0.768988971664531</t>
   </si>
   <si>
-    <t xml:space="preserve">0.757627142145297</t>
+    <t xml:space="preserve">0.757627142145298</t>
   </si>
   <si>
     <t xml:space="preserve">0.59651126745349</t>
@@ -3476,7 +3476,7 @@
     <t xml:space="preserve">0.819416820191702</t>
   </si>
   <si>
-    <t xml:space="preserve">0.694604559028442</t>
+    <t xml:space="preserve">0.694604559028443</t>
   </si>
   <si>
     <t xml:space="preserve">0.600495391976106</t>
@@ -3497,10 +3497,10 @@
     <t xml:space="preserve">0.379356007353656</t>
   </si>
   <si>
-    <t xml:space="preserve">0.815675615280168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.744735395227262</t>
+    <t xml:space="preserve">0.815675615280169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.744735395227263</t>
   </si>
   <si>
     <t xml:space="preserve">0.275772734766676</t>
@@ -3524,7 +3524,7 @@
     <t xml:space="preserve">0.738812502404872</t>
   </si>
   <si>
-    <t xml:space="preserve">0.664479956660621</t>
+    <t xml:space="preserve">0.66447995666062</t>
   </si>
   <si>
     <t xml:space="preserve">0.826358142594717</t>
@@ -3557,7 +3557,7 @@
     <t xml:space="preserve">0.692449280325398</t>
   </si>
   <si>
-    <t xml:space="preserve">0.514392395765652</t>
+    <t xml:space="preserve">0.514392395765653</t>
   </si>
   <si>
     <t xml:space="preserve">0.715457708498587</t>
@@ -3572,13 +3572,13 @@
     <t xml:space="preserve">0.789197196535525</t>
   </si>
   <si>
-    <t xml:space="preserve">0.719565473424112</t>
+    <t xml:space="preserve">0.719565473424113</t>
   </si>
   <si>
     <t xml:space="preserve">0.809442431606639</t>
   </si>
   <si>
-    <t xml:space="preserve">0.451228744956438</t>
+    <t xml:space="preserve">0.451228744956437</t>
   </si>
   <si>
     <t xml:space="preserve">0.551305785237042</t>
@@ -3593,7 +3593,7 @@
     <t xml:space="preserve">0.761742253217819</t>
   </si>
   <si>
-    <t xml:space="preserve">0.462937106456403</t>
+    <t xml:space="preserve">0.462937106456404</t>
   </si>
   <si>
     <t xml:space="preserve">0.565440473960091</t>
@@ -3614,7 +3614,7 @@
     <t xml:space="preserve">0.673673650296099</t>
   </si>
   <si>
-    <t xml:space="preserve">0.703672300046082</t>
+    <t xml:space="preserve">0.703672300046081</t>
   </si>
   <si>
     <t xml:space="preserve">0.512235812702908</t>
@@ -3665,13 +3665,13 @@
     <t xml:space="preserve">0.650679012040431</t>
   </si>
   <si>
-    <t xml:space="preserve">0.698968576335082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.595651368480882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.601626715117173</t>
+    <t xml:space="preserve">0.698968576335081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.595651368480883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.601626715117174</t>
   </si>
   <si>
     <t xml:space="preserve">0.668577970291433</t>
@@ -3698,7 +3698,7 @@
     <t xml:space="preserve">0.509036307350417</t>
   </si>
   <si>
-    <t xml:space="preserve">0.547279998887827</t>
+    <t xml:space="preserve">0.547279998887826</t>
   </si>
   <si>
     <t xml:space="preserve">0.369960013400376</t>
@@ -3725,7 +3725,7 @@
     <t xml:space="preserve">0.599753834799357</t>
   </si>
   <si>
-    <t xml:space="preserve">0.692919007070068</t>
+    <t xml:space="preserve">0.692919007070069</t>
   </si>
   <si>
     <t xml:space="preserve">0.611032350418111</t>
@@ -3785,7 +3785,7 @@
     <t xml:space="preserve">0.718213604725819</t>
   </si>
   <si>
-    <t xml:space="preserve">0.546725295270081</t>
+    <t xml:space="preserve">0.54672529527008</t>
   </si>
   <si>
     <t xml:space="preserve">0.5468509946905</t>
@@ -3800,10 +3800,10 @@
     <t xml:space="preserve">0.694274523475797</t>
   </si>
   <si>
-    <t xml:space="preserve">0.688003069042292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.587699434446409</t>
+    <t xml:space="preserve">0.688003069042291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.58769943444641</t>
   </si>
   <si>
     <t xml:space="preserve">0.588123465996285</t>
@@ -3815,7 +3815,7 @@
     <t xml:space="preserve">0.63635272598337</t>
   </si>
   <si>
-    <t xml:space="preserve">0.676849015879231</t>
+    <t xml:space="preserve">0.67684901587923</t>
   </si>
   <si>
     <t xml:space="preserve">0.61320907973434</t>
@@ -3839,7 +3839,7 @@
     <t xml:space="preserve">0.392307138522573</t>
   </si>
   <si>
-    <t xml:space="preserve">0.625633832627135</t>
+    <t xml:space="preserve">0.625633832627134</t>
   </si>
   <si>
     <t xml:space="preserve">0.41567605841925</t>
@@ -3869,7 +3869,7 @@
     <t xml:space="preserve">0.479598991659795</t>
   </si>
   <si>
-    <t xml:space="preserve">0.688596144855189</t>
+    <t xml:space="preserve">0.68859614485519</t>
   </si>
   <si>
     <t xml:space="preserve">0.671871834111451</t>
@@ -3887,13 +3887,13 @@
     <t xml:space="preserve">0.72125527323509</t>
   </si>
   <si>
-    <t xml:space="preserve">0.420486354864546</t>
+    <t xml:space="preserve">0.420486354864547</t>
   </si>
   <si>
     <t xml:space="preserve">0.51823668445327</t>
   </si>
   <si>
-    <t xml:space="preserve">0.828115634808231</t>
+    <t xml:space="preserve">0.828115634808232</t>
   </si>
   <si>
     <t xml:space="preserve">0.801182559276871</t>
@@ -3920,7 +3920,7 @@
     <t xml:space="preserve">0.725059228909855</t>
   </si>
   <si>
-    <t xml:space="preserve">0.671497165049334</t>
+    <t xml:space="preserve">0.671497165049335</t>
   </si>
   <si>
     <t xml:space="preserve">0.281531320292726</t>
@@ -3977,7 +3977,7 @@
     <t xml:space="preserve">0.520703351059337</t>
   </si>
   <si>
-    <t xml:space="preserve">0.750014651922272</t>
+    <t xml:space="preserve">0.750014651922273</t>
   </si>
   <si>
     <t xml:space="preserve">0.780680768031451</t>
@@ -4028,7 +4028,7 @@
     <t xml:space="preserve">0.855905447057755</t>
   </si>
   <si>
-    <t xml:space="preserve">0.658113922595392</t>
+    <t xml:space="preserve">0.658113922595393</t>
   </si>
   <si>
     <t xml:space="preserve">0.756154382673607</t>
@@ -4061,7 +4061,7 @@
     <t xml:space="preserve">0.757625190846539</t>
   </si>
   <si>
-    <t xml:space="preserve">0.675516401085744</t>
+    <t xml:space="preserve">0.675516401085745</t>
   </si>
   <si>
     <t xml:space="preserve">0.700824679449282</t>
@@ -4082,7 +4082,7 @@
     <t xml:space="preserve">0.704643275659267</t>
   </si>
   <si>
-    <t xml:space="preserve">0.842271129782141</t>
+    <t xml:space="preserve">0.842271129782142</t>
   </si>
   <si>
     <t xml:space="preserve">0.699243788123831</t>
@@ -4148,7 +4148,7 @@
     <t xml:space="preserve">0.757880383539978</t>
   </si>
   <si>
-    <t xml:space="preserve">0.703225608117385</t>
+    <t xml:space="preserve">0.703225608117386</t>
   </si>
   <si>
     <t xml:space="preserve">0.529298991591973</t>
@@ -4307,7 +4307,7 @@
     <t xml:space="preserve">0.293486444163447</t>
   </si>
   <si>
-    <t xml:space="preserve">0.411511522730889</t>
+    <t xml:space="preserve">0.41151152273089</t>
   </si>
   <si>
     <t xml:space="preserve">0.450382251094578</t>
@@ -4331,7 +4331,7 @@
     <t xml:space="preserve">0.347278605984979</t>
   </si>
   <si>
-    <t xml:space="preserve">0.559034258845841</t>
+    <t xml:space="preserve">0.55903425884584</t>
   </si>
   <si>
     <t xml:space="preserve">0.374620669029164</t>
@@ -4376,7 +4376,7 @@
     <t xml:space="preserve">0.555217295411744</t>
   </si>
   <si>
-    <t xml:space="preserve">0.622008234805071</t>
+    <t xml:space="preserve">0.622008234805072</t>
   </si>
   <si>
     <t xml:space="preserve">0.623830376044</t>
@@ -4400,7 +4400,7 @@
     <t xml:space="preserve">0.279566958829775</t>
   </si>
   <si>
-    <t xml:space="preserve">0.494662765937223</t>
+    <t xml:space="preserve">0.494662765937224</t>
   </si>
   <si>
     <t xml:space="preserve">0.457487650735007</t>
@@ -4409,7 +4409,7 @@
     <t xml:space="preserve">0.358057059120562</t>
   </si>
   <si>
-    <t xml:space="preserve">0.330844149392764</t>
+    <t xml:space="preserve">0.330844149392763</t>
   </si>
   <si>
     <t xml:space="preserve">0.674252741173685</t>
@@ -4421,7 +4421,7 @@
     <t xml:space="preserve">0.468972525973381</t>
   </si>
   <si>
-    <t xml:space="preserve">0.565262724148416</t>
+    <t xml:space="preserve">0.565262724148417</t>
   </si>
   <si>
     <t xml:space="preserve">0.794944974570965</t>
@@ -4445,7 +4445,7 @@
     <t xml:space="preserve">0.321289734788438</t>
   </si>
   <si>
-    <t xml:space="preserve">0.774268527741986</t>
+    <t xml:space="preserve">0.774268527741985</t>
   </si>
   <si>
     <t xml:space="preserve">0.527987133389863</t>
@@ -4481,7 +4481,7 @@
     <t xml:space="preserve">0.674163108452435</t>
   </si>
   <si>
-    <t xml:space="preserve">0.836887406277579</t>
+    <t xml:space="preserve">0.83688740627758</t>
   </si>
   <si>
     <t xml:space="preserve">0.759951220229069</t>
@@ -4496,7 +4496,7 @@
     <t xml:space="preserve">0.843310262002046</t>
   </si>
   <si>
-    <t xml:space="preserve">0.894730111762947</t>
+    <t xml:space="preserve">0.894730111762946</t>
   </si>
   <si>
     <t xml:space="preserve">0.540448865876455</t>
@@ -4568,7 +4568,7 @@
     <t xml:space="preserve">0.798181336186909</t>
   </si>
   <si>
-    <t xml:space="preserve">0.834450672442543</t>
+    <t xml:space="preserve">0.834450672442542</t>
   </si>
   <si>
     <t xml:space="preserve">0.672111228468685</t>
@@ -4589,10 +4589,10 @@
     <t xml:space="preserve">0.402425118039184</t>
   </si>
   <si>
-    <t xml:space="preserve">0.845845536673338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.809620932637554</t>
+    <t xml:space="preserve">0.845845536673337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.809620932637555</t>
   </si>
   <si>
     <t xml:space="preserve">0.707567011397732</t>
@@ -4607,7 +4607,7 @@
     <t xml:space="preserve">0.673960774153115</t>
   </si>
   <si>
-    <t xml:space="preserve">0.777695257663069</t>
+    <t xml:space="preserve">0.777695257663068</t>
   </si>
   <si>
     <t xml:space="preserve">0.735625977193737</t>
@@ -4622,7 +4622,7 @@
     <t xml:space="preserve">0.741393619721979</t>
   </si>
   <si>
-    <t xml:space="preserve">0.901597940582995</t>
+    <t xml:space="preserve">0.901597940582994</t>
   </si>
   <si>
     <t xml:space="preserve">0.704238836550583</t>
@@ -4661,7 +4661,7 @@
     <t xml:space="preserve">0.808894537992888</t>
   </si>
   <si>
-    <t xml:space="preserve">0.751412564703639</t>
+    <t xml:space="preserve">0.751412564703638</t>
   </si>
   <si>
     <t xml:space="preserve">0.809126212200274</t>
@@ -4703,7 +4703,7 @@
     <t xml:space="preserve">0.723169189577298</t>
   </si>
   <si>
-    <t xml:space="preserve">0.71712669576585</t>
+    <t xml:space="preserve">0.717126695765849</t>
   </si>
   <si>
     <t xml:space="preserve">0.470283277154758</t>
@@ -4739,7 +4739,7 @@
     <t xml:space="preserve">0.567640835420681</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.518906315426085</t>
+    <t xml:space="preserve">-0.518906315426086</t>
   </si>
   <si>
     <t xml:space="preserve">0.960002223839618</t>
@@ -4760,13 +4760,13 @@
     <t xml:space="preserve">0.639724022768453</t>
   </si>
   <si>
-    <t xml:space="preserve">0.889513029370036</t>
+    <t xml:space="preserve">0.889513029370035</t>
   </si>
   <si>
     <t xml:space="preserve">0.888599954856013</t>
   </si>
   <si>
-    <t xml:space="preserve">0.865547342572249</t>
+    <t xml:space="preserve">0.865547342572248</t>
   </si>
   <si>
     <t xml:space="preserve">0.591351359225939</t>
@@ -4787,7 +4787,7 @@
     <t xml:space="preserve">0.950521601125333</t>
   </si>
   <si>
-    <t xml:space="preserve">0.837014660228538</t>
+    <t xml:space="preserve">0.837014660228537</t>
   </si>
   <si>
     <t xml:space="preserve">0.721554265901237</t>
@@ -4802,10 +4802,10 @@
     <t xml:space="preserve">0.366349571358171</t>
   </si>
   <si>
-    <t xml:space="preserve">0.696579078641193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.857368833901291</t>
+    <t xml:space="preserve">0.696579078641192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.85736883390129</t>
   </si>
   <si>
     <t xml:space="preserve">0.780506752285181</t>
@@ -4817,10 +4817,10 @@
     <t xml:space="preserve">0.347429951734978</t>
   </si>
   <si>
-    <t xml:space="preserve">0.886503421221587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.992682820328334</t>
+    <t xml:space="preserve">0.886503421221586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.992682820328333</t>
   </si>
   <si>
     <t xml:space="preserve">0.650948879796221</t>
@@ -4838,7 +4838,7 @@
     <t xml:space="preserve">0.719493421751571</t>
   </si>
   <si>
-    <t xml:space="preserve">0.837666139259592</t>
+    <t xml:space="preserve">0.837666139259591</t>
   </si>
   <si>
     <t xml:space="preserve">0.764138007240336</t>
@@ -4874,22 +4874,22 @@
     <t xml:space="preserve">0.733254023123388</t>
   </si>
   <si>
-    <t xml:space="preserve">0.867155120958705</t>
+    <t xml:space="preserve">0.867155120958704</t>
   </si>
   <si>
     <t xml:space="preserve">0.832350155179467</t>
   </si>
   <si>
-    <t xml:space="preserve">0.640813121290484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.906950497112997</t>
+    <t xml:space="preserve">0.640813121290483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.906950497112996</t>
   </si>
   <si>
     <t xml:space="preserve">0.870668712658372</t>
   </si>
   <si>
-    <t xml:space="preserve">0.829753478607358</t>
+    <t xml:space="preserve">0.829753478607357</t>
   </si>
   <si>
     <t xml:space="preserve">0.886179904371736</t>
@@ -4907,28 +4907,28 @@
     <t xml:space="preserve">0.382013309607998</t>
   </si>
   <si>
-    <t xml:space="preserve">0.783354554829059</t>
+    <t xml:space="preserve">0.78335455482906</t>
   </si>
   <si>
     <t xml:space="preserve">0.769828610708746</t>
   </si>
   <si>
-    <t xml:space="preserve">0.724843692045595</t>
+    <t xml:space="preserve">0.724843692045594</t>
   </si>
   <si>
     <t xml:space="preserve">0.794372814502168</t>
   </si>
   <si>
-    <t xml:space="preserve">0.735305823297521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.825400214887785</t>
+    <t xml:space="preserve">0.735305823297522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.825400214887786</t>
   </si>
   <si>
     <t xml:space="preserve">0.35855115474358</t>
   </si>
   <si>
-    <t xml:space="preserve">0.93453123082175</t>
+    <t xml:space="preserve">0.934531230821749</t>
   </si>
   <si>
     <t xml:space="preserve">0.961397489132456</t>
@@ -4937,19 +4937,19 @@
     <t xml:space="preserve">0.768973983360467</t>
   </si>
   <si>
-    <t xml:space="preserve">0.884588079748792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.756727294121829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.94432751423047</t>
+    <t xml:space="preserve">0.884588079748791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.75672729412183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.944327514230469</t>
   </si>
   <si>
     <t xml:space="preserve">0.36680563496034</t>
   </si>
   <si>
-    <t xml:space="preserve">0.686677101029402</t>
+    <t xml:space="preserve">0.686677101029403</t>
   </si>
   <si>
     <t xml:space="preserve">0.803828263428063</t>
@@ -5117,7 +5117,7 @@
     <t xml:space="preserve">0.552593786541608</t>
   </si>
   <si>
-    <t xml:space="preserve">0.631290271307869</t>
+    <t xml:space="preserve">0.631290271307868</t>
   </si>
   <si>
     <t xml:space="preserve">0.3122132738701</t>
@@ -5144,22 +5144,22 @@
     <t xml:space="preserve">0.527227249327985</t>
   </si>
   <si>
-    <t xml:space="preserve">0.62240462138386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.631515928517763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5804385084134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.615849728766667</t>
+    <t xml:space="preserve">0.622404621383859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.631515928517762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.580438508413399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.615849728766666</t>
   </si>
   <si>
     <t xml:space="preserve">0.522012927419115</t>
   </si>
   <si>
-    <t xml:space="preserve">0.578628216246996</t>
+    <t xml:space="preserve">0.578628216246995</t>
   </si>
   <si>
     <t xml:space="preserve">0.506584740734532</t>
@@ -5171,19 +5171,19 @@
     <t xml:space="preserve">0.62619156888259</t>
   </si>
   <si>
-    <t xml:space="preserve">0.485210563705882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.559190663081894</t>
+    <t xml:space="preserve">0.485210563705881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.559190663081893</t>
   </si>
   <si>
     <t xml:space="preserve">0.640572942125589</t>
   </si>
   <si>
-    <t xml:space="preserve">0.383525186007156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.538637022631217</t>
+    <t xml:space="preserve">0.383525186007155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.538637022631216</t>
   </si>
   <si>
     <t xml:space="preserve">0.288437210220782</t>
@@ -5192,19 +5192,19 @@
     <t xml:space="preserve">0.551549310101218</t>
   </si>
   <si>
-    <t xml:space="preserve">0.631918589330753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.594093967318129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.596222232148387</t>
+    <t xml:space="preserve">0.631918589330752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.594093967318128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.596222232148386</t>
   </si>
   <si>
     <t xml:space="preserve">0.623860953742054</t>
   </si>
   <si>
-    <t xml:space="preserve">0.724933328284406</t>
+    <t xml:space="preserve">0.724933328284405</t>
   </si>
   <si>
     <t xml:space="preserve">0.303736752485336</t>
@@ -5231,7 +5231,7 @@
     <t xml:space="preserve">0.435270970431025</t>
   </si>
   <si>
-    <t xml:space="preserve">0.557589266523397</t>
+    <t xml:space="preserve">0.557589266523396</t>
   </si>
   <si>
     <t xml:space="preserve">0.285571770593943</t>
@@ -5303,7 +5303,7 @@
     <t xml:space="preserve">0.310375504350299</t>
   </si>
   <si>
-    <t xml:space="preserve">0.434656808842481</t>
+    <t xml:space="preserve">0.43465680884248</t>
   </si>
   <si>
     <t xml:space="preserve">0.305055611052161</t>
@@ -5345,7 +5345,7 @@
     <t xml:space="preserve">0.350757997057826</t>
   </si>
   <si>
-    <t xml:space="preserve">0.342725758020652</t>
+    <t xml:space="preserve">0.342725758020653</t>
   </si>
   <si>
     <t xml:space="preserve">0.323770807084425</t>
@@ -5354,7 +5354,7 @@
     <t xml:space="preserve">0.445805176364325</t>
   </si>
   <si>
-    <t xml:space="preserve">0.354365533124852</t>
+    <t xml:space="preserve">0.354365533124851</t>
   </si>
   <si>
     <t xml:space="preserve">0.307939868351985</t>
@@ -5402,7 +5402,7 @@
     <t xml:space="preserve">0.51146381407856</t>
   </si>
   <si>
-    <t xml:space="preserve">0.743871632433383</t>
+    <t xml:space="preserve">0.743871632433382</t>
   </si>
   <si>
     <t xml:space="preserve">0.280896255032098</t>
@@ -5423,7 +5423,7 @@
     <t xml:space="preserve">0.424633778360568</t>
   </si>
   <si>
-    <t xml:space="preserve">0.515619707404657</t>
+    <t xml:space="preserve">0.515619707404656</t>
   </si>
   <si>
     <t xml:space="preserve">0.345663335376602</t>
@@ -5504,7 +5504,7 @@
     <t xml:space="preserve">0.501142613808461</t>
   </si>
   <si>
-    <t xml:space="preserve">0.413617666395441</t>
+    <t xml:space="preserve">0.41361766639544</t>
   </si>
   <si>
     <t xml:space="preserve">0.37019355878731</t>
@@ -5522,7 +5522,7 @@
     <t xml:space="preserve">0.705245665089871</t>
   </si>
   <si>
-    <t xml:space="preserve">0.607111456813771</t>
+    <t xml:space="preserve">0.60711145681377</t>
   </si>
   <si>
     <t xml:space="preserve">0.727351535196388</t>
@@ -5537,7 +5537,7 @@
     <t xml:space="preserve">0.525804522313978</t>
   </si>
   <si>
-    <t xml:space="preserve">0.779272424538536</t>
+    <t xml:space="preserve">0.779272424538535</t>
   </si>
   <si>
     <t xml:space="preserve">0.670892565784286</t>
@@ -5576,7 +5576,7 @@
     <t xml:space="preserve">0.322008187788004</t>
   </si>
   <si>
-    <t xml:space="preserve">0.589357047828879</t>
+    <t xml:space="preserve">0.589357047828878</t>
   </si>
   <si>
     <t xml:space="preserve">0.633951683983516</t>
@@ -5597,13 +5597,13 @@
     <t xml:space="preserve">0.686967744821792</t>
   </si>
   <si>
-    <t xml:space="preserve">0.621114048558245</t>
+    <t xml:space="preserve">0.621114048558244</t>
   </si>
   <si>
     <t xml:space="preserve">0.570207523477473</t>
   </si>
   <si>
-    <t xml:space="preserve">0.554963293454743</t>
+    <t xml:space="preserve">0.554963293454742</t>
   </si>
   <si>
     <t xml:space="preserve">0.611557995958478</t>
@@ -5618,7 +5618,7 @@
     <t xml:space="preserve">0.768383133381742</t>
   </si>
   <si>
-    <t xml:space="preserve">0.626152588955116</t>
+    <t xml:space="preserve">0.626152588955115</t>
   </si>
   <si>
     <t xml:space="preserve">0.740172150784538</t>
@@ -5657,7 +5657,7 @@
     <t xml:space="preserve">0.761860452128404</t>
   </si>
   <si>
-    <t xml:space="preserve">0.703315923752826</t>
+    <t xml:space="preserve">0.703315923752825</t>
   </si>
   <si>
     <t xml:space="preserve">0.681197633405265</t>
@@ -5666,7 +5666,7 @@
     <t xml:space="preserve">0.638168093374636</t>
   </si>
   <si>
-    <t xml:space="preserve">0.60306812677969</t>
+    <t xml:space="preserve">0.603068126779691</t>
   </si>
   <si>
     <t xml:space="preserve">0.414816572738828</t>
@@ -5693,7 +5693,7 @@
     <t xml:space="preserve">0.40314912567814</t>
   </si>
   <si>
-    <t xml:space="preserve">0.725969247859646</t>
+    <t xml:space="preserve">0.725969247859645</t>
   </si>
   <si>
     <t xml:space="preserve">0.736450662586338</t>
@@ -5708,7 +5708,7 @@
     <t xml:space="preserve">0.681935115420204</t>
   </si>
   <si>
-    <t xml:space="preserve">0.674024758586416</t>
+    <t xml:space="preserve">0.674024758586415</t>
   </si>
   <si>
     <t xml:space="preserve">0.406626035977311</t>
@@ -5717,7 +5717,7 @@
     <t xml:space="preserve">0.527420322606904</t>
   </si>
   <si>
-    <t xml:space="preserve">0.578647334176996</t>
+    <t xml:space="preserve">0.578647334176995</t>
   </si>
   <si>
     <t xml:space="preserve">0.602125035537342</t>
@@ -5765,7 +5765,7 @@
     <t xml:space="preserve">0.654768151923852</t>
   </si>
   <si>
-    <t xml:space="preserve">0.6715707893441</t>
+    <t xml:space="preserve">0.671570789344099</t>
   </si>
   <si>
     <t xml:space="preserve">0.581483120955203</t>
@@ -5780,10 +5780,10 @@
     <t xml:space="preserve">0.514772539576452</t>
   </si>
   <si>
-    <t xml:space="preserve">0.728387191949594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.726374744547916</t>
+    <t xml:space="preserve">0.728387191949593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.726374744547915</t>
   </si>
   <si>
     <t xml:space="preserve">0.7230096595124</t>
@@ -5873,7 +5873,7 @@
     <t xml:space="preserve">0.388399364835706</t>
   </si>
   <si>
-    <t xml:space="preserve">0.847632138521925</t>
+    <t xml:space="preserve">0.847632138521924</t>
   </si>
   <si>
     <t xml:space="preserve">0.548912264275738</t>
@@ -5996,10 +5996,10 @@
     <t xml:space="preserve">0.470743255623664</t>
   </si>
   <si>
-    <t xml:space="preserve">0.455896066078509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.451595234637499</t>
+    <t xml:space="preserve">0.455896066078508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.451595234637498</t>
   </si>
   <si>
     <t xml:space="preserve">0.313443201723429</t>
@@ -6026,7 +6026,7 @@
     <t xml:space="preserve">0.478756917573043</t>
   </si>
   <si>
-    <t xml:space="preserve">0.286984190446777</t>
+    <t xml:space="preserve">0.286984190446776</t>
   </si>
   <si>
     <t xml:space="preserve">0.288196557485785</t>
@@ -6080,13 +6080,13 @@
     <t xml:space="preserve">0.385191460334887</t>
   </si>
   <si>
-    <t xml:space="preserve">0.362969503658869</t>
+    <t xml:space="preserve">0.36296950365887</t>
   </si>
   <si>
     <t xml:space="preserve">0.396820740966746</t>
   </si>
   <si>
-    <t xml:space="preserve">0.328096354449608</t>
+    <t xml:space="preserve">0.328096354449609</t>
   </si>
   <si>
     <t xml:space="preserve">0.378739790758935</t>
@@ -6122,7 +6122,7 @@
     <t xml:space="preserve">0.292961247212906</t>
   </si>
   <si>
-    <t xml:space="preserve">0.307204905665758</t>
+    <t xml:space="preserve">0.307204905665759</t>
   </si>
   <si>
     <t xml:space="preserve">0.400845436633594</t>
@@ -6134,7 +6134,7 @@
     <t xml:space="preserve">0.302569854441249</t>
   </si>
   <si>
-    <t xml:space="preserve">0.472712698831889</t>
+    <t xml:space="preserve">0.472712698831888</t>
   </si>
   <si>
     <t xml:space="preserve">0.450774558474311</t>
@@ -6167,13 +6167,13 @@
     <t xml:space="preserve">0.371675344788211</t>
   </si>
   <si>
-    <t xml:space="preserve">0.301432120658055</t>
+    <t xml:space="preserve">0.301432120658054</t>
   </si>
   <si>
     <t xml:space="preserve">0.385791764751466</t>
   </si>
   <si>
-    <t xml:space="preserve">0.291868788369837</t>
+    <t xml:space="preserve">0.291868788369836</t>
   </si>
   <si>
     <t xml:space="preserve">0.276900853684099</t>
@@ -6182,7 +6182,7 @@
     <t xml:space="preserve">0.349342354628269</t>
   </si>
   <si>
-    <t xml:space="preserve">0.270557327279866</t>
+    <t xml:space="preserve">0.270557327279865</t>
   </si>
   <si>
     <t xml:space="preserve">0.325681142652003</t>
@@ -6206,7 +6206,7 @@
     <t xml:space="preserve">0.336998288729249</t>
   </si>
   <si>
-    <t xml:space="preserve">0.278589140270738</t>
+    <t xml:space="preserve">0.278589140270737</t>
   </si>
   <si>
     <t xml:space="preserve">0.317355323297541</t>
@@ -6272,13 +6272,13 @@
     <t xml:space="preserve">0.29604814759818</t>
   </si>
   <si>
-    <t xml:space="preserve">0.453273291406857</t>
+    <t xml:space="preserve">0.453273291406858</t>
   </si>
   <si>
     <t xml:space="preserve">0.361914451321243</t>
   </si>
   <si>
-    <t xml:space="preserve">0.403982398178772</t>
+    <t xml:space="preserve">0.403982398178773</t>
   </si>
   <si>
     <t xml:space="preserve">0.317406297410952</t>
@@ -6293,13 +6293,13 @@
     <t xml:space="preserve">0.502232373131091</t>
   </si>
   <si>
-    <t xml:space="preserve">0.810251034570608</t>
+    <t xml:space="preserve">0.810251034570609</t>
   </si>
   <si>
     <t xml:space="preserve">0.558962679641655</t>
   </si>
   <si>
-    <t xml:space="preserve">0.546822599927187</t>
+    <t xml:space="preserve">0.546822599927188</t>
   </si>
   <si>
     <t xml:space="preserve">0.466560470814739</t>
@@ -6311,7 +6311,7 @@
     <t xml:space="preserve">0.449684816901696</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.434878632487845</t>
+    <t xml:space="preserve">-0.434878632487846</t>
   </si>
   <si>
     <t xml:space="preserve">0.670500374160203</t>
@@ -6359,7 +6359,7 @@
     <t xml:space="preserve">0.716546152425315</t>
   </si>
   <si>
-    <t xml:space="preserve">0.6797383967623</t>
+    <t xml:space="preserve">0.679738396762299</t>
   </si>
   <si>
     <t xml:space="preserve">0.611088034522166</t>
@@ -6380,7 +6380,7 @@
     <t xml:space="preserve">0.73396695112804</t>
   </si>
   <si>
-    <t xml:space="preserve">0.53691975591819</t>
+    <t xml:space="preserve">0.536919755918189</t>
   </si>
   <si>
     <t xml:space="preserve">0.547601793581736</t>
@@ -6401,7 +6401,7 @@
     <t xml:space="preserve">0.777044566892238</t>
   </si>
   <si>
-    <t xml:space="preserve">0.825624512268451</t>
+    <t xml:space="preserve">0.82562451226845</t>
   </si>
   <si>
     <t xml:space="preserve">0.774972773748076</t>
@@ -6413,7 +6413,7 @@
     <t xml:space="preserve">0.616341559827611</t>
   </si>
   <si>
-    <t xml:space="preserve">0.660918410709945</t>
+    <t xml:space="preserve">0.660918410709944</t>
   </si>
   <si>
     <t xml:space="preserve">0.416234923175398</t>
@@ -6434,7 +6434,7 @@
     <t xml:space="preserve">0.423285740129112</t>
   </si>
   <si>
-    <t xml:space="preserve">0.778371848227969</t>
+    <t xml:space="preserve">0.778371848227968</t>
   </si>
   <si>
     <t xml:space="preserve">0.598136544442727</t>
@@ -6461,10 +6461,10 @@
     <t xml:space="preserve">0.693505286485151</t>
   </si>
   <si>
-    <t xml:space="preserve">0.690637276741534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.855440203172025</t>
+    <t xml:space="preserve">0.690637276741533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.855440203172024</t>
   </si>
   <si>
     <t xml:space="preserve">0.759931936965587</t>
@@ -6506,7 +6506,7 @@
     <t xml:space="preserve">0.639231037603024</t>
   </si>
   <si>
-    <t xml:space="preserve">0.792733670372654</t>
+    <t xml:space="preserve">0.792733670372653</t>
   </si>
   <si>
     <t xml:space="preserve">0.638684564808902</t>
@@ -6521,7 +6521,7 @@
     <t xml:space="preserve">0.731985406157631</t>
   </si>
   <si>
-    <t xml:space="preserve">0.840842130176794</t>
+    <t xml:space="preserve">0.840842130176793</t>
   </si>
   <si>
     <t xml:space="preserve">0.724943855964159</t>
@@ -6533,7 +6533,7 @@
     <t xml:space="preserve">-0.323413716769431</t>
   </si>
   <si>
-    <t xml:space="preserve">0.468721612416752</t>
+    <t xml:space="preserve">0.468721612416751</t>
   </si>
   <si>
     <t xml:space="preserve">0.696822134489725</t>
@@ -6545,7 +6545,7 @@
     <t xml:space="preserve">0.523811306705515</t>
   </si>
   <si>
-    <t xml:space="preserve">0.517450028718987</t>
+    <t xml:space="preserve">0.517450028718988</t>
   </si>
   <si>
     <t xml:space="preserve">0.303223658354792</t>
@@ -6563,7 +6563,7 @@
     <t xml:space="preserve">0.4472811055697</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.490799248529297</t>
+    <t xml:space="preserve">-0.490799248529298</t>
   </si>
   <si>
     <t xml:space="preserve">0.503081519382828</t>
@@ -6581,13 +6581,13 @@
     <t xml:space="preserve">0.590668383229475</t>
   </si>
   <si>
-    <t xml:space="preserve">0.481247962267202</t>
+    <t xml:space="preserve">0.481247962267203</t>
   </si>
   <si>
     <t xml:space="preserve">0.573993408687116</t>
   </si>
   <si>
-    <t xml:space="preserve">0.599027348355833</t>
+    <t xml:space="preserve">0.599027348355834</t>
   </si>
   <si>
     <t xml:space="preserve">0.600053675733111</t>
@@ -6602,7 +6602,7 @@
     <t xml:space="preserve">0.542420266874863</t>
   </si>
   <si>
-    <t xml:space="preserve">0.355696457615604</t>
+    <t xml:space="preserve">0.355696457615605</t>
   </si>
   <si>
     <t xml:space="preserve">0.426213416174624</t>
@@ -6632,7 +6632,7 @@
     <t xml:space="preserve">0.479059313389092</t>
   </si>
   <si>
-    <t xml:space="preserve">0.543870559999408</t>
+    <t xml:space="preserve">0.543870559999409</t>
   </si>
   <si>
     <t xml:space="preserve">0.496875182264651</t>
@@ -6662,7 +6662,7 @@
     <t xml:space="preserve">0.414151050447156</t>
   </si>
   <si>
-    <t xml:space="preserve">0.549581037884075</t>
+    <t xml:space="preserve">0.549581037884076</t>
   </si>
   <si>
     <t xml:space="preserve">0.438848665017065</t>
@@ -6674,13 +6674,13 @@
     <t xml:space="preserve">0.425688364623117</t>
   </si>
   <si>
-    <t xml:space="preserve">0.552175751882277</t>
+    <t xml:space="preserve">0.552175751882278</t>
   </si>
   <si>
     <t xml:space="preserve">0.482863469503305</t>
   </si>
   <si>
-    <t xml:space="preserve">0.558952619307492</t>
+    <t xml:space="preserve">0.558952619307491</t>
   </si>
   <si>
     <t xml:space="preserve">0.37844130972953</t>
@@ -6701,13 +6701,13 @@
     <t xml:space="preserve">0.519578303868942</t>
   </si>
   <si>
-    <t xml:space="preserve">0.580769697579163</t>
+    <t xml:space="preserve">0.580769697579164</t>
   </si>
   <si>
     <t xml:space="preserve">0.341782909560604</t>
   </si>
   <si>
-    <t xml:space="preserve">0.567557068091367</t>
+    <t xml:space="preserve">0.567557068091368</t>
   </si>
   <si>
     <t xml:space="preserve">0.63168000651048</t>
@@ -6734,7 +6734,7 @@
     <t xml:space="preserve">0.513565078170128</t>
   </si>
   <si>
-    <t xml:space="preserve">0.42420057979017</t>
+    <t xml:space="preserve">0.424200579790171</t>
   </si>
   <si>
     <t xml:space="preserve">0.483513962343732</t>
@@ -6776,7 +6776,7 @@
     <t xml:space="preserve">0.520479086286651</t>
   </si>
   <si>
-    <t xml:space="preserve">0.544210604508083</t>
+    <t xml:space="preserve">0.544210604508082</t>
   </si>
   <si>
     <t xml:space="preserve">0.361647815522678</t>
@@ -6800,19 +6800,19 @@
     <t xml:space="preserve">0.54589562832777</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.26826327245669</t>
+    <t xml:space="preserve">-0.268263272456691</t>
   </si>
   <si>
     <t xml:space="preserve">0.525209305462687</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.547284206933436</t>
+    <t xml:space="preserve">-0.547284206933437</t>
   </si>
   <si>
     <t xml:space="preserve">0.704889521206144</t>
   </si>
   <si>
-    <t xml:space="preserve">0.659203606874801</t>
+    <t xml:space="preserve">0.6592036068748</t>
   </si>
   <si>
     <t xml:space="preserve">0.634027319072324</t>
@@ -6863,7 +6863,7 @@
     <t xml:space="preserve">0.72627077837323</t>
   </si>
   <si>
-    <t xml:space="preserve">0.382041716266589</t>
+    <t xml:space="preserve">0.38204171626659</t>
   </si>
   <si>
     <t xml:space="preserve">0.396233900605517</t>
@@ -6875,7 +6875,7 @@
     <t xml:space="preserve">0.784841417657269</t>
   </si>
   <si>
-    <t xml:space="preserve">0.642250680592389</t>
+    <t xml:space="preserve">0.64225068059239</t>
   </si>
   <si>
     <t xml:space="preserve">0.682813744815054</t>
@@ -6896,7 +6896,7 @@
     <t xml:space="preserve">0.778284895538914</t>
   </si>
   <si>
-    <t xml:space="preserve">0.837083390670514</t>
+    <t xml:space="preserve">0.837083390670513</t>
   </si>
   <si>
     <t xml:space="preserve">0.883470555020097</t>
@@ -6914,19 +6914,19 @@
     <t xml:space="preserve">0.494031741974434</t>
   </si>
   <si>
-    <t xml:space="preserve">0.696390721870675</t>
+    <t xml:space="preserve">0.696390721870676</t>
   </si>
   <si>
     <t xml:space="preserve">0.810965435661633</t>
   </si>
   <si>
-    <t xml:space="preserve">0.719685700720419</t>
+    <t xml:space="preserve">0.71968570072042</t>
   </si>
   <si>
     <t xml:space="preserve">0.383738836699011</t>
   </si>
   <si>
-    <t xml:space="preserve">0.476981967286596</t>
+    <t xml:space="preserve">0.476981967286597</t>
   </si>
   <si>
     <t xml:space="preserve">0.787894775192138</t>
@@ -6944,7 +6944,7 @@
     <t xml:space="preserve">0.737852099199909</t>
   </si>
   <si>
-    <t xml:space="preserve">0.739288672743465</t>
+    <t xml:space="preserve">0.739288672743466</t>
   </si>
   <si>
     <t xml:space="preserve">0.672053136660817</t>
@@ -6956,7 +6956,7 @@
     <t xml:space="preserve">0.72752289802999</t>
   </si>
   <si>
-    <t xml:space="preserve">0.769976923350405</t>
+    <t xml:space="preserve">0.769976923350404</t>
   </si>
   <si>
     <t xml:space="preserve">0.830568380396977</t>
@@ -6989,13 +6989,13 @@
     <t xml:space="preserve">0.769643127880783</t>
   </si>
   <si>
-    <t xml:space="preserve">0.408321608843881</t>
+    <t xml:space="preserve">0.408321608843882</t>
   </si>
   <si>
     <t xml:space="preserve">0.646778333149529</t>
   </si>
   <si>
-    <t xml:space="preserve">0.72111458194293</t>
+    <t xml:space="preserve">0.721114581942929</t>
   </si>
   <si>
     <t xml:space="preserve">0.69901398348273</t>
@@ -7034,7 +7034,7 @@
     <t xml:space="preserve">0.709092099369718</t>
   </si>
   <si>
-    <t xml:space="preserve">0.863775469928911</t>
+    <t xml:space="preserve">0.86377546992891</t>
   </si>
   <si>
     <t xml:space="preserve">0.408292128941689</t>
@@ -7070,7 +7070,7 @@
     <t xml:space="preserve">0.681900867813598</t>
   </si>
   <si>
-    <t xml:space="preserve">0.536475018862423</t>
+    <t xml:space="preserve">0.536475018862422</t>
   </si>
   <si>
     <t xml:space="preserve">0.670755275306838</t>
@@ -7079,10 +7079,10 @@
     <t xml:space="preserve">0.658494434486496</t>
   </si>
   <si>
-    <t xml:space="preserve">0.696006389170974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.526909794892961</t>
+    <t xml:space="preserve">0.696006389170973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.52690979489296</t>
   </si>
   <si>
     <t xml:space="preserve">0.562820297307491</t>
@@ -7097,7 +7097,7 @@
     <t xml:space="preserve">0.577012494758533</t>
   </si>
   <si>
-    <t xml:space="preserve">0.604360112559011</t>
+    <t xml:space="preserve">0.60436011255901</t>
   </si>
   <si>
     <t xml:space="preserve">0.600586149759086</t>
@@ -7139,7 +7139,7 @@
     <t xml:space="preserve">0.70877943168279</t>
   </si>
   <si>
-    <t xml:space="preserve">0.350080875061846</t>
+    <t xml:space="preserve">0.350080875061847</t>
   </si>
   <si>
     <t xml:space="preserve">0.820508787707983</t>
@@ -7166,7 +7166,7 @@
     <t xml:space="preserve">0.386466606193826</t>
   </si>
   <si>
-    <t xml:space="preserve">0.691986349852208</t>
+    <t xml:space="preserve">0.691986349852207</t>
   </si>
   <si>
     <t xml:space="preserve">0.804608833637061</t>
@@ -7175,7 +7175,7 @@
     <t xml:space="preserve">0.617474635317119</t>
   </si>
   <si>
-    <t xml:space="preserve">0.458822815428299</t>
+    <t xml:space="preserve">0.458822815428298</t>
   </si>
   <si>
     <t xml:space="preserve">0.550823367405718</t>
@@ -7202,7 +7202,7 @@
     <t xml:space="preserve">0.818115580855405</t>
   </si>
   <si>
-    <t xml:space="preserve">0.631470531226625</t>
+    <t xml:space="preserve">0.631470531226624</t>
   </si>
   <si>
     <t xml:space="preserve">0.665136934747388</t>
@@ -7214,7 +7214,7 @@
     <t xml:space="preserve">0.872420927042428</t>
   </si>
   <si>
-    <t xml:space="preserve">0.833540978024395</t>
+    <t xml:space="preserve">0.833540978024394</t>
   </si>
   <si>
     <t xml:space="preserve">0.29345856032479</t>
@@ -7253,10 +7253,10 @@
     <t xml:space="preserve">0.660722845559056</t>
   </si>
   <si>
-    <t xml:space="preserve">0.787629199954433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.704693455523707</t>
+    <t xml:space="preserve">0.787629199954432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.704693455523706</t>
   </si>
   <si>
     <t xml:space="preserve">0.31364013963755</t>
@@ -7265,7 +7265,7 @@
     <t xml:space="preserve">0.438768925415341</t>
   </si>
   <si>
-    <t xml:space="preserve">0.780891336088533</t>
+    <t xml:space="preserve">0.780891336088532</t>
   </si>
   <si>
     <t xml:space="preserve">0.477988707801112</t>
@@ -7337,7 +7337,7 @@
     <t xml:space="preserve">0.512321242266257</t>
   </si>
   <si>
-    <t xml:space="preserve">0.753435193041222</t>
+    <t xml:space="preserve">0.753435193041221</t>
   </si>
   <si>
     <t xml:space="preserve">0.678344281934548</t>
@@ -7355,7 +7355,7 @@
     <t xml:space="preserve">0.620900618302408</t>
   </si>
   <si>
-    <t xml:space="preserve">0.468005591996861</t>
+    <t xml:space="preserve">0.468005591996862</t>
   </si>
   <si>
     <t xml:space="preserve">0.567059195470883</t>
@@ -7388,13 +7388,13 @@
     <t xml:space="preserve">0.561058025460014</t>
   </si>
   <si>
-    <t xml:space="preserve">0.4976438614395</t>
+    <t xml:space="preserve">0.497643861439501</t>
   </si>
   <si>
     <t xml:space="preserve">0.291052062282371</t>
   </si>
   <si>
-    <t xml:space="preserve">0.655243369615683</t>
+    <t xml:space="preserve">0.655243369615682</t>
   </si>
   <si>
     <t xml:space="preserve">0.808742357751272</t>
@@ -7490,7 +7490,7 @@
     <t xml:space="preserve">0.342307802968927</t>
   </si>
   <si>
-    <t xml:space="preserve">0.490390498264123</t>
+    <t xml:space="preserve">0.490390498264122</t>
   </si>
   <si>
     <t xml:space="preserve">0.760912355634397</t>
@@ -7499,10 +7499,10 @@
     <t xml:space="preserve">0.337100411192415</t>
   </si>
   <si>
-    <t xml:space="preserve">0.384747908064069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.425578723969361</t>
+    <t xml:space="preserve">0.38474790806407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.425578723969362</t>
   </si>
   <si>
     <t xml:space="preserve">0.448198897027772</t>
@@ -7595,7 +7595,7 @@
     <t xml:space="preserve">0.338546758812476</t>
   </si>
   <si>
-    <t xml:space="preserve">0.314777289446769</t>
+    <t xml:space="preserve">0.314777289446768</t>
   </si>
   <si>
     <t xml:space="preserve">0.400052983786708</t>
@@ -7616,7 +7616,7 @@
     <t xml:space="preserve">0.413843659254553</t>
   </si>
   <si>
-    <t xml:space="preserve">0.389714728960191</t>
+    <t xml:space="preserve">0.38971472896019</t>
   </si>
   <si>
     <t xml:space="preserve">0.390946868602934</t>
@@ -7694,10 +7694,10 @@
     <t xml:space="preserve">0.620110349003263</t>
   </si>
   <si>
-    <t xml:space="preserve">0.709683013626134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.488490346092404</t>
+    <t xml:space="preserve">0.709683013626135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.488490346092405</t>
   </si>
   <si>
     <t xml:space="preserve">0.524244347293827</t>
@@ -7748,7 +7748,7 @@
     <t xml:space="preserve">0.817670727131261</t>
   </si>
   <si>
-    <t xml:space="preserve">0.566975555593397</t>
+    <t xml:space="preserve">0.566975555593396</t>
   </si>
   <si>
     <t xml:space="preserve">0.440969943964482</t>
@@ -7763,7 +7763,7 @@
     <t xml:space="preserve">0.735261190516829</t>
   </si>
   <si>
-    <t xml:space="preserve">0.674070921335171</t>
+    <t xml:space="preserve">0.67407092133517</t>
   </si>
   <si>
     <t xml:space="preserve">0.4053404660207</t>
@@ -7778,7 +7778,7 @@
     <t xml:space="preserve">0.567936074849434</t>
   </si>
   <si>
-    <t xml:space="preserve">0.596602425461892</t>
+    <t xml:space="preserve">0.596602425461891</t>
   </si>
   <si>
     <t xml:space="preserve">0.656011424885002</t>
@@ -7790,7 +7790,7 @@
     <t xml:space="preserve">0.428058737097731</t>
   </si>
   <si>
-    <t xml:space="preserve">0.576309395368881</t>
+    <t xml:space="preserve">0.576309395368882</t>
   </si>
   <si>
     <t xml:space="preserve">0.599024533993101</t>
@@ -7799,7 +7799,7 @@
     <t xml:space="preserve">0.707610914725761</t>
   </si>
   <si>
-    <t xml:space="preserve">0.421817625034803</t>
+    <t xml:space="preserve">0.421817625034802</t>
   </si>
   <si>
     <t xml:space="preserve">0.485332416600782</t>
@@ -7838,10 +7838,10 @@
     <t xml:space="preserve">0.556889266900736</t>
   </si>
   <si>
-    <t xml:space="preserve">0.645177845262413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.547437127415703</t>
+    <t xml:space="preserve">0.645177845262412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.547437127415702</t>
   </si>
   <si>
     <t xml:space="preserve">0.608689369567857</t>
@@ -7862,7 +7862,7 @@
     <t xml:space="preserve">0.598095138650712</t>
   </si>
   <si>
-    <t xml:space="preserve">0.655745128246586</t>
+    <t xml:space="preserve">0.655745128246587</t>
   </si>
   <si>
     <t xml:space="preserve">0.349615373962754</t>
@@ -7913,7 +7913,7 @@
     <t xml:space="preserve">0.589003988058173</t>
   </si>
   <si>
-    <t xml:space="preserve">0.704472747401905</t>
+    <t xml:space="preserve">0.704472747401906</t>
   </si>
   <si>
     <t xml:space="preserve">-0.284943101184921</t>
@@ -7952,7 +7952,7 @@
     <t xml:space="preserve">-0.464525390735112</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.349407128314016</t>
+    <t xml:space="preserve">-0.349407128314017</t>
   </si>
   <si>
     <t xml:space="preserve">-0.306407334655803</t>
@@ -8012,7 +8012,7 @@
     <t xml:space="preserve">-0.265720846126199</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.383904720940013</t>
+    <t xml:space="preserve">-0.383904720940014</t>
   </si>
   <si>
     <t xml:space="preserve">-0.347640872894305</t>
@@ -8084,7 +8084,7 @@
     <t xml:space="preserve">0.411570857124788</t>
   </si>
   <si>
-    <t xml:space="preserve">0.463773811927554</t>
+    <t xml:space="preserve">0.463773811927553</t>
   </si>
   <si>
     <t xml:space="preserve">0.38389265854338</t>
@@ -8093,7 +8093,7 @@
     <t xml:space="preserve">0.439872360436369</t>
   </si>
   <si>
-    <t xml:space="preserve">0.495773299363249</t>
+    <t xml:space="preserve">0.495773299363248</t>
   </si>
   <si>
     <t xml:space="preserve">0.42304656560907</t>
@@ -8129,10 +8129,10 @@
     <t xml:space="preserve">0.615312162553869</t>
   </si>
   <si>
-    <t xml:space="preserve">0.553672565917952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.359630335298907</t>
+    <t xml:space="preserve">0.553672565917951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.359630335298908</t>
   </si>
   <si>
     <t xml:space="preserve">0.469216517803428</t>
@@ -8144,10 +8144,10 @@
     <t xml:space="preserve">0.440827695174837</t>
   </si>
   <si>
-    <t xml:space="preserve">0.514621363799429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.498765397885716</t>
+    <t xml:space="preserve">0.51462136379943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.498765397885715</t>
   </si>
   <si>
     <t xml:space="preserve">0.413652906403125</t>
@@ -8156,7 +8156,7 @@
     <t xml:space="preserve">0.324897394430926</t>
   </si>
   <si>
-    <t xml:space="preserve">0.472540479703481</t>
+    <t xml:space="preserve">0.472540479703482</t>
   </si>
   <si>
     <t xml:space="preserve">0.475226298325307</t>
@@ -8195,7 +8195,7 @@
     <t xml:space="preserve">0.511618377418278</t>
   </si>
   <si>
-    <t xml:space="preserve">0.514041895826068</t>
+    <t xml:space="preserve">0.514041895826067</t>
   </si>
   <si>
     <t xml:space="preserve">0.516944616270074</t>
@@ -8210,7 +8210,7 @@
     <t xml:space="preserve">0.437725672472236</t>
   </si>
   <si>
-    <t xml:space="preserve">0.38795720233857</t>
+    <t xml:space="preserve">0.387957202338569</t>
   </si>
   <si>
     <t xml:space="preserve">0.360073102557118</t>
@@ -8225,7 +8225,7 @@
     <t xml:space="preserve">0.399913519120902</t>
   </si>
   <si>
-    <t xml:space="preserve">0.477302711486207</t>
+    <t xml:space="preserve">0.477302711486206</t>
   </si>
   <si>
     <t xml:space="preserve">0.538464908278143</t>
@@ -8276,10 +8276,10 @@
     <t xml:space="preserve">0.538805909382832</t>
   </si>
   <si>
-    <t xml:space="preserve">0.461812265601124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.378463778325192</t>
+    <t xml:space="preserve">0.461812265601123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.378463778325191</t>
   </si>
   <si>
     <t xml:space="preserve">-0.469311689685357</t>
@@ -8288,7 +8288,7 @@
     <t xml:space="preserve">-0.505240123210697</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.476890653142077</t>
+    <t xml:space="preserve">-0.476890653142078</t>
   </si>
   <si>
     <t xml:space="preserve">-0.664656211691736</t>
@@ -8354,7 +8354,7 @@
     <t xml:space="preserve">-0.422339858662374</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.528209225855849</t>
+    <t xml:space="preserve">-0.52820922585585</t>
   </si>
   <si>
     <t xml:space="preserve">-0.35223241858663</t>
@@ -8393,7 +8393,7 @@
     <t xml:space="preserve">-0.363954700911708</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.569030737932355</t>
+    <t xml:space="preserve">-0.569030737932356</t>
   </si>
   <si>
     <t xml:space="preserve">-0.65777472186753</t>
@@ -8408,7 +8408,7 @@
     <t xml:space="preserve">-0.523200512383056</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.46309816914853</t>
+    <t xml:space="preserve">-0.463098169148531</t>
   </si>
   <si>
     <t xml:space="preserve">-0.49509625253071</t>
@@ -8444,7 +8444,7 @@
     <t xml:space="preserve">-0.709987136630661</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.638963950326377</t>
+    <t xml:space="preserve">-0.638963950326378</t>
   </si>
   <si>
     <t xml:space="preserve">-0.334970131660421</t>
@@ -8468,7 +8468,7 @@
     <t xml:space="preserve">-0.495911089685075</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.401145076173045</t>
+    <t xml:space="preserve">-0.401145076173046</t>
   </si>
   <si>
     <t xml:space="preserve">-0.500330148393752</t>
@@ -8501,7 +8501,7 @@
     <t xml:space="preserve">0.92460631740977</t>
   </si>
   <si>
-    <t xml:space="preserve">0.659447131423513</t>
+    <t xml:space="preserve">0.659447131423514</t>
   </si>
   <si>
     <t xml:space="preserve">0.647700182193748</t>
@@ -8537,7 +8537,7 @@
     <t xml:space="preserve">0.496479491391541</t>
   </si>
   <si>
-    <t xml:space="preserve">0.933458404707645</t>
+    <t xml:space="preserve">0.933458404707646</t>
   </si>
   <si>
     <t xml:space="preserve">0.773745862843577</t>
@@ -8549,7 +8549,7 @@
     <t xml:space="preserve">0.58486276613244</t>
   </si>
   <si>
-    <t xml:space="preserve">0.829018642052334</t>
+    <t xml:space="preserve">0.829018642052333</t>
   </si>
   <si>
     <t xml:space="preserve">0.380407059207436</t>
@@ -8573,13 +8573,13 @@
     <t xml:space="preserve">0.96409265764376</t>
   </si>
   <si>
-    <t xml:space="preserve">0.647653945696044</t>
+    <t xml:space="preserve">0.647653945696043</t>
   </si>
   <si>
     <t xml:space="preserve">0.832474686673657</t>
   </si>
   <si>
-    <t xml:space="preserve">0.814709746263485</t>
+    <t xml:space="preserve">0.814709746263486</t>
   </si>
   <si>
     <t xml:space="preserve">0.728130397692853</t>
@@ -8591,7 +8591,7 @@
     <t xml:space="preserve">0.774113553495327</t>
   </si>
   <si>
-    <t xml:space="preserve">0.680649679694508</t>
+    <t xml:space="preserve">0.680649679694507</t>
   </si>
   <si>
     <t xml:space="preserve">0.536666259174795</t>
@@ -8609,7 +8609,7 @@
     <t xml:space="preserve">0.524422978798077</t>
   </si>
   <si>
-    <t xml:space="preserve">0.603508413003846</t>
+    <t xml:space="preserve">0.603508413003845</t>
   </si>
   <si>
     <t xml:space="preserve">0.782408939821941</t>
@@ -8633,10 +8633,10 @@
     <t xml:space="preserve">0.634498270894122</t>
   </si>
   <si>
-    <t xml:space="preserve">0.908743680413725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.863728524753386</t>
+    <t xml:space="preserve">0.908743680413724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.863728524753385</t>
   </si>
   <si>
     <t xml:space="preserve">0.829538990241144</t>
@@ -8660,10 +8660,10 @@
     <t xml:space="preserve">0.710256400530274</t>
   </si>
   <si>
-    <t xml:space="preserve">0.712597338782476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.679618067649959</t>
+    <t xml:space="preserve">0.712597338782477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.679618067649958</t>
   </si>
   <si>
     <t xml:space="preserve">0.740816054125795</t>
@@ -8675,7 +8675,7 @@
     <t xml:space="preserve">0.823630669712996</t>
   </si>
   <si>
-    <t xml:space="preserve">0.919159711853527</t>
+    <t xml:space="preserve">0.919159711853526</t>
   </si>
   <si>
     <t xml:space="preserve">0.972031416998425</t>
@@ -8693,7 +8693,7 @@
     <t xml:space="preserve">0.917623094661873</t>
   </si>
   <si>
-    <t xml:space="preserve">0.303097793004734</t>
+    <t xml:space="preserve">0.303097793004735</t>
   </si>
   <si>
     <t xml:space="preserve">0.605656283395976</t>
@@ -8744,7 +8744,7 @@
     <t xml:space="preserve">0.865851066665056</t>
   </si>
   <si>
-    <t xml:space="preserve">0.510592362355568</t>
+    <t xml:space="preserve">0.510592362355567</t>
   </si>
   <si>
     <t xml:space="preserve">0.451973905609458</t>
@@ -8753,7 +8753,7 @@
     <t xml:space="preserve">0.647014351681721</t>
   </si>
   <si>
-    <t xml:space="preserve">0.594821144062673</t>
+    <t xml:space="preserve">0.594821144062672</t>
   </si>
   <si>
     <t xml:space="preserve">0.385163064007522</t>
@@ -8768,7 +8768,7 @@
     <t xml:space="preserve">0.633834552962196</t>
   </si>
   <si>
-    <t xml:space="preserve">0.507922520242132</t>
+    <t xml:space="preserve">0.507922520242131</t>
   </si>
   <si>
     <t xml:space="preserve">0.724549228141086</t>
@@ -8807,7 +8807,7 @@
     <t xml:space="preserve">0.855486676226154</t>
   </si>
   <si>
-    <t xml:space="preserve">0.717656495786196</t>
+    <t xml:space="preserve">0.717656495786195</t>
   </si>
   <si>
     <t xml:space="preserve">0.681403515958875</t>
@@ -8816,10 +8816,10 @@
     <t xml:space="preserve">0.794479291279502</t>
   </si>
   <si>
-    <t xml:space="preserve">0.697966748424967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.48001720557487</t>
+    <t xml:space="preserve">0.697966748424966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.480017205574871</t>
   </si>
   <si>
     <t xml:space="preserve">0.649986054808541</t>
@@ -8843,7 +8843,7 @@
     <t xml:space="preserve">0.671143609397831</t>
   </si>
   <si>
-    <t xml:space="preserve">0.304473134769118</t>
+    <t xml:space="preserve">0.304473134769119</t>
   </si>
   <si>
     <t xml:space="preserve">0.671868130423233</t>
@@ -8852,7 +8852,7 @@
     <t xml:space="preserve">0.776966308169793</t>
   </si>
   <si>
-    <t xml:space="preserve">0.80108388674173</t>
+    <t xml:space="preserve">0.801083886741731</t>
   </si>
   <si>
     <t xml:space="preserve">0.630248483402514</t>
@@ -8894,7 +8894,7 @@
     <t xml:space="preserve">0.755308184214936</t>
   </si>
   <si>
-    <t xml:space="preserve">0.694079494713784</t>
+    <t xml:space="preserve">0.694079494713783</t>
   </si>
   <si>
     <t xml:space="preserve">0.729898178322583</t>
@@ -8912,7 +8912,7 @@
     <t xml:space="preserve">0.746894527375865</t>
   </si>
   <si>
-    <t xml:space="preserve">0.832705435456538</t>
+    <t xml:space="preserve">0.832705435456537</t>
   </si>
   <si>
     <t xml:space="preserve">0.720510570516593</t>
@@ -8930,10 +8930,10 @@
     <t xml:space="preserve">0.840055698990171</t>
   </si>
   <si>
-    <t xml:space="preserve">0.804615220668924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.308704094203508</t>
+    <t xml:space="preserve">0.804615220668923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.308704094203507</t>
   </si>
   <si>
     <t xml:space="preserve">0.570407481203652</t>
@@ -8945,7 +8945,7 @@
     <t xml:space="preserve">0.828967617688701</t>
   </si>
   <si>
-    <t xml:space="preserve">0.605055040996261</t>
+    <t xml:space="preserve">0.60505504099626</t>
   </si>
   <si>
     <t xml:space="preserve">0.564489851372801</t>
@@ -8957,13 +8957,13 @@
     <t xml:space="preserve">0.57074063131848</t>
   </si>
   <si>
-    <t xml:space="preserve">0.798974387344474</t>
+    <t xml:space="preserve">0.798974387344473</t>
   </si>
   <si>
     <t xml:space="preserve">0.754446158398456</t>
   </si>
   <si>
-    <t xml:space="preserve">0.71449614945274</t>
+    <t xml:space="preserve">0.714496149452739</t>
   </si>
   <si>
     <t xml:space="preserve">0.452592355327958</t>
@@ -8975,13 +8975,13 @@
     <t xml:space="preserve">0.596097489029083</t>
   </si>
   <si>
-    <t xml:space="preserve">0.598618748334616</t>
+    <t xml:space="preserve">0.598618748334617</t>
   </si>
   <si>
     <t xml:space="preserve">0.319268392714222</t>
   </si>
   <si>
-    <t xml:space="preserve">0.926822460554879</t>
+    <t xml:space="preserve">0.926822460554878</t>
   </si>
   <si>
     <t xml:space="preserve">0.773103649901534</t>
@@ -8990,7 +8990,7 @@
     <t xml:space="preserve">0.732883691322263</t>
   </si>
   <si>
-    <t xml:space="preserve">0.493400226220434</t>
+    <t xml:space="preserve">0.493400226220435</t>
   </si>
   <si>
     <t xml:space="preserve">0.807698615789197</t>
@@ -9008,7 +9008,7 @@
     <t xml:space="preserve">0.633356823275574</t>
   </si>
   <si>
-    <t xml:space="preserve">0.868210635759718</t>
+    <t xml:space="preserve">0.868210635759719</t>
   </si>
   <si>
     <t xml:space="preserve">0.917786641737492</t>
@@ -9017,7 +9017,7 @@
     <t xml:space="preserve">0.692729995314135</t>
   </si>
   <si>
-    <t xml:space="preserve">0.756179743250757</t>
+    <t xml:space="preserve">0.756179743250758</t>
   </si>
   <si>
     <t xml:space="preserve">0.786075766455249</t>
@@ -9038,10 +9038,10 @@
     <t xml:space="preserve">0.476713997723914</t>
   </si>
   <si>
-    <t xml:space="preserve">0.713450982288111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.782877944224864</t>
+    <t xml:space="preserve">0.71345098228811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.782877944224863</t>
   </si>
   <si>
     <t xml:space="preserve">0.948302645160542</t>
@@ -9050,19 +9050,19 @@
     <t xml:space="preserve">0.627096118113147</t>
   </si>
   <si>
-    <t xml:space="preserve">0.646206937822249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.712036599311401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.606512581681914</t>
+    <t xml:space="preserve">0.646206937822248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7120365993114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.606512581681915</t>
   </si>
   <si>
     <t xml:space="preserve">0.35966683407406</t>
   </si>
   <si>
-    <t xml:space="preserve">0.592608506992322</t>
+    <t xml:space="preserve">0.592608506992323</t>
   </si>
   <si>
     <t xml:space="preserve">0.860724315820335</t>
@@ -9074,7 +9074,7 @@
     <t xml:space="preserve">0.523653007799221</t>
   </si>
   <si>
-    <t xml:space="preserve">0.88466137525928</t>
+    <t xml:space="preserve">0.884661375259281</t>
   </si>
   <si>
     <t xml:space="preserve">0.845344722106178</t>
@@ -9083,7 +9083,7 @@
     <t xml:space="preserve">0.83904460773818</t>
   </si>
   <si>
-    <t xml:space="preserve">0.773181594860061</t>
+    <t xml:space="preserve">0.77318159486006</t>
   </si>
   <si>
     <t xml:space="preserve">0.705765737325558</t>
@@ -9092,7 +9092,7 @@
     <t xml:space="preserve">0.736635290706817</t>
   </si>
   <si>
-    <t xml:space="preserve">0.643724025877592</t>
+    <t xml:space="preserve">0.643724025877591</t>
   </si>
   <si>
     <t xml:space="preserve">0.282123048247223</t>
@@ -9125,7 +9125,7 @@
     <t xml:space="preserve">0.947435204981337</t>
   </si>
   <si>
-    <t xml:space="preserve">0.68703962758095</t>
+    <t xml:space="preserve">0.687039627580951</t>
   </si>
   <si>
     <t xml:space="preserve">0.721155975604787</t>
@@ -9134,7 +9134,7 @@
     <t xml:space="preserve">0.620299542350272</t>
   </si>
   <si>
-    <t xml:space="preserve">0.832638459117511</t>
+    <t xml:space="preserve">0.83263845911751</t>
   </si>
   <si>
     <t xml:space="preserve">0.590435431879395</t>
@@ -9155,7 +9155,7 @@
     <t xml:space="preserve">0.750422276629592</t>
   </si>
   <si>
-    <t xml:space="preserve">0.752585981595751</t>
+    <t xml:space="preserve">0.752585981595752</t>
   </si>
   <si>
     <t xml:space="preserve">0.678265875937354</t>
@@ -9200,7 +9200,7 @@
     <t xml:space="preserve">0.662731662663045</t>
   </si>
   <si>
-    <t xml:space="preserve">0.575211181770424</t>
+    <t xml:space="preserve">0.575211181770425</t>
   </si>
   <si>
     <t xml:space="preserve">0.685125934036584</t>
@@ -9209,7 +9209,7 @@
     <t xml:space="preserve">0.313322394091406</t>
   </si>
   <si>
-    <t xml:space="preserve">0.52422050471603</t>
+    <t xml:space="preserve">0.524220504716031</t>
   </si>
   <si>
     <t xml:space="preserve">0.786786529684271</t>
@@ -9239,40 +9239,40 @@
     <t xml:space="preserve">0.818334135324789</t>
   </si>
   <si>
-    <t xml:space="preserve">0.830207663426125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.555270288786701</t>
+    <t xml:space="preserve">0.830207663426126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.555270288786702</t>
   </si>
   <si>
     <t xml:space="preserve">0.76149458616619</t>
   </si>
   <si>
-    <t xml:space="preserve">0.755783436394466</t>
+    <t xml:space="preserve">0.755783436394467</t>
   </si>
   <si>
     <t xml:space="preserve">0.575262765610173</t>
   </si>
   <si>
-    <t xml:space="preserve">0.676358618758659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.786491246409613</t>
+    <t xml:space="preserve">0.67635861875866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.786491246409614</t>
   </si>
   <si>
     <t xml:space="preserve">0.639482375602825</t>
   </si>
   <si>
-    <t xml:space="preserve">0.311013092399159</t>
+    <t xml:space="preserve">0.31101309239916</t>
   </si>
   <si>
     <t xml:space="preserve">0.382105434583565</t>
   </si>
   <si>
-    <t xml:space="preserve">0.795015437015969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.734561440589119</t>
+    <t xml:space="preserve">0.79501543701597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.73456144058912</t>
   </si>
   <si>
     <t xml:space="preserve">0.684491468093327</t>
@@ -9281,16 +9281,16 @@
     <t xml:space="preserve">0.593693485327368</t>
   </si>
   <si>
-    <t xml:space="preserve">0.700931638984477</t>
+    <t xml:space="preserve">0.700931638984478</t>
   </si>
   <si>
     <t xml:space="preserve">0.664769398416475</t>
   </si>
   <si>
-    <t xml:space="preserve">0.679694370932332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.615826162345313</t>
+    <t xml:space="preserve">0.679694370932333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.615826162345314</t>
   </si>
   <si>
     <t xml:space="preserve">0.62526162336846</t>
@@ -9320,13 +9320,13 @@
     <t xml:space="preserve">0.780657307817987</t>
   </si>
   <si>
-    <t xml:space="preserve">0.786370980261464</t>
+    <t xml:space="preserve">0.786370980261465</t>
   </si>
   <si>
     <t xml:space="preserve">0.317754192004076</t>
   </si>
   <si>
-    <t xml:space="preserve">0.661971821299845</t>
+    <t xml:space="preserve">0.661971821299846</t>
   </si>
   <si>
     <t xml:space="preserve">0.406516342361044</t>
@@ -9338,10 +9338,10 @@
     <t xml:space="preserve">0.646548109535762</t>
   </si>
   <si>
-    <t xml:space="preserve">0.71308020984446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.791393078670543</t>
+    <t xml:space="preserve">0.713080209844461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.791393078670544</t>
   </si>
   <si>
     <t xml:space="preserve">0.685228956885047</t>
@@ -9425,7 +9425,7 @@
     <t xml:space="preserve">0.582164790539655</t>
   </si>
   <si>
-    <t xml:space="preserve">0.758783923293262</t>
+    <t xml:space="preserve">0.758783923293261</t>
   </si>
   <si>
     <t xml:space="preserve">0.706417582310396</t>
@@ -9440,7 +9440,7 @@
     <t xml:space="preserve">0.727931109958716</t>
   </si>
   <si>
-    <t xml:space="preserve">0.726600438096779</t>
+    <t xml:space="preserve">0.726600438096778</t>
   </si>
   <si>
     <t xml:space="preserve">0.532537977680492</t>
@@ -9452,7 +9452,7 @@
     <t xml:space="preserve">0.772010206606407</t>
   </si>
   <si>
-    <t xml:space="preserve">0.788595082528931</t>
+    <t xml:space="preserve">0.788595082528932</t>
   </si>
   <si>
     <t xml:space="preserve">0.702038463951648</t>
@@ -9476,7 +9476,7 @@
     <t xml:space="preserve">0.712822768170737</t>
   </si>
   <si>
-    <t xml:space="preserve">0.461914804281751</t>
+    <t xml:space="preserve">0.461914804281752</t>
   </si>
   <si>
     <t xml:space="preserve">0.482103434909259</t>
@@ -9503,7 +9503,7 @@
     <t xml:space="preserve">0.759944833656858</t>
   </si>
   <si>
-    <t xml:space="preserve">0.764653571699051</t>
+    <t xml:space="preserve">0.76465357169905</t>
   </si>
   <si>
     <t xml:space="preserve">0.749320971185396</t>
@@ -9515,13 +9515,13 @@
     <t xml:space="preserve">0.624075229554244</t>
   </si>
   <si>
-    <t xml:space="preserve">0.835380517289913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.517340342220964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.72032986641179</t>
+    <t xml:space="preserve">0.835380517289914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.517340342220963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.720329866411791</t>
   </si>
   <si>
     <t xml:space="preserve">0.730302734737784</t>
@@ -9530,7 +9530,7 @@
     <t xml:space="preserve">0.662541427507628</t>
   </si>
   <si>
-    <t xml:space="preserve">0.707216984908158</t>
+    <t xml:space="preserve">0.707216984908159</t>
   </si>
   <si>
     <t xml:space="preserve">0.404799637102683</t>
@@ -9542,7 +9542,7 @@
     <t xml:space="preserve">0.543808661312287</t>
   </si>
   <si>
-    <t xml:space="preserve">0.636054441697456</t>
+    <t xml:space="preserve">0.636054441697457</t>
   </si>
   <si>
     <t xml:space="preserve">0.704505257600504</t>
@@ -9554,7 +9554,7 @@
     <t xml:space="preserve">0.770856562711929</t>
   </si>
   <si>
-    <t xml:space="preserve">0.743371867873852</t>
+    <t xml:space="preserve">0.743371867873853</t>
   </si>
   <si>
     <t xml:space="preserve">0.732638966160437</t>
@@ -9569,13 +9569,13 @@
     <t xml:space="preserve">0.762085000029805</t>
   </si>
   <si>
-    <t xml:space="preserve">0.782017395241589</t>
+    <t xml:space="preserve">0.78201739524159</t>
   </si>
   <si>
     <t xml:space="preserve">0.791723344285038</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.39049801507401</t>
+    <t xml:space="preserve">-0.390498015074009</t>
   </si>
   <si>
     <t xml:space="preserve">0.412229350626038</t>
@@ -9596,7 +9596,7 @@
     <t xml:space="preserve">0.739101168211124</t>
   </si>
   <si>
-    <t xml:space="preserve">0.638948978717096</t>
+    <t xml:space="preserve">0.638948978717095</t>
   </si>
   <si>
     <t xml:space="preserve">0.553070677885317</t>
@@ -9605,7 +9605,7 @@
     <t xml:space="preserve">0.613078262307616</t>
   </si>
   <si>
-    <t xml:space="preserve">0.491843124346536</t>
+    <t xml:space="preserve">0.491843124346535</t>
   </si>
   <si>
     <t xml:space="preserve">0.430761328300634</t>
@@ -9614,7 +9614,7 @@
     <t xml:space="preserve">0.598556524886488</t>
   </si>
   <si>
-    <t xml:space="preserve">0.504406387209968</t>
+    <t xml:space="preserve">0.504406387209967</t>
   </si>
   <si>
     <t xml:space="preserve">0.584582417301391</t>
@@ -9623,7 +9623,7 @@
     <t xml:space="preserve">0.701997455128477</t>
   </si>
   <si>
-    <t xml:space="preserve">0.613405899466759</t>
+    <t xml:space="preserve">0.613405899466758</t>
   </si>
   <si>
     <t xml:space="preserve">0.349616547759241</t>
@@ -9635,10 +9635,10 @@
     <t xml:space="preserve">0.446597083508292</t>
   </si>
   <si>
-    <t xml:space="preserve">0.690554559910083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.539481889982207</t>
+    <t xml:space="preserve">0.690554559910082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.539481889982206</t>
   </si>
   <si>
     <t xml:space="preserve">0.599166551817688</t>
@@ -9647,7 +9647,7 @@
     <t xml:space="preserve">0.432000198940532</t>
   </si>
   <si>
-    <t xml:space="preserve">0.582438319856556</t>
+    <t xml:space="preserve">0.582438319856555</t>
   </si>
   <si>
     <t xml:space="preserve">0.632453818719369</t>
@@ -9680,7 +9680,7 @@
     <t xml:space="preserve">0.544860237174049</t>
   </si>
   <si>
-    <t xml:space="preserve">0.634476227699097</t>
+    <t xml:space="preserve">0.634476227699096</t>
   </si>
   <si>
     <t xml:space="preserve">0.642017311237149</t>
@@ -9737,7 +9737,7 @@
     <t xml:space="preserve">0.295751003572278</t>
   </si>
   <si>
-    <t xml:space="preserve">0.645650122496566</t>
+    <t xml:space="preserve">0.645650122496565</t>
   </si>
   <si>
     <t xml:space="preserve">0.66695666265098</t>
@@ -9761,13 +9761,13 @@
     <t xml:space="preserve">0.637248514810659</t>
   </si>
   <si>
-    <t xml:space="preserve">0.605492633215571</t>
+    <t xml:space="preserve">0.60549263321557</t>
   </si>
   <si>
     <t xml:space="preserve">0.551882746330704</t>
   </si>
   <si>
-    <t xml:space="preserve">0.522684570791328</t>
+    <t xml:space="preserve">0.522684570791329</t>
   </si>
   <si>
     <t xml:space="preserve">0.654966436361668</t>
@@ -9797,7 +9797,7 @@
     <t xml:space="preserve">0.543905484188943</t>
   </si>
   <si>
-    <t xml:space="preserve">0.704420043880201</t>
+    <t xml:space="preserve">0.704420043880202</t>
   </si>
   <si>
     <t xml:space="preserve">-0.312186984550933</t>
@@ -9821,7 +9821,7 @@
     <t xml:space="preserve">0.652582198337497</t>
   </si>
   <si>
-    <t xml:space="preserve">0.586752577528034</t>
+    <t xml:space="preserve">0.586752577528033</t>
   </si>
   <si>
     <t xml:space="preserve">0.363067716790911</t>
@@ -9833,10 +9833,10 @@
     <t xml:space="preserve">0.801999651564181</t>
   </si>
   <si>
-    <t xml:space="preserve">0.759585080081798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.653641941735793</t>
+    <t xml:space="preserve">0.759585080081797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.653641941735792</t>
   </si>
   <si>
     <t xml:space="preserve">0.824578038548343</t>
@@ -9845,7 +9845,7 @@
     <t xml:space="preserve">0.30773781404184</t>
   </si>
   <si>
-    <t xml:space="preserve">0.673649037185912</t>
+    <t xml:space="preserve">0.673649037185911</t>
   </si>
   <si>
     <t xml:space="preserve">0.81131491715016</t>
@@ -9869,7 +9869,7 @@
     <t xml:space="preserve">0.606846909551005</t>
   </si>
   <si>
-    <t xml:space="preserve">0.874559437203539</t>
+    <t xml:space="preserve">0.874559437203538</t>
   </si>
   <si>
     <t xml:space="preserve">0.859566696674741</t>
@@ -9884,7 +9884,7 @@
     <t xml:space="preserve">0.76636684680546</t>
   </si>
   <si>
-    <t xml:space="preserve">0.761120696218434</t>
+    <t xml:space="preserve">0.761120696218433</t>
   </si>
   <si>
     <t xml:space="preserve">0.518230736057988</t>
@@ -9905,7 +9905,7 @@
     <t xml:space="preserve">0.530174266336425</t>
   </si>
   <si>
-    <t xml:space="preserve">0.879976654580576</t>
+    <t xml:space="preserve">0.879976654580575</t>
   </si>
   <si>
     <t xml:space="preserve">0.691499273839036</t>
@@ -9929,10 +9929,10 @@
     <t xml:space="preserve">0.907743455941969</t>
   </si>
   <si>
-    <t xml:space="preserve">0.827683014066513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.832169171003825</t>
+    <t xml:space="preserve">0.827683014066512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.832169171003824</t>
   </si>
   <si>
     <t xml:space="preserve">0.884796539569562</t>
@@ -9944,7 +9944,7 @@
     <t xml:space="preserve">0.85233721136024</t>
   </si>
   <si>
-    <t xml:space="preserve">0.634896061499219</t>
+    <t xml:space="preserve">0.634896061499218</t>
   </si>
   <si>
     <t xml:space="preserve">0.2909970755412</t>
@@ -9956,7 +9956,7 @@
     <t xml:space="preserve">0.786894937896952</t>
   </si>
   <si>
-    <t xml:space="preserve">0.699400156062717</t>
+    <t xml:space="preserve">0.699400156062716</t>
   </si>
   <si>
     <t xml:space="preserve">0.749824912135338</t>
@@ -9980,13 +9980,13 @@
     <t xml:space="preserve">0.715668130885499</t>
   </si>
   <si>
-    <t xml:space="preserve">0.902341060373486</t>
+    <t xml:space="preserve">0.902341060373485</t>
   </si>
   <si>
     <t xml:space="preserve">0.753678832268799</t>
   </si>
   <si>
-    <t xml:space="preserve">0.844561975984026</t>
+    <t xml:space="preserve">0.844561975984025</t>
   </si>
   <si>
     <t xml:space="preserve">0.368838164645146</t>
@@ -10010,7 +10010,7 @@
     <t xml:space="preserve">0.671164002575848</t>
   </si>
   <si>
-    <t xml:space="preserve">0.739916299124344</t>
+    <t xml:space="preserve">0.739916299124343</t>
   </si>
   <si>
     <t xml:space="preserve">0.889188925529956</t>
@@ -10022,7 +10022,7 @@
     <t xml:space="preserve">0.91379442748321</t>
   </si>
   <si>
-    <t xml:space="preserve">0.709238220884339</t>
+    <t xml:space="preserve">0.709238220884338</t>
   </si>
   <si>
     <t xml:space="preserve">0.346699129655001</t>
@@ -10040,7 +10040,7 @@
     <t xml:space="preserve">0.837952289388161</t>
   </si>
   <si>
-    <t xml:space="preserve">0.737308376750293</t>
+    <t xml:space="preserve">0.737308376750294</t>
   </si>
   <si>
     <t xml:space="preserve">0.689269448561119</t>
@@ -10088,7 +10088,7 @@
     <t xml:space="preserve">0.873805172431479</t>
   </si>
   <si>
-    <t xml:space="preserve">0.839902086526634</t>
+    <t xml:space="preserve">0.839902086526633</t>
   </si>
   <si>
     <t xml:space="preserve">0.768727914888717</t>
@@ -10097,7 +10097,7 @@
     <t xml:space="preserve">0.804917524599128</t>
   </si>
   <si>
-    <t xml:space="preserve">0.801275133433043</t>
+    <t xml:space="preserve">0.801275133433042</t>
   </si>
   <si>
     <t xml:space="preserve">0.623617887864456</t>
@@ -10112,13 +10112,13 @@
     <t xml:space="preserve">0.841163456177999</t>
   </si>
   <si>
-    <t xml:space="preserve">0.427341673871262</t>
+    <t xml:space="preserve">0.427341673871263</t>
   </si>
   <si>
     <t xml:space="preserve">0.482766545257658</t>
   </si>
   <si>
-    <t xml:space="preserve">0.910639799896578</t>
+    <t xml:space="preserve">0.910639799896577</t>
   </si>
   <si>
     <t xml:space="preserve">0.741060494314113</t>
@@ -10133,7 +10133,7 @@
     <t xml:space="preserve">0.735390439654225</t>
   </si>
   <si>
-    <t xml:space="preserve">0.839926108895208</t>
+    <t xml:space="preserve">0.839926108895209</t>
   </si>
   <si>
     <t xml:space="preserve">0.665691571497938</t>
@@ -10142,7 +10142,7 @@
     <t xml:space="preserve">0.830476475283637</t>
   </si>
   <si>
-    <t xml:space="preserve">0.844088685001164</t>
+    <t xml:space="preserve">0.844088685001165</t>
   </si>
   <si>
     <t xml:space="preserve">0.812515094662513</t>
@@ -10163,7 +10163,7 @@
     <t xml:space="preserve">0.328889336219509</t>
   </si>
   <si>
-    <t xml:space="preserve">0.798825263159662</t>
+    <t xml:space="preserve">0.798825263159661</t>
   </si>
   <si>
     <t xml:space="preserve">0.823436803953566</t>
@@ -10175,7 +10175,7 @@
     <t xml:space="preserve">0.807948132593509</t>
   </si>
   <si>
-    <t xml:space="preserve">0.521824168420245</t>
+    <t xml:space="preserve">0.521824168420246</t>
   </si>
   <si>
     <t xml:space="preserve">0.798224949114061</t>
@@ -10193,7 +10193,7 @@
     <t xml:space="preserve">0.772237020913518</t>
   </si>
   <si>
-    <t xml:space="preserve">0.847930751237286</t>
+    <t xml:space="preserve">0.847930751237285</t>
   </si>
   <si>
     <t xml:space="preserve">0.720732825854886</t>
@@ -10226,7 +10226,7 @@
     <t xml:space="preserve">0.695468672975336</t>
   </si>
   <si>
-    <t xml:space="preserve">0.871326304968419</t>
+    <t xml:space="preserve">0.87132630496842</t>
   </si>
   <si>
     <t xml:space="preserve">0.443827515987265</t>
@@ -10247,7 +10247,7 @@
     <t xml:space="preserve">0.323472563476662</t>
   </si>
   <si>
-    <t xml:space="preserve">0.275256394442684</t>
+    <t xml:space="preserve">0.275256394442683</t>
   </si>
   <si>
     <t xml:space="preserve">0.291789532974402</t>
@@ -10292,16 +10292,16 @@
     <t xml:space="preserve">0.549543033616802</t>
   </si>
   <si>
-    <t xml:space="preserve">0.834847051460326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.772547306456656</t>
+    <t xml:space="preserve">0.834847051460325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.772547306456655</t>
   </si>
   <si>
     <t xml:space="preserve">0.621368128425895</t>
   </si>
   <si>
-    <t xml:space="preserve">0.420314293263495</t>
+    <t xml:space="preserve">0.420314293263494</t>
   </si>
   <si>
     <t xml:space="preserve">0.775592837625287</t>
@@ -10316,7 +10316,7 @@
     <t xml:space="preserve">0.859037627976824</t>
   </si>
   <si>
-    <t xml:space="preserve">0.916019268076819</t>
+    <t xml:space="preserve">0.916019268076818</t>
   </si>
   <si>
     <t xml:space="preserve">0.811601356774863</t>
@@ -10325,7 +10325,7 @@
     <t xml:space="preserve">0.710975462348908</t>
   </si>
   <si>
-    <t xml:space="preserve">0.81382807858829</t>
+    <t xml:space="preserve">0.813828078588289</t>
   </si>
   <si>
     <t xml:space="preserve">0.804352240545212</t>
@@ -10334,7 +10334,7 @@
     <t xml:space="preserve">0.556541320320928</t>
   </si>
   <si>
-    <t xml:space="preserve">0.760321145486199</t>
+    <t xml:space="preserve">0.7603211454862</t>
   </si>
   <si>
     <t xml:space="preserve">0.88943948623749</t>
@@ -10361,13 +10361,13 @@
     <t xml:space="preserve">0.808927400954977</t>
   </si>
   <si>
-    <t xml:space="preserve">0.718548597332176</t>
+    <t xml:space="preserve">0.718548597332175</t>
   </si>
   <si>
     <t xml:space="preserve">0.875420093804435</t>
   </si>
   <si>
-    <t xml:space="preserve">0.688055811871868</t>
+    <t xml:space="preserve">0.688055811871867</t>
   </si>
   <si>
     <t xml:space="preserve">0.791276929247869</t>
@@ -10379,7 +10379,7 @@
     <t xml:space="preserve">0.717738242325211</t>
   </si>
   <si>
-    <t xml:space="preserve">0.940349503409434</t>
+    <t xml:space="preserve">0.940349503409433</t>
   </si>
   <si>
     <t xml:space="preserve">0.739057884945401</t>
@@ -10388,7 +10388,7 @@
     <t xml:space="preserve">0.89560822342875</t>
   </si>
   <si>
-    <t xml:space="preserve">0.632589548063187</t>
+    <t xml:space="preserve">0.632589548063186</t>
   </si>
   <si>
     <t xml:space="preserve">0.323107115606573</t>
@@ -10403,22 +10403,22 @@
     <t xml:space="preserve">0.79400965569743</t>
   </si>
   <si>
-    <t xml:space="preserve">0.823968605411195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.466686173073552</t>
+    <t xml:space="preserve">0.823968605411194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.466686173073551</t>
   </si>
   <si>
     <t xml:space="preserve">0.780537494871031</t>
   </si>
   <si>
-    <t xml:space="preserve">0.517690738775893</t>
+    <t xml:space="preserve">0.517690738775894</t>
   </si>
   <si>
     <t xml:space="preserve">0.761746187449163</t>
   </si>
   <si>
-    <t xml:space="preserve">0.780875604906157</t>
+    <t xml:space="preserve">0.780875604906156</t>
   </si>
   <si>
     <t xml:space="preserve">0.731079016217697</t>
@@ -10430,7 +10430,7 @@
     <t xml:space="preserve">0.795021453344766</t>
   </si>
   <si>
-    <t xml:space="preserve">0.838246287002893</t>
+    <t xml:space="preserve">0.838246287002894</t>
   </si>
   <si>
     <t xml:space="preserve">0.368101340792495</t>
@@ -10439,10 +10439,10 @@
     <t xml:space="preserve">0.716623218362623</t>
   </si>
   <si>
-    <t xml:space="preserve">0.870260219293492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.912450703595115</t>
+    <t xml:space="preserve">0.870260219293491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.912450703595116</t>
   </si>
   <si>
     <t xml:space="preserve">0.888564651741864</t>
@@ -10466,7 +10466,7 @@
     <t xml:space="preserve">0.384967936970689</t>
   </si>
   <si>
-    <t xml:space="preserve">0.552003839734525</t>
+    <t xml:space="preserve">0.552003839734526</t>
   </si>
   <si>
     <t xml:space="preserve">0.53116747000344</t>
@@ -10481,7 +10481,7 @@
     <t xml:space="preserve">0.442197811445609</t>
   </si>
   <si>
-    <t xml:space="preserve">0.40462608567727</t>
+    <t xml:space="preserve">0.404626085677269</t>
   </si>
   <si>
     <t xml:space="preserve">0.268323505351226</t>
@@ -10493,7 +10493,7 @@
     <t xml:space="preserve">0.575128536038051</t>
   </si>
   <si>
-    <t xml:space="preserve">0.643625877345727</t>
+    <t xml:space="preserve">0.643625877345728</t>
   </si>
   <si>
     <t xml:space="preserve">0.520585178059305</t>
@@ -10520,7 +10520,7 @@
     <t xml:space="preserve">0.581147125417368</t>
   </si>
   <si>
-    <t xml:space="preserve">0.464181288821941</t>
+    <t xml:space="preserve">0.46418128882194</t>
   </si>
   <si>
     <t xml:space="preserve">0.671742817121464</t>
@@ -10538,7 +10538,7 @@
     <t xml:space="preserve">0.538946776434581</t>
   </si>
   <si>
-    <t xml:space="preserve">0.572555330623151</t>
+    <t xml:space="preserve">0.57255533062315</t>
   </si>
   <si>
     <t xml:space="preserve">0.319092882481221</t>
@@ -10589,7 +10589,7 @@
     <t xml:space="preserve">0.596303110798917</t>
   </si>
   <si>
-    <t xml:space="preserve">0.645368439636914</t>
+    <t xml:space="preserve">0.645368439636913</t>
   </si>
   <si>
     <t xml:space="preserve">0.598896313143391</t>
@@ -10682,7 +10682,7 @@
     <t xml:space="preserve">0.371317551342778</t>
   </si>
   <si>
-    <t xml:space="preserve">0.430475062204302</t>
+    <t xml:space="preserve">0.430475062204303</t>
   </si>
   <si>
     <t xml:space="preserve">0.406298316519422</t>
@@ -10733,7 +10733,7 @@
     <t xml:space="preserve">0.330694452995989</t>
   </si>
   <si>
-    <t xml:space="preserve">0.38361546091202</t>
+    <t xml:space="preserve">0.383615460912021</t>
   </si>
   <si>
     <t xml:space="preserve">0.375485796757636</t>
@@ -10775,7 +10775,7 @@
     <t xml:space="preserve">0.361938848172742</t>
   </si>
   <si>
-    <t xml:space="preserve">0.284908389577369</t>
+    <t xml:space="preserve">0.28490838957737</t>
   </si>
   <si>
     <t xml:space="preserve">0.437703937930354</t>
@@ -10790,7 +10790,7 @@
     <t xml:space="preserve">0.604591777552356</t>
   </si>
   <si>
-    <t xml:space="preserve">0.584344090789675</t>
+    <t xml:space="preserve">0.584344090789674</t>
   </si>
   <si>
     <t xml:space="preserve">0.438466085758227</t>
@@ -10802,16 +10802,16 @@
     <t xml:space="preserve">0.328624955510909</t>
   </si>
   <si>
-    <t xml:space="preserve">0.557655157618459</t>
+    <t xml:space="preserve">0.557655157618458</t>
   </si>
   <si>
     <t xml:space="preserve">0.682803166600452</t>
   </si>
   <si>
-    <t xml:space="preserve">0.632067220127264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.526257846550735</t>
+    <t xml:space="preserve">0.632067220127263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.526257846550734</t>
   </si>
   <si>
     <t xml:space="preserve">0.34585228599938</t>
@@ -10832,7 +10832,7 @@
     <t xml:space="preserve">0.757995332828137</t>
   </si>
   <si>
-    <t xml:space="preserve">0.631564142048294</t>
+    <t xml:space="preserve">0.631564142048293</t>
   </si>
   <si>
     <t xml:space="preserve">0.646380103978793</t>
@@ -10898,7 +10898,7 @@
     <t xml:space="preserve">0.51184264737401</t>
   </si>
   <si>
-    <t xml:space="preserve">0.745375504382712</t>
+    <t xml:space="preserve">0.745375504382711</t>
   </si>
   <si>
     <t xml:space="preserve">0.564572742917825</t>
@@ -10919,7 +10919,7 @@
     <t xml:space="preserve">0.68570535199414</t>
   </si>
   <si>
-    <t xml:space="preserve">0.448216325687059</t>
+    <t xml:space="preserve">0.448216325687058</t>
   </si>
   <si>
     <t xml:space="preserve">0.595150682430532</t>
@@ -10928,10 +10928,10 @@
     <t xml:space="preserve">0.289025630093386</t>
   </si>
   <si>
-    <t xml:space="preserve">0.614635595247914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.629846863655062</t>
+    <t xml:space="preserve">0.614635595247913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.629846863655061</t>
   </si>
   <si>
     <t xml:space="preserve">0.659042698171303</t>
@@ -11000,7 +11000,7 @@
     <t xml:space="preserve">0.411204709435271</t>
   </si>
   <si>
-    <t xml:space="preserve">0.367362207208328</t>
+    <t xml:space="preserve">0.367362207208327</t>
   </si>
   <si>
     <t xml:space="preserve">0.421129471624657</t>
@@ -11051,7 +11051,7 @@
     <t xml:space="preserve">0.54233334246573</t>
   </si>
   <si>
-    <t xml:space="preserve">0.330488996754309</t>
+    <t xml:space="preserve">0.33048899675431</t>
   </si>
   <si>
     <t xml:space="preserve">0.424999533170952</t>
@@ -11114,7 +11114,7 @@
     <t xml:space="preserve">0.560031370790372</t>
   </si>
   <si>
-    <t xml:space="preserve">0.579937278730929</t>
+    <t xml:space="preserve">0.57993727873093</t>
   </si>
   <si>
     <t xml:space="preserve">0.310820922904296</t>
@@ -11186,13 +11186,13 @@
     <t xml:space="preserve">0.37627336017897</t>
   </si>
   <si>
-    <t xml:space="preserve">0.382017855303192</t>
+    <t xml:space="preserve">0.382017855303191</t>
   </si>
   <si>
     <t xml:space="preserve">0.418053086578562</t>
   </si>
   <si>
-    <t xml:space="preserve">0.422717037280974</t>
+    <t xml:space="preserve">0.422717037280973</t>
   </si>
   <si>
     <t xml:space="preserve">0.422897064711356</t>
@@ -11213,7 +11213,7 @@
     <t xml:space="preserve">0.366605800016112</t>
   </si>
   <si>
-    <t xml:space="preserve">0.447905573192804</t>
+    <t xml:space="preserve">0.447905573192803</t>
   </si>
   <si>
     <t xml:space="preserve">0.484588316936026</t>
@@ -11231,7 +11231,7 @@
     <t xml:space="preserve">0.432396531217675</t>
   </si>
   <si>
-    <t xml:space="preserve">0.535724480232755</t>
+    <t xml:space="preserve">0.535724480232756</t>
   </si>
   <si>
     <t xml:space="preserve">0.507583178921354</t>
@@ -11243,7 +11243,7 @@
     <t xml:space="preserve">0.32723620378172</t>
   </si>
   <si>
-    <t xml:space="preserve">0.391406218381534</t>
+    <t xml:space="preserve">0.391406218381533</t>
   </si>
   <si>
     <t xml:space="preserve">0.270455224957677</t>
@@ -11354,19 +11354,19 @@
     <t xml:space="preserve">0.711183984412166</t>
   </si>
   <si>
-    <t xml:space="preserve">0.813181593029086</t>
+    <t xml:space="preserve">0.813181593029087</t>
   </si>
   <si>
     <t xml:space="preserve">0.710920591481174</t>
   </si>
   <si>
-    <t xml:space="preserve">0.502491184057593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.707864883547033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.851418801305283</t>
+    <t xml:space="preserve">0.502491184057592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.707864883547032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.851418801305284</t>
   </si>
   <si>
     <t xml:space="preserve">0.926189881585767</t>
@@ -11411,7 +11411,7 @@
     <t xml:space="preserve">0.86864640620741</t>
   </si>
   <si>
-    <t xml:space="preserve">0.743996894028548</t>
+    <t xml:space="preserve">0.743996894028547</t>
   </si>
   <si>
     <t xml:space="preserve">0.815017370304284</t>
@@ -11432,7 +11432,7 @@
     <t xml:space="preserve">0.735042265141238</t>
   </si>
   <si>
-    <t xml:space="preserve">0.770444224676814</t>
+    <t xml:space="preserve">0.770444224676815</t>
   </si>
   <si>
     <t xml:space="preserve">0.774269803956795</t>
@@ -11456,7 +11456,7 @@
     <t xml:space="preserve">0.819827002780114</t>
   </si>
   <si>
-    <t xml:space="preserve">0.728757318442247</t>
+    <t xml:space="preserve">0.728757318442248</t>
   </si>
   <si>
     <t xml:space="preserve">0.891453881502991</t>
@@ -11471,7 +11471,7 @@
     <t xml:space="preserve">0.826144783185964</t>
   </si>
   <si>
-    <t xml:space="preserve">0.783908210753554</t>
+    <t xml:space="preserve">0.783908210753553</t>
   </si>
   <si>
     <t xml:space="preserve">-0.292421155845705</t>
@@ -11480,7 +11480,7 @@
     <t xml:space="preserve">0.667270158334199</t>
   </si>
   <si>
-    <t xml:space="preserve">0.681884396799784</t>
+    <t xml:space="preserve">0.681884396799785</t>
   </si>
   <si>
     <t xml:space="preserve">0.84300478599293</t>
@@ -11501,7 +11501,7 @@
     <t xml:space="preserve">0.571077951669361</t>
   </si>
   <si>
-    <t xml:space="preserve">0.720410722860823</t>
+    <t xml:space="preserve">0.720410722860822</t>
   </si>
   <si>
     <t xml:space="preserve">0.624954420535736</t>
@@ -11561,10 +11561,10 @@
     <t xml:space="preserve">0.801518715522696</t>
   </si>
   <si>
-    <t xml:space="preserve">0.686785266192812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.33182800016766</t>
+    <t xml:space="preserve">0.686785266192811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.331828000167661</t>
   </si>
   <si>
     <t xml:space="preserve">0.606156290089169</t>
@@ -11573,19 +11573,19 @@
     <t xml:space="preserve">0.748500434665159</t>
   </si>
   <si>
-    <t xml:space="preserve">0.735027375852251</t>
+    <t xml:space="preserve">0.735027375852252</t>
   </si>
   <si>
     <t xml:space="preserve">0.539703866105836</t>
   </si>
   <si>
-    <t xml:space="preserve">0.793237215429285</t>
+    <t xml:space="preserve">0.793237215429284</t>
   </si>
   <si>
     <t xml:space="preserve">0.741893485252231</t>
   </si>
   <si>
-    <t xml:space="preserve">0.673112833814179</t>
+    <t xml:space="preserve">0.673112833814178</t>
   </si>
   <si>
     <t xml:space="preserve">0.773669120116946</t>
@@ -11606,13 +11606,13 @@
     <t xml:space="preserve">0.702346315515181</t>
   </si>
   <si>
-    <t xml:space="preserve">0.68280512935942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.781748896764071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.599901317049857</t>
+    <t xml:space="preserve">0.682805129359419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.78174889676407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.599901317049856</t>
   </si>
   <si>
     <t xml:space="preserve">0.756008007937686</t>
@@ -11624,10 +11624,10 @@
     <t xml:space="preserve">0.768208086830663</t>
   </si>
   <si>
-    <t xml:space="preserve">0.767819388041356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.639823245894591</t>
+    <t xml:space="preserve">0.767819388041355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.639823245894592</t>
   </si>
   <si>
     <t xml:space="preserve">0.780236211948417</t>
@@ -11645,7 +11645,7 @@
     <t xml:space="preserve">0.633843138851097</t>
   </si>
   <si>
-    <t xml:space="preserve">0.739597333770604</t>
+    <t xml:space="preserve">0.739597333770603</t>
   </si>
   <si>
     <t xml:space="preserve">0.725456941059588</t>
@@ -11681,7 +11681,7 @@
     <t xml:space="preserve">0.706232036519322</t>
   </si>
   <si>
-    <t xml:space="preserve">0.538664804593611</t>
+    <t xml:space="preserve">0.53866480459361</t>
   </si>
   <si>
     <t xml:space="preserve">0.366115291983906</t>
@@ -11747,13 +11747,13 @@
     <t xml:space="preserve">0.609644221637115</t>
   </si>
   <si>
-    <t xml:space="preserve">0.623924478895824</t>
+    <t xml:space="preserve">0.623924478895825</t>
   </si>
   <si>
     <t xml:space="preserve">0.539979995916738</t>
   </si>
   <si>
-    <t xml:space="preserve">0.714594488053391</t>
+    <t xml:space="preserve">0.71459448805339</t>
   </si>
   <si>
     <t xml:space="preserve">0.731986945897853</t>
@@ -11771,7 +11771,7 @@
     <t xml:space="preserve">0.658760102690725</t>
   </si>
   <si>
-    <t xml:space="preserve">0.642180973377432</t>
+    <t xml:space="preserve">0.642180973377431</t>
   </si>
   <si>
     <t xml:space="preserve">0.585655291878869</t>
@@ -11789,7 +11789,7 @@
     <t xml:space="preserve">0.563421612707463</t>
   </si>
   <si>
-    <t xml:space="preserve">0.743770428050889</t>
+    <t xml:space="preserve">0.74377042805089</t>
   </si>
   <si>
     <t xml:space="preserve">0.673973304403953</t>
@@ -11804,7 +11804,7 @@
     <t xml:space="preserve">0.70109980245946</t>
   </si>
   <si>
-    <t xml:space="preserve">0.588978608443377</t>
+    <t xml:space="preserve">0.588978608443378</t>
   </si>
   <si>
     <t xml:space="preserve">0.703679523881715</t>
@@ -11858,10 +11858,10 @@
     <t xml:space="preserve">0.368517140415367</t>
   </si>
   <si>
-    <t xml:space="preserve">0.582125364856266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.596270005562657</t>
+    <t xml:space="preserve">0.582125364856265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.596270005562656</t>
   </si>
   <si>
     <t xml:space="preserve">0.574904770065537</t>
@@ -11876,7 +11876,7 @@
     <t xml:space="preserve">0.608434633389387</t>
   </si>
   <si>
-    <t xml:space="preserve">0.503324667913081</t>
+    <t xml:space="preserve">0.503324667913082</t>
   </si>
   <si>
     <t xml:space="preserve">0.495299868411248</t>
@@ -11894,7 +11894,7 @@
     <t xml:space="preserve">0.572255268594132</t>
   </si>
   <si>
-    <t xml:space="preserve">0.595460696917613</t>
+    <t xml:space="preserve">0.595460696917612</t>
   </si>
   <si>
     <t xml:space="preserve">0.642954843811826</t>
@@ -11909,7 +11909,7 @@
     <t xml:space="preserve">0.546206323849006</t>
   </si>
   <si>
-    <t xml:space="preserve">0.605830275249957</t>
+    <t xml:space="preserve">0.605830275249956</t>
   </si>
   <si>
     <t xml:space="preserve">0.646013095915036</t>
@@ -11990,7 +11990,7 @@
     <t xml:space="preserve">0.487810713663889</t>
   </si>
   <si>
-    <t xml:space="preserve">0.534220037125787</t>
+    <t xml:space="preserve">0.534220037125788</t>
   </si>
   <si>
     <t xml:space="preserve">-0.362211397562737</t>
@@ -12005,13 +12005,13 @@
     <t xml:space="preserve">0.575897683476434</t>
   </si>
   <si>
-    <t xml:space="preserve">0.314036045617925</t>
+    <t xml:space="preserve">0.314036045617924</t>
   </si>
   <si>
     <t xml:space="preserve">0.393181632524414</t>
   </si>
   <si>
-    <t xml:space="preserve">0.721498131205796</t>
+    <t xml:space="preserve">0.721498131205795</t>
   </si>
   <si>
     <t xml:space="preserve">0.819871431989343</t>
@@ -12026,13 +12026,13 @@
     <t xml:space="preserve">0.820944586044971</t>
   </si>
   <si>
-    <t xml:space="preserve">0.823865157572732</t>
+    <t xml:space="preserve">0.823865157572731</t>
   </si>
   <si>
     <t xml:space="preserve">0.585498959900381</t>
   </si>
   <si>
-    <t xml:space="preserve">0.734134456173052</t>
+    <t xml:space="preserve">0.734134456173051</t>
   </si>
   <si>
     <t xml:space="preserve">0.789871125026535</t>
@@ -12044,16 +12044,16 @@
     <t xml:space="preserve">0.70445449932779</t>
   </si>
   <si>
-    <t xml:space="preserve">0.661089858923239</t>
+    <t xml:space="preserve">0.66108985892324</t>
   </si>
   <si>
     <t xml:space="preserve">0.677224585485234</t>
   </si>
   <si>
-    <t xml:space="preserve">0.554957835161192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.836897553605507</t>
+    <t xml:space="preserve">0.554957835161193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.836897553605506</t>
   </si>
   <si>
     <t xml:space="preserve">0.766056711342149</t>
@@ -12071,7 +12071,7 @@
     <t xml:space="preserve">0.787625312721853</t>
   </si>
   <si>
-    <t xml:space="preserve">0.651544464113834</t>
+    <t xml:space="preserve">0.651544464113833</t>
   </si>
   <si>
     <t xml:space="preserve">0.339050269076745</t>
@@ -12092,7 +12092,7 @@
     <t xml:space="preserve">0.883669211403302</t>
   </si>
   <si>
-    <t xml:space="preserve">0.775098998378624</t>
+    <t xml:space="preserve">0.775098998378623</t>
   </si>
   <si>
     <t xml:space="preserve">0.80379099527407</t>
@@ -12107,7 +12107,7 @@
     <t xml:space="preserve">0.756869672693931</t>
   </si>
   <si>
-    <t xml:space="preserve">0.637789027049918</t>
+    <t xml:space="preserve">0.637789027049917</t>
   </si>
   <si>
     <t xml:space="preserve">0.347525570255007</t>
@@ -12140,7 +12140,7 @@
     <t xml:space="preserve">0.850963321747129</t>
   </si>
   <si>
-    <t xml:space="preserve">0.728589989705927</t>
+    <t xml:space="preserve">0.728589989705928</t>
   </si>
   <si>
     <t xml:space="preserve">0.799694790648209</t>
@@ -12149,7 +12149,7 @@
     <t xml:space="preserve">0.698073205452158</t>
   </si>
   <si>
-    <t xml:space="preserve">0.827304885919121</t>
+    <t xml:space="preserve">0.82730488591912</t>
   </si>
   <si>
     <t xml:space="preserve">0.375644775498143</t>
@@ -12158,7 +12158,7 @@
     <t xml:space="preserve">0.633326369394632</t>
   </si>
   <si>
-    <t xml:space="preserve">0.766677345806149</t>
+    <t xml:space="preserve">0.766677345806148</t>
   </si>
   <si>
     <t xml:space="preserve">0.698628244772224</t>
@@ -12170,10 +12170,10 @@
     <t xml:space="preserve">0.799968522347968</t>
   </si>
   <si>
-    <t xml:space="preserve">0.859398917147575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.784633187624099</t>
+    <t xml:space="preserve">0.859398917147574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.784633187624098</t>
   </si>
   <si>
     <t xml:space="preserve">0.567834354434557</t>
@@ -12191,7 +12191,7 @@
     <t xml:space="preserve">0.351632951170069</t>
   </si>
   <si>
-    <t xml:space="preserve">0.306753743937274</t>
+    <t xml:space="preserve">0.306753743937275</t>
   </si>
   <si>
     <t xml:space="preserve">0.271840936446303</t>
@@ -12203,7 +12203,7 @@
     <t xml:space="preserve">0.322615186412853</t>
   </si>
   <si>
-    <t xml:space="preserve">0.302543849266873</t>
+    <t xml:space="preserve">0.302543849266874</t>
   </si>
   <si>
     <t xml:space="preserve">0.308932364895117</t>
@@ -12230,7 +12230,7 @@
     <t xml:space="preserve">0.439366290660476</t>
   </si>
   <si>
-    <t xml:space="preserve">0.303798527575094</t>
+    <t xml:space="preserve">0.303798527575093</t>
   </si>
   <si>
     <t xml:space="preserve">0.33272405750407</t>
@@ -12266,7 +12266,7 @@
     <t xml:space="preserve">0.298182678780006</t>
   </si>
   <si>
-    <t xml:space="preserve">0.432774498860351</t>
+    <t xml:space="preserve">0.43277449886035</t>
   </si>
   <si>
     <t xml:space="preserve">0.279221273705056</t>
@@ -12275,7 +12275,7 @@
     <t xml:space="preserve">0.297699246672779</t>
   </si>
   <si>
-    <t xml:space="preserve">0.411582550283976</t>
+    <t xml:space="preserve">0.411582550283975</t>
   </si>
   <si>
     <t xml:space="preserve">0.421356130603948</t>
@@ -12284,7 +12284,7 @@
     <t xml:space="preserve">0.281927021391675</t>
   </si>
   <si>
-    <t xml:space="preserve">0.359404071942565</t>
+    <t xml:space="preserve">0.359404071942564</t>
   </si>
   <si>
     <t xml:space="preserve">0.402122697552024</t>
@@ -12326,7 +12326,7 @@
     <t xml:space="preserve">0.323629120931825</t>
   </si>
   <si>
-    <t xml:space="preserve">0.286532833531394</t>
+    <t xml:space="preserve">0.286532833531395</t>
   </si>
   <si>
     <t xml:space="preserve">0.283476990226815</t>
@@ -12353,7 +12353,7 @@
     <t xml:space="preserve">0.288256642949529</t>
   </si>
   <si>
-    <t xml:space="preserve">0.349078530997733</t>
+    <t xml:space="preserve">0.349078530997732</t>
   </si>
   <si>
     <t xml:space="preserve">0.331562622724633</t>
@@ -12479,7 +12479,7 @@
     <t xml:space="preserve">0.614194463788865</t>
   </si>
   <si>
-    <t xml:space="preserve">0.587119562216888</t>
+    <t xml:space="preserve">0.587119562216887</t>
   </si>
   <si>
     <t xml:space="preserve">0.544443694438155</t>
@@ -12491,7 +12491,7 @@
     <t xml:space="preserve">0.536447726076499</t>
   </si>
   <si>
-    <t xml:space="preserve">0.713690548360522</t>
+    <t xml:space="preserve">0.713690548360521</t>
   </si>
   <si>
     <t xml:space="preserve">0.340539255433512</t>
@@ -12500,7 +12500,7 @@
     <t xml:space="preserve">0.730671848675906</t>
   </si>
   <si>
-    <t xml:space="preserve">0.697412720091511</t>
+    <t xml:space="preserve">0.69741272009151</t>
   </si>
   <si>
     <t xml:space="preserve">0.644234895193477</t>
@@ -12545,10 +12545,10 @@
     <t xml:space="preserve">0.651804480287567</t>
   </si>
   <si>
-    <t xml:space="preserve">0.809138730894153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.532649237208375</t>
+    <t xml:space="preserve">0.809138730894152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.532649237208376</t>
   </si>
   <si>
     <t xml:space="preserve">0.403945117106047</t>
@@ -12575,7 +12575,7 @@
     <t xml:space="preserve">0.608951868412578</t>
   </si>
   <si>
-    <t xml:space="preserve">0.831085183540096</t>
+    <t xml:space="preserve">0.831085183540097</t>
   </si>
   <si>
     <t xml:space="preserve">0.802035751389682</t>
@@ -12590,7 +12590,7 @@
     <t xml:space="preserve">0.885348206374117</t>
   </si>
   <si>
-    <t xml:space="preserve">0.823586456163673</t>
+    <t xml:space="preserve">0.823586456163674</t>
   </si>
   <si>
     <t xml:space="preserve">0.516215769273902</t>
@@ -12635,7 +12635,7 @@
     <t xml:space="preserve">0.883377345408693</t>
   </si>
   <si>
-    <t xml:space="preserve">0.763642009036798</t>
+    <t xml:space="preserve">0.763642009036797</t>
   </si>
   <si>
     <t xml:space="preserve">0.35651039693531</t>
@@ -12650,10 +12650,10 @@
     <t xml:space="preserve">0.798287175796139</t>
   </si>
   <si>
-    <t xml:space="preserve">0.845459260561988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.534962270825515</t>
+    <t xml:space="preserve">0.845459260561987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.534962270825514</t>
   </si>
   <si>
     <t xml:space="preserve">0.791638328531</t>
@@ -12671,7 +12671,7 @@
     <t xml:space="preserve">0.721653382816281</t>
   </si>
   <si>
-    <t xml:space="preserve">0.822235310360383</t>
+    <t xml:space="preserve">0.822235310360382</t>
   </si>
   <si>
     <t xml:space="preserve">0.703888709662512</t>
@@ -12686,13 +12686,13 @@
     <t xml:space="preserve">0.616295584745153</t>
   </si>
   <si>
-    <t xml:space="preserve">0.823074744356423</t>
+    <t xml:space="preserve">0.823074744356424</t>
   </si>
   <si>
     <t xml:space="preserve">0.858273498486245</t>
   </si>
   <si>
-    <t xml:space="preserve">0.796441754622051</t>
+    <t xml:space="preserve">0.79644175462205</t>
   </si>
   <si>
     <t xml:space="preserve">-0.26706823080554</t>
@@ -12728,7 +12728,7 @@
     <t xml:space="preserve">0.708752416225334</t>
   </si>
   <si>
-    <t xml:space="preserve">0.6755347766012</t>
+    <t xml:space="preserve">0.675534776601199</t>
   </si>
   <si>
     <t xml:space="preserve">0.573461093855203</t>
@@ -12761,7 +12761,7 @@
     <t xml:space="preserve">0.737936987175679</t>
   </si>
   <si>
-    <t xml:space="preserve">0.718364375125173</t>
+    <t xml:space="preserve">0.718364375125174</t>
   </si>
   <si>
     <t xml:space="preserve">0.67066387459055</t>
@@ -12773,7 +12773,7 @@
     <t xml:space="preserve">0.754858347972218</t>
   </si>
   <si>
-    <t xml:space="preserve">0.526099330664275</t>
+    <t xml:space="preserve">0.526099330664274</t>
   </si>
   <si>
     <t xml:space="preserve">0.714785799173515</t>
@@ -12785,13 +12785,13 @@
     <t xml:space="preserve">0.675592961854003</t>
   </si>
   <si>
-    <t xml:space="preserve">0.748119712816743</t>
+    <t xml:space="preserve">0.748119712816742</t>
   </si>
   <si>
     <t xml:space="preserve">0.475869335653854</t>
   </si>
   <si>
-    <t xml:space="preserve">0.75600565062303</t>
+    <t xml:space="preserve">0.756005650623031</t>
   </si>
   <si>
     <t xml:space="preserve">0.582614749769705</t>
@@ -12809,7 +12809,7 @@
     <t xml:space="preserve">0.76390435337807</t>
   </si>
   <si>
-    <t xml:space="preserve">0.769817492015578</t>
+    <t xml:space="preserve">0.769817492015577</t>
   </si>
   <si>
     <t xml:space="preserve">0.537442752567425</t>
@@ -12839,7 +12839,7 @@
     <t xml:space="preserve">0.753324403919259</t>
   </si>
   <si>
-    <t xml:space="preserve">0.363684697679049</t>
+    <t xml:space="preserve">0.36368469767905</t>
   </si>
   <si>
     <t xml:space="preserve">0.446701601377757</t>
@@ -12875,13 +12875,13 @@
     <t xml:space="preserve">0.420639231699573</t>
   </si>
   <si>
-    <t xml:space="preserve">0.370014708505972</t>
+    <t xml:space="preserve">0.370014708505971</t>
   </si>
   <si>
     <t xml:space="preserve">0.507121444579759</t>
   </si>
   <si>
-    <t xml:space="preserve">0.583449336863215</t>
+    <t xml:space="preserve">0.583449336863214</t>
   </si>
   <si>
     <t xml:space="preserve">0.612969237440999</t>
@@ -12929,7 +12929,7 @@
     <t xml:space="preserve">0.403711227747496</t>
   </si>
   <si>
-    <t xml:space="preserve">0.375706519518848</t>
+    <t xml:space="preserve">0.375706519518847</t>
   </si>
   <si>
     <t xml:space="preserve">0.609762007388653</t>
@@ -13055,7 +13055,7 @@
     <t xml:space="preserve">0.322840276686051</t>
   </si>
   <si>
-    <t xml:space="preserve">0.290696812709141</t>
+    <t xml:space="preserve">0.29069681270914</t>
   </si>
   <si>
     <t xml:space="preserve">0.284398700299585</t>
@@ -13085,13 +13085,13 @@
     <t xml:space="preserve">0.441645101521934</t>
   </si>
   <si>
-    <t xml:space="preserve">0.287713136060471</t>
+    <t xml:space="preserve">0.287713136060472</t>
   </si>
   <si>
     <t xml:space="preserve">0.46106102759237</t>
   </si>
   <si>
-    <t xml:space="preserve">0.443806538638918</t>
+    <t xml:space="preserve">0.443806538638919</t>
   </si>
   <si>
     <t xml:space="preserve">0.883519742315633</t>
@@ -13133,16 +13133,16 @@
     <t xml:space="preserve">0.555443831381749</t>
   </si>
   <si>
-    <t xml:space="preserve">0.630521541133101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.771053910646376</t>
+    <t xml:space="preserve">0.6305215411331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.771053910646375</t>
   </si>
   <si>
     <t xml:space="preserve">0.595230231728347</t>
   </si>
   <si>
-    <t xml:space="preserve">0.350614869813617</t>
+    <t xml:space="preserve">0.350614869813616</t>
   </si>
   <si>
     <t xml:space="preserve">0.763319977729683</t>
@@ -13154,7 +13154,7 @@
     <t xml:space="preserve">0.743463139099472</t>
   </si>
   <si>
-    <t xml:space="preserve">0.568948094206328</t>
+    <t xml:space="preserve">0.568948094206327</t>
   </si>
   <si>
     <t xml:space="preserve">0.877646983307252</t>
@@ -13187,7 +13187,7 @@
     <t xml:space="preserve">0.591363862628872</t>
   </si>
   <si>
-    <t xml:space="preserve">0.691000737719334</t>
+    <t xml:space="preserve">0.691000737719333</t>
   </si>
   <si>
     <t xml:space="preserve">0.687820886105327</t>
@@ -13223,7 +13223,7 @@
     <t xml:space="preserve">0.632894637743815</t>
   </si>
   <si>
-    <t xml:space="preserve">0.763570180553699</t>
+    <t xml:space="preserve">0.763570180553698</t>
   </si>
   <si>
     <t xml:space="preserve">0.711398690428771</t>
@@ -13256,7 +13256,7 @@
     <t xml:space="preserve">0.846264414658059</t>
   </si>
   <si>
-    <t xml:space="preserve">0.783102862307766</t>
+    <t xml:space="preserve">0.783102862307765</t>
   </si>
   <si>
     <t xml:space="preserve">0.723593333633985</t>
@@ -13265,7 +13265,7 @@
     <t xml:space="preserve">0.831900608635396</t>
   </si>
   <si>
-    <t xml:space="preserve">0.741384537648934</t>
+    <t xml:space="preserve">0.741384537648933</t>
   </si>
   <si>
     <t xml:space="preserve">0.552099742598358</t>
@@ -13298,7 +13298,7 @@
     <t xml:space="preserve">0.71375769263994</t>
   </si>
   <si>
-    <t xml:space="preserve">0.859909348134126</t>
+    <t xml:space="preserve">0.859909348134125</t>
   </si>
   <si>
     <t xml:space="preserve">0.824889045414368</t>
@@ -13328,7 +13328,7 @@
     <t xml:space="preserve">0.687730664265513</t>
   </si>
   <si>
-    <t xml:space="preserve">0.407261698712342</t>
+    <t xml:space="preserve">0.407261698712341</t>
   </si>
   <si>
     <t xml:space="preserve">0.770047177404204</t>
@@ -13343,7 +13343,7 @@
     <t xml:space="preserve">0.783550233517246</t>
   </si>
   <si>
-    <t xml:space="preserve">0.755710301402147</t>
+    <t xml:space="preserve">0.755710301402146</t>
   </si>
   <si>
     <t xml:space="preserve">0.810809337310358</t>
@@ -13352,16 +13352,16 @@
     <t xml:space="preserve">0.343227950533061</t>
   </si>
   <si>
-    <t xml:space="preserve">0.936835246223125</t>
+    <t xml:space="preserve">0.936835246223124</t>
   </si>
   <si>
     <t xml:space="preserve">0.970072182731808</t>
   </si>
   <si>
-    <t xml:space="preserve">0.76168691541661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.862382693570164</t>
+    <t xml:space="preserve">0.761686915416609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.862382693570165</t>
   </si>
   <si>
     <t xml:space="preserve">0.73827897473567</t>
@@ -13457,7 +13457,7 @@
     <t xml:space="preserve">0.41192230093051</t>
   </si>
   <si>
-    <t xml:space="preserve">0.663379996809943</t>
+    <t xml:space="preserve">0.663379996809942</t>
   </si>
   <si>
     <t xml:space="preserve">0.699689133851533</t>
@@ -13478,7 +13478,7 @@
     <t xml:space="preserve">0.530390734915983</t>
   </si>
   <si>
-    <t xml:space="preserve">0.472917641361556</t>
+    <t xml:space="preserve">0.472917641361557</t>
   </si>
   <si>
     <t xml:space="preserve">0.619739205195825</t>
@@ -13487,10 +13487,10 @@
     <t xml:space="preserve">0.507190858994643</t>
   </si>
   <si>
-    <t xml:space="preserve">0.566153830292696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.603985520140419</t>
+    <t xml:space="preserve">0.566153830292697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.60398552014042</t>
   </si>
   <si>
     <t xml:space="preserve">0.629650225735631</t>
@@ -13511,7 +13511,7 @@
     <t xml:space="preserve">0.515792352339036</t>
   </si>
   <si>
-    <t xml:space="preserve">0.499784229577646</t>
+    <t xml:space="preserve">0.499784229577645</t>
   </si>
   <si>
     <t xml:space="preserve">0.563162104626991</t>
@@ -13601,7 +13601,7 @@
     <t xml:space="preserve">0.779204943655917</t>
   </si>
   <si>
-    <t xml:space="preserve">0.785972939195857</t>
+    <t xml:space="preserve">0.785972939195858</t>
   </si>
   <si>
     <t xml:space="preserve">0.737471089113831</t>
@@ -13634,10 +13634,10 @@
     <t xml:space="preserve">0.714386478236738</t>
   </si>
   <si>
-    <t xml:space="preserve">0.560001064569839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.735420133726339</t>
+    <t xml:space="preserve">0.56000106456984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.73542013372634</t>
   </si>
   <si>
     <t xml:space="preserve">0.331229562306649</t>
@@ -13679,7 +13679,7 @@
     <t xml:space="preserve">0.537943172265234</t>
   </si>
   <si>
-    <t xml:space="preserve">0.642567643253403</t>
+    <t xml:space="preserve">0.642567643253402</t>
   </si>
   <si>
     <t xml:space="preserve">0.858428126278208</t>
@@ -13703,10 +13703,10 @@
     <t xml:space="preserve">0.561954084748445</t>
   </si>
   <si>
-    <t xml:space="preserve">0.790819050779209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.905691301566063</t>
+    <t xml:space="preserve">0.790819050779208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.905691301566062</t>
   </si>
   <si>
     <t xml:space="preserve">0.802152225364427</t>
@@ -13730,16 +13730,16 @@
     <t xml:space="preserve">0.758421511719866</t>
   </si>
   <si>
-    <t xml:space="preserve">0.83059711441534</t>
+    <t xml:space="preserve">0.830597114415341</t>
   </si>
   <si>
     <t xml:space="preserve">0.693875778622546</t>
   </si>
   <si>
-    <t xml:space="preserve">0.827025016381404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.802025053121428</t>
+    <t xml:space="preserve">0.827025016381405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.802025053121427</t>
   </si>
   <si>
     <t xml:space="preserve">0.768882930086113</t>
@@ -13748,7 +13748,7 @@
     <t xml:space="preserve">0.927048015370006</t>
   </si>
   <si>
-    <t xml:space="preserve">0.781384528273326</t>
+    <t xml:space="preserve">0.781384528273325</t>
   </si>
   <si>
     <t xml:space="preserve">0.905107827581252</t>
@@ -13766,7 +13766,7 @@
     <t xml:space="preserve">0.79376699366416</t>
   </si>
   <si>
-    <t xml:space="preserve">0.778086158916304</t>
+    <t xml:space="preserve">0.778086158916303</t>
   </si>
   <si>
     <t xml:space="preserve">0.812417947782535</t>
@@ -13787,7 +13787,7 @@
     <t xml:space="preserve">0.801833562629963</t>
   </si>
   <si>
-    <t xml:space="preserve">0.756407381085648</t>
+    <t xml:space="preserve">0.756407381085649</t>
   </si>
   <si>
     <t xml:space="preserve">0.835871766097589</t>
@@ -13802,10 +13802,10 @@
     <t xml:space="preserve">0.373656089240178</t>
   </si>
   <si>
-    <t xml:space="preserve">0.714609843211289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.913224321044901</t>
+    <t xml:space="preserve">0.714609843211288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9132243210449</t>
   </si>
   <si>
     <t xml:space="preserve">0.873551256221927</t>
@@ -13820,7 +13820,7 @@
     <t xml:space="preserve">0.774297022670965</t>
   </si>
   <si>
-    <t xml:space="preserve">0.938509635025216</t>
+    <t xml:space="preserve">0.938509635025215</t>
   </si>
   <si>
     <t xml:space="preserve">0.530345759432175</t>
@@ -13841,7 +13841,7 @@
     <t xml:space="preserve">0.704295173162479</t>
   </si>
   <si>
-    <t xml:space="preserve">0.871132156664253</t>
+    <t xml:space="preserve">0.871132156664252</t>
   </si>
   <si>
     <t xml:space="preserve">0.750513155111844</t>
@@ -13850,13 +13850,13 @@
     <t xml:space="preserve">0.419103854510851</t>
   </si>
   <si>
-    <t xml:space="preserve">0.417708879931972</t>
+    <t xml:space="preserve">0.417708879931971</t>
   </si>
   <si>
     <t xml:space="preserve">0.799633986924072</t>
   </si>
   <si>
-    <t xml:space="preserve">0.720314482090594</t>
+    <t xml:space="preserve">0.720314482090595</t>
   </si>
   <si>
     <t xml:space="preserve">0.731886810842137</t>
@@ -13868,7 +13868,7 @@
     <t xml:space="preserve">0.73628910172734</t>
   </si>
   <si>
-    <t xml:space="preserve">0.598258597168431</t>
+    <t xml:space="preserve">0.598258597168432</t>
   </si>
   <si>
     <t xml:space="preserve">0.752987466742544</t>
@@ -13877,7 +13877,7 @@
     <t xml:space="preserve">0.736152741401662</t>
   </si>
   <si>
-    <t xml:space="preserve">0.740205169038012</t>
+    <t xml:space="preserve">0.740205169038011</t>
   </si>
   <si>
     <t xml:space="preserve">0.82688996251633</t>
@@ -13886,7 +13886,7 @@
     <t xml:space="preserve">0.666220062395632</t>
   </si>
   <si>
-    <t xml:space="preserve">0.847650247389233</t>
+    <t xml:space="preserve">0.847650247389232</t>
   </si>
   <si>
     <t xml:space="preserve">0.646405081432844</t>
@@ -13916,7 +13916,7 @@
     <t xml:space="preserve">0.673835123255741</t>
   </si>
   <si>
-    <t xml:space="preserve">0.750603138178661</t>
+    <t xml:space="preserve">0.75060313817866</t>
   </si>
   <si>
     <t xml:space="preserve">0.685480636261891</t>
@@ -13925,10 +13925,10 @@
     <t xml:space="preserve">0.86191607296951</t>
   </si>
   <si>
-    <t xml:space="preserve">0.655542392348726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.825441382493886</t>
+    <t xml:space="preserve">0.655542392348725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.825441382493885</t>
   </si>
   <si>
     <t xml:space="preserve">0.524594579832501</t>
@@ -13964,7 +13964,7 @@
     <t xml:space="preserve">0.522095951086815</t>
   </si>
   <si>
-    <t xml:space="preserve">0.610709897338115</t>
+    <t xml:space="preserve">0.610709897338116</t>
   </si>
   <si>
     <t xml:space="preserve">0.432727314798698</t>
@@ -14015,16 +14015,16 @@
     <t xml:space="preserve">0.705671912395567</t>
   </si>
   <si>
-    <t xml:space="preserve">0.746329812582087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.63111651662145</t>
+    <t xml:space="preserve">0.746329812582086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.631116516621449</t>
   </si>
   <si>
     <t xml:space="preserve">0.664439611774214</t>
   </si>
   <si>
-    <t xml:space="preserve">0.478728435868803</t>
+    <t xml:space="preserve">0.478728435868802</t>
   </si>
   <si>
     <t xml:space="preserve">0.338149036853761</t>
@@ -14039,7 +14039,7 @@
     <t xml:space="preserve">0.537375122062974</t>
   </si>
   <si>
-    <t xml:space="preserve">0.588673507781878</t>
+    <t xml:space="preserve">0.588673507781877</t>
   </si>
   <si>
     <t xml:space="preserve">0.531000833847106</t>
@@ -14066,7 +14066,7 @@
     <t xml:space="preserve">0.529269198322692</t>
   </si>
   <si>
-    <t xml:space="preserve">0.732300438899736</t>
+    <t xml:space="preserve">0.732300438899737</t>
   </si>
   <si>
     <t xml:space="preserve">0.319120408619837</t>
@@ -14090,7 +14090,7 @@
     <t xml:space="preserve">0.523133227407021</t>
   </si>
   <si>
-    <t xml:space="preserve">0.694161773386915</t>
+    <t xml:space="preserve">0.694161773386914</t>
   </si>
   <si>
     <t xml:space="preserve">0.695781186954831</t>
@@ -14138,7 +14138,7 @@
     <t xml:space="preserve">0.507081410194075</t>
   </si>
   <si>
-    <t xml:space="preserve">0.752411311073035</t>
+    <t xml:space="preserve">0.752411311073036</t>
   </si>
   <si>
     <t xml:space="preserve">0.740058556742254</t>
@@ -14156,7 +14156,7 @@
     <t xml:space="preserve">0.85149829172241</t>
   </si>
   <si>
-    <t xml:space="preserve">0.743976035582286</t>
+    <t xml:space="preserve">0.743976035582287</t>
   </si>
   <si>
     <t xml:space="preserve">0.80401326580986</t>
@@ -14165,7 +14165,7 @@
     <t xml:space="preserve">0.857182727270292</t>
   </si>
   <si>
-    <t xml:space="preserve">0.859659764224688</t>
+    <t xml:space="preserve">0.859659764224689</t>
   </si>
   <si>
     <t xml:space="preserve">0.918069753700183</t>
@@ -14186,13 +14186,13 @@
     <t xml:space="preserve">0.789222283512895</t>
   </si>
   <si>
-    <t xml:space="preserve">0.758354403919198</t>
+    <t xml:space="preserve">0.758354403919199</t>
   </si>
   <si>
     <t xml:space="preserve">0.742908947967617</t>
   </si>
   <si>
-    <t xml:space="preserve">0.688446186163967</t>
+    <t xml:space="preserve">0.688446186163968</t>
   </si>
   <si>
     <t xml:space="preserve">0.807506798608641</t>
@@ -14222,10 +14222,10 @@
     <t xml:space="preserve">0.553479303113264</t>
   </si>
   <si>
-    <t xml:space="preserve">0.839103432621643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.497189315399972</t>
+    <t xml:space="preserve">0.839103432621644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.497189315399973</t>
   </si>
   <si>
     <t xml:space="preserve">0.642258868934622</t>
@@ -14234,7 +14234,7 @@
     <t xml:space="preserve">0.702768237751833</t>
   </si>
   <si>
-    <t xml:space="preserve">0.821036079782395</t>
+    <t xml:space="preserve">0.821036079782394</t>
   </si>
   <si>
     <t xml:space="preserve">0.701432399873278</t>
@@ -14258,7 +14258,7 @@
     <t xml:space="preserve">0.586456873845649</t>
   </si>
   <si>
-    <t xml:space="preserve">0.731066920580905</t>
+    <t xml:space="preserve">0.731066920580904</t>
   </si>
   <si>
     <t xml:space="preserve">0.537978355057387</t>
@@ -14294,16 +14294,16 @@
     <t xml:space="preserve">0.807803299326515</t>
   </si>
   <si>
-    <t xml:space="preserve">0.830914992159556</t>
+    <t xml:space="preserve">0.830914992159555</t>
   </si>
   <si>
     <t xml:space="preserve">0.401582332285132</t>
   </si>
   <si>
-    <t xml:space="preserve">0.731289120293396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.442559375290571</t>
+    <t xml:space="preserve">0.731289120293397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.44255937529057</t>
   </si>
   <si>
     <t xml:space="preserve">0.634267742103678</t>
@@ -14339,7 +14339,7 @@
     <t xml:space="preserve">0.697150583000938</t>
   </si>
   <si>
-    <t xml:space="preserve">0.446801102451117</t>
+    <t xml:space="preserve">0.446801102451118</t>
   </si>
   <si>
     <t xml:space="preserve">0.646523525978129</t>
@@ -14369,7 +14369,7 @@
     <t xml:space="preserve">0.878743090655927</t>
   </si>
   <si>
-    <t xml:space="preserve">0.456481910259311</t>
+    <t xml:space="preserve">0.45648191025931</t>
   </si>
   <si>
     <t xml:space="preserve">0.321803704474807</t>
@@ -14399,16 +14399,16 @@
     <t xml:space="preserve">0.650843881705038</t>
   </si>
   <si>
-    <t xml:space="preserve">0.660663915749723</t>
+    <t xml:space="preserve">0.660663915749722</t>
   </si>
   <si>
     <t xml:space="preserve">0.58732388141366</t>
   </si>
   <si>
-    <t xml:space="preserve">0.652102592332484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.753174428258351</t>
+    <t xml:space="preserve">0.652102592332485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.753174428258352</t>
   </si>
   <si>
     <t xml:space="preserve">0.785999581343074</t>
@@ -14429,7 +14429,7 @@
     <t xml:space="preserve">0.535326813075306</t>
   </si>
   <si>
-    <t xml:space="preserve">0.601336599617225</t>
+    <t xml:space="preserve">0.601336599617226</t>
   </si>
   <si>
     <t xml:space="preserve">0.520511082125795</t>
@@ -14441,7 +14441,7 @@
     <t xml:space="preserve">0.544368515167868</t>
   </si>
   <si>
-    <t xml:space="preserve">0.457413825139038</t>
+    <t xml:space="preserve">0.457413825139039</t>
   </si>
   <si>
     <t xml:space="preserve">0.588480827441971</t>
@@ -14453,7 +14453,7 @@
     <t xml:space="preserve">0.541140539985816</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.330711556246184</t>
+    <t xml:space="preserve">-0.330711556246185</t>
   </si>
   <si>
     <t xml:space="preserve">0.389200162079042</t>
@@ -14465,7 +14465,7 @@
     <t xml:space="preserve">0.652633919167982</t>
   </si>
   <si>
-    <t xml:space="preserve">0.78260318858036</t>
+    <t xml:space="preserve">0.782603188580361</t>
   </si>
   <si>
     <t xml:space="preserve">0.737554261279242</t>
@@ -14492,10 +14492,10 @@
     <t xml:space="preserve">0.723639965058316</t>
   </si>
   <si>
-    <t xml:space="preserve">0.786056296615111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.598086198675649</t>
+    <t xml:space="preserve">0.786056296615112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.59808619867565</t>
   </si>
   <si>
     <t xml:space="preserve">0.847733774423005</t>
@@ -14507,13 +14507,13 @@
     <t xml:space="preserve">0.753216645221</t>
   </si>
   <si>
-    <t xml:space="preserve">0.820171167489501</t>
+    <t xml:space="preserve">0.820171167489502</t>
   </si>
   <si>
     <t xml:space="preserve">0.722691048129056</t>
   </si>
   <si>
-    <t xml:space="preserve">0.759143900998843</t>
+    <t xml:space="preserve">0.759143900998844</t>
   </si>
   <si>
     <t xml:space="preserve">0.573304573933093</t>
@@ -14546,13 +14546,13 @@
     <t xml:space="preserve">0.729200142627154</t>
   </si>
   <si>
-    <t xml:space="preserve">0.580476419147121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.726396219193313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.651141422692299</t>
+    <t xml:space="preserve">0.580476419147122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.726396219193312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.6511414226923</t>
   </si>
   <si>
     <t xml:space="preserve">0.727677741454379</t>
@@ -14609,7 +14609,7 @@
     <t xml:space="preserve">0.728646205113473</t>
   </si>
   <si>
-    <t xml:space="preserve">0.775029948837893</t>
+    <t xml:space="preserve">0.775029948837894</t>
   </si>
   <si>
     <t xml:space="preserve">0.62942158154368</t>
@@ -14630,7 +14630,7 @@
     <t xml:space="preserve">0.729547061600481</t>
   </si>
   <si>
-    <t xml:space="preserve">0.959715413611242</t>
+    <t xml:space="preserve">0.959715413611243</t>
   </si>
   <si>
     <t xml:space="preserve">0.780112595740682</t>
@@ -14735,7 +14735,7 @@
     <t xml:space="preserve">0.895984054539964</t>
   </si>
   <si>
-    <t xml:space="preserve">0.897852807053477</t>
+    <t xml:space="preserve">0.897852807053476</t>
   </si>
   <si>
     <t xml:space="preserve">0.832329546163805</t>
@@ -14750,10 +14750,10 @@
     <t xml:space="preserve">0.652662270260571</t>
   </si>
   <si>
-    <t xml:space="preserve">0.330416372648594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.737481038803015</t>
+    <t xml:space="preserve">0.330416372648593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.737481038803014</t>
   </si>
   <si>
     <t xml:space="preserve">0.732033151747301</t>
@@ -14762,7 +14762,7 @@
     <t xml:space="preserve">0.667240297148492</t>
   </si>
   <si>
-    <t xml:space="preserve">0.733400333750751</t>
+    <t xml:space="preserve">0.73340033375075</t>
   </si>
   <si>
     <t xml:space="preserve">0.805972392834101</t>
@@ -14795,10 +14795,10 @@
     <t xml:space="preserve">0.302176374598377</t>
   </si>
   <si>
-    <t xml:space="preserve">0.623333174211845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.751170528207615</t>
+    <t xml:space="preserve">0.623333174211844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.751170528207614</t>
   </si>
   <si>
     <t xml:space="preserve">0.766595976877914</t>
@@ -14807,19 +14807,19 @@
     <t xml:space="preserve">0.726926661199453</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.284223088042526</t>
+    <t xml:space="preserve">-0.284223088042525</t>
   </si>
   <si>
     <t xml:space="preserve">0.811670655990134</t>
   </si>
   <si>
-    <t xml:space="preserve">0.717875766881457</t>
+    <t xml:space="preserve">0.717875766881456</t>
   </si>
   <si>
     <t xml:space="preserve">0.804808548565719</t>
   </si>
   <si>
-    <t xml:space="preserve">0.589658941425831</t>
+    <t xml:space="preserve">0.58965894142583</t>
   </si>
   <si>
     <t xml:space="preserve">0.638637352846356</t>
@@ -14843,7 +14843,7 @@
     <t xml:space="preserve">0.509098785948385</t>
   </si>
   <si>
-    <t xml:space="preserve">0.525028425491177</t>
+    <t xml:space="preserve">0.525028425491178</t>
   </si>
   <si>
     <t xml:space="preserve">0.495153221584759</t>
@@ -14861,10 +14861,10 @@
     <t xml:space="preserve">0.403202506811605</t>
   </si>
   <si>
-    <t xml:space="preserve">0.423955050615816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.570463705104399</t>
+    <t xml:space="preserve">0.423955050615817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.570463705104398</t>
   </si>
   <si>
     <t xml:space="preserve">0.443739977717926</t>
@@ -14903,7 +14903,7 @@
     <t xml:space="preserve">0.31105558644487</t>
   </si>
   <si>
-    <t xml:space="preserve">0.359733093274565</t>
+    <t xml:space="preserve">0.359733093274566</t>
   </si>
   <si>
     <t xml:space="preserve">0.397760922359631</t>
@@ -14924,7 +14924,7 @@
     <t xml:space="preserve">0.472772520345665</t>
   </si>
   <si>
-    <t xml:space="preserve">0.457764110943789</t>
+    <t xml:space="preserve">0.45776411094379</t>
   </si>
   <si>
     <t xml:space="preserve">0.402122707754052</t>
@@ -14954,7 +14954,7 @@
     <t xml:space="preserve">0.457039716374982</t>
   </si>
   <si>
-    <t xml:space="preserve">0.419720677887258</t>
+    <t xml:space="preserve">0.419720677887257</t>
   </si>
   <si>
     <t xml:space="preserve">0.451950397782761</t>
@@ -15017,7 +15017,7 @@
     <t xml:space="preserve">0.612794775711026</t>
   </si>
   <si>
-    <t xml:space="preserve">0.489164591810324</t>
+    <t xml:space="preserve">0.489164591810323</t>
   </si>
   <si>
     <t xml:space="preserve">0.468076491758083</t>
@@ -15041,10 +15041,10 @@
     <t xml:space="preserve">0.85515599226954</t>
   </si>
   <si>
-    <t xml:space="preserve">0.703564978779469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.837421173705665</t>
+    <t xml:space="preserve">0.703564978779468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.837421173705666</t>
   </si>
   <si>
     <t xml:space="preserve">0.790673403226047</t>
@@ -15053,7 +15053,7 @@
     <t xml:space="preserve">0.734419333473202</t>
   </si>
   <si>
-    <t xml:space="preserve">0.931771590934795</t>
+    <t xml:space="preserve">0.931771590934794</t>
   </si>
   <si>
     <t xml:space="preserve">0.713623664008478</t>
@@ -15062,7 +15062,7 @@
     <t xml:space="preserve">0.841500265730485</t>
   </si>
   <si>
-    <t xml:space="preserve">0.660516499087779</t>
+    <t xml:space="preserve">0.660516499087778</t>
   </si>
   <si>
     <t xml:space="preserve">0.403661873423053</t>
@@ -15074,7 +15074,7 @@
     <t xml:space="preserve">0.761519537401861</t>
   </si>
   <si>
-    <t xml:space="preserve">0.725350879622679</t>
+    <t xml:space="preserve">0.725350879622678</t>
   </si>
   <si>
     <t xml:space="preserve">0.808872522459153</t>
@@ -15083,7 +15083,7 @@
     <t xml:space="preserve">0.45795428870262</t>
   </si>
   <si>
-    <t xml:space="preserve">0.805001664436653</t>
+    <t xml:space="preserve">0.805001664436652</t>
   </si>
   <si>
     <t xml:space="preserve">0.439999050215403</t>
@@ -15098,7 +15098,7 @@
     <t xml:space="preserve">0.743701479692777</t>
   </si>
   <si>
-    <t xml:space="preserve">0.898379604538718</t>
+    <t xml:space="preserve">0.898379604538717</t>
   </si>
   <si>
     <t xml:space="preserve">0.770095571301596</t>
@@ -15110,7 +15110,7 @@
     <t xml:space="preserve">0.419290420167381</t>
   </si>
   <si>
-    <t xml:space="preserve">0.71248974826506</t>
+    <t xml:space="preserve">0.712489748265059</t>
   </si>
   <si>
     <t xml:space="preserve">0.828065421500296</t>
@@ -15143,13 +15143,13 @@
     <t xml:space="preserve">0.62468052477163</t>
   </si>
   <si>
-    <t xml:space="preserve">0.557328998080123</t>
+    <t xml:space="preserve">0.557328998080124</t>
   </si>
   <si>
     <t xml:space="preserve">0.667011332435404</t>
   </si>
   <si>
-    <t xml:space="preserve">0.647319812562334</t>
+    <t xml:space="preserve">0.647319812562335</t>
   </si>
   <si>
     <t xml:space="preserve">0.622955134267977</t>
@@ -15188,7 +15188,7 @@
     <t xml:space="preserve">0.379477171379015</t>
   </si>
   <si>
-    <t xml:space="preserve">0.579353225645733</t>
+    <t xml:space="preserve">0.579353225645732</t>
   </si>
   <si>
     <t xml:space="preserve">0.669505741228366</t>
@@ -15203,7 +15203,7 @@
     <t xml:space="preserve">0.643047608887106</t>
   </si>
   <si>
-    <t xml:space="preserve">0.687612180809241</t>
+    <t xml:space="preserve">0.68761218080924</t>
   </si>
   <si>
     <t xml:space="preserve">0.443030032129202</t>
@@ -15212,7 +15212,7 @@
     <t xml:space="preserve">0.349803388155522</t>
   </si>
   <si>
-    <t xml:space="preserve">0.724847296838527</t>
+    <t xml:space="preserve">0.724847296838526</t>
   </si>
   <si>
     <t xml:space="preserve">0.831488675755466</t>
@@ -15230,7 +15230,7 @@
     <t xml:space="preserve">0.550123281716162</t>
   </si>
   <si>
-    <t xml:space="preserve">0.814548877808025</t>
+    <t xml:space="preserve">0.814548877808026</t>
   </si>
   <si>
     <t xml:space="preserve">0.353285902835231</t>
@@ -15317,7 +15317,7 @@
     <t xml:space="preserve">0.485101040566042</t>
   </si>
   <si>
-    <t xml:space="preserve">0.69806943992836</t>
+    <t xml:space="preserve">0.698069439928361</t>
   </si>
   <si>
     <t xml:space="preserve">0.762332741948962</t>
@@ -15362,16 +15362,16 @@
     <t xml:space="preserve">0.615372190160283</t>
   </si>
   <si>
-    <t xml:space="preserve">0.699083333199542</t>
+    <t xml:space="preserve">0.699083333199541</t>
   </si>
   <si>
     <t xml:space="preserve">0.601171398928065</t>
   </si>
   <si>
-    <t xml:space="preserve">0.721493425398204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.645081886803436</t>
+    <t xml:space="preserve">0.721493425398203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.645081886803437</t>
   </si>
   <si>
     <t xml:space="preserve">0.716977096300915</t>
@@ -15419,10 +15419,10 @@
     <t xml:space="preserve">0.837892371332084</t>
   </si>
   <si>
-    <t xml:space="preserve">0.816143169360175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.730362376984047</t>
+    <t xml:space="preserve">0.816143169360174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.730362376984046</t>
   </si>
   <si>
     <t xml:space="preserve">0.685155010301853</t>
@@ -15476,10 +15476,10 @@
     <t xml:space="preserve">0.856688467741416</t>
   </si>
   <si>
-    <t xml:space="preserve">0.62808752256353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.697018646854995</t>
+    <t xml:space="preserve">0.628087522563529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.697018646854994</t>
   </si>
   <si>
     <t xml:space="preserve">0.65130971143184</t>
@@ -15512,7 +15512,7 @@
     <t xml:space="preserve">0.817939557620394</t>
   </si>
   <si>
-    <t xml:space="preserve">0.726095602100345</t>
+    <t xml:space="preserve">0.726095602100344</t>
   </si>
   <si>
     <t xml:space="preserve">0.881306593873799</t>
@@ -15527,7 +15527,7 @@
     <t xml:space="preserve">0.547125677932269</t>
   </si>
   <si>
-    <t xml:space="preserve">0.363438193760989</t>
+    <t xml:space="preserve">0.36343819376099</t>
   </si>
   <si>
     <t xml:space="preserve">0.699679805379661</t>
@@ -15560,7 +15560,7 @@
     <t xml:space="preserve">0.63719812872423</t>
   </si>
   <si>
-    <t xml:space="preserve">0.793393680712571</t>
+    <t xml:space="preserve">0.79339368071257</t>
   </si>
   <si>
     <t xml:space="preserve">0.752895822712282</t>
@@ -15575,13 +15575,13 @@
     <t xml:space="preserve">0.663484161219749</t>
   </si>
   <si>
-    <t xml:space="preserve">0.794739210401769</t>
+    <t xml:space="preserve">0.79473921040177</t>
   </si>
   <si>
     <t xml:space="preserve">0.80272912809198</t>
   </si>
   <si>
-    <t xml:space="preserve">0.749375202370385</t>
+    <t xml:space="preserve">0.749375202370386</t>
   </si>
   <si>
     <t xml:space="preserve">0.512051090862491</t>
@@ -15623,7 +15623,7 @@
     <t xml:space="preserve">0.543081780565382</t>
   </si>
   <si>
-    <t xml:space="preserve">0.565304000938686</t>
+    <t xml:space="preserve">0.565304000938687</t>
   </si>
   <si>
     <t xml:space="preserve">0.523894039472925</t>
@@ -15656,13 +15656,13 @@
     <t xml:space="preserve">0.63019489392501</t>
   </si>
   <si>
-    <t xml:space="preserve">0.675802770226994</t>
+    <t xml:space="preserve">0.675802770226993</t>
   </si>
   <si>
     <t xml:space="preserve">0.61217202007753</t>
   </si>
   <si>
-    <t xml:space="preserve">0.73456810692489</t>
+    <t xml:space="preserve">0.734568106924889</t>
   </si>
   <si>
     <t xml:space="preserve">0.628888435556892</t>
@@ -15686,7 +15686,7 @@
     <t xml:space="preserve">0.872700001012678</t>
   </si>
   <si>
-    <t xml:space="preserve">0.893935327854107</t>
+    <t xml:space="preserve">0.893935327854106</t>
   </si>
   <si>
     <t xml:space="preserve">0.840473364214944</t>
@@ -15719,7 +15719,7 @@
     <t xml:space="preserve">0.710991391959487</t>
   </si>
   <si>
-    <t xml:space="preserve">0.924631017884336</t>
+    <t xml:space="preserve">0.924631017884337</t>
   </si>
   <si>
     <t xml:space="preserve">0.356556379206256</t>
@@ -15731,13 +15731,13 @@
     <t xml:space="preserve">0.928858010615876</t>
   </si>
   <si>
-    <t xml:space="preserve">0.698181409398379</t>
+    <t xml:space="preserve">0.69818140939838</t>
   </si>
   <si>
     <t xml:space="preserve">0.801783646149945</t>
   </si>
   <si>
-    <t xml:space="preserve">0.708486888905922</t>
+    <t xml:space="preserve">0.708486888905923</t>
   </si>
   <si>
     <t xml:space="preserve">0.872464430843051</t>
@@ -15749,13 +15749,13 @@
     <t xml:space="preserve">0.664768252656593</t>
   </si>
   <si>
-    <t xml:space="preserve">0.790415296233001</t>
+    <t xml:space="preserve">0.790415296233</t>
   </si>
   <si>
     <t xml:space="preserve">0.741386497574972</t>
   </si>
   <si>
-    <t xml:space="preserve">0.727357658376872</t>
+    <t xml:space="preserve">0.727357658376873</t>
   </si>
   <si>
     <t xml:space="preserve">-0.269729589331086</t>
@@ -15773,7 +15773,7 @@
     <t xml:space="preserve">0.564172132346681</t>
   </si>
   <si>
-    <t xml:space="preserve">0.869170126244076</t>
+    <t xml:space="preserve">0.869170126244075</t>
   </si>
   <si>
     <t xml:space="preserve">0.838856526135029</t>
@@ -15815,13 +15815,13 @@
     <t xml:space="preserve">0.896736466656653</t>
   </si>
   <si>
-    <t xml:space="preserve">0.659710958092111</t>
+    <t xml:space="preserve">0.659710958092112</t>
   </si>
   <si>
     <t xml:space="preserve">0.770546312178671</t>
   </si>
   <si>
-    <t xml:space="preserve">0.725351051312304</t>
+    <t xml:space="preserve">0.725351051312303</t>
   </si>
   <si>
     <t xml:space="preserve">0.824185085708887</t>
@@ -15830,7 +15830,7 @@
     <t xml:space="preserve">0.360389742272212</t>
   </si>
   <si>
-    <t xml:space="preserve">0.594906708847098</t>
+    <t xml:space="preserve">0.594906708847097</t>
   </si>
   <si>
     <t xml:space="preserve">0.743502782160452</t>
@@ -15860,7 +15860,7 @@
     <t xml:space="preserve">0.793659666268998</t>
   </si>
   <si>
-    <t xml:space="preserve">0.657853191279969</t>
+    <t xml:space="preserve">0.657853191279968</t>
   </si>
   <si>
     <t xml:space="preserve">0.744599545786354</t>
@@ -15878,19 +15878,19 @@
     <t xml:space="preserve">0.630527578409267</t>
   </si>
   <si>
-    <t xml:space="preserve">0.684067271539422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.694749936296525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.856517513699592</t>
+    <t xml:space="preserve">0.684067271539421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.694749936296524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.856517513699591</t>
   </si>
   <si>
     <t xml:space="preserve">0.373125912290283</t>
   </si>
   <si>
-    <t xml:space="preserve">0.792154129349144</t>
+    <t xml:space="preserve">0.792154129349143</t>
   </si>
   <si>
     <t xml:space="preserve">0.892627504637774</t>
@@ -15914,7 +15914,7 @@
     <t xml:space="preserve">0.610052404130658</t>
   </si>
   <si>
-    <t xml:space="preserve">0.724495944364729</t>
+    <t xml:space="preserve">0.724495944364728</t>
   </si>
   <si>
     <t xml:space="preserve">0.729537130100794</t>
@@ -15926,7 +15926,7 @@
     <t xml:space="preserve">-0.366945717385324</t>
   </si>
   <si>
-    <t xml:space="preserve">0.771521827024674</t>
+    <t xml:space="preserve">0.771521827024673</t>
   </si>
   <si>
     <t xml:space="preserve">0.687508434574918</t>
@@ -15944,10 +15944,10 @@
     <t xml:space="preserve">0.889447720952047</t>
   </si>
   <si>
-    <t xml:space="preserve">0.710728358028313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.347389823517171</t>
+    <t xml:space="preserve">0.710728358028312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.34738982351717</t>
   </si>
   <si>
     <t xml:space="preserve">0.769554780572323</t>
@@ -15971,16 +15971,16 @@
     <t xml:space="preserve">0.479247340124133</t>
   </si>
   <si>
-    <t xml:space="preserve">0.790673174612044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.830596789301282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.746632639839006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.872196596625358</t>
+    <t xml:space="preserve">0.790673174612043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.830596789301281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.746632639839007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.872196596625357</t>
   </si>
   <si>
     <t xml:space="preserve">0.784482187539139</t>
@@ -16022,13 +16022,13 @@
     <t xml:space="preserve">0.714009738129933</t>
   </si>
   <si>
-    <t xml:space="preserve">0.571913002302733</t>
+    <t xml:space="preserve">0.571913002302732</t>
   </si>
   <si>
     <t xml:space="preserve">0.580218578847439</t>
   </si>
   <si>
-    <t xml:space="preserve">0.584545326098577</t>
+    <t xml:space="preserve">0.584545326098578</t>
   </si>
   <si>
     <t xml:space="preserve">0.571832225106114</t>
@@ -16040,7 +16040,7 @@
     <t xml:space="preserve">0.508221831612001</t>
   </si>
   <si>
-    <t xml:space="preserve">0.796620820931189</t>
+    <t xml:space="preserve">0.79662082093119</t>
   </si>
   <si>
     <t xml:space="preserve">0.399380871761531</t>
@@ -16049,10 +16049,10 @@
     <t xml:space="preserve">0.733000749341664</t>
   </si>
   <si>
-    <t xml:space="preserve">0.728219023305791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.603756669780255</t>
+    <t xml:space="preserve">0.72821902330579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.603756669780254</t>
   </si>
   <si>
     <t xml:space="preserve">0.731983366837858</t>
@@ -16085,7 +16085,7 @@
     <t xml:space="preserve">0.631922154817252</t>
   </si>
   <si>
-    <t xml:space="preserve">0.75647388674484</t>
+    <t xml:space="preserve">0.756473886744841</t>
   </si>
   <si>
     <t xml:space="preserve">0.62929587390803</t>
@@ -16127,7 +16127,7 @@
     <t xml:space="preserve">0.808058857513627</t>
   </si>
   <si>
-    <t xml:space="preserve">0.721704487546307</t>
+    <t xml:space="preserve">0.721704487546308</t>
   </si>
   <si>
     <t xml:space="preserve">0.840699098113317</t>
@@ -16142,7 +16142,7 @@
     <t xml:space="preserve">0.88710539926615</t>
   </si>
   <si>
-    <t xml:space="preserve">0.853742325841669</t>
+    <t xml:space="preserve">0.85374232584167</t>
   </si>
   <si>
     <t xml:space="preserve">0.822938919653285</t>
@@ -16253,7 +16253,7 @@
     <t xml:space="preserve">0.289640146623804</t>
   </si>
   <si>
-    <t xml:space="preserve">0.733625550030392</t>
+    <t xml:space="preserve">0.733625550030393</t>
   </si>
   <si>
     <t xml:space="preserve">0.751184073793907</t>
@@ -16265,7 +16265,7 @@
     <t xml:space="preserve">0.434362005136031</t>
   </si>
   <si>
-    <t xml:space="preserve">0.701049331557244</t>
+    <t xml:space="preserve">0.701049331557245</t>
   </si>
   <si>
     <t xml:space="preserve">0.355143871606128</t>
@@ -16277,10 +16277,10 @@
     <t xml:space="preserve">0.736241059762004</t>
   </si>
   <si>
-    <t xml:space="preserve">0.691593960439437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.760276723101367</t>
+    <t xml:space="preserve">0.691593960439438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.760276723101366</t>
   </si>
   <si>
     <t xml:space="preserve">0.665236940815691</t>
@@ -16310,7 +16310,7 @@
     <t xml:space="preserve">0.519767807260822</t>
   </si>
   <si>
-    <t xml:space="preserve">0.529126767194449</t>
+    <t xml:space="preserve">0.52912676719445</t>
   </si>
   <si>
     <t xml:space="preserve">0.797519549593667</t>
@@ -16337,7 +16337,7 @@
     <t xml:space="preserve">0.659265881980005</t>
   </si>
   <si>
-    <t xml:space="preserve">0.732512940368841</t>
+    <t xml:space="preserve">0.73251294036884</t>
   </si>
   <si>
     <t xml:space="preserve">0.702667822980654</t>
@@ -16361,7 +16361,7 @@
     <t xml:space="preserve">0.80982374263526</t>
   </si>
   <si>
-    <t xml:space="preserve">0.794660343309142</t>
+    <t xml:space="preserve">0.794660343309141</t>
   </si>
   <si>
     <t xml:space="preserve">0.705388617093811</t>
@@ -16379,7 +16379,7 @@
     <t xml:space="preserve">0.46215858063474</t>
   </si>
   <si>
-    <t xml:space="preserve">0.919616679750283</t>
+    <t xml:space="preserve">0.919616679750282</t>
   </si>
   <si>
     <t xml:space="preserve">0.453601698662855</t>
@@ -16421,7 +16421,7 @@
     <t xml:space="preserve">0.865554455283073</t>
   </si>
   <si>
-    <t xml:space="preserve">0.727657756582489</t>
+    <t xml:space="preserve">0.727657756582488</t>
   </si>
   <si>
     <t xml:space="preserve">0.399758177691766</t>
@@ -16430,7 +16430,7 @@
     <t xml:space="preserve">0.509024422219095</t>
   </si>
   <si>
-    <t xml:space="preserve">0.829915706800274</t>
+    <t xml:space="preserve">0.829915706800275</t>
   </si>
   <si>
     <t xml:space="preserve">0.378630208245056</t>
@@ -16439,7 +16439,7 @@
     <t xml:space="preserve">0.482705034781218</t>
   </si>
   <si>
-    <t xml:space="preserve">0.713999840094989</t>
+    <t xml:space="preserve">0.71399984009499</t>
   </si>
   <si>
     <t xml:space="preserve">0.432975618060809</t>
@@ -16460,7 +16460,7 @@
     <t xml:space="preserve">0.692240418570266</t>
   </si>
   <si>
-    <t xml:space="preserve">0.788265359751526</t>
+    <t xml:space="preserve">0.788265359751525</t>
   </si>
   <si>
     <t xml:space="preserve">0.474827253812359</t>
@@ -16481,7 +16481,7 @@
     <t xml:space="preserve">-0.30901245853399</t>
   </si>
   <si>
-    <t xml:space="preserve">0.488857060261989</t>
+    <t xml:space="preserve">0.488857060261988</t>
   </si>
   <si>
     <t xml:space="preserve">0.602256531595788</t>
@@ -16520,7 +16520,7 @@
     <t xml:space="preserve">0.462868451407288</t>
   </si>
   <si>
-    <t xml:space="preserve">0.479924064549823</t>
+    <t xml:space="preserve">0.479924064549822</t>
   </si>
   <si>
     <t xml:space="preserve">0.412845661490991</t>
@@ -16541,10 +16541,10 @@
     <t xml:space="preserve">0.442437929502099</t>
   </si>
   <si>
-    <t xml:space="preserve">0.809914139922139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.839938998649194</t>
+    <t xml:space="preserve">0.80991413992214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.839938998649195</t>
   </si>
   <si>
     <t xml:space="preserve">0.666564199000217</t>
@@ -16562,7 +16562,7 @@
     <t xml:space="preserve">0.380595707832563</t>
   </si>
   <si>
-    <t xml:space="preserve">0.675873587662538</t>
+    <t xml:space="preserve">0.675873587662537</t>
   </si>
   <si>
     <t xml:space="preserve">0.792692779019113</t>
@@ -16598,7 +16598,7 @@
     <t xml:space="preserve">0.450596720691995</t>
   </si>
   <si>
-    <t xml:space="preserve">0.378435587479421</t>
+    <t xml:space="preserve">0.378435587479422</t>
   </si>
   <si>
     <t xml:space="preserve">0.335229818727759</t>
@@ -16628,7 +16628,7 @@
     <t xml:space="preserve">0.923787077956131</t>
   </si>
   <si>
-    <t xml:space="preserve">0.732375570453694</t>
+    <t xml:space="preserve">0.732375570453693</t>
   </si>
   <si>
     <t xml:space="preserve">0.80918093053488</t>
@@ -16637,7 +16637,7 @@
     <t xml:space="preserve">0.689221934606768</t>
   </si>
   <si>
-    <t xml:space="preserve">0.875866160281371</t>
+    <t xml:space="preserve">0.87586616028137</t>
   </si>
   <si>
     <t xml:space="preserve">0.300350317387264</t>
@@ -16646,13 +16646,13 @@
     <t xml:space="preserve">0.650442962522536</t>
   </si>
   <si>
-    <t xml:space="preserve">0.707233691489978</t>
+    <t xml:space="preserve">0.707233691489977</t>
   </si>
   <si>
     <t xml:space="preserve">0.719040621916562</t>
   </si>
   <si>
-    <t xml:space="preserve">0.733145631136923</t>
+    <t xml:space="preserve">0.733145631136922</t>
   </si>
   <si>
     <t xml:space="preserve">0.74020780541255</t>
@@ -16697,7 +16697,7 @@
     <t xml:space="preserve">-0.295511924801309</t>
   </si>
   <si>
-    <t xml:space="preserve">0.805719710131804</t>
+    <t xml:space="preserve">0.805719710131803</t>
   </si>
   <si>
     <t xml:space="preserve">0.711647994718033</t>
@@ -16748,7 +16748,7 @@
     <t xml:space="preserve">0.57139298198194</t>
   </si>
   <si>
-    <t xml:space="preserve">0.754919653244551</t>
+    <t xml:space="preserve">0.754919653244552</t>
   </si>
   <si>
     <t xml:space="preserve">0.873192138658213</t>
@@ -16766,13 +16766,13 @@
     <t xml:space="preserve">0.840103231811946</t>
   </si>
   <si>
-    <t xml:space="preserve">0.818027079940639</t>
+    <t xml:space="preserve">0.818027079940638</t>
   </si>
   <si>
     <t xml:space="preserve">-0.294545741563747</t>
   </si>
   <si>
-    <t xml:space="preserve">0.527362714854721</t>
+    <t xml:space="preserve">0.52736271485472</t>
   </si>
   <si>
     <t xml:space="preserve">0.685063569248487</t>
@@ -16787,7 +16787,7 @@
     <t xml:space="preserve">0.756824049529207</t>
   </si>
   <si>
-    <t xml:space="preserve">0.458795050279564</t>
+    <t xml:space="preserve">0.458795050279565</t>
   </si>
   <si>
     <t xml:space="preserve">0.597296436430153</t>
@@ -16844,7 +16844,7 @@
     <t xml:space="preserve">0.864209845293617</t>
   </si>
   <si>
-    <t xml:space="preserve">0.566724892887564</t>
+    <t xml:space="preserve">0.566724892887563</t>
   </si>
   <si>
     <t xml:space="preserve">0.342484151828442</t>
@@ -16877,7 +16877,7 @@
     <t xml:space="preserve">0.412892501436691</t>
   </si>
   <si>
-    <t xml:space="preserve">0.655254483280287</t>
+    <t xml:space="preserve">0.655254483280286</t>
   </si>
   <si>
     <t xml:space="preserve">0.671722685528464</t>
@@ -16889,13 +16889,13 @@
     <t xml:space="preserve">0.791890602903755</t>
   </si>
   <si>
-    <t xml:space="preserve">0.815792834325549</t>
+    <t xml:space="preserve">0.815792834325548</t>
   </si>
   <si>
     <t xml:space="preserve">0.512234932346839</t>
   </si>
   <si>
-    <t xml:space="preserve">0.713254902944225</t>
+    <t xml:space="preserve">0.713254902944224</t>
   </si>
   <si>
     <t xml:space="preserve">0.926994511118139</t>
@@ -16931,7 +16931,7 @@
     <t xml:space="preserve">0.528195275187858</t>
   </si>
   <si>
-    <t xml:space="preserve">0.837666976565326</t>
+    <t xml:space="preserve">0.837666976565325</t>
   </si>
   <si>
     <t xml:space="preserve">0.424890247073423</t>

--- a/Outputs/Correlation/corr_matrix_full.xlsx
+++ b/Outputs/Correlation/corr_matrix_full.xlsx
@@ -392,7 +392,7 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">0.707317951204858</t>
+    <t xml:space="preserve">0.707317951204857</t>
   </si>
   <si>
     <t xml:space="preserve">0.755097085404254</t>
@@ -440,7 +440,7 @@
     <t xml:space="preserve">0.729525892305068</t>
   </si>
   <si>
-    <t xml:space="preserve">0.780361096531394</t>
+    <t xml:space="preserve">0.780361096531395</t>
   </si>
   <si>
     <t xml:space="preserve">0.499616909071667</t>
@@ -461,7 +461,7 @@
     <t xml:space="preserve">0.710102445757026</t>
   </si>
   <si>
-    <t xml:space="preserve">0.614167825028107</t>
+    <t xml:space="preserve">0.614167825028106</t>
   </si>
   <si>
     <t xml:space="preserve">0.729434611779951</t>
@@ -491,13 +491,13 @@
     <t xml:space="preserve">0.777970240950811</t>
   </si>
   <si>
-    <t xml:space="preserve">0.664919268263907</t>
+    <t xml:space="preserve">0.664919268263908</t>
   </si>
   <si>
     <t xml:space="preserve">0.821154555105534</t>
   </si>
   <si>
-    <t xml:space="preserve">0.670453644550849</t>
+    <t xml:space="preserve">0.670453644550848</t>
   </si>
   <si>
     <t xml:space="preserve">0.700090047347565</t>
@@ -512,10 +512,10 @@
     <t xml:space="preserve">0.758753552694755</t>
   </si>
   <si>
-    <t xml:space="preserve">0.716382347541217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.492272124451297</t>
+    <t xml:space="preserve">0.716382347541218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.492272124451298</t>
   </si>
   <si>
     <t xml:space="preserve">0.362153017999466</t>
@@ -566,7 +566,7 @@
     <t xml:space="preserve">0.770992556022403</t>
   </si>
   <si>
-    <t xml:space="preserve">0.642080146345335</t>
+    <t xml:space="preserve">0.642080146345334</t>
   </si>
   <si>
     <t xml:space="preserve">0.726833756592997</t>
@@ -611,16 +611,16 @@
     <t xml:space="preserve">0.646698871959829</t>
   </si>
   <si>
-    <t xml:space="preserve">0.271046919638666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.655200294647321</t>
+    <t xml:space="preserve">0.271046919638667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.65520029464732</t>
   </si>
   <si>
     <t xml:space="preserve">0.768872642501042</t>
   </si>
   <si>
-    <t xml:space="preserve">0.701842526608117</t>
+    <t xml:space="preserve">0.701842526608118</t>
   </si>
   <si>
     <t xml:space="preserve">0.548482336397563</t>
@@ -629,10 +629,10 @@
     <t xml:space="preserve">0.878404338906494</t>
   </si>
   <si>
-    <t xml:space="preserve">0.773783042262257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.856982607900404</t>
+    <t xml:space="preserve">0.773783042262258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.856982607900405</t>
   </si>
   <si>
     <t xml:space="preserve">0.803110810622484</t>
@@ -656,10 +656,10 @@
     <t xml:space="preserve">0.634087484801034</t>
   </si>
   <si>
-    <t xml:space="preserve">0.676698220080246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.632978309386702</t>
+    <t xml:space="preserve">0.676698220080247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.632978309386703</t>
   </si>
   <si>
     <t xml:space="preserve">0.904667098696667</t>
@@ -707,7 +707,7 @@
     <t xml:space="preserve">0.836007027093998</t>
   </si>
   <si>
-    <t xml:space="preserve">0.766603005177213</t>
+    <t xml:space="preserve">0.766603005177214</t>
   </si>
   <si>
     <t xml:space="preserve">0.555921886894643</t>
@@ -737,7 +737,7 @@
     <t xml:space="preserve">0.641256764933944</t>
   </si>
   <si>
-    <t xml:space="preserve">0.641180390615171</t>
+    <t xml:space="preserve">0.64118039061517</t>
   </si>
   <si>
     <t xml:space="preserve">0.735965200822337</t>
@@ -761,10 +761,10 @@
     <t xml:space="preserve">0.618967159684595</t>
   </si>
   <si>
-    <t xml:space="preserve">0.617574436498232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.377477076244707</t>
+    <t xml:space="preserve">0.617574436498233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.377477076244708</t>
   </si>
   <si>
     <t xml:space="preserve">0.801917424143908</t>
@@ -788,13 +788,13 @@
     <t xml:space="preserve">0.55454920755439</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.314147625868982</t>
+    <t xml:space="preserve">-0.314147625868983</t>
   </si>
   <si>
     <t xml:space="preserve">0.530239027505901</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.454694462134433</t>
+    <t xml:space="preserve">-0.454694462134432</t>
   </si>
   <si>
     <t xml:space="preserve">0.650483682076519</t>
@@ -815,13 +815,13 @@
     <t xml:space="preserve">0.644778073630816</t>
   </si>
   <si>
-    <t xml:space="preserve">0.809112990590034</t>
+    <t xml:space="preserve">0.809112990590035</t>
   </si>
   <si>
     <t xml:space="preserve">0.826031183930715</t>
   </si>
   <si>
-    <t xml:space="preserve">0.812793851999944</t>
+    <t xml:space="preserve">0.812793851999945</t>
   </si>
   <si>
     <t xml:space="preserve">0.609016255663857</t>
@@ -830,7 +830,7 @@
     <t xml:space="preserve">0.499298921755202</t>
   </si>
   <si>
-    <t xml:space="preserve">0.7097858494327</t>
+    <t xml:space="preserve">0.709785849432701</t>
   </si>
   <si>
     <t xml:space="preserve">0.481671688473945</t>
@@ -851,7 +851,7 @@
     <t xml:space="preserve">0.521230800720608</t>
   </si>
   <si>
-    <t xml:space="preserve">0.69713583372676</t>
+    <t xml:space="preserve">0.697135833726761</t>
   </si>
   <si>
     <t xml:space="preserve">0.300809871297266</t>
@@ -884,7 +884,7 @@
     <t xml:space="preserve">0.764191719775053</t>
   </si>
   <si>
-    <t xml:space="preserve">0.818642953350965</t>
+    <t xml:space="preserve">0.818642953350966</t>
   </si>
   <si>
     <t xml:space="preserve">0.786835762987392</t>
@@ -914,7 +914,7 @@
     <t xml:space="preserve">0.467163615175095</t>
   </si>
   <si>
-    <t xml:space="preserve">0.508890652786438</t>
+    <t xml:space="preserve">0.508890652786439</t>
   </si>
   <si>
     <t xml:space="preserve">0.7950169940214</t>
@@ -926,7 +926,7 @@
     <t xml:space="preserve">0.270621233689006</t>
   </si>
   <si>
-    <t xml:space="preserve">0.851311071601677</t>
+    <t xml:space="preserve">0.851311071601676</t>
   </si>
   <si>
     <t xml:space="preserve">0.703023988644382</t>
@@ -938,7 +938,7 @@
     <t xml:space="preserve">0.593591032126558</t>
   </si>
   <si>
-    <t xml:space="preserve">0.744657446657677</t>
+    <t xml:space="preserve">0.744657446657678</t>
   </si>
   <si>
     <t xml:space="preserve">0.781113060844864</t>
@@ -953,7 +953,7 @@
     <t xml:space="preserve">0.667341664976983</t>
   </si>
   <si>
-    <t xml:space="preserve">0.744896613759021</t>
+    <t xml:space="preserve">0.744896613759022</t>
   </si>
   <si>
     <t xml:space="preserve">0.476291707045262</t>
@@ -965,7 +965,7 @@
     <t xml:space="preserve">0.676487235913901</t>
   </si>
   <si>
-    <t xml:space="preserve">0.59449265848189</t>
+    <t xml:space="preserve">0.594492658481891</t>
   </si>
   <si>
     <t xml:space="preserve">0.656468797919696</t>
@@ -977,7 +977,7 @@
     <t xml:space="preserve">0.765929773531838</t>
   </si>
   <si>
-    <t xml:space="preserve">0.554346925677809</t>
+    <t xml:space="preserve">0.55434692567781</t>
   </si>
   <si>
     <t xml:space="preserve">0.703423717139478</t>
@@ -986,10 +986,10 @@
     <t xml:space="preserve">0.692780908259321</t>
   </si>
   <si>
-    <t xml:space="preserve">0.677901831432452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.797456072568125</t>
+    <t xml:space="preserve">0.677901831432451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.797456072568126</t>
   </si>
   <si>
     <t xml:space="preserve">0.686266566234783</t>
@@ -1019,7 +1019,7 @@
     <t xml:space="preserve">0.456007366471379</t>
   </si>
   <si>
-    <t xml:space="preserve">0.711359112986695</t>
+    <t xml:space="preserve">0.711359112986696</t>
   </si>
   <si>
     <t xml:space="preserve">0.786542702316593</t>
@@ -1037,7 +1037,7 @@
     <t xml:space="preserve">0.734809410958299</t>
   </si>
   <si>
-    <t xml:space="preserve">0.347892602834314</t>
+    <t xml:space="preserve">0.347892602834315</t>
   </si>
   <si>
     <t xml:space="preserve">0.679259216220287</t>
@@ -1052,7 +1052,7 @@
     <t xml:space="preserve">0.779921766365229</t>
   </si>
   <si>
-    <t xml:space="preserve">0.607294317350632</t>
+    <t xml:space="preserve">0.607294317350631</t>
   </si>
   <si>
     <t xml:space="preserve">0.795052869565159</t>
@@ -1061,10 +1061,10 @@
     <t xml:space="preserve">0.413696543697038</t>
   </si>
   <si>
-    <t xml:space="preserve">0.878363028736998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.83620466649483</t>
+    <t xml:space="preserve">0.878363028736999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.836204666494831</t>
   </si>
   <si>
     <t xml:space="preserve">0.545429840757298</t>
@@ -1073,7 +1073,7 @@
     <t xml:space="preserve">0.399369490650114</t>
   </si>
   <si>
-    <t xml:space="preserve">0.600125122193175</t>
+    <t xml:space="preserve">0.600125122193176</t>
   </si>
   <si>
     <t xml:space="preserve">0.665493441902541</t>
@@ -1085,7 +1085,7 @@
     <t xml:space="preserve">0.700465789663095</t>
   </si>
   <si>
-    <t xml:space="preserve">0.495424479893816</t>
+    <t xml:space="preserve">0.495424479893815</t>
   </si>
   <si>
     <t xml:space="preserve">0.716019734095477</t>
@@ -1118,13 +1118,13 @@
     <t xml:space="preserve">0.82685200485947</t>
   </si>
   <si>
-    <t xml:space="preserve">0.76922002484906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.819755352928032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.7287030688564</t>
+    <t xml:space="preserve">0.769220024849059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.819755352928031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.728703068856399</t>
   </si>
   <si>
     <t xml:space="preserve">0.592907386365337</t>
@@ -1133,10 +1133,10 @@
     <t xml:space="preserve">0.814213554561861</t>
   </si>
   <si>
-    <t xml:space="preserve">0.84113191368309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.875115704540955</t>
+    <t xml:space="preserve">0.841131913683089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.875115704540956</t>
   </si>
   <si>
     <t xml:space="preserve">0.653116350456043</t>
@@ -1160,13 +1160,13 @@
     <t xml:space="preserve">0.765059702735013</t>
   </si>
   <si>
-    <t xml:space="preserve">0.725372936299064</t>
+    <t xml:space="preserve">0.725372936299063</t>
   </si>
   <si>
     <t xml:space="preserve">0.487509923005999</t>
   </si>
   <si>
-    <t xml:space="preserve">0.728852490370422</t>
+    <t xml:space="preserve">0.728852490370423</t>
   </si>
   <si>
     <t xml:space="preserve">0.307913398598458</t>
@@ -1199,16 +1199,16 @@
     <t xml:space="preserve">0.796351109486294</t>
   </si>
   <si>
-    <t xml:space="preserve">0.882037875380938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.795535602892998</t>
+    <t xml:space="preserve">0.882037875380937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.795535602892999</t>
   </si>
   <si>
     <t xml:space="preserve">0.590442927074443</t>
   </si>
   <si>
-    <t xml:space="preserve">0.914474605453127</t>
+    <t xml:space="preserve">0.914474605453126</t>
   </si>
   <si>
     <t xml:space="preserve">0.800894370284561</t>
@@ -1220,10 +1220,10 @@
     <t xml:space="preserve">0.704618032814615</t>
   </si>
   <si>
-    <t xml:space="preserve">0.901706156773476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.801550307762652</t>
+    <t xml:space="preserve">0.901706156773477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.801550307762651</t>
   </si>
   <si>
     <t xml:space="preserve">0.460761731747237</t>
@@ -1253,7 +1253,7 @@
     <t xml:space="preserve">0.776610234790707</t>
   </si>
   <si>
-    <t xml:space="preserve">0.762323767292294</t>
+    <t xml:space="preserve">0.762323767292295</t>
   </si>
   <si>
     <t xml:space="preserve">0.729752197559556</t>
@@ -1268,10 +1268,10 @@
     <t xml:space="preserve">0.887219725801351</t>
   </si>
   <si>
-    <t xml:space="preserve">0.690319627822391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.726267965318368</t>
+    <t xml:space="preserve">0.690319627822392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.726267965318367</t>
   </si>
   <si>
     <t xml:space="preserve">0.835137590424544</t>
@@ -1292,7 +1292,7 @@
     <t xml:space="preserve">0.36563292104812</t>
   </si>
   <si>
-    <t xml:space="preserve">0.766650270883925</t>
+    <t xml:space="preserve">0.766650270883926</t>
   </si>
   <si>
     <t xml:space="preserve">0.799578291310116</t>
@@ -1301,7 +1301,7 @@
     <t xml:space="preserve">0.804294122311239</t>
   </si>
   <si>
-    <t xml:space="preserve">0.76875488249825</t>
+    <t xml:space="preserve">0.768754882498249</t>
   </si>
   <si>
     <t xml:space="preserve">0.725202444131311</t>
@@ -1313,7 +1313,7 @@
     <t xml:space="preserve">0.367935620744184</t>
   </si>
   <si>
-    <t xml:space="preserve">0.64149761206872</t>
+    <t xml:space="preserve">0.641497612068719</t>
   </si>
   <si>
     <t xml:space="preserve">0.818509736947141</t>
@@ -1340,7 +1340,7 @@
     <t xml:space="preserve">0.363321800160679</t>
   </si>
   <si>
-    <t xml:space="preserve">0.62483078312519</t>
+    <t xml:space="preserve">0.624830783125189</t>
   </si>
   <si>
     <t xml:space="preserve">0.435369956379359</t>
@@ -1370,10 +1370,10 @@
     <t xml:space="preserve">0.434594712554716</t>
   </si>
   <si>
-    <t xml:space="preserve">0.702911338676575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.733094766188222</t>
+    <t xml:space="preserve">0.702911338676574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.733094766188223</t>
   </si>
   <si>
     <t xml:space="preserve">0.546605124309655</t>
@@ -1397,7 +1397,7 @@
     <t xml:space="preserve">0.586671062238064</t>
   </si>
   <si>
-    <t xml:space="preserve">0.662174469494395</t>
+    <t xml:space="preserve">0.662174469494394</t>
   </si>
   <si>
     <t xml:space="preserve">0.640470854722032</t>
@@ -1421,13 +1421,13 @@
     <t xml:space="preserve">0.729014418791381</t>
   </si>
   <si>
-    <t xml:space="preserve">0.63808364823238</t>
+    <t xml:space="preserve">0.638083648232381</t>
   </si>
   <si>
     <t xml:space="preserve">0.647680234463007</t>
   </si>
   <si>
-    <t xml:space="preserve">0.628599210065987</t>
+    <t xml:space="preserve">0.628599210065986</t>
   </si>
   <si>
     <t xml:space="preserve">0.678314574775093</t>
@@ -1436,7 +1436,7 @@
     <t xml:space="preserve">0.652299238835128</t>
   </si>
   <si>
-    <t xml:space="preserve">0.723623387452985</t>
+    <t xml:space="preserve">0.723623387452986</t>
   </si>
   <si>
     <t xml:space="preserve">0.743198300941704</t>
@@ -1445,13 +1445,13 @@
     <t xml:space="preserve">0.698878905458204</t>
   </si>
   <si>
-    <t xml:space="preserve">0.540223269971487</t>
+    <t xml:space="preserve">0.540223269971488</t>
   </si>
   <si>
     <t xml:space="preserve">0.276473434032727</t>
   </si>
   <si>
-    <t xml:space="preserve">0.614556268815018</t>
+    <t xml:space="preserve">0.614556268815019</t>
   </si>
   <si>
     <t xml:space="preserve">0.51398356946985</t>
@@ -1487,7 +1487,7 @@
     <t xml:space="preserve">0.81185785028235</t>
   </si>
   <si>
-    <t xml:space="preserve">0.625053131332033</t>
+    <t xml:space="preserve">0.625053131332034</t>
   </si>
   <si>
     <t xml:space="preserve">0.490365732425621</t>
@@ -1508,7 +1508,7 @@
     <t xml:space="preserve">0.703065874427664</t>
   </si>
   <si>
-    <t xml:space="preserve">0.686998684186227</t>
+    <t xml:space="preserve">0.686998684186226</t>
   </si>
   <si>
     <t xml:space="preserve">0.633209069845341</t>
@@ -1532,7 +1532,7 @@
     <t xml:space="preserve">0.731603764469527</t>
   </si>
   <si>
-    <t xml:space="preserve">0.725045023572451</t>
+    <t xml:space="preserve">0.72504502357245</t>
   </si>
   <si>
     <t xml:space="preserve">0.417071317068929</t>
@@ -1547,7 +1547,7 @@
     <t xml:space="preserve">0.762501584888854</t>
   </si>
   <si>
-    <t xml:space="preserve">0.611887803681851</t>
+    <t xml:space="preserve">0.61188780368185</t>
   </si>
   <si>
     <t xml:space="preserve">0.595316322461847</t>
@@ -1586,10 +1586,10 @@
     <t xml:space="preserve">0.692262716460369</t>
   </si>
   <si>
-    <t xml:space="preserve">0.708842649731614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.770776325220955</t>
+    <t xml:space="preserve">0.708842649731615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.770776325220954</t>
   </si>
   <si>
     <t xml:space="preserve">0.47431651225014</t>
@@ -1745,13 +1745,13 @@
     <t xml:space="preserve">0.367623674958634</t>
   </si>
   <si>
-    <t xml:space="preserve">0.412650857600717</t>
+    <t xml:space="preserve">0.412650857600716</t>
   </si>
   <si>
     <t xml:space="preserve">0.366060117662327</t>
   </si>
   <si>
-    <t xml:space="preserve">0.37923386302088</t>
+    <t xml:space="preserve">0.379233863020879</t>
   </si>
   <si>
     <t xml:space="preserve">0.284237290934004</t>
@@ -1769,7 +1769,7 @@
     <t xml:space="preserve">0.352665991867333</t>
   </si>
   <si>
-    <t xml:space="preserve">0.385140736417786</t>
+    <t xml:space="preserve">0.385140736417787</t>
   </si>
   <si>
     <t xml:space="preserve">0.277801740580457</t>
@@ -1814,7 +1814,7 @@
     <t xml:space="preserve">0.539125868292645</t>
   </si>
   <si>
-    <t xml:space="preserve">0.356193729679466</t>
+    <t xml:space="preserve">0.356193729679465</t>
   </si>
   <si>
     <t xml:space="preserve">0.352534233139876</t>
@@ -1859,7 +1859,7 @@
     <t xml:space="preserve">0.288374770252324</t>
   </si>
   <si>
-    <t xml:space="preserve">0.658861997848746</t>
+    <t xml:space="preserve">0.658861997848745</t>
   </si>
   <si>
     <t xml:space="preserve">0.571153176561462</t>
@@ -1874,10 +1874,10 @@
     <t xml:space="preserve">0.581577095143835</t>
   </si>
   <si>
-    <t xml:space="preserve">0.812639159672499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.526719616811892</t>
+    <t xml:space="preserve">0.8126391596725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.526719616811893</t>
   </si>
   <si>
     <t xml:space="preserve">0.407632276598402</t>
@@ -1907,7 +1907,7 @@
     <t xml:space="preserve">0.494479593390876</t>
   </si>
   <si>
-    <t xml:space="preserve">0.419260941343311</t>
+    <t xml:space="preserve">0.41926094134331</t>
   </si>
   <si>
     <t xml:space="preserve">0.797652850563072</t>
@@ -1916,16 +1916,16 @@
     <t xml:space="preserve">-0.375393197851023</t>
   </si>
   <si>
-    <t xml:space="preserve">0.590730291570222</t>
+    <t xml:space="preserve">0.590730291570221</t>
   </si>
   <si>
     <t xml:space="preserve">-0.440068333527682</t>
   </si>
   <si>
-    <t xml:space="preserve">0.808248831521056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.725768838356301</t>
+    <t xml:space="preserve">0.808248831521055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7257688383563</t>
   </si>
   <si>
     <t xml:space="preserve">0.800990843956365</t>
@@ -1940,7 +1940,7 @@
     <t xml:space="preserve">0.539507795376648</t>
   </si>
   <si>
-    <t xml:space="preserve">0.729498886284715</t>
+    <t xml:space="preserve">0.729498886284716</t>
   </si>
   <si>
     <t xml:space="preserve">0.693102353571302</t>
@@ -1949,7 +1949,7 @@
     <t xml:space="preserve">0.597455804601238</t>
   </si>
   <si>
-    <t xml:space="preserve">0.505791168279572</t>
+    <t xml:space="preserve">0.505791168279571</t>
   </si>
   <si>
     <t xml:space="preserve">0.588279704302839</t>
@@ -1985,7 +1985,7 @@
     <t xml:space="preserve">0.7224366251375</t>
   </si>
   <si>
-    <t xml:space="preserve">0.693620869268587</t>
+    <t xml:space="preserve">0.693620869268588</t>
   </si>
   <si>
     <t xml:space="preserve">0.570409540142408</t>
@@ -2027,10 +2027,10 @@
     <t xml:space="preserve">0.511217222508519</t>
   </si>
   <si>
-    <t xml:space="preserve">0.569724812532768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.712462013168085</t>
+    <t xml:space="preserve">0.569724812532767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.712462013168084</t>
   </si>
   <si>
     <t xml:space="preserve">0.841857732760043</t>
@@ -2042,7 +2042,7 @@
     <t xml:space="preserve">0.533361185262107</t>
   </si>
   <si>
-    <t xml:space="preserve">0.641358427739253</t>
+    <t xml:space="preserve">0.641358427739252</t>
   </si>
   <si>
     <t xml:space="preserve">0.608411829780973</t>
@@ -2057,7 +2057,7 @@
     <t xml:space="preserve">0.735102041400327</t>
   </si>
   <si>
-    <t xml:space="preserve">0.582703504707345</t>
+    <t xml:space="preserve">0.582703504707346</t>
   </si>
   <si>
     <t xml:space="preserve">0.490522124586526</t>
@@ -2069,10 +2069,10 @@
     <t xml:space="preserve">0.685921291075715</t>
   </si>
   <si>
-    <t xml:space="preserve">0.752285681406878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.655224437512255</t>
+    <t xml:space="preserve">0.752285681406879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.655224437512256</t>
   </si>
   <si>
     <t xml:space="preserve">0.61558587579724</t>
@@ -2102,7 +2102,7 @@
     <t xml:space="preserve">0.657139980638724</t>
   </si>
   <si>
-    <t xml:space="preserve">0.675748143183798</t>
+    <t xml:space="preserve">0.675748143183797</t>
   </si>
   <si>
     <t xml:space="preserve">0.790882481839006</t>
@@ -2126,7 +2126,7 @@
     <t xml:space="preserve">0.310550941178188</t>
   </si>
   <si>
-    <t xml:space="preserve">0.446854478830122</t>
+    <t xml:space="preserve">0.446854478830123</t>
   </si>
   <si>
     <t xml:space="preserve">0.642924167991035</t>
@@ -2177,7 +2177,7 @@
     <t xml:space="preserve">0.26682101008961</t>
   </si>
   <si>
-    <t xml:space="preserve">0.41056648954628</t>
+    <t xml:space="preserve">0.410566489546281</t>
   </si>
   <si>
     <t xml:space="preserve">0.337985492408643</t>
@@ -2201,7 +2201,7 @@
     <t xml:space="preserve">-0.281257388764162</t>
   </si>
   <si>
-    <t xml:space="preserve">0.433304041778034</t>
+    <t xml:space="preserve">0.433304041778035</t>
   </si>
   <si>
     <t xml:space="preserve">0.326960823949826</t>
@@ -2216,7 +2216,7 @@
     <t xml:space="preserve">0.339931205073432</t>
   </si>
   <si>
-    <t xml:space="preserve">0.325409180735971</t>
+    <t xml:space="preserve">0.325409180735972</t>
   </si>
   <si>
     <t xml:space="preserve">0.465267924277408</t>
@@ -2240,7 +2240,7 @@
     <t xml:space="preserve">0.391649462594962</t>
   </si>
   <si>
-    <t xml:space="preserve">0.403160147815135</t>
+    <t xml:space="preserve">0.403160147815136</t>
   </si>
   <si>
     <t xml:space="preserve">0.540676072385094</t>
@@ -2279,7 +2279,7 @@
     <t xml:space="preserve">0.375235524833573</t>
   </si>
   <si>
-    <t xml:space="preserve">0.503208685261991</t>
+    <t xml:space="preserve">0.503208685261992</t>
   </si>
   <si>
     <t xml:space="preserve">0.317324656152376</t>
@@ -2321,7 +2321,7 @@
     <t xml:space="preserve">0.521707174658482</t>
   </si>
   <si>
-    <t xml:space="preserve">0.434449119708821</t>
+    <t xml:space="preserve">0.434449119708822</t>
   </si>
   <si>
     <t xml:space="preserve">0.390426111981242</t>
@@ -2384,7 +2384,7 @@
     <t xml:space="preserve">0.318680495232362</t>
   </si>
   <si>
-    <t xml:space="preserve">0.430601640469494</t>
+    <t xml:space="preserve">0.430601640469495</t>
   </si>
   <si>
     <t xml:space="preserve">0.357377153627191</t>
@@ -2405,19 +2405,19 @@
     <t xml:space="preserve">-0.512304107660938</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.391785084042132</t>
+    <t xml:space="preserve">-0.391785084042133</t>
   </si>
   <si>
     <t xml:space="preserve">0.509982001235889</t>
   </si>
   <si>
-    <t xml:space="preserve">0.638580002739841</t>
+    <t xml:space="preserve">0.63858000273984</t>
   </si>
   <si>
     <t xml:space="preserve">0.613222870859882</t>
   </si>
   <si>
-    <t xml:space="preserve">0.624776827259898</t>
+    <t xml:space="preserve">0.624776827259897</t>
   </si>
   <si>
     <t xml:space="preserve">0.556044744898409</t>
@@ -2450,7 +2450,7 @@
     <t xml:space="preserve">0.632391071540769</t>
   </si>
   <si>
-    <t xml:space="preserve">0.458968011175275</t>
+    <t xml:space="preserve">0.458968011175274</t>
   </si>
   <si>
     <t xml:space="preserve">0.648862388390281</t>
@@ -2489,7 +2489,7 @@
     <t xml:space="preserve">0.605720255009117</t>
   </si>
   <si>
-    <t xml:space="preserve">0.667640541280111</t>
+    <t xml:space="preserve">0.66764054128011</t>
   </si>
   <si>
     <t xml:space="preserve">0.610782132873882</t>
@@ -2519,7 +2519,7 @@
     <t xml:space="preserve">0.375784203068455</t>
   </si>
   <si>
-    <t xml:space="preserve">0.677179994736504</t>
+    <t xml:space="preserve">0.677179994736505</t>
   </si>
   <si>
     <t xml:space="preserve">0.622889821634041</t>
@@ -2540,13 +2540,13 @@
     <t xml:space="preserve">0.267703456096687</t>
   </si>
   <si>
-    <t xml:space="preserve">0.719687736923968</t>
+    <t xml:space="preserve">0.719687736923967</t>
   </si>
   <si>
     <t xml:space="preserve">0.74210725245702</t>
   </si>
   <si>
-    <t xml:space="preserve">0.565771652833694</t>
+    <t xml:space="preserve">0.565771652833693</t>
   </si>
   <si>
     <t xml:space="preserve">0.368966012684962</t>
@@ -2555,7 +2555,7 @@
     <t xml:space="preserve">0.708798867333166</t>
   </si>
   <si>
-    <t xml:space="preserve">0.735089401597444</t>
+    <t xml:space="preserve">0.735089401597445</t>
   </si>
   <si>
     <t xml:space="preserve">0.612953676574636</t>
@@ -2579,7 +2579,7 @@
     <t xml:space="preserve">0.610801780913828</t>
   </si>
   <si>
-    <t xml:space="preserve">0.524177114123347</t>
+    <t xml:space="preserve">0.524177114123346</t>
   </si>
   <si>
     <t xml:space="preserve">0.714160727409891</t>
@@ -2588,7 +2588,7 @@
     <t xml:space="preserve">0.690690913397082</t>
   </si>
   <si>
-    <t xml:space="preserve">0.80136251623429</t>
+    <t xml:space="preserve">0.801362516234289</t>
   </si>
   <si>
     <t xml:space="preserve">0.405552370407452</t>
@@ -2600,7 +2600,7 @@
     <t xml:space="preserve">0.733377988594258</t>
   </si>
   <si>
-    <t xml:space="preserve">0.59974184172143</t>
+    <t xml:space="preserve">0.599741841721429</t>
   </si>
   <si>
     <t xml:space="preserve">0.333680788943186</t>
@@ -2612,7 +2612,7 @@
     <t xml:space="preserve">0.68914360146971</t>
   </si>
   <si>
-    <t xml:space="preserve">0.669840519440567</t>
+    <t xml:space="preserve">0.669840519440566</t>
   </si>
   <si>
     <t xml:space="preserve">0.542087512900452</t>
@@ -2630,7 +2630,7 @@
     <t xml:space="preserve">0.711808183854489</t>
   </si>
   <si>
-    <t xml:space="preserve">0.640681424696889</t>
+    <t xml:space="preserve">0.640681424696888</t>
   </si>
   <si>
     <t xml:space="preserve">0.66572348701812</t>
@@ -2666,13 +2666,13 @@
     <t xml:space="preserve">0.657404795391592</t>
   </si>
   <si>
-    <t xml:space="preserve">0.680371137490897</t>
+    <t xml:space="preserve">0.680371137490898</t>
   </si>
   <si>
     <t xml:space="preserve">0.586205802829834</t>
   </si>
   <si>
-    <t xml:space="preserve">0.699435542494373</t>
+    <t xml:space="preserve">0.699435542494374</t>
   </si>
   <si>
     <t xml:space="preserve">0.352786936394035</t>
@@ -2684,7 +2684,7 @@
     <t xml:space="preserve">0.630189727350582</t>
   </si>
   <si>
-    <t xml:space="preserve">0.642905851366477</t>
+    <t xml:space="preserve">0.642905851366476</t>
   </si>
   <si>
     <t xml:space="preserve">0.623066899467097</t>
@@ -2693,7 +2693,7 @@
     <t xml:space="preserve">0.812600290782923</t>
   </si>
   <si>
-    <t xml:space="preserve">0.70515873591911</t>
+    <t xml:space="preserve">0.705158735919109</t>
   </si>
   <si>
     <t xml:space="preserve">0.6902314216465</t>
@@ -2717,7 +2717,7 @@
     <t xml:space="preserve">-0.30007755970294</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.483171501626273</t>
+    <t xml:space="preserve">-0.483171501626274</t>
   </si>
   <si>
     <t xml:space="preserve">-0.555832318708876</t>
@@ -2780,7 +2780,7 @@
     <t xml:space="preserve">-0.307650877046903</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.304717362572464</t>
+    <t xml:space="preserve">-0.304717362572465</t>
   </si>
   <si>
     <t xml:space="preserve">-0.329608345519626</t>
@@ -2831,10 +2831,10 @@
     <t xml:space="preserve">-0.350299657609713</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.423432580645938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.378793172258909</t>
+    <t xml:space="preserve">-0.423432580645939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.378793172258908</t>
   </si>
   <si>
     <t xml:space="preserve">-0.32058298314283</t>
@@ -2867,7 +2867,7 @@
     <t xml:space="preserve">-0.348770636587882</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.315989945255802</t>
+    <t xml:space="preserve">-0.315989945255803</t>
   </si>
   <si>
     <t xml:space="preserve">-0.304741064797261</t>
@@ -2921,7 +2921,7 @@
     <t xml:space="preserve">-0.38410180783415</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.356148514786107</t>
+    <t xml:space="preserve">-0.356148514786108</t>
   </si>
   <si>
     <t xml:space="preserve">0.402304512494157</t>
@@ -3035,7 +3035,7 @@
     <t xml:space="preserve">0.498237603690443</t>
   </si>
   <si>
-    <t xml:space="preserve">0.536591385971816</t>
+    <t xml:space="preserve">0.536591385971817</t>
   </si>
   <si>
     <t xml:space="preserve">0.485268555113096</t>
@@ -3152,7 +3152,7 @@
     <t xml:space="preserve">0.603758820802413</t>
   </si>
   <si>
-    <t xml:space="preserve">0.472713446354502</t>
+    <t xml:space="preserve">0.472713446354503</t>
   </si>
   <si>
     <t xml:space="preserve">0.420230832525367</t>
@@ -3173,7 +3173,7 @@
     <t xml:space="preserve">0.430580191974294</t>
   </si>
   <si>
-    <t xml:space="preserve">0.515644299414547</t>
+    <t xml:space="preserve">0.515644299414548</t>
   </si>
   <si>
     <t xml:space="preserve">0.607570067607308</t>
@@ -3209,7 +3209,7 @@
     <t xml:space="preserve">0.475186788452801</t>
   </si>
   <si>
-    <t xml:space="preserve">0.47742273886939</t>
+    <t xml:space="preserve">0.477422738869389</t>
   </si>
   <si>
     <t xml:space="preserve">0.370946307390074</t>
@@ -3254,7 +3254,7 @@
     <t xml:space="preserve">0.325563550321074</t>
   </si>
   <si>
-    <t xml:space="preserve">0.401550863482893</t>
+    <t xml:space="preserve">0.401550863482892</t>
   </si>
   <si>
     <t xml:space="preserve">0.281745862551785</t>
@@ -3296,13 +3296,13 @@
     <t xml:space="preserve">0.45082008630186</t>
   </si>
   <si>
-    <t xml:space="preserve">0.37166297302262</t>
+    <t xml:space="preserve">0.371662973022619</t>
   </si>
   <si>
     <t xml:space="preserve">0.352026968280823</t>
   </si>
   <si>
-    <t xml:space="preserve">0.286480405000292</t>
+    <t xml:space="preserve">0.286480405000293</t>
   </si>
   <si>
     <t xml:space="preserve">0.325978996698609</t>
@@ -3335,7 +3335,7 @@
     <t xml:space="preserve">0.812423411053174</t>
   </si>
   <si>
-    <t xml:space="preserve">0.61231945732928</t>
+    <t xml:space="preserve">0.612319457329281</t>
   </si>
   <si>
     <t xml:space="preserve">0.639218855409616</t>
@@ -3347,10 +3347,10 @@
     <t xml:space="preserve">0.388922916516286</t>
   </si>
   <si>
-    <t xml:space="preserve">0.681129347777699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.444737311587526</t>
+    <t xml:space="preserve">0.6811293477777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.444737311587525</t>
   </si>
   <si>
     <t xml:space="preserve">0.680371154011361</t>
@@ -3371,7 +3371,7 @@
     <t xml:space="preserve">0.42129954452455</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.435285361860151</t>
+    <t xml:space="preserve">-0.43528536186015</t>
   </si>
   <si>
     <t xml:space="preserve">0.754401437137709</t>
@@ -3410,7 +3410,7 @@
     <t xml:space="preserve">0.287036222443091</t>
   </si>
   <si>
-    <t xml:space="preserve">0.596411306041722</t>
+    <t xml:space="preserve">0.596411306041721</t>
   </si>
   <si>
     <t xml:space="preserve">0.498787424373126</t>
@@ -3425,7 +3425,7 @@
     <t xml:space="preserve">0.787025048885949</t>
   </si>
   <si>
-    <t xml:space="preserve">0.627694467654365</t>
+    <t xml:space="preserve">0.627694467654364</t>
   </si>
   <si>
     <t xml:space="preserve">0.528585361735421</t>
@@ -3446,28 +3446,28 @@
     <t xml:space="preserve">0.711635292195798</t>
   </si>
   <si>
-    <t xml:space="preserve">0.503758944594241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.340014486775321</t>
+    <t xml:space="preserve">0.503758944594242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.34001448677532</t>
   </si>
   <si>
     <t xml:space="preserve">0.707584888422662</t>
   </si>
   <si>
-    <t xml:space="preserve">0.799692513957325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.599607823078984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.715531774381218</t>
+    <t xml:space="preserve">0.799692513957324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.599607823078985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.715531774381217</t>
   </si>
   <si>
     <t xml:space="preserve">0.768988971664531</t>
   </si>
   <si>
-    <t xml:space="preserve">0.757627142145298</t>
+    <t xml:space="preserve">0.757627142145297</t>
   </si>
   <si>
     <t xml:space="preserve">0.59651126745349</t>
@@ -3476,7 +3476,7 @@
     <t xml:space="preserve">0.819416820191702</t>
   </si>
   <si>
-    <t xml:space="preserve">0.694604559028443</t>
+    <t xml:space="preserve">0.694604559028442</t>
   </si>
   <si>
     <t xml:space="preserve">0.600495391976106</t>
@@ -3497,10 +3497,10 @@
     <t xml:space="preserve">0.379356007353656</t>
   </si>
   <si>
-    <t xml:space="preserve">0.815675615280169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.744735395227263</t>
+    <t xml:space="preserve">0.815675615280168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.744735395227262</t>
   </si>
   <si>
     <t xml:space="preserve">0.275772734766676</t>
@@ -3524,7 +3524,7 @@
     <t xml:space="preserve">0.738812502404872</t>
   </si>
   <si>
-    <t xml:space="preserve">0.66447995666062</t>
+    <t xml:space="preserve">0.664479956660621</t>
   </si>
   <si>
     <t xml:space="preserve">0.826358142594717</t>
@@ -3557,7 +3557,7 @@
     <t xml:space="preserve">0.692449280325398</t>
   </si>
   <si>
-    <t xml:space="preserve">0.514392395765653</t>
+    <t xml:space="preserve">0.514392395765652</t>
   </si>
   <si>
     <t xml:space="preserve">0.715457708498587</t>
@@ -3572,13 +3572,13 @@
     <t xml:space="preserve">0.789197196535525</t>
   </si>
   <si>
-    <t xml:space="preserve">0.719565473424113</t>
+    <t xml:space="preserve">0.719565473424112</t>
   </si>
   <si>
     <t xml:space="preserve">0.809442431606639</t>
   </si>
   <si>
-    <t xml:space="preserve">0.451228744956437</t>
+    <t xml:space="preserve">0.451228744956438</t>
   </si>
   <si>
     <t xml:space="preserve">0.551305785237042</t>
@@ -3593,7 +3593,7 @@
     <t xml:space="preserve">0.761742253217819</t>
   </si>
   <si>
-    <t xml:space="preserve">0.462937106456404</t>
+    <t xml:space="preserve">0.462937106456403</t>
   </si>
   <si>
     <t xml:space="preserve">0.565440473960091</t>
@@ -3614,7 +3614,7 @@
     <t xml:space="preserve">0.673673650296099</t>
   </si>
   <si>
-    <t xml:space="preserve">0.703672300046081</t>
+    <t xml:space="preserve">0.703672300046082</t>
   </si>
   <si>
     <t xml:space="preserve">0.512235812702908</t>
@@ -3665,13 +3665,13 @@
     <t xml:space="preserve">0.650679012040431</t>
   </si>
   <si>
-    <t xml:space="preserve">0.698968576335081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.595651368480883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.601626715117174</t>
+    <t xml:space="preserve">0.698968576335082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.595651368480882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.601626715117173</t>
   </si>
   <si>
     <t xml:space="preserve">0.668577970291433</t>
@@ -3698,7 +3698,7 @@
     <t xml:space="preserve">0.509036307350417</t>
   </si>
   <si>
-    <t xml:space="preserve">0.547279998887826</t>
+    <t xml:space="preserve">0.547279998887827</t>
   </si>
   <si>
     <t xml:space="preserve">0.369960013400376</t>
@@ -3725,7 +3725,7 @@
     <t xml:space="preserve">0.599753834799357</t>
   </si>
   <si>
-    <t xml:space="preserve">0.692919007070069</t>
+    <t xml:space="preserve">0.692919007070068</t>
   </si>
   <si>
     <t xml:space="preserve">0.611032350418111</t>
@@ -3785,7 +3785,7 @@
     <t xml:space="preserve">0.718213604725819</t>
   </si>
   <si>
-    <t xml:space="preserve">0.54672529527008</t>
+    <t xml:space="preserve">0.546725295270081</t>
   </si>
   <si>
     <t xml:space="preserve">0.5468509946905</t>
@@ -3800,10 +3800,10 @@
     <t xml:space="preserve">0.694274523475797</t>
   </si>
   <si>
-    <t xml:space="preserve">0.688003069042291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.58769943444641</t>
+    <t xml:space="preserve">0.688003069042292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.587699434446409</t>
   </si>
   <si>
     <t xml:space="preserve">0.588123465996285</t>
@@ -3815,7 +3815,7 @@
     <t xml:space="preserve">0.63635272598337</t>
   </si>
   <si>
-    <t xml:space="preserve">0.67684901587923</t>
+    <t xml:space="preserve">0.676849015879231</t>
   </si>
   <si>
     <t xml:space="preserve">0.61320907973434</t>
@@ -3839,7 +3839,7 @@
     <t xml:space="preserve">0.392307138522573</t>
   </si>
   <si>
-    <t xml:space="preserve">0.625633832627134</t>
+    <t xml:space="preserve">0.625633832627135</t>
   </si>
   <si>
     <t xml:space="preserve">0.41567605841925</t>
@@ -3869,7 +3869,7 @@
     <t xml:space="preserve">0.479598991659795</t>
   </si>
   <si>
-    <t xml:space="preserve">0.68859614485519</t>
+    <t xml:space="preserve">0.688596144855189</t>
   </si>
   <si>
     <t xml:space="preserve">0.671871834111451</t>
@@ -3887,13 +3887,13 @@
     <t xml:space="preserve">0.72125527323509</t>
   </si>
   <si>
-    <t xml:space="preserve">0.420486354864547</t>
+    <t xml:space="preserve">0.420486354864546</t>
   </si>
   <si>
     <t xml:space="preserve">0.51823668445327</t>
   </si>
   <si>
-    <t xml:space="preserve">0.828115634808232</t>
+    <t xml:space="preserve">0.828115634808231</t>
   </si>
   <si>
     <t xml:space="preserve">0.801182559276871</t>
@@ -3920,7 +3920,7 @@
     <t xml:space="preserve">0.725059228909855</t>
   </si>
   <si>
-    <t xml:space="preserve">0.671497165049335</t>
+    <t xml:space="preserve">0.671497165049334</t>
   </si>
   <si>
     <t xml:space="preserve">0.281531320292726</t>
@@ -3977,7 +3977,7 @@
     <t xml:space="preserve">0.520703351059337</t>
   </si>
   <si>
-    <t xml:space="preserve">0.750014651922273</t>
+    <t xml:space="preserve">0.750014651922272</t>
   </si>
   <si>
     <t xml:space="preserve">0.780680768031451</t>
@@ -4028,7 +4028,7 @@
     <t xml:space="preserve">0.855905447057755</t>
   </si>
   <si>
-    <t xml:space="preserve">0.658113922595393</t>
+    <t xml:space="preserve">0.658113922595392</t>
   </si>
   <si>
     <t xml:space="preserve">0.756154382673607</t>
@@ -4061,7 +4061,7 @@
     <t xml:space="preserve">0.757625190846539</t>
   </si>
   <si>
-    <t xml:space="preserve">0.675516401085745</t>
+    <t xml:space="preserve">0.675516401085744</t>
   </si>
   <si>
     <t xml:space="preserve">0.700824679449282</t>
@@ -4082,7 +4082,7 @@
     <t xml:space="preserve">0.704643275659267</t>
   </si>
   <si>
-    <t xml:space="preserve">0.842271129782142</t>
+    <t xml:space="preserve">0.842271129782141</t>
   </si>
   <si>
     <t xml:space="preserve">0.699243788123831</t>
@@ -4148,7 +4148,7 @@
     <t xml:space="preserve">0.757880383539978</t>
   </si>
   <si>
-    <t xml:space="preserve">0.703225608117386</t>
+    <t xml:space="preserve">0.703225608117385</t>
   </si>
   <si>
     <t xml:space="preserve">0.529298991591973</t>
@@ -4307,7 +4307,7 @@
     <t xml:space="preserve">0.293486444163447</t>
   </si>
   <si>
-    <t xml:space="preserve">0.41151152273089</t>
+    <t xml:space="preserve">0.411511522730889</t>
   </si>
   <si>
     <t xml:space="preserve">0.450382251094578</t>
@@ -4331,7 +4331,7 @@
     <t xml:space="preserve">0.347278605984979</t>
   </si>
   <si>
-    <t xml:space="preserve">0.55903425884584</t>
+    <t xml:space="preserve">0.559034258845841</t>
   </si>
   <si>
     <t xml:space="preserve">0.374620669029164</t>
@@ -4376,7 +4376,7 @@
     <t xml:space="preserve">0.555217295411744</t>
   </si>
   <si>
-    <t xml:space="preserve">0.622008234805072</t>
+    <t xml:space="preserve">0.622008234805071</t>
   </si>
   <si>
     <t xml:space="preserve">0.623830376044</t>
@@ -4400,7 +4400,7 @@
     <t xml:space="preserve">0.279566958829775</t>
   </si>
   <si>
-    <t xml:space="preserve">0.494662765937224</t>
+    <t xml:space="preserve">0.494662765937223</t>
   </si>
   <si>
     <t xml:space="preserve">0.457487650735007</t>
@@ -4409,7 +4409,7 @@
     <t xml:space="preserve">0.358057059120562</t>
   </si>
   <si>
-    <t xml:space="preserve">0.330844149392763</t>
+    <t xml:space="preserve">0.330844149392764</t>
   </si>
   <si>
     <t xml:space="preserve">0.674252741173685</t>
@@ -4421,7 +4421,7 @@
     <t xml:space="preserve">0.468972525973381</t>
   </si>
   <si>
-    <t xml:space="preserve">0.565262724148417</t>
+    <t xml:space="preserve">0.565262724148416</t>
   </si>
   <si>
     <t xml:space="preserve">0.794944974570965</t>
@@ -4445,7 +4445,7 @@
     <t xml:space="preserve">0.321289734788438</t>
   </si>
   <si>
-    <t xml:space="preserve">0.774268527741985</t>
+    <t xml:space="preserve">0.774268527741986</t>
   </si>
   <si>
     <t xml:space="preserve">0.527987133389863</t>
@@ -4481,7 +4481,7 @@
     <t xml:space="preserve">0.674163108452435</t>
   </si>
   <si>
-    <t xml:space="preserve">0.83688740627758</t>
+    <t xml:space="preserve">0.836887406277579</t>
   </si>
   <si>
     <t xml:space="preserve">0.759951220229069</t>
@@ -4496,7 +4496,7 @@
     <t xml:space="preserve">0.843310262002046</t>
   </si>
   <si>
-    <t xml:space="preserve">0.894730111762946</t>
+    <t xml:space="preserve">0.894730111762947</t>
   </si>
   <si>
     <t xml:space="preserve">0.540448865876455</t>
@@ -4568,7 +4568,7 @@
     <t xml:space="preserve">0.798181336186909</t>
   </si>
   <si>
-    <t xml:space="preserve">0.834450672442542</t>
+    <t xml:space="preserve">0.834450672442543</t>
   </si>
   <si>
     <t xml:space="preserve">0.672111228468685</t>
@@ -4589,10 +4589,10 @@
     <t xml:space="preserve">0.402425118039184</t>
   </si>
   <si>
-    <t xml:space="preserve">0.845845536673337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.809620932637555</t>
+    <t xml:space="preserve">0.845845536673338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.809620932637554</t>
   </si>
   <si>
     <t xml:space="preserve">0.707567011397732</t>
@@ -4607,7 +4607,7 @@
     <t xml:space="preserve">0.673960774153115</t>
   </si>
   <si>
-    <t xml:space="preserve">0.777695257663068</t>
+    <t xml:space="preserve">0.777695257663069</t>
   </si>
   <si>
     <t xml:space="preserve">0.735625977193737</t>
@@ -4622,7 +4622,7 @@
     <t xml:space="preserve">0.741393619721979</t>
   </si>
   <si>
-    <t xml:space="preserve">0.901597940582994</t>
+    <t xml:space="preserve">0.901597940582995</t>
   </si>
   <si>
     <t xml:space="preserve">0.704238836550583</t>
@@ -4661,7 +4661,7 @@
     <t xml:space="preserve">0.808894537992888</t>
   </si>
   <si>
-    <t xml:space="preserve">0.751412564703638</t>
+    <t xml:space="preserve">0.751412564703639</t>
   </si>
   <si>
     <t xml:space="preserve">0.809126212200274</t>
@@ -4703,7 +4703,7 @@
     <t xml:space="preserve">0.723169189577298</t>
   </si>
   <si>
-    <t xml:space="preserve">0.717126695765849</t>
+    <t xml:space="preserve">0.71712669576585</t>
   </si>
   <si>
     <t xml:space="preserve">0.470283277154758</t>
@@ -4739,7 +4739,7 @@
     <t xml:space="preserve">0.567640835420681</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.518906315426086</t>
+    <t xml:space="preserve">-0.518906315426085</t>
   </si>
   <si>
     <t xml:space="preserve">0.960002223839618</t>
@@ -4760,13 +4760,13 @@
     <t xml:space="preserve">0.639724022768453</t>
   </si>
   <si>
-    <t xml:space="preserve">0.889513029370035</t>
+    <t xml:space="preserve">0.889513029370036</t>
   </si>
   <si>
     <t xml:space="preserve">0.888599954856013</t>
   </si>
   <si>
-    <t xml:space="preserve">0.865547342572248</t>
+    <t xml:space="preserve">0.865547342572249</t>
   </si>
   <si>
     <t xml:space="preserve">0.591351359225939</t>
@@ -4787,7 +4787,7 @@
     <t xml:space="preserve">0.950521601125333</t>
   </si>
   <si>
-    <t xml:space="preserve">0.837014660228537</t>
+    <t xml:space="preserve">0.837014660228538</t>
   </si>
   <si>
     <t xml:space="preserve">0.721554265901237</t>
@@ -4802,10 +4802,10 @@
     <t xml:space="preserve">0.366349571358171</t>
   </si>
   <si>
-    <t xml:space="preserve">0.696579078641192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.85736883390129</t>
+    <t xml:space="preserve">0.696579078641193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.857368833901291</t>
   </si>
   <si>
     <t xml:space="preserve">0.780506752285181</t>
@@ -4817,10 +4817,10 @@
     <t xml:space="preserve">0.347429951734978</t>
   </si>
   <si>
-    <t xml:space="preserve">0.886503421221586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.992682820328333</t>
+    <t xml:space="preserve">0.886503421221587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.992682820328334</t>
   </si>
   <si>
     <t xml:space="preserve">0.650948879796221</t>
@@ -4838,7 +4838,7 @@
     <t xml:space="preserve">0.719493421751571</t>
   </si>
   <si>
-    <t xml:space="preserve">0.837666139259591</t>
+    <t xml:space="preserve">0.837666139259592</t>
   </si>
   <si>
     <t xml:space="preserve">0.764138007240336</t>
@@ -4874,22 +4874,22 @@
     <t xml:space="preserve">0.733254023123388</t>
   </si>
   <si>
-    <t xml:space="preserve">0.867155120958704</t>
+    <t xml:space="preserve">0.867155120958705</t>
   </si>
   <si>
     <t xml:space="preserve">0.832350155179467</t>
   </si>
   <si>
-    <t xml:space="preserve">0.640813121290483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.906950497112996</t>
+    <t xml:space="preserve">0.640813121290484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.906950497112997</t>
   </si>
   <si>
     <t xml:space="preserve">0.870668712658372</t>
   </si>
   <si>
-    <t xml:space="preserve">0.829753478607357</t>
+    <t xml:space="preserve">0.829753478607358</t>
   </si>
   <si>
     <t xml:space="preserve">0.886179904371736</t>
@@ -4907,28 +4907,28 @@
     <t xml:space="preserve">0.382013309607998</t>
   </si>
   <si>
-    <t xml:space="preserve">0.78335455482906</t>
+    <t xml:space="preserve">0.783354554829059</t>
   </si>
   <si>
     <t xml:space="preserve">0.769828610708746</t>
   </si>
   <si>
-    <t xml:space="preserve">0.724843692045594</t>
+    <t xml:space="preserve">0.724843692045595</t>
   </si>
   <si>
     <t xml:space="preserve">0.794372814502168</t>
   </si>
   <si>
-    <t xml:space="preserve">0.735305823297522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.825400214887786</t>
+    <t xml:space="preserve">0.735305823297521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.825400214887785</t>
   </si>
   <si>
     <t xml:space="preserve">0.35855115474358</t>
   </si>
   <si>
-    <t xml:space="preserve">0.934531230821749</t>
+    <t xml:space="preserve">0.93453123082175</t>
   </si>
   <si>
     <t xml:space="preserve">0.961397489132456</t>
@@ -4937,19 +4937,19 @@
     <t xml:space="preserve">0.768973983360467</t>
   </si>
   <si>
-    <t xml:space="preserve">0.884588079748791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.75672729412183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.944327514230469</t>
+    <t xml:space="preserve">0.884588079748792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.756727294121829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.94432751423047</t>
   </si>
   <si>
     <t xml:space="preserve">0.36680563496034</t>
   </si>
   <si>
-    <t xml:space="preserve">0.686677101029403</t>
+    <t xml:space="preserve">0.686677101029402</t>
   </si>
   <si>
     <t xml:space="preserve">0.803828263428063</t>
@@ -5117,7 +5117,7 @@
     <t xml:space="preserve">0.552593786541608</t>
   </si>
   <si>
-    <t xml:space="preserve">0.631290271307868</t>
+    <t xml:space="preserve">0.631290271307869</t>
   </si>
   <si>
     <t xml:space="preserve">0.3122132738701</t>
@@ -5144,22 +5144,22 @@
     <t xml:space="preserve">0.527227249327985</t>
   </si>
   <si>
-    <t xml:space="preserve">0.622404621383859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.631515928517762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.580438508413399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.615849728766666</t>
+    <t xml:space="preserve">0.62240462138386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.631515928517763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5804385084134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.615849728766667</t>
   </si>
   <si>
     <t xml:space="preserve">0.522012927419115</t>
   </si>
   <si>
-    <t xml:space="preserve">0.578628216246995</t>
+    <t xml:space="preserve">0.578628216246996</t>
   </si>
   <si>
     <t xml:space="preserve">0.506584740734532</t>
@@ -5171,19 +5171,19 @@
     <t xml:space="preserve">0.62619156888259</t>
   </si>
   <si>
-    <t xml:space="preserve">0.485210563705881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.559190663081893</t>
+    <t xml:space="preserve">0.485210563705882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.559190663081894</t>
   </si>
   <si>
     <t xml:space="preserve">0.640572942125589</t>
   </si>
   <si>
-    <t xml:space="preserve">0.383525186007155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.538637022631216</t>
+    <t xml:space="preserve">0.383525186007156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.538637022631217</t>
   </si>
   <si>
     <t xml:space="preserve">0.288437210220782</t>
@@ -5192,19 +5192,19 @@
     <t xml:space="preserve">0.551549310101218</t>
   </si>
   <si>
-    <t xml:space="preserve">0.631918589330752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.594093967318128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.596222232148386</t>
+    <t xml:space="preserve">0.631918589330753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.594093967318129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.596222232148387</t>
   </si>
   <si>
     <t xml:space="preserve">0.623860953742054</t>
   </si>
   <si>
-    <t xml:space="preserve">0.724933328284405</t>
+    <t xml:space="preserve">0.724933328284406</t>
   </si>
   <si>
     <t xml:space="preserve">0.303736752485336</t>
@@ -5231,7 +5231,7 @@
     <t xml:space="preserve">0.435270970431025</t>
   </si>
   <si>
-    <t xml:space="preserve">0.557589266523396</t>
+    <t xml:space="preserve">0.557589266523397</t>
   </si>
   <si>
     <t xml:space="preserve">0.285571770593943</t>
@@ -5303,7 +5303,7 @@
     <t xml:space="preserve">0.310375504350299</t>
   </si>
   <si>
-    <t xml:space="preserve">0.43465680884248</t>
+    <t xml:space="preserve">0.434656808842481</t>
   </si>
   <si>
     <t xml:space="preserve">0.305055611052161</t>
@@ -5345,7 +5345,7 @@
     <t xml:space="preserve">0.350757997057826</t>
   </si>
   <si>
-    <t xml:space="preserve">0.342725758020653</t>
+    <t xml:space="preserve">0.342725758020652</t>
   </si>
   <si>
     <t xml:space="preserve">0.323770807084425</t>
@@ -5354,7 +5354,7 @@
     <t xml:space="preserve">0.445805176364325</t>
   </si>
   <si>
-    <t xml:space="preserve">0.354365533124851</t>
+    <t xml:space="preserve">0.354365533124852</t>
   </si>
   <si>
     <t xml:space="preserve">0.307939868351985</t>
@@ -5402,7 +5402,7 @@
     <t xml:space="preserve">0.51146381407856</t>
   </si>
   <si>
-    <t xml:space="preserve">0.743871632433382</t>
+    <t xml:space="preserve">0.743871632433383</t>
   </si>
   <si>
     <t xml:space="preserve">0.280896255032098</t>
@@ -5423,7 +5423,7 @@
     <t xml:space="preserve">0.424633778360568</t>
   </si>
   <si>
-    <t xml:space="preserve">0.515619707404656</t>
+    <t xml:space="preserve">0.515619707404657</t>
   </si>
   <si>
     <t xml:space="preserve">0.345663335376602</t>
@@ -5504,7 +5504,7 @@
     <t xml:space="preserve">0.501142613808461</t>
   </si>
   <si>
-    <t xml:space="preserve">0.41361766639544</t>
+    <t xml:space="preserve">0.413617666395441</t>
   </si>
   <si>
     <t xml:space="preserve">0.37019355878731</t>
@@ -5522,7 +5522,7 @@
     <t xml:space="preserve">0.705245665089871</t>
   </si>
   <si>
-    <t xml:space="preserve">0.60711145681377</t>
+    <t xml:space="preserve">0.607111456813771</t>
   </si>
   <si>
     <t xml:space="preserve">0.727351535196388</t>
@@ -5537,7 +5537,7 @@
     <t xml:space="preserve">0.525804522313978</t>
   </si>
   <si>
-    <t xml:space="preserve">0.779272424538535</t>
+    <t xml:space="preserve">0.779272424538536</t>
   </si>
   <si>
     <t xml:space="preserve">0.670892565784286</t>
@@ -5576,7 +5576,7 @@
     <t xml:space="preserve">0.322008187788004</t>
   </si>
   <si>
-    <t xml:space="preserve">0.589357047828878</t>
+    <t xml:space="preserve">0.589357047828879</t>
   </si>
   <si>
     <t xml:space="preserve">0.633951683983516</t>
@@ -5597,13 +5597,13 @@
     <t xml:space="preserve">0.686967744821792</t>
   </si>
   <si>
-    <t xml:space="preserve">0.621114048558244</t>
+    <t xml:space="preserve">0.621114048558245</t>
   </si>
   <si>
     <t xml:space="preserve">0.570207523477473</t>
   </si>
   <si>
-    <t xml:space="preserve">0.554963293454742</t>
+    <t xml:space="preserve">0.554963293454743</t>
   </si>
   <si>
     <t xml:space="preserve">0.611557995958478</t>
@@ -5618,7 +5618,7 @@
     <t xml:space="preserve">0.768383133381742</t>
   </si>
   <si>
-    <t xml:space="preserve">0.626152588955115</t>
+    <t xml:space="preserve">0.626152588955116</t>
   </si>
   <si>
     <t xml:space="preserve">0.740172150784538</t>
@@ -5657,7 +5657,7 @@
     <t xml:space="preserve">0.761860452128404</t>
   </si>
   <si>
-    <t xml:space="preserve">0.703315923752825</t>
+    <t xml:space="preserve">0.703315923752826</t>
   </si>
   <si>
     <t xml:space="preserve">0.681197633405265</t>
@@ -5666,7 +5666,7 @@
     <t xml:space="preserve">0.638168093374636</t>
   </si>
   <si>
-    <t xml:space="preserve">0.603068126779691</t>
+    <t xml:space="preserve">0.60306812677969</t>
   </si>
   <si>
     <t xml:space="preserve">0.414816572738828</t>
@@ -5693,7 +5693,7 @@
     <t xml:space="preserve">0.40314912567814</t>
   </si>
   <si>
-    <t xml:space="preserve">0.725969247859645</t>
+    <t xml:space="preserve">0.725969247859646</t>
   </si>
   <si>
     <t xml:space="preserve">0.736450662586338</t>
@@ -5708,7 +5708,7 @@
     <t xml:space="preserve">0.681935115420204</t>
   </si>
   <si>
-    <t xml:space="preserve">0.674024758586415</t>
+    <t xml:space="preserve">0.674024758586416</t>
   </si>
   <si>
     <t xml:space="preserve">0.406626035977311</t>
@@ -5717,7 +5717,7 @@
     <t xml:space="preserve">0.527420322606904</t>
   </si>
   <si>
-    <t xml:space="preserve">0.578647334176995</t>
+    <t xml:space="preserve">0.578647334176996</t>
   </si>
   <si>
     <t xml:space="preserve">0.602125035537342</t>
@@ -5765,7 +5765,7 @@
     <t xml:space="preserve">0.654768151923852</t>
   </si>
   <si>
-    <t xml:space="preserve">0.671570789344099</t>
+    <t xml:space="preserve">0.6715707893441</t>
   </si>
   <si>
     <t xml:space="preserve">0.581483120955203</t>
@@ -5780,10 +5780,10 @@
     <t xml:space="preserve">0.514772539576452</t>
   </si>
   <si>
-    <t xml:space="preserve">0.728387191949593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.726374744547915</t>
+    <t xml:space="preserve">0.728387191949594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.726374744547916</t>
   </si>
   <si>
     <t xml:space="preserve">0.7230096595124</t>
@@ -5873,7 +5873,7 @@
     <t xml:space="preserve">0.388399364835706</t>
   </si>
   <si>
-    <t xml:space="preserve">0.847632138521924</t>
+    <t xml:space="preserve">0.847632138521925</t>
   </si>
   <si>
     <t xml:space="preserve">0.548912264275738</t>
@@ -5996,10 +5996,10 @@
     <t xml:space="preserve">0.470743255623664</t>
   </si>
   <si>
-    <t xml:space="preserve">0.455896066078508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.451595234637498</t>
+    <t xml:space="preserve">0.455896066078509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.451595234637499</t>
   </si>
   <si>
     <t xml:space="preserve">0.313443201723429</t>
@@ -6026,7 +6026,7 @@
     <t xml:space="preserve">0.478756917573043</t>
   </si>
   <si>
-    <t xml:space="preserve">0.286984190446776</t>
+    <t xml:space="preserve">0.286984190446777</t>
   </si>
   <si>
     <t xml:space="preserve">0.288196557485785</t>
@@ -6080,13 +6080,13 @@
     <t xml:space="preserve">0.385191460334887</t>
   </si>
   <si>
-    <t xml:space="preserve">0.36296950365887</t>
+    <t xml:space="preserve">0.362969503658869</t>
   </si>
   <si>
     <t xml:space="preserve">0.396820740966746</t>
   </si>
   <si>
-    <t xml:space="preserve">0.328096354449609</t>
+    <t xml:space="preserve">0.328096354449608</t>
   </si>
   <si>
     <t xml:space="preserve">0.378739790758935</t>
@@ -6122,7 +6122,7 @@
     <t xml:space="preserve">0.292961247212906</t>
   </si>
   <si>
-    <t xml:space="preserve">0.307204905665759</t>
+    <t xml:space="preserve">0.307204905665758</t>
   </si>
   <si>
     <t xml:space="preserve">0.400845436633594</t>
@@ -6134,7 +6134,7 @@
     <t xml:space="preserve">0.302569854441249</t>
   </si>
   <si>
-    <t xml:space="preserve">0.472712698831888</t>
+    <t xml:space="preserve">0.472712698831889</t>
   </si>
   <si>
     <t xml:space="preserve">0.450774558474311</t>
@@ -6167,13 +6167,13 @@
     <t xml:space="preserve">0.371675344788211</t>
   </si>
   <si>
-    <t xml:space="preserve">0.301432120658054</t>
+    <t xml:space="preserve">0.301432120658055</t>
   </si>
   <si>
     <t xml:space="preserve">0.385791764751466</t>
   </si>
   <si>
-    <t xml:space="preserve">0.291868788369836</t>
+    <t xml:space="preserve">0.291868788369837</t>
   </si>
   <si>
     <t xml:space="preserve">0.276900853684099</t>
@@ -6182,7 +6182,7 @@
     <t xml:space="preserve">0.349342354628269</t>
   </si>
   <si>
-    <t xml:space="preserve">0.270557327279865</t>
+    <t xml:space="preserve">0.270557327279866</t>
   </si>
   <si>
     <t xml:space="preserve">0.325681142652003</t>
@@ -6206,7 +6206,7 @@
     <t xml:space="preserve">0.336998288729249</t>
   </si>
   <si>
-    <t xml:space="preserve">0.278589140270737</t>
+    <t xml:space="preserve">0.278589140270738</t>
   </si>
   <si>
     <t xml:space="preserve">0.317355323297541</t>
@@ -6272,13 +6272,13 @@
     <t xml:space="preserve">0.29604814759818</t>
   </si>
   <si>
-    <t xml:space="preserve">0.453273291406858</t>
+    <t xml:space="preserve">0.453273291406857</t>
   </si>
   <si>
     <t xml:space="preserve">0.361914451321243</t>
   </si>
   <si>
-    <t xml:space="preserve">0.403982398178773</t>
+    <t xml:space="preserve">0.403982398178772</t>
   </si>
   <si>
     <t xml:space="preserve">0.317406297410952</t>
@@ -6293,13 +6293,13 @@
     <t xml:space="preserve">0.502232373131091</t>
   </si>
   <si>
-    <t xml:space="preserve">0.810251034570609</t>
+    <t xml:space="preserve">0.810251034570608</t>
   </si>
   <si>
     <t xml:space="preserve">0.558962679641655</t>
   </si>
   <si>
-    <t xml:space="preserve">0.546822599927188</t>
+    <t xml:space="preserve">0.546822599927187</t>
   </si>
   <si>
     <t xml:space="preserve">0.466560470814739</t>
@@ -6311,7 +6311,7 @@
     <t xml:space="preserve">0.449684816901696</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.434878632487846</t>
+    <t xml:space="preserve">-0.434878632487845</t>
   </si>
   <si>
     <t xml:space="preserve">0.670500374160203</t>
@@ -6359,7 +6359,7 @@
     <t xml:space="preserve">0.716546152425315</t>
   </si>
   <si>
-    <t xml:space="preserve">0.679738396762299</t>
+    <t xml:space="preserve">0.6797383967623</t>
   </si>
   <si>
     <t xml:space="preserve">0.611088034522166</t>
@@ -6380,7 +6380,7 @@
     <t xml:space="preserve">0.73396695112804</t>
   </si>
   <si>
-    <t xml:space="preserve">0.536919755918189</t>
+    <t xml:space="preserve">0.53691975591819</t>
   </si>
   <si>
     <t xml:space="preserve">0.547601793581736</t>
@@ -6401,7 +6401,7 @@
     <t xml:space="preserve">0.777044566892238</t>
   </si>
   <si>
-    <t xml:space="preserve">0.82562451226845</t>
+    <t xml:space="preserve">0.825624512268451</t>
   </si>
   <si>
     <t xml:space="preserve">0.774972773748076</t>
@@ -6413,7 +6413,7 @@
     <t xml:space="preserve">0.616341559827611</t>
   </si>
   <si>
-    <t xml:space="preserve">0.660918410709944</t>
+    <t xml:space="preserve">0.660918410709945</t>
   </si>
   <si>
     <t xml:space="preserve">0.416234923175398</t>
@@ -6434,7 +6434,7 @@
     <t xml:space="preserve">0.423285740129112</t>
   </si>
   <si>
-    <t xml:space="preserve">0.778371848227968</t>
+    <t xml:space="preserve">0.778371848227969</t>
   </si>
   <si>
     <t xml:space="preserve">0.598136544442727</t>
@@ -6461,10 +6461,10 @@
     <t xml:space="preserve">0.693505286485151</t>
   </si>
   <si>
-    <t xml:space="preserve">0.690637276741533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.855440203172024</t>
+    <t xml:space="preserve">0.690637276741534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.855440203172025</t>
   </si>
   <si>
     <t xml:space="preserve">0.759931936965587</t>
@@ -6506,7 +6506,7 @@
     <t xml:space="preserve">0.639231037603024</t>
   </si>
   <si>
-    <t xml:space="preserve">0.792733670372653</t>
+    <t xml:space="preserve">0.792733670372654</t>
   </si>
   <si>
     <t xml:space="preserve">0.638684564808902</t>
@@ -6521,7 +6521,7 @@
     <t xml:space="preserve">0.731985406157631</t>
   </si>
   <si>
-    <t xml:space="preserve">0.840842130176793</t>
+    <t xml:space="preserve">0.840842130176794</t>
   </si>
   <si>
     <t xml:space="preserve">0.724943855964159</t>
@@ -6533,7 +6533,7 @@
     <t xml:space="preserve">-0.323413716769431</t>
   </si>
   <si>
-    <t xml:space="preserve">0.468721612416751</t>
+    <t xml:space="preserve">0.468721612416752</t>
   </si>
   <si>
     <t xml:space="preserve">0.696822134489725</t>
@@ -6545,7 +6545,7 @@
     <t xml:space="preserve">0.523811306705515</t>
   </si>
   <si>
-    <t xml:space="preserve">0.517450028718988</t>
+    <t xml:space="preserve">0.517450028718987</t>
   </si>
   <si>
     <t xml:space="preserve">0.303223658354792</t>
@@ -6563,7 +6563,7 @@
     <t xml:space="preserve">0.4472811055697</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.490799248529298</t>
+    <t xml:space="preserve">-0.490799248529297</t>
   </si>
   <si>
     <t xml:space="preserve">0.503081519382828</t>
@@ -6581,13 +6581,13 @@
     <t xml:space="preserve">0.590668383229475</t>
   </si>
   <si>
-    <t xml:space="preserve">0.481247962267203</t>
+    <t xml:space="preserve">0.481247962267202</t>
   </si>
   <si>
     <t xml:space="preserve">0.573993408687116</t>
   </si>
   <si>
-    <t xml:space="preserve">0.599027348355834</t>
+    <t xml:space="preserve">0.599027348355833</t>
   </si>
   <si>
     <t xml:space="preserve">0.600053675733111</t>
@@ -6602,7 +6602,7 @@
     <t xml:space="preserve">0.542420266874863</t>
   </si>
   <si>
-    <t xml:space="preserve">0.355696457615605</t>
+    <t xml:space="preserve">0.355696457615604</t>
   </si>
   <si>
     <t xml:space="preserve">0.426213416174624</t>
@@ -6632,7 +6632,7 @@
     <t xml:space="preserve">0.479059313389092</t>
   </si>
   <si>
-    <t xml:space="preserve">0.543870559999409</t>
+    <t xml:space="preserve">0.543870559999408</t>
   </si>
   <si>
     <t xml:space="preserve">0.496875182264651</t>
@@ -6662,7 +6662,7 @@
     <t xml:space="preserve">0.414151050447156</t>
   </si>
   <si>
-    <t xml:space="preserve">0.549581037884076</t>
+    <t xml:space="preserve">0.549581037884075</t>
   </si>
   <si>
     <t xml:space="preserve">0.438848665017065</t>
@@ -6674,13 +6674,13 @@
     <t xml:space="preserve">0.425688364623117</t>
   </si>
   <si>
-    <t xml:space="preserve">0.552175751882278</t>
+    <t xml:space="preserve">0.552175751882277</t>
   </si>
   <si>
     <t xml:space="preserve">0.482863469503305</t>
   </si>
   <si>
-    <t xml:space="preserve">0.558952619307491</t>
+    <t xml:space="preserve">0.558952619307492</t>
   </si>
   <si>
     <t xml:space="preserve">0.37844130972953</t>
@@ -6701,13 +6701,13 @@
     <t xml:space="preserve">0.519578303868942</t>
   </si>
   <si>
-    <t xml:space="preserve">0.580769697579164</t>
+    <t xml:space="preserve">0.580769697579163</t>
   </si>
   <si>
     <t xml:space="preserve">0.341782909560604</t>
   </si>
   <si>
-    <t xml:space="preserve">0.567557068091368</t>
+    <t xml:space="preserve">0.567557068091367</t>
   </si>
   <si>
     <t xml:space="preserve">0.63168000651048</t>
@@ -6734,7 +6734,7 @@
     <t xml:space="preserve">0.513565078170128</t>
   </si>
   <si>
-    <t xml:space="preserve">0.424200579790171</t>
+    <t xml:space="preserve">0.42420057979017</t>
   </si>
   <si>
     <t xml:space="preserve">0.483513962343732</t>
@@ -6776,7 +6776,7 @@
     <t xml:space="preserve">0.520479086286651</t>
   </si>
   <si>
-    <t xml:space="preserve">0.544210604508082</t>
+    <t xml:space="preserve">0.544210604508083</t>
   </si>
   <si>
     <t xml:space="preserve">0.361647815522678</t>
@@ -6800,19 +6800,19 @@
     <t xml:space="preserve">0.54589562832777</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.268263272456691</t>
+    <t xml:space="preserve">-0.26826327245669</t>
   </si>
   <si>
     <t xml:space="preserve">0.525209305462687</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.547284206933437</t>
+    <t xml:space="preserve">-0.547284206933436</t>
   </si>
   <si>
     <t xml:space="preserve">0.704889521206144</t>
   </si>
   <si>
-    <t xml:space="preserve">0.6592036068748</t>
+    <t xml:space="preserve">0.659203606874801</t>
   </si>
   <si>
     <t xml:space="preserve">0.634027319072324</t>
@@ -6863,7 +6863,7 @@
     <t xml:space="preserve">0.72627077837323</t>
   </si>
   <si>
-    <t xml:space="preserve">0.38204171626659</t>
+    <t xml:space="preserve">0.382041716266589</t>
   </si>
   <si>
     <t xml:space="preserve">0.396233900605517</t>
@@ -6875,7 +6875,7 @@
     <t xml:space="preserve">0.784841417657269</t>
   </si>
   <si>
-    <t xml:space="preserve">0.64225068059239</t>
+    <t xml:space="preserve">0.642250680592389</t>
   </si>
   <si>
     <t xml:space="preserve">0.682813744815054</t>
@@ -6896,7 +6896,7 @@
     <t xml:space="preserve">0.778284895538914</t>
   </si>
   <si>
-    <t xml:space="preserve">0.837083390670513</t>
+    <t xml:space="preserve">0.837083390670514</t>
   </si>
   <si>
     <t xml:space="preserve">0.883470555020097</t>
@@ -6914,19 +6914,19 @@
     <t xml:space="preserve">0.494031741974434</t>
   </si>
   <si>
-    <t xml:space="preserve">0.696390721870676</t>
+    <t xml:space="preserve">0.696390721870675</t>
   </si>
   <si>
     <t xml:space="preserve">0.810965435661633</t>
   </si>
   <si>
-    <t xml:space="preserve">0.71968570072042</t>
+    <t xml:space="preserve">0.719685700720419</t>
   </si>
   <si>
     <t xml:space="preserve">0.383738836699011</t>
   </si>
   <si>
-    <t xml:space="preserve">0.476981967286597</t>
+    <t xml:space="preserve">0.476981967286596</t>
   </si>
   <si>
     <t xml:space="preserve">0.787894775192138</t>
@@ -6944,7 +6944,7 @@
     <t xml:space="preserve">0.737852099199909</t>
   </si>
   <si>
-    <t xml:space="preserve">0.739288672743466</t>
+    <t xml:space="preserve">0.739288672743465</t>
   </si>
   <si>
     <t xml:space="preserve">0.672053136660817</t>
@@ -6956,7 +6956,7 @@
     <t xml:space="preserve">0.72752289802999</t>
   </si>
   <si>
-    <t xml:space="preserve">0.769976923350404</t>
+    <t xml:space="preserve">0.769976923350405</t>
   </si>
   <si>
     <t xml:space="preserve">0.830568380396977</t>
@@ -6989,13 +6989,13 @@
     <t xml:space="preserve">0.769643127880783</t>
   </si>
   <si>
-    <t xml:space="preserve">0.408321608843882</t>
+    <t xml:space="preserve">0.408321608843881</t>
   </si>
   <si>
     <t xml:space="preserve">0.646778333149529</t>
   </si>
   <si>
-    <t xml:space="preserve">0.721114581942929</t>
+    <t xml:space="preserve">0.72111458194293</t>
   </si>
   <si>
     <t xml:space="preserve">0.69901398348273</t>
@@ -7034,7 +7034,7 @@
     <t xml:space="preserve">0.709092099369718</t>
   </si>
   <si>
-    <t xml:space="preserve">0.86377546992891</t>
+    <t xml:space="preserve">0.863775469928911</t>
   </si>
   <si>
     <t xml:space="preserve">0.408292128941689</t>
@@ -7070,7 +7070,7 @@
     <t xml:space="preserve">0.681900867813598</t>
   </si>
   <si>
-    <t xml:space="preserve">0.536475018862422</t>
+    <t xml:space="preserve">0.536475018862423</t>
   </si>
   <si>
     <t xml:space="preserve">0.670755275306838</t>
@@ -7079,10 +7079,10 @@
     <t xml:space="preserve">0.658494434486496</t>
   </si>
   <si>
-    <t xml:space="preserve">0.696006389170973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.52690979489296</t>
+    <t xml:space="preserve">0.696006389170974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.526909794892961</t>
   </si>
   <si>
     <t xml:space="preserve">0.562820297307491</t>
@@ -7097,7 +7097,7 @@
     <t xml:space="preserve">0.577012494758533</t>
   </si>
   <si>
-    <t xml:space="preserve">0.60436011255901</t>
+    <t xml:space="preserve">0.604360112559011</t>
   </si>
   <si>
     <t xml:space="preserve">0.600586149759086</t>
@@ -7139,7 +7139,7 @@
     <t xml:space="preserve">0.70877943168279</t>
   </si>
   <si>
-    <t xml:space="preserve">0.350080875061847</t>
+    <t xml:space="preserve">0.350080875061846</t>
   </si>
   <si>
     <t xml:space="preserve">0.820508787707983</t>
@@ -7166,7 +7166,7 @@
     <t xml:space="preserve">0.386466606193826</t>
   </si>
   <si>
-    <t xml:space="preserve">0.691986349852207</t>
+    <t xml:space="preserve">0.691986349852208</t>
   </si>
   <si>
     <t xml:space="preserve">0.804608833637061</t>
@@ -7175,7 +7175,7 @@
     <t xml:space="preserve">0.617474635317119</t>
   </si>
   <si>
-    <t xml:space="preserve">0.458822815428298</t>
+    <t xml:space="preserve">0.458822815428299</t>
   </si>
   <si>
     <t xml:space="preserve">0.550823367405718</t>
@@ -7202,7 +7202,7 @@
     <t xml:space="preserve">0.818115580855405</t>
   </si>
   <si>
-    <t xml:space="preserve">0.631470531226624</t>
+    <t xml:space="preserve">0.631470531226625</t>
   </si>
   <si>
     <t xml:space="preserve">0.665136934747388</t>
@@ -7214,7 +7214,7 @@
     <t xml:space="preserve">0.872420927042428</t>
   </si>
   <si>
-    <t xml:space="preserve">0.833540978024394</t>
+    <t xml:space="preserve">0.833540978024395</t>
   </si>
   <si>
     <t xml:space="preserve">0.29345856032479</t>
@@ -7253,10 +7253,10 @@
     <t xml:space="preserve">0.660722845559056</t>
   </si>
   <si>
-    <t xml:space="preserve">0.787629199954432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.704693455523706</t>
+    <t xml:space="preserve">0.787629199954433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.704693455523707</t>
   </si>
   <si>
     <t xml:space="preserve">0.31364013963755</t>
@@ -7265,7 +7265,7 @@
     <t xml:space="preserve">0.438768925415341</t>
   </si>
   <si>
-    <t xml:space="preserve">0.780891336088532</t>
+    <t xml:space="preserve">0.780891336088533</t>
   </si>
   <si>
     <t xml:space="preserve">0.477988707801112</t>
@@ -7337,7 +7337,7 @@
     <t xml:space="preserve">0.512321242266257</t>
   </si>
   <si>
-    <t xml:space="preserve">0.753435193041221</t>
+    <t xml:space="preserve">0.753435193041222</t>
   </si>
   <si>
     <t xml:space="preserve">0.678344281934548</t>
@@ -7355,7 +7355,7 @@
     <t xml:space="preserve">0.620900618302408</t>
   </si>
   <si>
-    <t xml:space="preserve">0.468005591996862</t>
+    <t xml:space="preserve">0.468005591996861</t>
   </si>
   <si>
     <t xml:space="preserve">0.567059195470883</t>
@@ -7388,13 +7388,13 @@
     <t xml:space="preserve">0.561058025460014</t>
   </si>
   <si>
-    <t xml:space="preserve">0.497643861439501</t>
+    <t xml:space="preserve">0.4976438614395</t>
   </si>
   <si>
     <t xml:space="preserve">0.291052062282371</t>
   </si>
   <si>
-    <t xml:space="preserve">0.655243369615682</t>
+    <t xml:space="preserve">0.655243369615683</t>
   </si>
   <si>
     <t xml:space="preserve">0.808742357751272</t>
@@ -7490,7 +7490,7 @@
     <t xml:space="preserve">0.342307802968927</t>
   </si>
   <si>
-    <t xml:space="preserve">0.490390498264122</t>
+    <t xml:space="preserve">0.490390498264123</t>
   </si>
   <si>
     <t xml:space="preserve">0.760912355634397</t>
@@ -7499,10 +7499,10 @@
     <t xml:space="preserve">0.337100411192415</t>
   </si>
   <si>
-    <t xml:space="preserve">0.38474790806407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.425578723969362</t>
+    <t xml:space="preserve">0.384747908064069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.425578723969361</t>
   </si>
   <si>
     <t xml:space="preserve">0.448198897027772</t>
@@ -7595,7 +7595,7 @@
     <t xml:space="preserve">0.338546758812476</t>
   </si>
   <si>
-    <t xml:space="preserve">0.314777289446768</t>
+    <t xml:space="preserve">0.314777289446769</t>
   </si>
   <si>
     <t xml:space="preserve">0.400052983786708</t>
@@ -7616,7 +7616,7 @@
     <t xml:space="preserve">0.413843659254553</t>
   </si>
   <si>
-    <t xml:space="preserve">0.38971472896019</t>
+    <t xml:space="preserve">0.389714728960191</t>
   </si>
   <si>
     <t xml:space="preserve">0.390946868602934</t>
@@ -7694,10 +7694,10 @@
     <t xml:space="preserve">0.620110349003263</t>
   </si>
   <si>
-    <t xml:space="preserve">0.709683013626135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.488490346092405</t>
+    <t xml:space="preserve">0.709683013626134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.488490346092404</t>
   </si>
   <si>
     <t xml:space="preserve">0.524244347293827</t>
@@ -7748,7 +7748,7 @@
     <t xml:space="preserve">0.817670727131261</t>
   </si>
   <si>
-    <t xml:space="preserve">0.566975555593396</t>
+    <t xml:space="preserve">0.566975555593397</t>
   </si>
   <si>
     <t xml:space="preserve">0.440969943964482</t>
@@ -7763,7 +7763,7 @@
     <t xml:space="preserve">0.735261190516829</t>
   </si>
   <si>
-    <t xml:space="preserve">0.67407092133517</t>
+    <t xml:space="preserve">0.674070921335171</t>
   </si>
   <si>
     <t xml:space="preserve">0.4053404660207</t>
@@ -7778,7 +7778,7 @@
     <t xml:space="preserve">0.567936074849434</t>
   </si>
   <si>
-    <t xml:space="preserve">0.596602425461891</t>
+    <t xml:space="preserve">0.596602425461892</t>
   </si>
   <si>
     <t xml:space="preserve">0.656011424885002</t>
@@ -7790,7 +7790,7 @@
     <t xml:space="preserve">0.428058737097731</t>
   </si>
   <si>
-    <t xml:space="preserve">0.576309395368882</t>
+    <t xml:space="preserve">0.576309395368881</t>
   </si>
   <si>
     <t xml:space="preserve">0.599024533993101</t>
@@ -7799,7 +7799,7 @@
     <t xml:space="preserve">0.707610914725761</t>
   </si>
   <si>
-    <t xml:space="preserve">0.421817625034802</t>
+    <t xml:space="preserve">0.421817625034803</t>
   </si>
   <si>
     <t xml:space="preserve">0.485332416600782</t>
@@ -7838,10 +7838,10 @@
     <t xml:space="preserve">0.556889266900736</t>
   </si>
   <si>
-    <t xml:space="preserve">0.645177845262412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.547437127415702</t>
+    <t xml:space="preserve">0.645177845262413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.547437127415703</t>
   </si>
   <si>
     <t xml:space="preserve">0.608689369567857</t>
@@ -7862,7 +7862,7 @@
     <t xml:space="preserve">0.598095138650712</t>
   </si>
   <si>
-    <t xml:space="preserve">0.655745128246587</t>
+    <t xml:space="preserve">0.655745128246586</t>
   </si>
   <si>
     <t xml:space="preserve">0.349615373962754</t>
@@ -7913,7 +7913,7 @@
     <t xml:space="preserve">0.589003988058173</t>
   </si>
   <si>
-    <t xml:space="preserve">0.704472747401906</t>
+    <t xml:space="preserve">0.704472747401905</t>
   </si>
   <si>
     <t xml:space="preserve">-0.284943101184921</t>
@@ -7952,7 +7952,7 @@
     <t xml:space="preserve">-0.464525390735112</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.349407128314017</t>
+    <t xml:space="preserve">-0.349407128314016</t>
   </si>
   <si>
     <t xml:space="preserve">-0.306407334655803</t>
@@ -8012,7 +8012,7 @@
     <t xml:space="preserve">-0.265720846126199</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.383904720940014</t>
+    <t xml:space="preserve">-0.383904720940013</t>
   </si>
   <si>
     <t xml:space="preserve">-0.347640872894305</t>
@@ -8084,7 +8084,7 @@
     <t xml:space="preserve">0.411570857124788</t>
   </si>
   <si>
-    <t xml:space="preserve">0.463773811927553</t>
+    <t xml:space="preserve">0.463773811927554</t>
   </si>
   <si>
     <t xml:space="preserve">0.38389265854338</t>
@@ -8093,7 +8093,7 @@
     <t xml:space="preserve">0.439872360436369</t>
   </si>
   <si>
-    <t xml:space="preserve">0.495773299363248</t>
+    <t xml:space="preserve">0.495773299363249</t>
   </si>
   <si>
     <t xml:space="preserve">0.42304656560907</t>
@@ -8129,10 +8129,10 @@
     <t xml:space="preserve">0.615312162553869</t>
   </si>
   <si>
-    <t xml:space="preserve">0.553672565917951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.359630335298908</t>
+    <t xml:space="preserve">0.553672565917952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.359630335298907</t>
   </si>
   <si>
     <t xml:space="preserve">0.469216517803428</t>
@@ -8144,10 +8144,10 @@
     <t xml:space="preserve">0.440827695174837</t>
   </si>
   <si>
-    <t xml:space="preserve">0.51462136379943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.498765397885715</t>
+    <t xml:space="preserve">0.514621363799429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.498765397885716</t>
   </si>
   <si>
     <t xml:space="preserve">0.413652906403125</t>
@@ -8156,7 +8156,7 @@
     <t xml:space="preserve">0.324897394430926</t>
   </si>
   <si>
-    <t xml:space="preserve">0.472540479703482</t>
+    <t xml:space="preserve">0.472540479703481</t>
   </si>
   <si>
     <t xml:space="preserve">0.475226298325307</t>
@@ -8195,7 +8195,7 @@
     <t xml:space="preserve">0.511618377418278</t>
   </si>
   <si>
-    <t xml:space="preserve">0.514041895826067</t>
+    <t xml:space="preserve">0.514041895826068</t>
   </si>
   <si>
     <t xml:space="preserve">0.516944616270074</t>
@@ -8210,7 +8210,7 @@
     <t xml:space="preserve">0.437725672472236</t>
   </si>
   <si>
-    <t xml:space="preserve">0.387957202338569</t>
+    <t xml:space="preserve">0.38795720233857</t>
   </si>
   <si>
     <t xml:space="preserve">0.360073102557118</t>
@@ -8225,7 +8225,7 @@
     <t xml:space="preserve">0.399913519120902</t>
   </si>
   <si>
-    <t xml:space="preserve">0.477302711486206</t>
+    <t xml:space="preserve">0.477302711486207</t>
   </si>
   <si>
     <t xml:space="preserve">0.538464908278143</t>
@@ -8276,10 +8276,10 @@
     <t xml:space="preserve">0.538805909382832</t>
   </si>
   <si>
-    <t xml:space="preserve">0.461812265601123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.378463778325191</t>
+    <t xml:space="preserve">0.461812265601124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.378463778325192</t>
   </si>
   <si>
     <t xml:space="preserve">-0.469311689685357</t>
@@ -8288,7 +8288,7 @@
     <t xml:space="preserve">-0.505240123210697</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.476890653142078</t>
+    <t xml:space="preserve">-0.476890653142077</t>
   </si>
   <si>
     <t xml:space="preserve">-0.664656211691736</t>
@@ -8354,7 +8354,7 @@
     <t xml:space="preserve">-0.422339858662374</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.52820922585585</t>
+    <t xml:space="preserve">-0.528209225855849</t>
   </si>
   <si>
     <t xml:space="preserve">-0.35223241858663</t>
@@ -8393,7 +8393,7 @@
     <t xml:space="preserve">-0.363954700911708</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.569030737932356</t>
+    <t xml:space="preserve">-0.569030737932355</t>
   </si>
   <si>
     <t xml:space="preserve">-0.65777472186753</t>
@@ -8408,7 +8408,7 @@
     <t xml:space="preserve">-0.523200512383056</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.463098169148531</t>
+    <t xml:space="preserve">-0.46309816914853</t>
   </si>
   <si>
     <t xml:space="preserve">-0.49509625253071</t>
@@ -8444,7 +8444,7 @@
     <t xml:space="preserve">-0.709987136630661</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.638963950326378</t>
+    <t xml:space="preserve">-0.638963950326377</t>
   </si>
   <si>
     <t xml:space="preserve">-0.334970131660421</t>
@@ -8468,7 +8468,7 @@
     <t xml:space="preserve">-0.495911089685075</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.401145076173046</t>
+    <t xml:space="preserve">-0.401145076173045</t>
   </si>
   <si>
     <t xml:space="preserve">-0.500330148393752</t>
@@ -8501,7 +8501,7 @@
     <t xml:space="preserve">0.92460631740977</t>
   </si>
   <si>
-    <t xml:space="preserve">0.659447131423514</t>
+    <t xml:space="preserve">0.659447131423513</t>
   </si>
   <si>
     <t xml:space="preserve">0.647700182193748</t>
@@ -8537,7 +8537,7 @@
     <t xml:space="preserve">0.496479491391541</t>
   </si>
   <si>
-    <t xml:space="preserve">0.933458404707646</t>
+    <t xml:space="preserve">0.933458404707645</t>
   </si>
   <si>
     <t xml:space="preserve">0.773745862843577</t>
@@ -8549,7 +8549,7 @@
     <t xml:space="preserve">0.58486276613244</t>
   </si>
   <si>
-    <t xml:space="preserve">0.829018642052333</t>
+    <t xml:space="preserve">0.829018642052334</t>
   </si>
   <si>
     <t xml:space="preserve">0.380407059207436</t>
@@ -8573,13 +8573,13 @@
     <t xml:space="preserve">0.96409265764376</t>
   </si>
   <si>
-    <t xml:space="preserve">0.647653945696043</t>
+    <t xml:space="preserve">0.647653945696044</t>
   </si>
   <si>
     <t xml:space="preserve">0.832474686673657</t>
   </si>
   <si>
-    <t xml:space="preserve">0.814709746263486</t>
+    <t xml:space="preserve">0.814709746263485</t>
   </si>
   <si>
     <t xml:space="preserve">0.728130397692853</t>
@@ -8591,7 +8591,7 @@
     <t xml:space="preserve">0.774113553495327</t>
   </si>
   <si>
-    <t xml:space="preserve">0.680649679694507</t>
+    <t xml:space="preserve">0.680649679694508</t>
   </si>
   <si>
     <t xml:space="preserve">0.536666259174795</t>
@@ -8609,7 +8609,7 @@
     <t xml:space="preserve">0.524422978798077</t>
   </si>
   <si>
-    <t xml:space="preserve">0.603508413003845</t>
+    <t xml:space="preserve">0.603508413003846</t>
   </si>
   <si>
     <t xml:space="preserve">0.782408939821941</t>
@@ -8633,10 +8633,10 @@
     <t xml:space="preserve">0.634498270894122</t>
   </si>
   <si>
-    <t xml:space="preserve">0.908743680413724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.863728524753385</t>
+    <t xml:space="preserve">0.908743680413725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.863728524753386</t>
   </si>
   <si>
     <t xml:space="preserve">0.829538990241144</t>
@@ -8660,10 +8660,10 @@
     <t xml:space="preserve">0.710256400530274</t>
   </si>
   <si>
-    <t xml:space="preserve">0.712597338782477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.679618067649958</t>
+    <t xml:space="preserve">0.712597338782476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.679618067649959</t>
   </si>
   <si>
     <t xml:space="preserve">0.740816054125795</t>
@@ -8675,7 +8675,7 @@
     <t xml:space="preserve">0.823630669712996</t>
   </si>
   <si>
-    <t xml:space="preserve">0.919159711853526</t>
+    <t xml:space="preserve">0.919159711853527</t>
   </si>
   <si>
     <t xml:space="preserve">0.972031416998425</t>
@@ -8693,7 +8693,7 @@
     <t xml:space="preserve">0.917623094661873</t>
   </si>
   <si>
-    <t xml:space="preserve">0.303097793004735</t>
+    <t xml:space="preserve">0.303097793004734</t>
   </si>
   <si>
     <t xml:space="preserve">0.605656283395976</t>
@@ -8744,7 +8744,7 @@
     <t xml:space="preserve">0.865851066665056</t>
   </si>
   <si>
-    <t xml:space="preserve">0.510592362355567</t>
+    <t xml:space="preserve">0.510592362355568</t>
   </si>
   <si>
     <t xml:space="preserve">0.451973905609458</t>
@@ -8753,7 +8753,7 @@
     <t xml:space="preserve">0.647014351681721</t>
   </si>
   <si>
-    <t xml:space="preserve">0.594821144062672</t>
+    <t xml:space="preserve">0.594821144062673</t>
   </si>
   <si>
     <t xml:space="preserve">0.385163064007522</t>
@@ -8768,7 +8768,7 @@
     <t xml:space="preserve">0.633834552962196</t>
   </si>
   <si>
-    <t xml:space="preserve">0.507922520242131</t>
+    <t xml:space="preserve">0.507922520242132</t>
   </si>
   <si>
     <t xml:space="preserve">0.724549228141086</t>
@@ -8807,7 +8807,7 @@
     <t xml:space="preserve">0.855486676226154</t>
   </si>
   <si>
-    <t xml:space="preserve">0.717656495786195</t>
+    <t xml:space="preserve">0.717656495786196</t>
   </si>
   <si>
     <t xml:space="preserve">0.681403515958875</t>
@@ -8816,10 +8816,10 @@
     <t xml:space="preserve">0.794479291279502</t>
   </si>
   <si>
-    <t xml:space="preserve">0.697966748424966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.480017205574871</t>
+    <t xml:space="preserve">0.697966748424967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.48001720557487</t>
   </si>
   <si>
     <t xml:space="preserve">0.649986054808541</t>
@@ -8843,7 +8843,7 @@
     <t xml:space="preserve">0.671143609397831</t>
   </si>
   <si>
-    <t xml:space="preserve">0.304473134769119</t>
+    <t xml:space="preserve">0.304473134769118</t>
   </si>
   <si>
     <t xml:space="preserve">0.671868130423233</t>
@@ -8852,7 +8852,7 @@
     <t xml:space="preserve">0.776966308169793</t>
   </si>
   <si>
-    <t xml:space="preserve">0.801083886741731</t>
+    <t xml:space="preserve">0.80108388674173</t>
   </si>
   <si>
     <t xml:space="preserve">0.630248483402514</t>
@@ -8894,7 +8894,7 @@
     <t xml:space="preserve">0.755308184214936</t>
   </si>
   <si>
-    <t xml:space="preserve">0.694079494713783</t>
+    <t xml:space="preserve">0.694079494713784</t>
   </si>
   <si>
     <t xml:space="preserve">0.729898178322583</t>
@@ -8912,7 +8912,7 @@
     <t xml:space="preserve">0.746894527375865</t>
   </si>
   <si>
-    <t xml:space="preserve">0.832705435456537</t>
+    <t xml:space="preserve">0.832705435456538</t>
   </si>
   <si>
     <t xml:space="preserve">0.720510570516593</t>
@@ -8930,10 +8930,10 @@
     <t xml:space="preserve">0.840055698990171</t>
   </si>
   <si>
-    <t xml:space="preserve">0.804615220668923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.308704094203507</t>
+    <t xml:space="preserve">0.804615220668924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.308704094203508</t>
   </si>
   <si>
     <t xml:space="preserve">0.570407481203652</t>
@@ -8945,7 +8945,7 @@
     <t xml:space="preserve">0.828967617688701</t>
   </si>
   <si>
-    <t xml:space="preserve">0.60505504099626</t>
+    <t xml:space="preserve">0.605055040996261</t>
   </si>
   <si>
     <t xml:space="preserve">0.564489851372801</t>
@@ -8957,13 +8957,13 @@
     <t xml:space="preserve">0.57074063131848</t>
   </si>
   <si>
-    <t xml:space="preserve">0.798974387344473</t>
+    <t xml:space="preserve">0.798974387344474</t>
   </si>
   <si>
     <t xml:space="preserve">0.754446158398456</t>
   </si>
   <si>
-    <t xml:space="preserve">0.714496149452739</t>
+    <t xml:space="preserve">0.71449614945274</t>
   </si>
   <si>
     <t xml:space="preserve">0.452592355327958</t>
@@ -8975,13 +8975,13 @@
     <t xml:space="preserve">0.596097489029083</t>
   </si>
   <si>
-    <t xml:space="preserve">0.598618748334617</t>
+    <t xml:space="preserve">0.598618748334616</t>
   </si>
   <si>
     <t xml:space="preserve">0.319268392714222</t>
   </si>
   <si>
-    <t xml:space="preserve">0.926822460554878</t>
+    <t xml:space="preserve">0.926822460554879</t>
   </si>
   <si>
     <t xml:space="preserve">0.773103649901534</t>
@@ -8990,7 +8990,7 @@
     <t xml:space="preserve">0.732883691322263</t>
   </si>
   <si>
-    <t xml:space="preserve">0.493400226220435</t>
+    <t xml:space="preserve">0.493400226220434</t>
   </si>
   <si>
     <t xml:space="preserve">0.807698615789197</t>
@@ -9008,7 +9008,7 @@
     <t xml:space="preserve">0.633356823275574</t>
   </si>
   <si>
-    <t xml:space="preserve">0.868210635759719</t>
+    <t xml:space="preserve">0.868210635759718</t>
   </si>
   <si>
     <t xml:space="preserve">0.917786641737492</t>
@@ -9017,7 +9017,7 @@
     <t xml:space="preserve">0.692729995314135</t>
   </si>
   <si>
-    <t xml:space="preserve">0.756179743250758</t>
+    <t xml:space="preserve">0.756179743250757</t>
   </si>
   <si>
     <t xml:space="preserve">0.786075766455249</t>
@@ -9038,10 +9038,10 @@
     <t xml:space="preserve">0.476713997723914</t>
   </si>
   <si>
-    <t xml:space="preserve">0.71345098228811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.782877944224863</t>
+    <t xml:space="preserve">0.713450982288111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.782877944224864</t>
   </si>
   <si>
     <t xml:space="preserve">0.948302645160542</t>
@@ -9050,19 +9050,19 @@
     <t xml:space="preserve">0.627096118113147</t>
   </si>
   <si>
-    <t xml:space="preserve">0.646206937822248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.7120365993114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.606512581681915</t>
+    <t xml:space="preserve">0.646206937822249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.712036599311401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.606512581681914</t>
   </si>
   <si>
     <t xml:space="preserve">0.35966683407406</t>
   </si>
   <si>
-    <t xml:space="preserve">0.592608506992323</t>
+    <t xml:space="preserve">0.592608506992322</t>
   </si>
   <si>
     <t xml:space="preserve">0.860724315820335</t>
@@ -9074,7 +9074,7 @@
     <t xml:space="preserve">0.523653007799221</t>
   </si>
   <si>
-    <t xml:space="preserve">0.884661375259281</t>
+    <t xml:space="preserve">0.88466137525928</t>
   </si>
   <si>
     <t xml:space="preserve">0.845344722106178</t>
@@ -9083,7 +9083,7 @@
     <t xml:space="preserve">0.83904460773818</t>
   </si>
   <si>
-    <t xml:space="preserve">0.77318159486006</t>
+    <t xml:space="preserve">0.773181594860061</t>
   </si>
   <si>
     <t xml:space="preserve">0.705765737325558</t>
@@ -9092,7 +9092,7 @@
     <t xml:space="preserve">0.736635290706817</t>
   </si>
   <si>
-    <t xml:space="preserve">0.643724025877591</t>
+    <t xml:space="preserve">0.643724025877592</t>
   </si>
   <si>
     <t xml:space="preserve">0.282123048247223</t>
@@ -9125,7 +9125,7 @@
     <t xml:space="preserve">0.947435204981337</t>
   </si>
   <si>
-    <t xml:space="preserve">0.687039627580951</t>
+    <t xml:space="preserve">0.68703962758095</t>
   </si>
   <si>
     <t xml:space="preserve">0.721155975604787</t>
@@ -9134,7 +9134,7 @@
     <t xml:space="preserve">0.620299542350272</t>
   </si>
   <si>
-    <t xml:space="preserve">0.83263845911751</t>
+    <t xml:space="preserve">0.832638459117511</t>
   </si>
   <si>
     <t xml:space="preserve">0.590435431879395</t>
@@ -9155,7 +9155,7 @@
     <t xml:space="preserve">0.750422276629592</t>
   </si>
   <si>
-    <t xml:space="preserve">0.752585981595752</t>
+    <t xml:space="preserve">0.752585981595751</t>
   </si>
   <si>
     <t xml:space="preserve">0.678265875937354</t>
@@ -9200,7 +9200,7 @@
     <t xml:space="preserve">0.662731662663045</t>
   </si>
   <si>
-    <t xml:space="preserve">0.575211181770425</t>
+    <t xml:space="preserve">0.575211181770424</t>
   </si>
   <si>
     <t xml:space="preserve">0.685125934036584</t>
@@ -9209,7 +9209,7 @@
     <t xml:space="preserve">0.313322394091406</t>
   </si>
   <si>
-    <t xml:space="preserve">0.524220504716031</t>
+    <t xml:space="preserve">0.52422050471603</t>
   </si>
   <si>
     <t xml:space="preserve">0.786786529684271</t>
@@ -9239,40 +9239,40 @@
     <t xml:space="preserve">0.818334135324789</t>
   </si>
   <si>
-    <t xml:space="preserve">0.830207663426126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.555270288786702</t>
+    <t xml:space="preserve">0.830207663426125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.555270288786701</t>
   </si>
   <si>
     <t xml:space="preserve">0.76149458616619</t>
   </si>
   <si>
-    <t xml:space="preserve">0.755783436394467</t>
+    <t xml:space="preserve">0.755783436394466</t>
   </si>
   <si>
     <t xml:space="preserve">0.575262765610173</t>
   </si>
   <si>
-    <t xml:space="preserve">0.67635861875866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.786491246409614</t>
+    <t xml:space="preserve">0.676358618758659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.786491246409613</t>
   </si>
   <si>
     <t xml:space="preserve">0.639482375602825</t>
   </si>
   <si>
-    <t xml:space="preserve">0.31101309239916</t>
+    <t xml:space="preserve">0.311013092399159</t>
   </si>
   <si>
     <t xml:space="preserve">0.382105434583565</t>
   </si>
   <si>
-    <t xml:space="preserve">0.79501543701597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.73456144058912</t>
+    <t xml:space="preserve">0.795015437015969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.734561440589119</t>
   </si>
   <si>
     <t xml:space="preserve">0.684491468093327</t>
@@ -9281,16 +9281,16 @@
     <t xml:space="preserve">0.593693485327368</t>
   </si>
   <si>
-    <t xml:space="preserve">0.700931638984478</t>
+    <t xml:space="preserve">0.700931638984477</t>
   </si>
   <si>
     <t xml:space="preserve">0.664769398416475</t>
   </si>
   <si>
-    <t xml:space="preserve">0.679694370932333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.615826162345314</t>
+    <t xml:space="preserve">0.679694370932332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.615826162345313</t>
   </si>
   <si>
     <t xml:space="preserve">0.62526162336846</t>
@@ -9320,13 +9320,13 @@
     <t xml:space="preserve">0.780657307817987</t>
   </si>
   <si>
-    <t xml:space="preserve">0.786370980261465</t>
+    <t xml:space="preserve">0.786370980261464</t>
   </si>
   <si>
     <t xml:space="preserve">0.317754192004076</t>
   </si>
   <si>
-    <t xml:space="preserve">0.661971821299846</t>
+    <t xml:space="preserve">0.661971821299845</t>
   </si>
   <si>
     <t xml:space="preserve">0.406516342361044</t>
@@ -9338,10 +9338,10 @@
     <t xml:space="preserve">0.646548109535762</t>
   </si>
   <si>
-    <t xml:space="preserve">0.713080209844461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.791393078670544</t>
+    <t xml:space="preserve">0.71308020984446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.791393078670543</t>
   </si>
   <si>
     <t xml:space="preserve">0.685228956885047</t>
@@ -9425,7 +9425,7 @@
     <t xml:space="preserve">0.582164790539655</t>
   </si>
   <si>
-    <t xml:space="preserve">0.758783923293261</t>
+    <t xml:space="preserve">0.758783923293262</t>
   </si>
   <si>
     <t xml:space="preserve">0.706417582310396</t>
@@ -9440,7 +9440,7 @@
     <t xml:space="preserve">0.727931109958716</t>
   </si>
   <si>
-    <t xml:space="preserve">0.726600438096778</t>
+    <t xml:space="preserve">0.726600438096779</t>
   </si>
   <si>
     <t xml:space="preserve">0.532537977680492</t>
@@ -9452,7 +9452,7 @@
     <t xml:space="preserve">0.772010206606407</t>
   </si>
   <si>
-    <t xml:space="preserve">0.788595082528932</t>
+    <t xml:space="preserve">0.788595082528931</t>
   </si>
   <si>
     <t xml:space="preserve">0.702038463951648</t>
@@ -9476,7 +9476,7 @@
     <t xml:space="preserve">0.712822768170737</t>
   </si>
   <si>
-    <t xml:space="preserve">0.461914804281752</t>
+    <t xml:space="preserve">0.461914804281751</t>
   </si>
   <si>
     <t xml:space="preserve">0.482103434909259</t>
@@ -9503,7 +9503,7 @@
     <t xml:space="preserve">0.759944833656858</t>
   </si>
   <si>
-    <t xml:space="preserve">0.76465357169905</t>
+    <t xml:space="preserve">0.764653571699051</t>
   </si>
   <si>
     <t xml:space="preserve">0.749320971185396</t>
@@ -9515,13 +9515,13 @@
     <t xml:space="preserve">0.624075229554244</t>
   </si>
   <si>
-    <t xml:space="preserve">0.835380517289914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.517340342220963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.720329866411791</t>
+    <t xml:space="preserve">0.835380517289913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.517340342220964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.72032986641179</t>
   </si>
   <si>
     <t xml:space="preserve">0.730302734737784</t>
@@ -9530,7 +9530,7 @@
     <t xml:space="preserve">0.662541427507628</t>
   </si>
   <si>
-    <t xml:space="preserve">0.707216984908159</t>
+    <t xml:space="preserve">0.707216984908158</t>
   </si>
   <si>
     <t xml:space="preserve">0.404799637102683</t>
@@ -9542,7 +9542,7 @@
     <t xml:space="preserve">0.543808661312287</t>
   </si>
   <si>
-    <t xml:space="preserve">0.636054441697457</t>
+    <t xml:space="preserve">0.636054441697456</t>
   </si>
   <si>
     <t xml:space="preserve">0.704505257600504</t>
@@ -9554,7 +9554,7 @@
     <t xml:space="preserve">0.770856562711929</t>
   </si>
   <si>
-    <t xml:space="preserve">0.743371867873853</t>
+    <t xml:space="preserve">0.743371867873852</t>
   </si>
   <si>
     <t xml:space="preserve">0.732638966160437</t>
@@ -9569,13 +9569,13 @@
     <t xml:space="preserve">0.762085000029805</t>
   </si>
   <si>
-    <t xml:space="preserve">0.78201739524159</t>
+    <t xml:space="preserve">0.782017395241589</t>
   </si>
   <si>
     <t xml:space="preserve">0.791723344285038</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.390498015074009</t>
+    <t xml:space="preserve">-0.39049801507401</t>
   </si>
   <si>
     <t xml:space="preserve">0.412229350626038</t>
@@ -9596,7 +9596,7 @@
     <t xml:space="preserve">0.739101168211124</t>
   </si>
   <si>
-    <t xml:space="preserve">0.638948978717095</t>
+    <t xml:space="preserve">0.638948978717096</t>
   </si>
   <si>
     <t xml:space="preserve">0.553070677885317</t>
@@ -9605,7 +9605,7 @@
     <t xml:space="preserve">0.613078262307616</t>
   </si>
   <si>
-    <t xml:space="preserve">0.491843124346535</t>
+    <t xml:space="preserve">0.491843124346536</t>
   </si>
   <si>
     <t xml:space="preserve">0.430761328300634</t>
@@ -9614,7 +9614,7 @@
     <t xml:space="preserve">0.598556524886488</t>
   </si>
   <si>
-    <t xml:space="preserve">0.504406387209967</t>
+    <t xml:space="preserve">0.504406387209968</t>
   </si>
   <si>
     <t xml:space="preserve">0.584582417301391</t>
@@ -9623,7 +9623,7 @@
     <t xml:space="preserve">0.701997455128477</t>
   </si>
   <si>
-    <t xml:space="preserve">0.613405899466758</t>
+    <t xml:space="preserve">0.613405899466759</t>
   </si>
   <si>
     <t xml:space="preserve">0.349616547759241</t>
@@ -9635,10 +9635,10 @@
     <t xml:space="preserve">0.446597083508292</t>
   </si>
   <si>
-    <t xml:space="preserve">0.690554559910082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.539481889982206</t>
+    <t xml:space="preserve">0.690554559910083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.539481889982207</t>
   </si>
   <si>
     <t xml:space="preserve">0.599166551817688</t>
@@ -9647,7 +9647,7 @@
     <t xml:space="preserve">0.432000198940532</t>
   </si>
   <si>
-    <t xml:space="preserve">0.582438319856555</t>
+    <t xml:space="preserve">0.582438319856556</t>
   </si>
   <si>
     <t xml:space="preserve">0.632453818719369</t>
@@ -9680,7 +9680,7 @@
     <t xml:space="preserve">0.544860237174049</t>
   </si>
   <si>
-    <t xml:space="preserve">0.634476227699096</t>
+    <t xml:space="preserve">0.634476227699097</t>
   </si>
   <si>
     <t xml:space="preserve">0.642017311237149</t>
@@ -9737,7 +9737,7 @@
     <t xml:space="preserve">0.295751003572278</t>
   </si>
   <si>
-    <t xml:space="preserve">0.645650122496565</t>
+    <t xml:space="preserve">0.645650122496566</t>
   </si>
   <si>
     <t xml:space="preserve">0.66695666265098</t>
@@ -9761,13 +9761,13 @@
     <t xml:space="preserve">0.637248514810659</t>
   </si>
   <si>
-    <t xml:space="preserve">0.60549263321557</t>
+    <t xml:space="preserve">0.605492633215571</t>
   </si>
   <si>
     <t xml:space="preserve">0.551882746330704</t>
   </si>
   <si>
-    <t xml:space="preserve">0.522684570791329</t>
+    <t xml:space="preserve">0.522684570791328</t>
   </si>
   <si>
     <t xml:space="preserve">0.654966436361668</t>
@@ -9797,7 +9797,7 @@
     <t xml:space="preserve">0.543905484188943</t>
   </si>
   <si>
-    <t xml:space="preserve">0.704420043880202</t>
+    <t xml:space="preserve">0.704420043880201</t>
   </si>
   <si>
     <t xml:space="preserve">-0.312186984550933</t>
@@ -9821,7 +9821,7 @@
     <t xml:space="preserve">0.652582198337497</t>
   </si>
   <si>
-    <t xml:space="preserve">0.586752577528033</t>
+    <t xml:space="preserve">0.586752577528034</t>
   </si>
   <si>
     <t xml:space="preserve">0.363067716790911</t>
@@ -9833,10 +9833,10 @@
     <t xml:space="preserve">0.801999651564181</t>
   </si>
   <si>
-    <t xml:space="preserve">0.759585080081797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.653641941735792</t>
+    <t xml:space="preserve">0.759585080081798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.653641941735793</t>
   </si>
   <si>
     <t xml:space="preserve">0.824578038548343</t>
@@ -9845,7 +9845,7 @@
     <t xml:space="preserve">0.30773781404184</t>
   </si>
   <si>
-    <t xml:space="preserve">0.673649037185911</t>
+    <t xml:space="preserve">0.673649037185912</t>
   </si>
   <si>
     <t xml:space="preserve">0.81131491715016</t>
@@ -9869,7 +9869,7 @@
     <t xml:space="preserve">0.606846909551005</t>
   </si>
   <si>
-    <t xml:space="preserve">0.874559437203538</t>
+    <t xml:space="preserve">0.874559437203539</t>
   </si>
   <si>
     <t xml:space="preserve">0.859566696674741</t>
@@ -9884,7 +9884,7 @@
     <t xml:space="preserve">0.76636684680546</t>
   </si>
   <si>
-    <t xml:space="preserve">0.761120696218433</t>
+    <t xml:space="preserve">0.761120696218434</t>
   </si>
   <si>
     <t xml:space="preserve">0.518230736057988</t>
@@ -9905,7 +9905,7 @@
     <t xml:space="preserve">0.530174266336425</t>
   </si>
   <si>
-    <t xml:space="preserve">0.879976654580575</t>
+    <t xml:space="preserve">0.879976654580576</t>
   </si>
   <si>
     <t xml:space="preserve">0.691499273839036</t>
@@ -9929,10 +9929,10 @@
     <t xml:space="preserve">0.907743455941969</t>
   </si>
   <si>
-    <t xml:space="preserve">0.827683014066512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.832169171003824</t>
+    <t xml:space="preserve">0.827683014066513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.832169171003825</t>
   </si>
   <si>
     <t xml:space="preserve">0.884796539569562</t>
@@ -9944,7 +9944,7 @@
     <t xml:space="preserve">0.85233721136024</t>
   </si>
   <si>
-    <t xml:space="preserve">0.634896061499218</t>
+    <t xml:space="preserve">0.634896061499219</t>
   </si>
   <si>
     <t xml:space="preserve">0.2909970755412</t>
@@ -9956,7 +9956,7 @@
     <t xml:space="preserve">0.786894937896952</t>
   </si>
   <si>
-    <t xml:space="preserve">0.699400156062716</t>
+    <t xml:space="preserve">0.699400156062717</t>
   </si>
   <si>
     <t xml:space="preserve">0.749824912135338</t>
@@ -9980,13 +9980,13 @@
     <t xml:space="preserve">0.715668130885499</t>
   </si>
   <si>
-    <t xml:space="preserve">0.902341060373485</t>
+    <t xml:space="preserve">0.902341060373486</t>
   </si>
   <si>
     <t xml:space="preserve">0.753678832268799</t>
   </si>
   <si>
-    <t xml:space="preserve">0.844561975984025</t>
+    <t xml:space="preserve">0.844561975984026</t>
   </si>
   <si>
     <t xml:space="preserve">0.368838164645146</t>
@@ -10010,7 +10010,7 @@
     <t xml:space="preserve">0.671164002575848</t>
   </si>
   <si>
-    <t xml:space="preserve">0.739916299124343</t>
+    <t xml:space="preserve">0.739916299124344</t>
   </si>
   <si>
     <t xml:space="preserve">0.889188925529956</t>
@@ -10022,7 +10022,7 @@
     <t xml:space="preserve">0.91379442748321</t>
   </si>
   <si>
-    <t xml:space="preserve">0.709238220884338</t>
+    <t xml:space="preserve">0.709238220884339</t>
   </si>
   <si>
     <t xml:space="preserve">0.346699129655001</t>
@@ -10040,7 +10040,7 @@
     <t xml:space="preserve">0.837952289388161</t>
   </si>
   <si>
-    <t xml:space="preserve">0.737308376750294</t>
+    <t xml:space="preserve">0.737308376750293</t>
   </si>
   <si>
     <t xml:space="preserve">0.689269448561119</t>
@@ -10088,7 +10088,7 @@
     <t xml:space="preserve">0.873805172431479</t>
   </si>
   <si>
-    <t xml:space="preserve">0.839902086526633</t>
+    <t xml:space="preserve">0.839902086526634</t>
   </si>
   <si>
     <t xml:space="preserve">0.768727914888717</t>
@@ -10097,7 +10097,7 @@
     <t xml:space="preserve">0.804917524599128</t>
   </si>
   <si>
-    <t xml:space="preserve">0.801275133433042</t>
+    <t xml:space="preserve">0.801275133433043</t>
   </si>
   <si>
     <t xml:space="preserve">0.623617887864456</t>
@@ -10112,13 +10112,13 @@
     <t xml:space="preserve">0.841163456177999</t>
   </si>
   <si>
-    <t xml:space="preserve">0.427341673871263</t>
+    <t xml:space="preserve">0.427341673871262</t>
   </si>
   <si>
     <t xml:space="preserve">0.482766545257658</t>
   </si>
   <si>
-    <t xml:space="preserve">0.910639799896577</t>
+    <t xml:space="preserve">0.910639799896578</t>
   </si>
   <si>
     <t xml:space="preserve">0.741060494314113</t>
@@ -10133,7 +10133,7 @@
     <t xml:space="preserve">0.735390439654225</t>
   </si>
   <si>
-    <t xml:space="preserve">0.839926108895209</t>
+    <t xml:space="preserve">0.839926108895208</t>
   </si>
   <si>
     <t xml:space="preserve">0.665691571497938</t>
@@ -10142,7 +10142,7 @@
     <t xml:space="preserve">0.830476475283637</t>
   </si>
   <si>
-    <t xml:space="preserve">0.844088685001165</t>
+    <t xml:space="preserve">0.844088685001164</t>
   </si>
   <si>
     <t xml:space="preserve">0.812515094662513</t>
@@ -10163,7 +10163,7 @@
     <t xml:space="preserve">0.328889336219509</t>
   </si>
   <si>
-    <t xml:space="preserve">0.798825263159661</t>
+    <t xml:space="preserve">0.798825263159662</t>
   </si>
   <si>
     <t xml:space="preserve">0.823436803953566</t>
@@ -10175,7 +10175,7 @@
     <t xml:space="preserve">0.807948132593509</t>
   </si>
   <si>
-    <t xml:space="preserve">0.521824168420246</t>
+    <t xml:space="preserve">0.521824168420245</t>
   </si>
   <si>
     <t xml:space="preserve">0.798224949114061</t>
@@ -10193,7 +10193,7 @@
     <t xml:space="preserve">0.772237020913518</t>
   </si>
   <si>
-    <t xml:space="preserve">0.847930751237285</t>
+    <t xml:space="preserve">0.847930751237286</t>
   </si>
   <si>
     <t xml:space="preserve">0.720732825854886</t>
@@ -10226,7 +10226,7 @@
     <t xml:space="preserve">0.695468672975336</t>
   </si>
   <si>
-    <t xml:space="preserve">0.87132630496842</t>
+    <t xml:space="preserve">0.871326304968419</t>
   </si>
   <si>
     <t xml:space="preserve">0.443827515987265</t>
@@ -10247,7 +10247,7 @@
     <t xml:space="preserve">0.323472563476662</t>
   </si>
   <si>
-    <t xml:space="preserve">0.275256394442683</t>
+    <t xml:space="preserve">0.275256394442684</t>
   </si>
   <si>
     <t xml:space="preserve">0.291789532974402</t>
@@ -10292,16 +10292,16 @@
     <t xml:space="preserve">0.549543033616802</t>
   </si>
   <si>
-    <t xml:space="preserve">0.834847051460325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.772547306456655</t>
+    <t xml:space="preserve">0.834847051460326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.772547306456656</t>
   </si>
   <si>
     <t xml:space="preserve">0.621368128425895</t>
   </si>
   <si>
-    <t xml:space="preserve">0.420314293263494</t>
+    <t xml:space="preserve">0.420314293263495</t>
   </si>
   <si>
     <t xml:space="preserve">0.775592837625287</t>
@@ -10316,7 +10316,7 @@
     <t xml:space="preserve">0.859037627976824</t>
   </si>
   <si>
-    <t xml:space="preserve">0.916019268076818</t>
+    <t xml:space="preserve">0.916019268076819</t>
   </si>
   <si>
     <t xml:space="preserve">0.811601356774863</t>
@@ -10325,7 +10325,7 @@
     <t xml:space="preserve">0.710975462348908</t>
   </si>
   <si>
-    <t xml:space="preserve">0.813828078588289</t>
+    <t xml:space="preserve">0.81382807858829</t>
   </si>
   <si>
     <t xml:space="preserve">0.804352240545212</t>
@@ -10334,7 +10334,7 @@
     <t xml:space="preserve">0.556541320320928</t>
   </si>
   <si>
-    <t xml:space="preserve">0.7603211454862</t>
+    <t xml:space="preserve">0.760321145486199</t>
   </si>
   <si>
     <t xml:space="preserve">0.88943948623749</t>
@@ -10361,13 +10361,13 @@
     <t xml:space="preserve">0.808927400954977</t>
   </si>
   <si>
-    <t xml:space="preserve">0.718548597332175</t>
+    <t xml:space="preserve">0.718548597332176</t>
   </si>
   <si>
     <t xml:space="preserve">0.875420093804435</t>
   </si>
   <si>
-    <t xml:space="preserve">0.688055811871867</t>
+    <t xml:space="preserve">0.688055811871868</t>
   </si>
   <si>
     <t xml:space="preserve">0.791276929247869</t>
@@ -10379,7 +10379,7 @@
     <t xml:space="preserve">0.717738242325211</t>
   </si>
   <si>
-    <t xml:space="preserve">0.940349503409433</t>
+    <t xml:space="preserve">0.940349503409434</t>
   </si>
   <si>
     <t xml:space="preserve">0.739057884945401</t>
@@ -10388,7 +10388,7 @@
     <t xml:space="preserve">0.89560822342875</t>
   </si>
   <si>
-    <t xml:space="preserve">0.632589548063186</t>
+    <t xml:space="preserve">0.632589548063187</t>
   </si>
   <si>
     <t xml:space="preserve">0.323107115606573</t>
@@ -10403,22 +10403,22 @@
     <t xml:space="preserve">0.79400965569743</t>
   </si>
   <si>
-    <t xml:space="preserve">0.823968605411194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.466686173073551</t>
+    <t xml:space="preserve">0.823968605411195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.466686173073552</t>
   </si>
   <si>
     <t xml:space="preserve">0.780537494871031</t>
   </si>
   <si>
-    <t xml:space="preserve">0.517690738775894</t>
+    <t xml:space="preserve">0.517690738775893</t>
   </si>
   <si>
     <t xml:space="preserve">0.761746187449163</t>
   </si>
   <si>
-    <t xml:space="preserve">0.780875604906156</t>
+    <t xml:space="preserve">0.780875604906157</t>
   </si>
   <si>
     <t xml:space="preserve">0.731079016217697</t>
@@ -10430,7 +10430,7 @@
     <t xml:space="preserve">0.795021453344766</t>
   </si>
   <si>
-    <t xml:space="preserve">0.838246287002894</t>
+    <t xml:space="preserve">0.838246287002893</t>
   </si>
   <si>
     <t xml:space="preserve">0.368101340792495</t>
@@ -10439,10 +10439,10 @@
     <t xml:space="preserve">0.716623218362623</t>
   </si>
   <si>
-    <t xml:space="preserve">0.870260219293491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.912450703595116</t>
+    <t xml:space="preserve">0.870260219293492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.912450703595115</t>
   </si>
   <si>
     <t xml:space="preserve">0.888564651741864</t>
@@ -10466,7 +10466,7 @@
     <t xml:space="preserve">0.384967936970689</t>
   </si>
   <si>
-    <t xml:space="preserve">0.552003839734526</t>
+    <t xml:space="preserve">0.552003839734525</t>
   </si>
   <si>
     <t xml:space="preserve">0.53116747000344</t>
@@ -10481,7 +10481,7 @@
     <t xml:space="preserve">0.442197811445609</t>
   </si>
   <si>
-    <t xml:space="preserve">0.404626085677269</t>
+    <t xml:space="preserve">0.40462608567727</t>
   </si>
   <si>
     <t xml:space="preserve">0.268323505351226</t>
@@ -10493,7 +10493,7 @@
     <t xml:space="preserve">0.575128536038051</t>
   </si>
   <si>
-    <t xml:space="preserve">0.643625877345728</t>
+    <t xml:space="preserve">0.643625877345727</t>
   </si>
   <si>
     <t xml:space="preserve">0.520585178059305</t>
@@ -10520,7 +10520,7 @@
     <t xml:space="preserve">0.581147125417368</t>
   </si>
   <si>
-    <t xml:space="preserve">0.46418128882194</t>
+    <t xml:space="preserve">0.464181288821941</t>
   </si>
   <si>
     <t xml:space="preserve">0.671742817121464</t>
@@ -10538,7 +10538,7 @@
     <t xml:space="preserve">0.538946776434581</t>
   </si>
   <si>
-    <t xml:space="preserve">0.57255533062315</t>
+    <t xml:space="preserve">0.572555330623151</t>
   </si>
   <si>
     <t xml:space="preserve">0.319092882481221</t>
@@ -10589,7 +10589,7 @@
     <t xml:space="preserve">0.596303110798917</t>
   </si>
   <si>
-    <t xml:space="preserve">0.645368439636913</t>
+    <t xml:space="preserve">0.645368439636914</t>
   </si>
   <si>
     <t xml:space="preserve">0.598896313143391</t>
@@ -10682,7 +10682,7 @@
     <t xml:space="preserve">0.371317551342778</t>
   </si>
   <si>
-    <t xml:space="preserve">0.430475062204303</t>
+    <t xml:space="preserve">0.430475062204302</t>
   </si>
   <si>
     <t xml:space="preserve">0.406298316519422</t>
@@ -10733,7 +10733,7 @@
     <t xml:space="preserve">0.330694452995989</t>
   </si>
   <si>
-    <t xml:space="preserve">0.383615460912021</t>
+    <t xml:space="preserve">0.38361546091202</t>
   </si>
   <si>
     <t xml:space="preserve">0.375485796757636</t>
@@ -10775,7 +10775,7 @@
     <t xml:space="preserve">0.361938848172742</t>
   </si>
   <si>
-    <t xml:space="preserve">0.28490838957737</t>
+    <t xml:space="preserve">0.284908389577369</t>
   </si>
   <si>
     <t xml:space="preserve">0.437703937930354</t>
@@ -10790,7 +10790,7 @@
     <t xml:space="preserve">0.604591777552356</t>
   </si>
   <si>
-    <t xml:space="preserve">0.584344090789674</t>
+    <t xml:space="preserve">0.584344090789675</t>
   </si>
   <si>
     <t xml:space="preserve">0.438466085758227</t>
@@ -10802,16 +10802,16 @@
     <t xml:space="preserve">0.328624955510909</t>
   </si>
   <si>
-    <t xml:space="preserve">0.557655157618458</t>
+    <t xml:space="preserve">0.557655157618459</t>
   </si>
   <si>
     <t xml:space="preserve">0.682803166600452</t>
   </si>
   <si>
-    <t xml:space="preserve">0.632067220127263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.526257846550734</t>
+    <t xml:space="preserve">0.632067220127264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.526257846550735</t>
   </si>
   <si>
     <t xml:space="preserve">0.34585228599938</t>
@@ -10832,7 +10832,7 @@
     <t xml:space="preserve">0.757995332828137</t>
   </si>
   <si>
-    <t xml:space="preserve">0.631564142048293</t>
+    <t xml:space="preserve">0.631564142048294</t>
   </si>
   <si>
     <t xml:space="preserve">0.646380103978793</t>
@@ -10898,7 +10898,7 @@
     <t xml:space="preserve">0.51184264737401</t>
   </si>
   <si>
-    <t xml:space="preserve">0.745375504382711</t>
+    <t xml:space="preserve">0.745375504382712</t>
   </si>
   <si>
     <t xml:space="preserve">0.564572742917825</t>
@@ -10919,7 +10919,7 @@
     <t xml:space="preserve">0.68570535199414</t>
   </si>
   <si>
-    <t xml:space="preserve">0.448216325687058</t>
+    <t xml:space="preserve">0.448216325687059</t>
   </si>
   <si>
     <t xml:space="preserve">0.595150682430532</t>
@@ -10928,10 +10928,10 @@
     <t xml:space="preserve">0.289025630093386</t>
   </si>
   <si>
-    <t xml:space="preserve">0.614635595247913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.629846863655061</t>
+    <t xml:space="preserve">0.614635595247914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.629846863655062</t>
   </si>
   <si>
     <t xml:space="preserve">0.659042698171303</t>
@@ -11000,7 +11000,7 @@
     <t xml:space="preserve">0.411204709435271</t>
   </si>
   <si>
-    <t xml:space="preserve">0.367362207208327</t>
+    <t xml:space="preserve">0.367362207208328</t>
   </si>
   <si>
     <t xml:space="preserve">0.421129471624657</t>
@@ -11051,7 +11051,7 @@
     <t xml:space="preserve">0.54233334246573</t>
   </si>
   <si>
-    <t xml:space="preserve">0.33048899675431</t>
+    <t xml:space="preserve">0.330488996754309</t>
   </si>
   <si>
     <t xml:space="preserve">0.424999533170952</t>
@@ -11114,7 +11114,7 @@
     <t xml:space="preserve">0.560031370790372</t>
   </si>
   <si>
-    <t xml:space="preserve">0.57993727873093</t>
+    <t xml:space="preserve">0.579937278730929</t>
   </si>
   <si>
     <t xml:space="preserve">0.310820922904296</t>
@@ -11186,13 +11186,13 @@
     <t xml:space="preserve">0.37627336017897</t>
   </si>
   <si>
-    <t xml:space="preserve">0.382017855303191</t>
+    <t xml:space="preserve">0.382017855303192</t>
   </si>
   <si>
     <t xml:space="preserve">0.418053086578562</t>
   </si>
   <si>
-    <t xml:space="preserve">0.422717037280973</t>
+    <t xml:space="preserve">0.422717037280974</t>
   </si>
   <si>
     <t xml:space="preserve">0.422897064711356</t>
@@ -11213,7 +11213,7 @@
     <t xml:space="preserve">0.366605800016112</t>
   </si>
   <si>
-    <t xml:space="preserve">0.447905573192803</t>
+    <t xml:space="preserve">0.447905573192804</t>
   </si>
   <si>
     <t xml:space="preserve">0.484588316936026</t>
@@ -11231,7 +11231,7 @@
     <t xml:space="preserve">0.432396531217675</t>
   </si>
   <si>
-    <t xml:space="preserve">0.535724480232756</t>
+    <t xml:space="preserve">0.535724480232755</t>
   </si>
   <si>
     <t xml:space="preserve">0.507583178921354</t>
@@ -11243,7 +11243,7 @@
     <t xml:space="preserve">0.32723620378172</t>
   </si>
   <si>
-    <t xml:space="preserve">0.391406218381533</t>
+    <t xml:space="preserve">0.391406218381534</t>
   </si>
   <si>
     <t xml:space="preserve">0.270455224957677</t>
@@ -11354,19 +11354,19 @@
     <t xml:space="preserve">0.711183984412166</t>
   </si>
   <si>
-    <t xml:space="preserve">0.813181593029087</t>
+    <t xml:space="preserve">0.813181593029086</t>
   </si>
   <si>
     <t xml:space="preserve">0.710920591481174</t>
   </si>
   <si>
-    <t xml:space="preserve">0.502491184057592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.707864883547032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.851418801305284</t>
+    <t xml:space="preserve">0.502491184057593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.707864883547033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.851418801305283</t>
   </si>
   <si>
     <t xml:space="preserve">0.926189881585767</t>
@@ -11411,7 +11411,7 @@
     <t xml:space="preserve">0.86864640620741</t>
   </si>
   <si>
-    <t xml:space="preserve">0.743996894028547</t>
+    <t xml:space="preserve">0.743996894028548</t>
   </si>
   <si>
     <t xml:space="preserve">0.815017370304284</t>
@@ -11432,7 +11432,7 @@
     <t xml:space="preserve">0.735042265141238</t>
   </si>
   <si>
-    <t xml:space="preserve">0.770444224676815</t>
+    <t xml:space="preserve">0.770444224676814</t>
   </si>
   <si>
     <t xml:space="preserve">0.774269803956795</t>
@@ -11456,7 +11456,7 @@
     <t xml:space="preserve">0.819827002780114</t>
   </si>
   <si>
-    <t xml:space="preserve">0.728757318442248</t>
+    <t xml:space="preserve">0.728757318442247</t>
   </si>
   <si>
     <t xml:space="preserve">0.891453881502991</t>
@@ -11471,7 +11471,7 @@
     <t xml:space="preserve">0.826144783185964</t>
   </si>
   <si>
-    <t xml:space="preserve">0.783908210753553</t>
+    <t xml:space="preserve">0.783908210753554</t>
   </si>
   <si>
     <t xml:space="preserve">-0.292421155845705</t>
@@ -11480,7 +11480,7 @@
     <t xml:space="preserve">0.667270158334199</t>
   </si>
   <si>
-    <t xml:space="preserve">0.681884396799785</t>
+    <t xml:space="preserve">0.681884396799784</t>
   </si>
   <si>
     <t xml:space="preserve">0.84300478599293</t>
@@ -11501,7 +11501,7 @@
     <t xml:space="preserve">0.571077951669361</t>
   </si>
   <si>
-    <t xml:space="preserve">0.720410722860822</t>
+    <t xml:space="preserve">0.720410722860823</t>
   </si>
   <si>
     <t xml:space="preserve">0.624954420535736</t>
@@ -11561,10 +11561,10 @@
     <t xml:space="preserve">0.801518715522696</t>
   </si>
   <si>
-    <t xml:space="preserve">0.686785266192811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.331828000167661</t>
+    <t xml:space="preserve">0.686785266192812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.33182800016766</t>
   </si>
   <si>
     <t xml:space="preserve">0.606156290089169</t>
@@ -11573,19 +11573,19 @@
     <t xml:space="preserve">0.748500434665159</t>
   </si>
   <si>
-    <t xml:space="preserve">0.735027375852252</t>
+    <t xml:space="preserve">0.735027375852251</t>
   </si>
   <si>
     <t xml:space="preserve">0.539703866105836</t>
   </si>
   <si>
-    <t xml:space="preserve">0.793237215429284</t>
+    <t xml:space="preserve">0.793237215429285</t>
   </si>
   <si>
     <t xml:space="preserve">0.741893485252231</t>
   </si>
   <si>
-    <t xml:space="preserve">0.673112833814178</t>
+    <t xml:space="preserve">0.673112833814179</t>
   </si>
   <si>
     <t xml:space="preserve">0.773669120116946</t>
@@ -11606,13 +11606,13 @@
     <t xml:space="preserve">0.702346315515181</t>
   </si>
   <si>
-    <t xml:space="preserve">0.682805129359419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.78174889676407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.599901317049856</t>
+    <t xml:space="preserve">0.68280512935942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.781748896764071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.599901317049857</t>
   </si>
   <si>
     <t xml:space="preserve">0.756008007937686</t>
@@ -11624,10 +11624,10 @@
     <t xml:space="preserve">0.768208086830663</t>
   </si>
   <si>
-    <t xml:space="preserve">0.767819388041355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.639823245894592</t>
+    <t xml:space="preserve">0.767819388041356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.639823245894591</t>
   </si>
   <si>
     <t xml:space="preserve">0.780236211948417</t>
@@ -11645,7 +11645,7 @@
     <t xml:space="preserve">0.633843138851097</t>
   </si>
   <si>
-    <t xml:space="preserve">0.739597333770603</t>
+    <t xml:space="preserve">0.739597333770604</t>
   </si>
   <si>
     <t xml:space="preserve">0.725456941059588</t>
@@ -11681,7 +11681,7 @@
     <t xml:space="preserve">0.706232036519322</t>
   </si>
   <si>
-    <t xml:space="preserve">0.53866480459361</t>
+    <t xml:space="preserve">0.538664804593611</t>
   </si>
   <si>
     <t xml:space="preserve">0.366115291983906</t>
@@ -11747,13 +11747,13 @@
     <t xml:space="preserve">0.609644221637115</t>
   </si>
   <si>
-    <t xml:space="preserve">0.623924478895825</t>
+    <t xml:space="preserve">0.623924478895824</t>
   </si>
   <si>
     <t xml:space="preserve">0.539979995916738</t>
   </si>
   <si>
-    <t xml:space="preserve">0.71459448805339</t>
+    <t xml:space="preserve">0.714594488053391</t>
   </si>
   <si>
     <t xml:space="preserve">0.731986945897853</t>
@@ -11771,7 +11771,7 @@
     <t xml:space="preserve">0.658760102690725</t>
   </si>
   <si>
-    <t xml:space="preserve">0.642180973377431</t>
+    <t xml:space="preserve">0.642180973377432</t>
   </si>
   <si>
     <t xml:space="preserve">0.585655291878869</t>
@@ -11789,7 +11789,7 @@
     <t xml:space="preserve">0.563421612707463</t>
   </si>
   <si>
-    <t xml:space="preserve">0.74377042805089</t>
+    <t xml:space="preserve">0.743770428050889</t>
   </si>
   <si>
     <t xml:space="preserve">0.673973304403953</t>
@@ -11804,7 +11804,7 @@
     <t xml:space="preserve">0.70109980245946</t>
   </si>
   <si>
-    <t xml:space="preserve">0.588978608443378</t>
+    <t xml:space="preserve">0.588978608443377</t>
   </si>
   <si>
     <t xml:space="preserve">0.703679523881715</t>
@@ -11858,10 +11858,10 @@
     <t xml:space="preserve">0.368517140415367</t>
   </si>
   <si>
-    <t xml:space="preserve">0.582125364856265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.596270005562656</t>
+    <t xml:space="preserve">0.582125364856266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.596270005562657</t>
   </si>
   <si>
     <t xml:space="preserve">0.574904770065537</t>
@@ -11876,7 +11876,7 @@
     <t xml:space="preserve">0.608434633389387</t>
   </si>
   <si>
-    <t xml:space="preserve">0.503324667913082</t>
+    <t xml:space="preserve">0.503324667913081</t>
   </si>
   <si>
     <t xml:space="preserve">0.495299868411248</t>
@@ -11894,7 +11894,7 @@
     <t xml:space="preserve">0.572255268594132</t>
   </si>
   <si>
-    <t xml:space="preserve">0.595460696917612</t>
+    <t xml:space="preserve">0.595460696917613</t>
   </si>
   <si>
     <t xml:space="preserve">0.642954843811826</t>
@@ -11909,7 +11909,7 @@
     <t xml:space="preserve">0.546206323849006</t>
   </si>
   <si>
-    <t xml:space="preserve">0.605830275249956</t>
+    <t xml:space="preserve">0.605830275249957</t>
   </si>
   <si>
     <t xml:space="preserve">0.646013095915036</t>
@@ -11990,7 +11990,7 @@
     <t xml:space="preserve">0.487810713663889</t>
   </si>
   <si>
-    <t xml:space="preserve">0.534220037125788</t>
+    <t xml:space="preserve">0.534220037125787</t>
   </si>
   <si>
     <t xml:space="preserve">-0.362211397562737</t>
@@ -12005,13 +12005,13 @@
     <t xml:space="preserve">0.575897683476434</t>
   </si>
   <si>
-    <t xml:space="preserve">0.314036045617924</t>
+    <t xml:space="preserve">0.314036045617925</t>
   </si>
   <si>
     <t xml:space="preserve">0.393181632524414</t>
   </si>
   <si>
-    <t xml:space="preserve">0.721498131205795</t>
+    <t xml:space="preserve">0.721498131205796</t>
   </si>
   <si>
     <t xml:space="preserve">0.819871431989343</t>
@@ -12026,13 +12026,13 @@
     <t xml:space="preserve">0.820944586044971</t>
   </si>
   <si>
-    <t xml:space="preserve">0.823865157572731</t>
+    <t xml:space="preserve">0.823865157572732</t>
   </si>
   <si>
     <t xml:space="preserve">0.585498959900381</t>
   </si>
   <si>
-    <t xml:space="preserve">0.734134456173051</t>
+    <t xml:space="preserve">0.734134456173052</t>
   </si>
   <si>
     <t xml:space="preserve">0.789871125026535</t>
@@ -12044,16 +12044,16 @@
     <t xml:space="preserve">0.70445449932779</t>
   </si>
   <si>
-    <t xml:space="preserve">0.66108985892324</t>
+    <t xml:space="preserve">0.661089858923239</t>
   </si>
   <si>
     <t xml:space="preserve">0.677224585485234</t>
   </si>
   <si>
-    <t xml:space="preserve">0.554957835161193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.836897553605506</t>
+    <t xml:space="preserve">0.554957835161192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.836897553605507</t>
   </si>
   <si>
     <t xml:space="preserve">0.766056711342149</t>
@@ -12071,7 +12071,7 @@
     <t xml:space="preserve">0.787625312721853</t>
   </si>
   <si>
-    <t xml:space="preserve">0.651544464113833</t>
+    <t xml:space="preserve">0.651544464113834</t>
   </si>
   <si>
     <t xml:space="preserve">0.339050269076745</t>
@@ -12092,7 +12092,7 @@
     <t xml:space="preserve">0.883669211403302</t>
   </si>
   <si>
-    <t xml:space="preserve">0.775098998378623</t>
+    <t xml:space="preserve">0.775098998378624</t>
   </si>
   <si>
     <t xml:space="preserve">0.80379099527407</t>
@@ -12107,7 +12107,7 @@
     <t xml:space="preserve">0.756869672693931</t>
   </si>
   <si>
-    <t xml:space="preserve">0.637789027049917</t>
+    <t xml:space="preserve">0.637789027049918</t>
   </si>
   <si>
     <t xml:space="preserve">0.347525570255007</t>
@@ -12140,7 +12140,7 @@
     <t xml:space="preserve">0.850963321747129</t>
   </si>
   <si>
-    <t xml:space="preserve">0.728589989705928</t>
+    <t xml:space="preserve">0.728589989705927</t>
   </si>
   <si>
     <t xml:space="preserve">0.799694790648209</t>
@@ -12149,7 +12149,7 @@
     <t xml:space="preserve">0.698073205452158</t>
   </si>
   <si>
-    <t xml:space="preserve">0.82730488591912</t>
+    <t xml:space="preserve">0.827304885919121</t>
   </si>
   <si>
     <t xml:space="preserve">0.375644775498143</t>
@@ -12158,7 +12158,7 @@
     <t xml:space="preserve">0.633326369394632</t>
   </si>
   <si>
-    <t xml:space="preserve">0.766677345806148</t>
+    <t xml:space="preserve">0.766677345806149</t>
   </si>
   <si>
     <t xml:space="preserve">0.698628244772224</t>
@@ -12170,10 +12170,10 @@
     <t xml:space="preserve">0.799968522347968</t>
   </si>
   <si>
-    <t xml:space="preserve">0.859398917147574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.784633187624098</t>
+    <t xml:space="preserve">0.859398917147575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.784633187624099</t>
   </si>
   <si>
     <t xml:space="preserve">0.567834354434557</t>
@@ -12191,7 +12191,7 @@
     <t xml:space="preserve">0.351632951170069</t>
   </si>
   <si>
-    <t xml:space="preserve">0.306753743937275</t>
+    <t xml:space="preserve">0.306753743937274</t>
   </si>
   <si>
     <t xml:space="preserve">0.271840936446303</t>
@@ -12203,7 +12203,7 @@
     <t xml:space="preserve">0.322615186412853</t>
   </si>
   <si>
-    <t xml:space="preserve">0.302543849266874</t>
+    <t xml:space="preserve">0.302543849266873</t>
   </si>
   <si>
     <t xml:space="preserve">0.308932364895117</t>
@@ -12230,7 +12230,7 @@
     <t xml:space="preserve">0.439366290660476</t>
   </si>
   <si>
-    <t xml:space="preserve">0.303798527575093</t>
+    <t xml:space="preserve">0.303798527575094</t>
   </si>
   <si>
     <t xml:space="preserve">0.33272405750407</t>
@@ -12266,7 +12266,7 @@
     <t xml:space="preserve">0.298182678780006</t>
   </si>
   <si>
-    <t xml:space="preserve">0.43277449886035</t>
+    <t xml:space="preserve">0.432774498860351</t>
   </si>
   <si>
     <t xml:space="preserve">0.279221273705056</t>
@@ -12275,7 +12275,7 @@
     <t xml:space="preserve">0.297699246672779</t>
   </si>
   <si>
-    <t xml:space="preserve">0.411582550283975</t>
+    <t xml:space="preserve">0.411582550283976</t>
   </si>
   <si>
     <t xml:space="preserve">0.421356130603948</t>
@@ -12284,7 +12284,7 @@
     <t xml:space="preserve">0.281927021391675</t>
   </si>
   <si>
-    <t xml:space="preserve">0.359404071942564</t>
+    <t xml:space="preserve">0.359404071942565</t>
   </si>
   <si>
     <t xml:space="preserve">0.402122697552024</t>
@@ -12326,7 +12326,7 @@
     <t xml:space="preserve">0.323629120931825</t>
   </si>
   <si>
-    <t xml:space="preserve">0.286532833531395</t>
+    <t xml:space="preserve">0.286532833531394</t>
   </si>
   <si>
     <t xml:space="preserve">0.283476990226815</t>
@@ -12353,7 +12353,7 @@
     <t xml:space="preserve">0.288256642949529</t>
   </si>
   <si>
-    <t xml:space="preserve">0.349078530997732</t>
+    <t xml:space="preserve">0.349078530997733</t>
   </si>
   <si>
     <t xml:space="preserve">0.331562622724633</t>
@@ -12479,7 +12479,7 @@
     <t xml:space="preserve">0.614194463788865</t>
   </si>
   <si>
-    <t xml:space="preserve">0.587119562216887</t>
+    <t xml:space="preserve">0.587119562216888</t>
   </si>
   <si>
     <t xml:space="preserve">0.544443694438155</t>
@@ -12491,7 +12491,7 @@
     <t xml:space="preserve">0.536447726076499</t>
   </si>
   <si>
-    <t xml:space="preserve">0.713690548360521</t>
+    <t xml:space="preserve">0.713690548360522</t>
   </si>
   <si>
     <t xml:space="preserve">0.340539255433512</t>
@@ -12500,7 +12500,7 @@
     <t xml:space="preserve">0.730671848675906</t>
   </si>
   <si>
-    <t xml:space="preserve">0.69741272009151</t>
+    <t xml:space="preserve">0.697412720091511</t>
   </si>
   <si>
     <t xml:space="preserve">0.644234895193477</t>
@@ -12545,10 +12545,10 @@
     <t xml:space="preserve">0.651804480287567</t>
   </si>
   <si>
-    <t xml:space="preserve">0.809138730894152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.532649237208376</t>
+    <t xml:space="preserve">0.809138730894153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.532649237208375</t>
   </si>
   <si>
     <t xml:space="preserve">0.403945117106047</t>
@@ -12575,7 +12575,7 @@
     <t xml:space="preserve">0.608951868412578</t>
   </si>
   <si>
-    <t xml:space="preserve">0.831085183540097</t>
+    <t xml:space="preserve">0.831085183540096</t>
   </si>
   <si>
     <t xml:space="preserve">0.802035751389682</t>
@@ -12590,7 +12590,7 @@
     <t xml:space="preserve">0.885348206374117</t>
   </si>
   <si>
-    <t xml:space="preserve">0.823586456163674</t>
+    <t xml:space="preserve">0.823586456163673</t>
   </si>
   <si>
     <t xml:space="preserve">0.516215769273902</t>
@@ -12635,7 +12635,7 @@
     <t xml:space="preserve">0.883377345408693</t>
   </si>
   <si>
-    <t xml:space="preserve">0.763642009036797</t>
+    <t xml:space="preserve">0.763642009036798</t>
   </si>
   <si>
     <t xml:space="preserve">0.35651039693531</t>
@@ -12650,10 +12650,10 @@
     <t xml:space="preserve">0.798287175796139</t>
   </si>
   <si>
-    <t xml:space="preserve">0.845459260561987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.534962270825514</t>
+    <t xml:space="preserve">0.845459260561988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.534962270825515</t>
   </si>
   <si>
     <t xml:space="preserve">0.791638328531</t>
@@ -12671,7 +12671,7 @@
     <t xml:space="preserve">0.721653382816281</t>
   </si>
   <si>
-    <t xml:space="preserve">0.822235310360382</t>
+    <t xml:space="preserve">0.822235310360383</t>
   </si>
   <si>
     <t xml:space="preserve">0.703888709662512</t>
@@ -12686,13 +12686,13 @@
     <t xml:space="preserve">0.616295584745153</t>
   </si>
   <si>
-    <t xml:space="preserve">0.823074744356424</t>
+    <t xml:space="preserve">0.823074744356423</t>
   </si>
   <si>
     <t xml:space="preserve">0.858273498486245</t>
   </si>
   <si>
-    <t xml:space="preserve">0.79644175462205</t>
+    <t xml:space="preserve">0.796441754622051</t>
   </si>
   <si>
     <t xml:space="preserve">-0.26706823080554</t>
@@ -12728,7 +12728,7 @@
     <t xml:space="preserve">0.708752416225334</t>
   </si>
   <si>
-    <t xml:space="preserve">0.675534776601199</t>
+    <t xml:space="preserve">0.6755347766012</t>
   </si>
   <si>
     <t xml:space="preserve">0.573461093855203</t>
@@ -12761,7 +12761,7 @@
     <t xml:space="preserve">0.737936987175679</t>
   </si>
   <si>
-    <t xml:space="preserve">0.718364375125174</t>
+    <t xml:space="preserve">0.718364375125173</t>
   </si>
   <si>
     <t xml:space="preserve">0.67066387459055</t>
@@ -12773,7 +12773,7 @@
     <t xml:space="preserve">0.754858347972218</t>
   </si>
   <si>
-    <t xml:space="preserve">0.526099330664274</t>
+    <t xml:space="preserve">0.526099330664275</t>
   </si>
   <si>
     <t xml:space="preserve">0.714785799173515</t>
@@ -12785,13 +12785,13 @@
     <t xml:space="preserve">0.675592961854003</t>
   </si>
   <si>
-    <t xml:space="preserve">0.748119712816742</t>
+    <t xml:space="preserve">0.748119712816743</t>
   </si>
   <si>
     <t xml:space="preserve">0.475869335653854</t>
   </si>
   <si>
-    <t xml:space="preserve">0.756005650623031</t>
+    <t xml:space="preserve">0.75600565062303</t>
   </si>
   <si>
     <t xml:space="preserve">0.582614749769705</t>
@@ -12809,7 +12809,7 @@
     <t xml:space="preserve">0.76390435337807</t>
   </si>
   <si>
-    <t xml:space="preserve">0.769817492015577</t>
+    <t xml:space="preserve">0.769817492015578</t>
   </si>
   <si>
     <t xml:space="preserve">0.537442752567425</t>
@@ -12839,7 +12839,7 @@
     <t xml:space="preserve">0.753324403919259</t>
   </si>
   <si>
-    <t xml:space="preserve">0.36368469767905</t>
+    <t xml:space="preserve">0.363684697679049</t>
   </si>
   <si>
     <t xml:space="preserve">0.446701601377757</t>
@@ -12875,13 +12875,13 @@
     <t xml:space="preserve">0.420639231699573</t>
   </si>
   <si>
-    <t xml:space="preserve">0.370014708505971</t>
+    <t xml:space="preserve">0.370014708505972</t>
   </si>
   <si>
     <t xml:space="preserve">0.507121444579759</t>
   </si>
   <si>
-    <t xml:space="preserve">0.583449336863214</t>
+    <t xml:space="preserve">0.583449336863215</t>
   </si>
   <si>
     <t xml:space="preserve">0.612969237440999</t>
@@ -12929,7 +12929,7 @@
     <t xml:space="preserve">0.403711227747496</t>
   </si>
   <si>
-    <t xml:space="preserve">0.375706519518847</t>
+    <t xml:space="preserve">0.375706519518848</t>
   </si>
   <si>
     <t xml:space="preserve">0.609762007388653</t>
@@ -13055,7 +13055,7 @@
     <t xml:space="preserve">0.322840276686051</t>
   </si>
   <si>
-    <t xml:space="preserve">0.29069681270914</t>
+    <t xml:space="preserve">0.290696812709141</t>
   </si>
   <si>
     <t xml:space="preserve">0.284398700299585</t>
@@ -13085,13 +13085,13 @@
     <t xml:space="preserve">0.441645101521934</t>
   </si>
   <si>
-    <t xml:space="preserve">0.287713136060472</t>
+    <t xml:space="preserve">0.287713136060471</t>
   </si>
   <si>
     <t xml:space="preserve">0.46106102759237</t>
   </si>
   <si>
-    <t xml:space="preserve">0.443806538638919</t>
+    <t xml:space="preserve">0.443806538638918</t>
   </si>
   <si>
     <t xml:space="preserve">0.883519742315633</t>
@@ -13133,16 +13133,16 @@
     <t xml:space="preserve">0.555443831381749</t>
   </si>
   <si>
-    <t xml:space="preserve">0.6305215411331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.771053910646375</t>
+    <t xml:space="preserve">0.630521541133101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.771053910646376</t>
   </si>
   <si>
     <t xml:space="preserve">0.595230231728347</t>
   </si>
   <si>
-    <t xml:space="preserve">0.350614869813616</t>
+    <t xml:space="preserve">0.350614869813617</t>
   </si>
   <si>
     <t xml:space="preserve">0.763319977729683</t>
@@ -13154,7 +13154,7 @@
     <t xml:space="preserve">0.743463139099472</t>
   </si>
   <si>
-    <t xml:space="preserve">0.568948094206327</t>
+    <t xml:space="preserve">0.568948094206328</t>
   </si>
   <si>
     <t xml:space="preserve">0.877646983307252</t>
@@ -13187,7 +13187,7 @@
     <t xml:space="preserve">0.591363862628872</t>
   </si>
   <si>
-    <t xml:space="preserve">0.691000737719333</t>
+    <t xml:space="preserve">0.691000737719334</t>
   </si>
   <si>
     <t xml:space="preserve">0.687820886105327</t>
@@ -13223,7 +13223,7 @@
     <t xml:space="preserve">0.632894637743815</t>
   </si>
   <si>
-    <t xml:space="preserve">0.763570180553698</t>
+    <t xml:space="preserve">0.763570180553699</t>
   </si>
   <si>
     <t xml:space="preserve">0.711398690428771</t>
@@ -13256,7 +13256,7 @@
     <t xml:space="preserve">0.846264414658059</t>
   </si>
   <si>
-    <t xml:space="preserve">0.783102862307765</t>
+    <t xml:space="preserve">0.783102862307766</t>
   </si>
   <si>
     <t xml:space="preserve">0.723593333633985</t>
@@ -13265,7 +13265,7 @@
     <t xml:space="preserve">0.831900608635396</t>
   </si>
   <si>
-    <t xml:space="preserve">0.741384537648933</t>
+    <t xml:space="preserve">0.741384537648934</t>
   </si>
   <si>
     <t xml:space="preserve">0.552099742598358</t>
@@ -13298,7 +13298,7 @@
     <t xml:space="preserve">0.71375769263994</t>
   </si>
   <si>
-    <t xml:space="preserve">0.859909348134125</t>
+    <t xml:space="preserve">0.859909348134126</t>
   </si>
   <si>
     <t xml:space="preserve">0.824889045414368</t>
@@ -13328,7 +13328,7 @@
     <t xml:space="preserve">0.687730664265513</t>
   </si>
   <si>
-    <t xml:space="preserve">0.407261698712341</t>
+    <t xml:space="preserve">0.407261698712342</t>
   </si>
   <si>
     <t xml:space="preserve">0.770047177404204</t>
@@ -13343,7 +13343,7 @@
     <t xml:space="preserve">0.783550233517246</t>
   </si>
   <si>
-    <t xml:space="preserve">0.755710301402146</t>
+    <t xml:space="preserve">0.755710301402147</t>
   </si>
   <si>
     <t xml:space="preserve">0.810809337310358</t>
@@ -13352,16 +13352,16 @@
     <t xml:space="preserve">0.343227950533061</t>
   </si>
   <si>
-    <t xml:space="preserve">0.936835246223124</t>
+    <t xml:space="preserve">0.936835246223125</t>
   </si>
   <si>
     <t xml:space="preserve">0.970072182731808</t>
   </si>
   <si>
-    <t xml:space="preserve">0.761686915416609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.862382693570165</t>
+    <t xml:space="preserve">0.76168691541661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.862382693570164</t>
   </si>
   <si>
     <t xml:space="preserve">0.73827897473567</t>
@@ -13457,7 +13457,7 @@
     <t xml:space="preserve">0.41192230093051</t>
   </si>
   <si>
-    <t xml:space="preserve">0.663379996809942</t>
+    <t xml:space="preserve">0.663379996809943</t>
   </si>
   <si>
     <t xml:space="preserve">0.699689133851533</t>
@@ -13478,7 +13478,7 @@
     <t xml:space="preserve">0.530390734915983</t>
   </si>
   <si>
-    <t xml:space="preserve">0.472917641361557</t>
+    <t xml:space="preserve">0.472917641361556</t>
   </si>
   <si>
     <t xml:space="preserve">0.619739205195825</t>
@@ -13487,10 +13487,10 @@
     <t xml:space="preserve">0.507190858994643</t>
   </si>
   <si>
-    <t xml:space="preserve">0.566153830292697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.60398552014042</t>
+    <t xml:space="preserve">0.566153830292696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.603985520140419</t>
   </si>
   <si>
     <t xml:space="preserve">0.629650225735631</t>
@@ -13511,7 +13511,7 @@
     <t xml:space="preserve">0.515792352339036</t>
   </si>
   <si>
-    <t xml:space="preserve">0.499784229577645</t>
+    <t xml:space="preserve">0.499784229577646</t>
   </si>
   <si>
     <t xml:space="preserve">0.563162104626991</t>
@@ -13601,7 +13601,7 @@
     <t xml:space="preserve">0.779204943655917</t>
   </si>
   <si>
-    <t xml:space="preserve">0.785972939195858</t>
+    <t xml:space="preserve">0.785972939195857</t>
   </si>
   <si>
     <t xml:space="preserve">0.737471089113831</t>
@@ -13634,10 +13634,10 @@
     <t xml:space="preserve">0.714386478236738</t>
   </si>
   <si>
-    <t xml:space="preserve">0.56000106456984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.73542013372634</t>
+    <t xml:space="preserve">0.560001064569839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.735420133726339</t>
   </si>
   <si>
     <t xml:space="preserve">0.331229562306649</t>
@@ -13679,7 +13679,7 @@
     <t xml:space="preserve">0.537943172265234</t>
   </si>
   <si>
-    <t xml:space="preserve">0.642567643253402</t>
+    <t xml:space="preserve">0.642567643253403</t>
   </si>
   <si>
     <t xml:space="preserve">0.858428126278208</t>
@@ -13703,10 +13703,10 @@
     <t xml:space="preserve">0.561954084748445</t>
   </si>
   <si>
-    <t xml:space="preserve">0.790819050779208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.905691301566062</t>
+    <t xml:space="preserve">0.790819050779209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.905691301566063</t>
   </si>
   <si>
     <t xml:space="preserve">0.802152225364427</t>
@@ -13730,16 +13730,16 @@
     <t xml:space="preserve">0.758421511719866</t>
   </si>
   <si>
-    <t xml:space="preserve">0.830597114415341</t>
+    <t xml:space="preserve">0.83059711441534</t>
   </si>
   <si>
     <t xml:space="preserve">0.693875778622546</t>
   </si>
   <si>
-    <t xml:space="preserve">0.827025016381405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.802025053121427</t>
+    <t xml:space="preserve">0.827025016381404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.802025053121428</t>
   </si>
   <si>
     <t xml:space="preserve">0.768882930086113</t>
@@ -13748,7 +13748,7 @@
     <t xml:space="preserve">0.927048015370006</t>
   </si>
   <si>
-    <t xml:space="preserve">0.781384528273325</t>
+    <t xml:space="preserve">0.781384528273326</t>
   </si>
   <si>
     <t xml:space="preserve">0.905107827581252</t>
@@ -13766,7 +13766,7 @@
     <t xml:space="preserve">0.79376699366416</t>
   </si>
   <si>
-    <t xml:space="preserve">0.778086158916303</t>
+    <t xml:space="preserve">0.778086158916304</t>
   </si>
   <si>
     <t xml:space="preserve">0.812417947782535</t>
@@ -13787,7 +13787,7 @@
     <t xml:space="preserve">0.801833562629963</t>
   </si>
   <si>
-    <t xml:space="preserve">0.756407381085649</t>
+    <t xml:space="preserve">0.756407381085648</t>
   </si>
   <si>
     <t xml:space="preserve">0.835871766097589</t>
@@ -13802,10 +13802,10 @@
     <t xml:space="preserve">0.373656089240178</t>
   </si>
   <si>
-    <t xml:space="preserve">0.714609843211288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.9132243210449</t>
+    <t xml:space="preserve">0.714609843211289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.913224321044901</t>
   </si>
   <si>
     <t xml:space="preserve">0.873551256221927</t>
@@ -13820,7 +13820,7 @@
     <t xml:space="preserve">0.774297022670965</t>
   </si>
   <si>
-    <t xml:space="preserve">0.938509635025215</t>
+    <t xml:space="preserve">0.938509635025216</t>
   </si>
   <si>
     <t xml:space="preserve">0.530345759432175</t>
@@ -13841,7 +13841,7 @@
     <t xml:space="preserve">0.704295173162479</t>
   </si>
   <si>
-    <t xml:space="preserve">0.871132156664252</t>
+    <t xml:space="preserve">0.871132156664253</t>
   </si>
   <si>
     <t xml:space="preserve">0.750513155111844</t>
@@ -13850,13 +13850,13 @@
     <t xml:space="preserve">0.419103854510851</t>
   </si>
   <si>
-    <t xml:space="preserve">0.417708879931971</t>
+    <t xml:space="preserve">0.417708879931972</t>
   </si>
   <si>
     <t xml:space="preserve">0.799633986924072</t>
   </si>
   <si>
-    <t xml:space="preserve">0.720314482090595</t>
+    <t xml:space="preserve">0.720314482090594</t>
   </si>
   <si>
     <t xml:space="preserve">0.731886810842137</t>
@@ -13868,7 +13868,7 @@
     <t xml:space="preserve">0.73628910172734</t>
   </si>
   <si>
-    <t xml:space="preserve">0.598258597168432</t>
+    <t xml:space="preserve">0.598258597168431</t>
   </si>
   <si>
     <t xml:space="preserve">0.752987466742544</t>
@@ -13877,7 +13877,7 @@
     <t xml:space="preserve">0.736152741401662</t>
   </si>
   <si>
-    <t xml:space="preserve">0.740205169038011</t>
+    <t xml:space="preserve">0.740205169038012</t>
   </si>
   <si>
     <t xml:space="preserve">0.82688996251633</t>
@@ -13886,7 +13886,7 @@
     <t xml:space="preserve">0.666220062395632</t>
   </si>
   <si>
-    <t xml:space="preserve">0.847650247389232</t>
+    <t xml:space="preserve">0.847650247389233</t>
   </si>
   <si>
     <t xml:space="preserve">0.646405081432844</t>
@@ -13916,7 +13916,7 @@
     <t xml:space="preserve">0.673835123255741</t>
   </si>
   <si>
-    <t xml:space="preserve">0.75060313817866</t>
+    <t xml:space="preserve">0.750603138178661</t>
   </si>
   <si>
     <t xml:space="preserve">0.685480636261891</t>
@@ -13925,10 +13925,10 @@
     <t xml:space="preserve">0.86191607296951</t>
   </si>
   <si>
-    <t xml:space="preserve">0.655542392348725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.825441382493885</t>
+    <t xml:space="preserve">0.655542392348726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.825441382493886</t>
   </si>
   <si>
     <t xml:space="preserve">0.524594579832501</t>
@@ -13964,7 +13964,7 @@
     <t xml:space="preserve">0.522095951086815</t>
   </si>
   <si>
-    <t xml:space="preserve">0.610709897338116</t>
+    <t xml:space="preserve">0.610709897338115</t>
   </si>
   <si>
     <t xml:space="preserve">0.432727314798698</t>
@@ -14015,16 +14015,16 @@
     <t xml:space="preserve">0.705671912395567</t>
   </si>
   <si>
-    <t xml:space="preserve">0.746329812582086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.631116516621449</t>
+    <t xml:space="preserve">0.746329812582087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.63111651662145</t>
   </si>
   <si>
     <t xml:space="preserve">0.664439611774214</t>
   </si>
   <si>
-    <t xml:space="preserve">0.478728435868802</t>
+    <t xml:space="preserve">0.478728435868803</t>
   </si>
   <si>
     <t xml:space="preserve">0.338149036853761</t>
@@ -14039,7 +14039,7 @@
     <t xml:space="preserve">0.537375122062974</t>
   </si>
   <si>
-    <t xml:space="preserve">0.588673507781877</t>
+    <t xml:space="preserve">0.588673507781878</t>
   </si>
   <si>
     <t xml:space="preserve">0.531000833847106</t>
@@ -14066,7 +14066,7 @@
     <t xml:space="preserve">0.529269198322692</t>
   </si>
   <si>
-    <t xml:space="preserve">0.732300438899737</t>
+    <t xml:space="preserve">0.732300438899736</t>
   </si>
   <si>
     <t xml:space="preserve">0.319120408619837</t>
@@ -14090,7 +14090,7 @@
     <t xml:space="preserve">0.523133227407021</t>
   </si>
   <si>
-    <t xml:space="preserve">0.694161773386914</t>
+    <t xml:space="preserve">0.694161773386915</t>
   </si>
   <si>
     <t xml:space="preserve">0.695781186954831</t>
@@ -14138,7 +14138,7 @@
     <t xml:space="preserve">0.507081410194075</t>
   </si>
   <si>
-    <t xml:space="preserve">0.752411311073036</t>
+    <t xml:space="preserve">0.752411311073035</t>
   </si>
   <si>
     <t xml:space="preserve">0.740058556742254</t>
@@ -14156,7 +14156,7 @@
     <t xml:space="preserve">0.85149829172241</t>
   </si>
   <si>
-    <t xml:space="preserve">0.743976035582287</t>
+    <t xml:space="preserve">0.743976035582286</t>
   </si>
   <si>
     <t xml:space="preserve">0.80401326580986</t>
@@ -14165,7 +14165,7 @@
     <t xml:space="preserve">0.857182727270292</t>
   </si>
   <si>
-    <t xml:space="preserve">0.859659764224689</t>
+    <t xml:space="preserve">0.859659764224688</t>
   </si>
   <si>
     <t xml:space="preserve">0.918069753700183</t>
@@ -14186,13 +14186,13 @@
     <t xml:space="preserve">0.789222283512895</t>
   </si>
   <si>
-    <t xml:space="preserve">0.758354403919199</t>
+    <t xml:space="preserve">0.758354403919198</t>
   </si>
   <si>
     <t xml:space="preserve">0.742908947967617</t>
   </si>
   <si>
-    <t xml:space="preserve">0.688446186163968</t>
+    <t xml:space="preserve">0.688446186163967</t>
   </si>
   <si>
     <t xml:space="preserve">0.807506798608641</t>
@@ -14222,10 +14222,10 @@
     <t xml:space="preserve">0.553479303113264</t>
   </si>
   <si>
-    <t xml:space="preserve">0.839103432621644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.497189315399973</t>
+    <t xml:space="preserve">0.839103432621643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.497189315399972</t>
   </si>
   <si>
     <t xml:space="preserve">0.642258868934622</t>
@@ -14234,7 +14234,7 @@
     <t xml:space="preserve">0.702768237751833</t>
   </si>
   <si>
-    <t xml:space="preserve">0.821036079782394</t>
+    <t xml:space="preserve">0.821036079782395</t>
   </si>
   <si>
     <t xml:space="preserve">0.701432399873278</t>
@@ -14258,7 +14258,7 @@
     <t xml:space="preserve">0.586456873845649</t>
   </si>
   <si>
-    <t xml:space="preserve">0.731066920580904</t>
+    <t xml:space="preserve">0.731066920580905</t>
   </si>
   <si>
     <t xml:space="preserve">0.537978355057387</t>
@@ -14294,16 +14294,16 @@
     <t xml:space="preserve">0.807803299326515</t>
   </si>
   <si>
-    <t xml:space="preserve">0.830914992159555</t>
+    <t xml:space="preserve">0.830914992159556</t>
   </si>
   <si>
     <t xml:space="preserve">0.401582332285132</t>
   </si>
   <si>
-    <t xml:space="preserve">0.731289120293397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.44255937529057</t>
+    <t xml:space="preserve">0.731289120293396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.442559375290571</t>
   </si>
   <si>
     <t xml:space="preserve">0.634267742103678</t>
@@ -14339,7 +14339,7 @@
     <t xml:space="preserve">0.697150583000938</t>
   </si>
   <si>
-    <t xml:space="preserve">0.446801102451118</t>
+    <t xml:space="preserve">0.446801102451117</t>
   </si>
   <si>
     <t xml:space="preserve">0.646523525978129</t>
@@ -14369,7 +14369,7 @@
     <t xml:space="preserve">0.878743090655927</t>
   </si>
   <si>
-    <t xml:space="preserve">0.45648191025931</t>
+    <t xml:space="preserve">0.456481910259311</t>
   </si>
   <si>
     <t xml:space="preserve">0.321803704474807</t>
@@ -14399,16 +14399,16 @@
     <t xml:space="preserve">0.650843881705038</t>
   </si>
   <si>
-    <t xml:space="preserve">0.660663915749722</t>
+    <t xml:space="preserve">0.660663915749723</t>
   </si>
   <si>
     <t xml:space="preserve">0.58732388141366</t>
   </si>
   <si>
-    <t xml:space="preserve">0.652102592332485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.753174428258352</t>
+    <t xml:space="preserve">0.652102592332484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.753174428258351</t>
   </si>
   <si>
     <t xml:space="preserve">0.785999581343074</t>
@@ -14429,7 +14429,7 @@
     <t xml:space="preserve">0.535326813075306</t>
   </si>
   <si>
-    <t xml:space="preserve">0.601336599617226</t>
+    <t xml:space="preserve">0.601336599617225</t>
   </si>
   <si>
     <t xml:space="preserve">0.520511082125795</t>
@@ -14441,7 +14441,7 @@
     <t xml:space="preserve">0.544368515167868</t>
   </si>
   <si>
-    <t xml:space="preserve">0.457413825139039</t>
+    <t xml:space="preserve">0.457413825139038</t>
   </si>
   <si>
     <t xml:space="preserve">0.588480827441971</t>
@@ -14453,7 +14453,7 @@
     <t xml:space="preserve">0.541140539985816</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.330711556246185</t>
+    <t xml:space="preserve">-0.330711556246184</t>
   </si>
   <si>
     <t xml:space="preserve">0.389200162079042</t>
@@ -14465,7 +14465,7 @@
     <t xml:space="preserve">0.652633919167982</t>
   </si>
   <si>
-    <t xml:space="preserve">0.782603188580361</t>
+    <t xml:space="preserve">0.78260318858036</t>
   </si>
   <si>
     <t xml:space="preserve">0.737554261279242</t>
@@ -14492,10 +14492,10 @@
     <t xml:space="preserve">0.723639965058316</t>
   </si>
   <si>
-    <t xml:space="preserve">0.786056296615112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.59808619867565</t>
+    <t xml:space="preserve">0.786056296615111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.598086198675649</t>
   </si>
   <si>
     <t xml:space="preserve">0.847733774423005</t>
@@ -14507,13 +14507,13 @@
     <t xml:space="preserve">0.753216645221</t>
   </si>
   <si>
-    <t xml:space="preserve">0.820171167489502</t>
+    <t xml:space="preserve">0.820171167489501</t>
   </si>
   <si>
     <t xml:space="preserve">0.722691048129056</t>
   </si>
   <si>
-    <t xml:space="preserve">0.759143900998844</t>
+    <t xml:space="preserve">0.759143900998843</t>
   </si>
   <si>
     <t xml:space="preserve">0.573304573933093</t>
@@ -14546,13 +14546,13 @@
     <t xml:space="preserve">0.729200142627154</t>
   </si>
   <si>
-    <t xml:space="preserve">0.580476419147122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.726396219193312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6511414226923</t>
+    <t xml:space="preserve">0.580476419147121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.726396219193313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.651141422692299</t>
   </si>
   <si>
     <t xml:space="preserve">0.727677741454379</t>
@@ -14609,7 +14609,7 @@
     <t xml:space="preserve">0.728646205113473</t>
   </si>
   <si>
-    <t xml:space="preserve">0.775029948837894</t>
+    <t xml:space="preserve">0.775029948837893</t>
   </si>
   <si>
     <t xml:space="preserve">0.62942158154368</t>
@@ -14630,7 +14630,7 @@
     <t xml:space="preserve">0.729547061600481</t>
   </si>
   <si>
-    <t xml:space="preserve">0.959715413611243</t>
+    <t xml:space="preserve">0.959715413611242</t>
   </si>
   <si>
     <t xml:space="preserve">0.780112595740682</t>
@@ -14735,7 +14735,7 @@
     <t xml:space="preserve">0.895984054539964</t>
   </si>
   <si>
-    <t xml:space="preserve">0.897852807053476</t>
+    <t xml:space="preserve">0.897852807053477</t>
   </si>
   <si>
     <t xml:space="preserve">0.832329546163805</t>
@@ -14750,10 +14750,10 @@
     <t xml:space="preserve">0.652662270260571</t>
   </si>
   <si>
-    <t xml:space="preserve">0.330416372648593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.737481038803014</t>
+    <t xml:space="preserve">0.330416372648594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.737481038803015</t>
   </si>
   <si>
     <t xml:space="preserve">0.732033151747301</t>
@@ -14762,7 +14762,7 @@
     <t xml:space="preserve">0.667240297148492</t>
   </si>
   <si>
-    <t xml:space="preserve">0.73340033375075</t>
+    <t xml:space="preserve">0.733400333750751</t>
   </si>
   <si>
     <t xml:space="preserve">0.805972392834101</t>
@@ -14795,10 +14795,10 @@
     <t xml:space="preserve">0.302176374598377</t>
   </si>
   <si>
-    <t xml:space="preserve">0.623333174211844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.751170528207614</t>
+    <t xml:space="preserve">0.623333174211845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.751170528207615</t>
   </si>
   <si>
     <t xml:space="preserve">0.766595976877914</t>
@@ -14807,19 +14807,19 @@
     <t xml:space="preserve">0.726926661199453</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.284223088042525</t>
+    <t xml:space="preserve">-0.284223088042526</t>
   </si>
   <si>
     <t xml:space="preserve">0.811670655990134</t>
   </si>
   <si>
-    <t xml:space="preserve">0.717875766881456</t>
+    <t xml:space="preserve">0.717875766881457</t>
   </si>
   <si>
     <t xml:space="preserve">0.804808548565719</t>
   </si>
   <si>
-    <t xml:space="preserve">0.58965894142583</t>
+    <t xml:space="preserve">0.589658941425831</t>
   </si>
   <si>
     <t xml:space="preserve">0.638637352846356</t>
@@ -14843,7 +14843,7 @@
     <t xml:space="preserve">0.509098785948385</t>
   </si>
   <si>
-    <t xml:space="preserve">0.525028425491178</t>
+    <t xml:space="preserve">0.525028425491177</t>
   </si>
   <si>
     <t xml:space="preserve">0.495153221584759</t>
@@ -14861,10 +14861,10 @@
     <t xml:space="preserve">0.403202506811605</t>
   </si>
   <si>
-    <t xml:space="preserve">0.423955050615817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.570463705104398</t>
+    <t xml:space="preserve">0.423955050615816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.570463705104399</t>
   </si>
   <si>
     <t xml:space="preserve">0.443739977717926</t>
@@ -14903,7 +14903,7 @@
     <t xml:space="preserve">0.31105558644487</t>
   </si>
   <si>
-    <t xml:space="preserve">0.359733093274566</t>
+    <t xml:space="preserve">0.359733093274565</t>
   </si>
   <si>
     <t xml:space="preserve">0.397760922359631</t>
@@ -14924,7 +14924,7 @@
     <t xml:space="preserve">0.472772520345665</t>
   </si>
   <si>
-    <t xml:space="preserve">0.45776411094379</t>
+    <t xml:space="preserve">0.457764110943789</t>
   </si>
   <si>
     <t xml:space="preserve">0.402122707754052</t>
@@ -14954,7 +14954,7 @@
     <t xml:space="preserve">0.457039716374982</t>
   </si>
   <si>
-    <t xml:space="preserve">0.419720677887257</t>
+    <t xml:space="preserve">0.419720677887258</t>
   </si>
   <si>
     <t xml:space="preserve">0.451950397782761</t>
@@ -15017,7 +15017,7 @@
     <t xml:space="preserve">0.612794775711026</t>
   </si>
   <si>
-    <t xml:space="preserve">0.489164591810323</t>
+    <t xml:space="preserve">0.489164591810324</t>
   </si>
   <si>
     <t xml:space="preserve">0.468076491758083</t>
@@ -15041,10 +15041,10 @@
     <t xml:space="preserve">0.85515599226954</t>
   </si>
   <si>
-    <t xml:space="preserve">0.703564978779468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.837421173705666</t>
+    <t xml:space="preserve">0.703564978779469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.837421173705665</t>
   </si>
   <si>
     <t xml:space="preserve">0.790673403226047</t>
@@ -15053,7 +15053,7 @@
     <t xml:space="preserve">0.734419333473202</t>
   </si>
   <si>
-    <t xml:space="preserve">0.931771590934794</t>
+    <t xml:space="preserve">0.931771590934795</t>
   </si>
   <si>
     <t xml:space="preserve">0.713623664008478</t>
@@ -15062,7 +15062,7 @@
     <t xml:space="preserve">0.841500265730485</t>
   </si>
   <si>
-    <t xml:space="preserve">0.660516499087778</t>
+    <t xml:space="preserve">0.660516499087779</t>
   </si>
   <si>
     <t xml:space="preserve">0.403661873423053</t>
@@ -15074,7 +15074,7 @@
     <t xml:space="preserve">0.761519537401861</t>
   </si>
   <si>
-    <t xml:space="preserve">0.725350879622678</t>
+    <t xml:space="preserve">0.725350879622679</t>
   </si>
   <si>
     <t xml:space="preserve">0.808872522459153</t>
@@ -15083,7 +15083,7 @@
     <t xml:space="preserve">0.45795428870262</t>
   </si>
   <si>
-    <t xml:space="preserve">0.805001664436652</t>
+    <t xml:space="preserve">0.805001664436653</t>
   </si>
   <si>
     <t xml:space="preserve">0.439999050215403</t>
@@ -15098,7 +15098,7 @@
     <t xml:space="preserve">0.743701479692777</t>
   </si>
   <si>
-    <t xml:space="preserve">0.898379604538717</t>
+    <t xml:space="preserve">0.898379604538718</t>
   </si>
   <si>
     <t xml:space="preserve">0.770095571301596</t>
@@ -15110,7 +15110,7 @@
     <t xml:space="preserve">0.419290420167381</t>
   </si>
   <si>
-    <t xml:space="preserve">0.712489748265059</t>
+    <t xml:space="preserve">0.71248974826506</t>
   </si>
   <si>
     <t xml:space="preserve">0.828065421500296</t>
@@ -15143,13 +15143,13 @@
     <t xml:space="preserve">0.62468052477163</t>
   </si>
   <si>
-    <t xml:space="preserve">0.557328998080124</t>
+    <t xml:space="preserve">0.557328998080123</t>
   </si>
   <si>
     <t xml:space="preserve">0.667011332435404</t>
   </si>
   <si>
-    <t xml:space="preserve">0.647319812562335</t>
+    <t xml:space="preserve">0.647319812562334</t>
   </si>
   <si>
     <t xml:space="preserve">0.622955134267977</t>
@@ -15188,7 +15188,7 @@
     <t xml:space="preserve">0.379477171379015</t>
   </si>
   <si>
-    <t xml:space="preserve">0.579353225645732</t>
+    <t xml:space="preserve">0.579353225645733</t>
   </si>
   <si>
     <t xml:space="preserve">0.669505741228366</t>
@@ -15203,7 +15203,7 @@
     <t xml:space="preserve">0.643047608887106</t>
   </si>
   <si>
-    <t xml:space="preserve">0.68761218080924</t>
+    <t xml:space="preserve">0.687612180809241</t>
   </si>
   <si>
     <t xml:space="preserve">0.443030032129202</t>
@@ -15212,7 +15212,7 @@
     <t xml:space="preserve">0.349803388155522</t>
   </si>
   <si>
-    <t xml:space="preserve">0.724847296838526</t>
+    <t xml:space="preserve">0.724847296838527</t>
   </si>
   <si>
     <t xml:space="preserve">0.831488675755466</t>
@@ -15230,7 +15230,7 @@
     <t xml:space="preserve">0.550123281716162</t>
   </si>
   <si>
-    <t xml:space="preserve">0.814548877808026</t>
+    <t xml:space="preserve">0.814548877808025</t>
   </si>
   <si>
     <t xml:space="preserve">0.353285902835231</t>
@@ -15317,7 +15317,7 @@
     <t xml:space="preserve">0.485101040566042</t>
   </si>
   <si>
-    <t xml:space="preserve">0.698069439928361</t>
+    <t xml:space="preserve">0.69806943992836</t>
   </si>
   <si>
     <t xml:space="preserve">0.762332741948962</t>
@@ -15362,16 +15362,16 @@
     <t xml:space="preserve">0.615372190160283</t>
   </si>
   <si>
-    <t xml:space="preserve">0.699083333199541</t>
+    <t xml:space="preserve">0.699083333199542</t>
   </si>
   <si>
     <t xml:space="preserve">0.601171398928065</t>
   </si>
   <si>
-    <t xml:space="preserve">0.721493425398203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.645081886803437</t>
+    <t xml:space="preserve">0.721493425398204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.645081886803436</t>
   </si>
   <si>
     <t xml:space="preserve">0.716977096300915</t>
@@ -15419,10 +15419,10 @@
     <t xml:space="preserve">0.837892371332084</t>
   </si>
   <si>
-    <t xml:space="preserve">0.816143169360174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.730362376984046</t>
+    <t xml:space="preserve">0.816143169360175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.730362376984047</t>
   </si>
   <si>
     <t xml:space="preserve">0.685155010301853</t>
@@ -15476,10 +15476,10 @@
     <t xml:space="preserve">0.856688467741416</t>
   </si>
   <si>
-    <t xml:space="preserve">0.628087522563529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.697018646854994</t>
+    <t xml:space="preserve">0.62808752256353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.697018646854995</t>
   </si>
   <si>
     <t xml:space="preserve">0.65130971143184</t>
@@ -15512,7 +15512,7 @@
     <t xml:space="preserve">0.817939557620394</t>
   </si>
   <si>
-    <t xml:space="preserve">0.726095602100344</t>
+    <t xml:space="preserve">0.726095602100345</t>
   </si>
   <si>
     <t xml:space="preserve">0.881306593873799</t>
@@ -15527,7 +15527,7 @@
     <t xml:space="preserve">0.547125677932269</t>
   </si>
   <si>
-    <t xml:space="preserve">0.36343819376099</t>
+    <t xml:space="preserve">0.363438193760989</t>
   </si>
   <si>
     <t xml:space="preserve">0.699679805379661</t>
@@ -15560,7 +15560,7 @@
     <t xml:space="preserve">0.63719812872423</t>
   </si>
   <si>
-    <t xml:space="preserve">0.79339368071257</t>
+    <t xml:space="preserve">0.793393680712571</t>
   </si>
   <si>
     <t xml:space="preserve">0.752895822712282</t>
@@ -15575,13 +15575,13 @@
     <t xml:space="preserve">0.663484161219749</t>
   </si>
   <si>
-    <t xml:space="preserve">0.79473921040177</t>
+    <t xml:space="preserve">0.794739210401769</t>
   </si>
   <si>
     <t xml:space="preserve">0.80272912809198</t>
   </si>
   <si>
-    <t xml:space="preserve">0.749375202370386</t>
+    <t xml:space="preserve">0.749375202370385</t>
   </si>
   <si>
     <t xml:space="preserve">0.512051090862491</t>
@@ -15623,7 +15623,7 @@
     <t xml:space="preserve">0.543081780565382</t>
   </si>
   <si>
-    <t xml:space="preserve">0.565304000938687</t>
+    <t xml:space="preserve">0.565304000938686</t>
   </si>
   <si>
     <t xml:space="preserve">0.523894039472925</t>
@@ -15656,13 +15656,13 @@
     <t xml:space="preserve">0.63019489392501</t>
   </si>
   <si>
-    <t xml:space="preserve">0.675802770226993</t>
+    <t xml:space="preserve">0.675802770226994</t>
   </si>
   <si>
     <t xml:space="preserve">0.61217202007753</t>
   </si>
   <si>
-    <t xml:space="preserve">0.734568106924889</t>
+    <t xml:space="preserve">0.73456810692489</t>
   </si>
   <si>
     <t xml:space="preserve">0.628888435556892</t>
@@ -15686,7 +15686,7 @@
     <t xml:space="preserve">0.872700001012678</t>
   </si>
   <si>
-    <t xml:space="preserve">0.893935327854106</t>
+    <t xml:space="preserve">0.893935327854107</t>
   </si>
   <si>
     <t xml:space="preserve">0.840473364214944</t>
@@ -15719,7 +15719,7 @@
     <t xml:space="preserve">0.710991391959487</t>
   </si>
   <si>
-    <t xml:space="preserve">0.924631017884337</t>
+    <t xml:space="preserve">0.924631017884336</t>
   </si>
   <si>
     <t xml:space="preserve">0.356556379206256</t>
@@ -15731,13 +15731,13 @@
     <t xml:space="preserve">0.928858010615876</t>
   </si>
   <si>
-    <t xml:space="preserve">0.69818140939838</t>
+    <t xml:space="preserve">0.698181409398379</t>
   </si>
   <si>
     <t xml:space="preserve">0.801783646149945</t>
   </si>
   <si>
-    <t xml:space="preserve">0.708486888905923</t>
+    <t xml:space="preserve">0.708486888905922</t>
   </si>
   <si>
     <t xml:space="preserve">0.872464430843051</t>
@@ -15749,13 +15749,13 @@
     <t xml:space="preserve">0.664768252656593</t>
   </si>
   <si>
-    <t xml:space="preserve">0.790415296233</t>
+    <t xml:space="preserve">0.790415296233001</t>
   </si>
   <si>
     <t xml:space="preserve">0.741386497574972</t>
   </si>
   <si>
-    <t xml:space="preserve">0.727357658376873</t>
+    <t xml:space="preserve">0.727357658376872</t>
   </si>
   <si>
     <t xml:space="preserve">-0.269729589331086</t>
@@ -15773,7 +15773,7 @@
     <t xml:space="preserve">0.564172132346681</t>
   </si>
   <si>
-    <t xml:space="preserve">0.869170126244075</t>
+    <t xml:space="preserve">0.869170126244076</t>
   </si>
   <si>
     <t xml:space="preserve">0.838856526135029</t>
@@ -15815,13 +15815,13 @@
     <t xml:space="preserve">0.896736466656653</t>
   </si>
   <si>
-    <t xml:space="preserve">0.659710958092112</t>
+    <t xml:space="preserve">0.659710958092111</t>
   </si>
   <si>
     <t xml:space="preserve">0.770546312178671</t>
   </si>
   <si>
-    <t xml:space="preserve">0.725351051312303</t>
+    <t xml:space="preserve">0.725351051312304</t>
   </si>
   <si>
     <t xml:space="preserve">0.824185085708887</t>
@@ -15830,7 +15830,7 @@
     <t xml:space="preserve">0.360389742272212</t>
   </si>
   <si>
-    <t xml:space="preserve">0.594906708847097</t>
+    <t xml:space="preserve">0.594906708847098</t>
   </si>
   <si>
     <t xml:space="preserve">0.743502782160452</t>
@@ -15860,7 +15860,7 @@
     <t xml:space="preserve">0.793659666268998</t>
   </si>
   <si>
-    <t xml:space="preserve">0.657853191279968</t>
+    <t xml:space="preserve">0.657853191279969</t>
   </si>
   <si>
     <t xml:space="preserve">0.744599545786354</t>
@@ -15878,19 +15878,19 @@
     <t xml:space="preserve">0.630527578409267</t>
   </si>
   <si>
-    <t xml:space="preserve">0.684067271539421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.694749936296524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.856517513699591</t>
+    <t xml:space="preserve">0.684067271539422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.694749936296525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.856517513699592</t>
   </si>
   <si>
     <t xml:space="preserve">0.373125912290283</t>
   </si>
   <si>
-    <t xml:space="preserve">0.792154129349143</t>
+    <t xml:space="preserve">0.792154129349144</t>
   </si>
   <si>
     <t xml:space="preserve">0.892627504637774</t>
@@ -15914,7 +15914,7 @@
     <t xml:space="preserve">0.610052404130658</t>
   </si>
   <si>
-    <t xml:space="preserve">0.724495944364728</t>
+    <t xml:space="preserve">0.724495944364729</t>
   </si>
   <si>
     <t xml:space="preserve">0.729537130100794</t>
@@ -15926,7 +15926,7 @@
     <t xml:space="preserve">-0.366945717385324</t>
   </si>
   <si>
-    <t xml:space="preserve">0.771521827024673</t>
+    <t xml:space="preserve">0.771521827024674</t>
   </si>
   <si>
     <t xml:space="preserve">0.687508434574918</t>
@@ -15944,10 +15944,10 @@
     <t xml:space="preserve">0.889447720952047</t>
   </si>
   <si>
-    <t xml:space="preserve">0.710728358028312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.34738982351717</t>
+    <t xml:space="preserve">0.710728358028313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.347389823517171</t>
   </si>
   <si>
     <t xml:space="preserve">0.769554780572323</t>
@@ -15971,16 +15971,16 @@
     <t xml:space="preserve">0.479247340124133</t>
   </si>
   <si>
-    <t xml:space="preserve">0.790673174612043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.830596789301281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.746632639839007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.872196596625357</t>
+    <t xml:space="preserve">0.790673174612044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.830596789301282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.746632639839006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.872196596625358</t>
   </si>
   <si>
     <t xml:space="preserve">0.784482187539139</t>
@@ -16022,13 +16022,13 @@
     <t xml:space="preserve">0.714009738129933</t>
   </si>
   <si>
-    <t xml:space="preserve">0.571913002302732</t>
+    <t xml:space="preserve">0.571913002302733</t>
   </si>
   <si>
     <t xml:space="preserve">0.580218578847439</t>
   </si>
   <si>
-    <t xml:space="preserve">0.584545326098578</t>
+    <t xml:space="preserve">0.584545326098577</t>
   </si>
   <si>
     <t xml:space="preserve">0.571832225106114</t>
@@ -16040,7 +16040,7 @@
     <t xml:space="preserve">0.508221831612001</t>
   </si>
   <si>
-    <t xml:space="preserve">0.79662082093119</t>
+    <t xml:space="preserve">0.796620820931189</t>
   </si>
   <si>
     <t xml:space="preserve">0.399380871761531</t>
@@ -16049,10 +16049,10 @@
     <t xml:space="preserve">0.733000749341664</t>
   </si>
   <si>
-    <t xml:space="preserve">0.72821902330579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.603756669780254</t>
+    <t xml:space="preserve">0.728219023305791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.603756669780255</t>
   </si>
   <si>
     <t xml:space="preserve">0.731983366837858</t>
@@ -16085,7 +16085,7 @@
     <t xml:space="preserve">0.631922154817252</t>
   </si>
   <si>
-    <t xml:space="preserve">0.756473886744841</t>
+    <t xml:space="preserve">0.75647388674484</t>
   </si>
   <si>
     <t xml:space="preserve">0.62929587390803</t>
@@ -16127,7 +16127,7 @@
     <t xml:space="preserve">0.808058857513627</t>
   </si>
   <si>
-    <t xml:space="preserve">0.721704487546308</t>
+    <t xml:space="preserve">0.721704487546307</t>
   </si>
   <si>
     <t xml:space="preserve">0.840699098113317</t>
@@ -16142,7 +16142,7 @@
     <t xml:space="preserve">0.88710539926615</t>
   </si>
   <si>
-    <t xml:space="preserve">0.85374232584167</t>
+    <t xml:space="preserve">0.853742325841669</t>
   </si>
   <si>
     <t xml:space="preserve">0.822938919653285</t>
@@ -16253,7 +16253,7 @@
     <t xml:space="preserve">0.289640146623804</t>
   </si>
   <si>
-    <t xml:space="preserve">0.733625550030393</t>
+    <t xml:space="preserve">0.733625550030392</t>
   </si>
   <si>
     <t xml:space="preserve">0.751184073793907</t>
@@ -16265,7 +16265,7 @@
     <t xml:space="preserve">0.434362005136031</t>
   </si>
   <si>
-    <t xml:space="preserve">0.701049331557245</t>
+    <t xml:space="preserve">0.701049331557244</t>
   </si>
   <si>
     <t xml:space="preserve">0.355143871606128</t>
@@ -16277,10 +16277,10 @@
     <t xml:space="preserve">0.736241059762004</t>
   </si>
   <si>
-    <t xml:space="preserve">0.691593960439438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.760276723101366</t>
+    <t xml:space="preserve">0.691593960439437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.760276723101367</t>
   </si>
   <si>
     <t xml:space="preserve">0.665236940815691</t>
@@ -16310,7 +16310,7 @@
     <t xml:space="preserve">0.519767807260822</t>
   </si>
   <si>
-    <t xml:space="preserve">0.52912676719445</t>
+    <t xml:space="preserve">0.529126767194449</t>
   </si>
   <si>
     <t xml:space="preserve">0.797519549593667</t>
@@ -16337,7 +16337,7 @@
     <t xml:space="preserve">0.659265881980005</t>
   </si>
   <si>
-    <t xml:space="preserve">0.73251294036884</t>
+    <t xml:space="preserve">0.732512940368841</t>
   </si>
   <si>
     <t xml:space="preserve">0.702667822980654</t>
@@ -16361,7 +16361,7 @@
     <t xml:space="preserve">0.80982374263526</t>
   </si>
   <si>
-    <t xml:space="preserve">0.794660343309141</t>
+    <t xml:space="preserve">0.794660343309142</t>
   </si>
   <si>
     <t xml:space="preserve">0.705388617093811</t>
@@ -16379,7 +16379,7 @@
     <t xml:space="preserve">0.46215858063474</t>
   </si>
   <si>
-    <t xml:space="preserve">0.919616679750282</t>
+    <t xml:space="preserve">0.919616679750283</t>
   </si>
   <si>
     <t xml:space="preserve">0.453601698662855</t>
@@ -16421,7 +16421,7 @@
     <t xml:space="preserve">0.865554455283073</t>
   </si>
   <si>
-    <t xml:space="preserve">0.727657756582488</t>
+    <t xml:space="preserve">0.727657756582489</t>
   </si>
   <si>
     <t xml:space="preserve">0.399758177691766</t>
@@ -16430,7 +16430,7 @@
     <t xml:space="preserve">0.509024422219095</t>
   </si>
   <si>
-    <t xml:space="preserve">0.829915706800275</t>
+    <t xml:space="preserve">0.829915706800274</t>
   </si>
   <si>
     <t xml:space="preserve">0.378630208245056</t>
@@ -16439,7 +16439,7 @@
     <t xml:space="preserve">0.482705034781218</t>
   </si>
   <si>
-    <t xml:space="preserve">0.71399984009499</t>
+    <t xml:space="preserve">0.713999840094989</t>
   </si>
   <si>
     <t xml:space="preserve">0.432975618060809</t>
@@ -16460,7 +16460,7 @@
     <t xml:space="preserve">0.692240418570266</t>
   </si>
   <si>
-    <t xml:space="preserve">0.788265359751525</t>
+    <t xml:space="preserve">0.788265359751526</t>
   </si>
   <si>
     <t xml:space="preserve">0.474827253812359</t>
@@ -16481,7 +16481,7 @@
     <t xml:space="preserve">-0.30901245853399</t>
   </si>
   <si>
-    <t xml:space="preserve">0.488857060261988</t>
+    <t xml:space="preserve">0.488857060261989</t>
   </si>
   <si>
     <t xml:space="preserve">0.602256531595788</t>
@@ -16520,7 +16520,7 @@
     <t xml:space="preserve">0.462868451407288</t>
   </si>
   <si>
-    <t xml:space="preserve">0.479924064549822</t>
+    <t xml:space="preserve">0.479924064549823</t>
   </si>
   <si>
     <t xml:space="preserve">0.412845661490991</t>
@@ -16541,10 +16541,10 @@
     <t xml:space="preserve">0.442437929502099</t>
   </si>
   <si>
-    <t xml:space="preserve">0.80991413992214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.839938998649195</t>
+    <t xml:space="preserve">0.809914139922139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.839938998649194</t>
   </si>
   <si>
     <t xml:space="preserve">0.666564199000217</t>
@@ -16562,7 +16562,7 @@
     <t xml:space="preserve">0.380595707832563</t>
   </si>
   <si>
-    <t xml:space="preserve">0.675873587662537</t>
+    <t xml:space="preserve">0.675873587662538</t>
   </si>
   <si>
     <t xml:space="preserve">0.792692779019113</t>
@@ -16598,7 +16598,7 @@
     <t xml:space="preserve">0.450596720691995</t>
   </si>
   <si>
-    <t xml:space="preserve">0.378435587479422</t>
+    <t xml:space="preserve">0.378435587479421</t>
   </si>
   <si>
     <t xml:space="preserve">0.335229818727759</t>
@@ -16628,7 +16628,7 @@
     <t xml:space="preserve">0.923787077956131</t>
   </si>
   <si>
-    <t xml:space="preserve">0.732375570453693</t>
+    <t xml:space="preserve">0.732375570453694</t>
   </si>
   <si>
     <t xml:space="preserve">0.80918093053488</t>
@@ -16637,7 +16637,7 @@
     <t xml:space="preserve">0.689221934606768</t>
   </si>
   <si>
-    <t xml:space="preserve">0.87586616028137</t>
+    <t xml:space="preserve">0.875866160281371</t>
   </si>
   <si>
     <t xml:space="preserve">0.300350317387264</t>
@@ -16646,13 +16646,13 @@
     <t xml:space="preserve">0.650442962522536</t>
   </si>
   <si>
-    <t xml:space="preserve">0.707233691489977</t>
+    <t xml:space="preserve">0.707233691489978</t>
   </si>
   <si>
     <t xml:space="preserve">0.719040621916562</t>
   </si>
   <si>
-    <t xml:space="preserve">0.733145631136922</t>
+    <t xml:space="preserve">0.733145631136923</t>
   </si>
   <si>
     <t xml:space="preserve">0.74020780541255</t>
@@ -16697,7 +16697,7 @@
     <t xml:space="preserve">-0.295511924801309</t>
   </si>
   <si>
-    <t xml:space="preserve">0.805719710131803</t>
+    <t xml:space="preserve">0.805719710131804</t>
   </si>
   <si>
     <t xml:space="preserve">0.711647994718033</t>
@@ -16748,7 +16748,7 @@
     <t xml:space="preserve">0.57139298198194</t>
   </si>
   <si>
-    <t xml:space="preserve">0.754919653244552</t>
+    <t xml:space="preserve">0.754919653244551</t>
   </si>
   <si>
     <t xml:space="preserve">0.873192138658213</t>
@@ -16766,13 +16766,13 @@
     <t xml:space="preserve">0.840103231811946</t>
   </si>
   <si>
-    <t xml:space="preserve">0.818027079940638</t>
+    <t xml:space="preserve">0.818027079940639</t>
   </si>
   <si>
     <t xml:space="preserve">-0.294545741563747</t>
   </si>
   <si>
-    <t xml:space="preserve">0.52736271485472</t>
+    <t xml:space="preserve">0.527362714854721</t>
   </si>
   <si>
     <t xml:space="preserve">0.685063569248487</t>
@@ -16787,7 +16787,7 @@
     <t xml:space="preserve">0.756824049529207</t>
   </si>
   <si>
-    <t xml:space="preserve">0.458795050279565</t>
+    <t xml:space="preserve">0.458795050279564</t>
   </si>
   <si>
     <t xml:space="preserve">0.597296436430153</t>
@@ -16844,7 +16844,7 @@
     <t xml:space="preserve">0.864209845293617</t>
   </si>
   <si>
-    <t xml:space="preserve">0.566724892887563</t>
+    <t xml:space="preserve">0.566724892887564</t>
   </si>
   <si>
     <t xml:space="preserve">0.342484151828442</t>
@@ -16877,7 +16877,7 @@
     <t xml:space="preserve">0.412892501436691</t>
   </si>
   <si>
-    <t xml:space="preserve">0.655254483280286</t>
+    <t xml:space="preserve">0.655254483280287</t>
   </si>
   <si>
     <t xml:space="preserve">0.671722685528464</t>
@@ -16889,13 +16889,13 @@
     <t xml:space="preserve">0.791890602903755</t>
   </si>
   <si>
-    <t xml:space="preserve">0.815792834325548</t>
+    <t xml:space="preserve">0.815792834325549</t>
   </si>
   <si>
     <t xml:space="preserve">0.512234932346839</t>
   </si>
   <si>
-    <t xml:space="preserve">0.713254902944224</t>
+    <t xml:space="preserve">0.713254902944225</t>
   </si>
   <si>
     <t xml:space="preserve">0.926994511118139</t>
@@ -16931,7 +16931,7 @@
     <t xml:space="preserve">0.528195275187858</t>
   </si>
   <si>
-    <t xml:space="preserve">0.837666976565325</t>
+    <t xml:space="preserve">0.837666976565326</t>
   </si>
   <si>
     <t xml:space="preserve">0.424890247073423</t>

--- a/Outputs/Correlation/corr_matrix_full.xlsx
+++ b/Outputs/Correlation/corr_matrix_full.xlsx
@@ -110,13 +110,13 @@
     <t xml:space="preserve">8-Amino-7-oxononanoate</t>
   </si>
   <si>
-    <t xml:space="preserve">9,10-Epoxystearate</t>
+    <t xml:space="preserve">9,10-Epoxystearate*</t>
   </si>
   <si>
     <t xml:space="preserve">9-Hydroxy-12-oxo-octadecadienoate</t>
   </si>
   <si>
-    <t xml:space="preserve">9-O-Acetyl-Neu5Ac</t>
+    <t xml:space="preserve">9-O-Acetyl-Neu5Ac†</t>
   </si>
   <si>
     <t xml:space="preserve">AMP</t>
@@ -161,7 +161,7 @@
     <t xml:space="preserve">Chitobiose</t>
   </si>
   <si>
-    <t xml:space="preserve">Choline</t>
+    <t xml:space="preserve">Choline*</t>
   </si>
   <si>
     <t xml:space="preserve">Citrulline</t>
@@ -227,7 +227,7 @@
     <t xml:space="preserve">IGP</t>
   </si>
   <si>
-    <t xml:space="preserve">Imidazole acetaldehyde</t>
+    <t xml:space="preserve">Imidazole acetaldehyde*</t>
   </si>
   <si>
     <t xml:space="preserve">Iminoaspartate</t>
@@ -236,7 +236,7 @@
     <t xml:space="preserve">Isovalerylcarnitine</t>
   </si>
   <si>
-    <t xml:space="preserve">Kynurenine</t>
+    <t xml:space="preserve">Kynurenine*</t>
   </si>
   <si>
     <t xml:space="preserve">LTB4</t>
@@ -302,7 +302,7 @@
     <t xml:space="preserve">O-Succinyl-homoserine</t>
   </si>
   <si>
-    <t xml:space="preserve">Oleate</t>
+    <t xml:space="preserve">Oleate*</t>
   </si>
   <si>
     <t xml:space="preserve">Oleoyl-DHAP</t>
@@ -335,7 +335,7 @@
     <t xml:space="preserve">Phosphodimethylethanolamine</t>
   </si>
   <si>
-    <t xml:space="preserve">Pipecolate</t>
+    <t xml:space="preserve">Pipecolate*</t>
   </si>
   <si>
     <t xml:space="preserve">Pregnan-21-al</t>
@@ -365,7 +365,7 @@
     <t xml:space="preserve">Tetrahydropteridine</t>
   </si>
   <si>
-    <t xml:space="preserve">Uracil</t>
+    <t xml:space="preserve">Uracil*</t>
   </si>
   <si>
     <t xml:space="preserve">dATP</t>
@@ -383,7 +383,7 @@
     <t xml:space="preserve">γ-Glutamyltyramine</t>
   </si>
   <si>
-    <t xml:space="preserve">γ-Linolenate</t>
+    <t xml:space="preserve">γ-Linolenate*</t>
   </si>
   <si>
     <t xml:space="preserve">δ-GVA</t>

--- a/Outputs/Correlation/corr_matrix_full.xlsx
+++ b/Outputs/Correlation/corr_matrix_full.xlsx
@@ -116,7 +116,7 @@
     <t xml:space="preserve">9-Hydroxy-12-oxo-octadecadienoate</t>
   </si>
   <si>
-    <t xml:space="preserve">9-O-Acetyl-Neu5Ac†</t>
+    <t xml:space="preserve">9-O-Acetyl-Neu5Ac</t>
   </si>
   <si>
     <t xml:space="preserve">AMP</t>
